--- a/Node_Information_TU.xlsx
+++ b/Node_Information_TU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TU DELFT - Master Thesis\Foodcycle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58ABCCAB-C58C-490A-87B3-75AB9A576D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8007EA9-7AE0-4970-9572-5DDFB25C7862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{FB76EC11-D391-4904-8734-C0040D3EB498}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FB76EC11-D391-4904-8734-C0040D3EB498}"/>
   </bookViews>
   <sheets>
     <sheet name="vacant spaces" sheetId="1" r:id="rId1"/>
@@ -2052,7 +2052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A4F829-DF03-4EA3-9CBB-0BCF842C769E}">
   <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:G1048576"/>
     </sheetView>
   </sheetViews>
@@ -5450,2303 +5450,2304 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBAE289B-BF99-4F3A-8A11-675EC99B9846}">
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:I1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="2" max="2" width="67.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>508</v>
+      </c>
       <c r="D1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F1" t="s">
-        <v>510</v>
+        <v>472</v>
       </c>
       <c r="G1" t="s">
-        <v>472</v>
+        <v>511</v>
       </c>
       <c r="H1" t="s">
-        <v>511</v>
-      </c>
-      <c r="I1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>295</v>
       </c>
       <c r="B2" t="s">
         <v>296</v>
       </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
       <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
         <v>513</v>
       </c>
-      <c r="F2" s="3">
+      <c r="E2" s="3">
         <v>1732320</v>
       </c>
+      <c r="F2" t="s">
+        <v>295</v>
+      </c>
       <c r="G2" t="s">
-        <v>295</v>
+        <v>512</v>
       </c>
       <c r="H2" t="s">
-        <v>512</v>
-      </c>
-      <c r="I2" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>297</v>
       </c>
       <c r="B3" t="s">
         <v>298</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s">
         <v>477</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="F3" s="4">
+      <c r="E3" s="4">
         <v>592000</v>
       </c>
+      <c r="F3" t="s">
+        <v>297</v>
+      </c>
       <c r="G3" t="s">
-        <v>297</v>
+        <v>512</v>
       </c>
       <c r="H3" t="s">
-        <v>512</v>
-      </c>
-      <c r="I3" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>299</v>
       </c>
       <c r="B4" t="s">
         <v>300</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" t="s">
         <v>477</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="F4" s="5">
+      <c r="E4" s="5">
         <v>938</v>
       </c>
+      <c r="F4" t="s">
+        <v>299</v>
+      </c>
       <c r="G4" t="s">
-        <v>299</v>
+        <v>512</v>
       </c>
       <c r="H4" t="s">
-        <v>512</v>
-      </c>
-      <c r="I4" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>301</v>
       </c>
       <c r="B5" t="s">
         <v>302</v>
       </c>
+      <c r="C5" t="s">
+        <v>477</v>
+      </c>
       <c r="D5" t="s">
-        <v>477</v>
-      </c>
-      <c r="E5" t="s">
         <v>519</v>
       </c>
-      <c r="F5" s="4">
+      <c r="E5" s="4">
         <v>50412.010999999999</v>
       </c>
+      <c r="F5" t="s">
+        <v>301</v>
+      </c>
       <c r="G5" t="s">
-        <v>301</v>
+        <v>512</v>
       </c>
       <c r="H5" t="s">
-        <v>512</v>
-      </c>
-      <c r="I5" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>303</v>
       </c>
       <c r="B6" t="s">
         <v>304</v>
       </c>
+      <c r="C6" t="s">
+        <v>477</v>
+      </c>
       <c r="D6" t="s">
-        <v>477</v>
-      </c>
-      <c r="E6" t="s">
         <v>521</v>
       </c>
-      <c r="F6" s="4">
+      <c r="E6" s="4">
         <v>40142.316980000003</v>
       </c>
+      <c r="F6" t="s">
+        <v>303</v>
+      </c>
       <c r="G6" t="s">
-        <v>303</v>
+        <v>512</v>
       </c>
       <c r="H6" t="s">
-        <v>512</v>
-      </c>
-      <c r="I6" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>305</v>
       </c>
       <c r="B7" t="s">
         <v>306</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" t="s">
         <v>477</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F7">
+      <c r="E7">
         <v>170.20000000000002</v>
       </c>
+      <c r="F7" t="s">
+        <v>305</v>
+      </c>
       <c r="G7" t="s">
-        <v>305</v>
+        <v>512</v>
       </c>
       <c r="H7" t="s">
-        <v>512</v>
-      </c>
-      <c r="I7" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>307</v>
       </c>
       <c r="B8" t="s">
         <v>308</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8" t="s">
         <v>477</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F8">
+      <c r="E8">
         <v>92</v>
       </c>
+      <c r="F8" t="s">
+        <v>307</v>
+      </c>
       <c r="G8" t="s">
-        <v>307</v>
+        <v>512</v>
       </c>
       <c r="H8" t="s">
-        <v>512</v>
-      </c>
-      <c r="I8" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>309</v>
       </c>
       <c r="B9" t="s">
         <v>310</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C9" t="s">
         <v>477</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F9">
+      <c r="E9">
         <v>72.680000000000007</v>
       </c>
+      <c r="F9" t="s">
+        <v>309</v>
+      </c>
       <c r="G9" t="s">
-        <v>309</v>
+        <v>512</v>
       </c>
       <c r="H9" t="s">
-        <v>512</v>
-      </c>
-      <c r="I9" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>311</v>
       </c>
       <c r="B10" t="s">
         <v>312</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C10" t="s">
         <v>477</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F10">
+      <c r="E10">
         <v>55.2</v>
       </c>
+      <c r="F10" t="s">
+        <v>311</v>
+      </c>
       <c r="G10" t="s">
-        <v>311</v>
+        <v>512</v>
       </c>
       <c r="H10" t="s">
-        <v>512</v>
-      </c>
-      <c r="I10" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>313</v>
       </c>
       <c r="B11" t="s">
         <v>314</v>
       </c>
+      <c r="C11" t="s">
+        <v>525</v>
+      </c>
       <c r="D11" t="s">
-        <v>525</v>
-      </c>
-      <c r="E11" t="s">
         <v>519</v>
       </c>
-      <c r="F11" s="4">
+      <c r="E11" s="4">
         <v>477438.75</v>
       </c>
+      <c r="F11" t="s">
+        <v>313</v>
+      </c>
       <c r="G11" t="s">
-        <v>313</v>
+        <v>512</v>
       </c>
       <c r="H11" t="s">
-        <v>512</v>
-      </c>
-      <c r="I11" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>315</v>
       </c>
       <c r="B12" t="s">
         <v>316</v>
       </c>
+      <c r="C12" t="s">
+        <v>525</v>
+      </c>
       <c r="D12" t="s">
-        <v>525</v>
-      </c>
-      <c r="E12" t="s">
         <v>521</v>
       </c>
-      <c r="F12" s="4">
+      <c r="E12" s="4">
         <v>2864.4</v>
       </c>
+      <c r="F12" t="s">
+        <v>315</v>
+      </c>
       <c r="G12" t="s">
-        <v>315</v>
+        <v>512</v>
       </c>
       <c r="H12" t="s">
-        <v>512</v>
-      </c>
-      <c r="I12" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>317</v>
       </c>
       <c r="B13" t="s">
         <v>318</v>
       </c>
+      <c r="C13" t="s">
+        <v>526</v>
+      </c>
       <c r="D13" t="s">
-        <v>526</v>
-      </c>
-      <c r="E13" t="s">
         <v>521</v>
       </c>
-      <c r="F13" s="4">
+      <c r="E13" s="4">
         <v>14857.68302</v>
       </c>
+      <c r="F13" t="s">
+        <v>317</v>
+      </c>
       <c r="G13" t="s">
-        <v>317</v>
+        <v>512</v>
       </c>
       <c r="H13" t="s">
-        <v>512</v>
-      </c>
-      <c r="I13" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>319</v>
       </c>
       <c r="B14" t="s">
         <v>320</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C14" t="s">
         <v>526</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="F14" s="5">
+      <c r="E14" s="5">
         <v>11474</v>
       </c>
+      <c r="F14" t="s">
+        <v>319</v>
+      </c>
       <c r="G14" t="s">
-        <v>319</v>
+        <v>512</v>
       </c>
       <c r="H14" t="s">
-        <v>512</v>
-      </c>
-      <c r="I14" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>321</v>
       </c>
       <c r="B15" t="s">
         <v>322</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C15" t="s">
         <v>526</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="F15" s="6">
+      <c r="E15" s="6">
         <v>5258100</v>
       </c>
+      <c r="F15" t="s">
+        <v>321</v>
+      </c>
       <c r="G15" t="s">
-        <v>321</v>
+        <v>512</v>
       </c>
       <c r="H15" t="s">
-        <v>512</v>
-      </c>
-      <c r="I15" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>323</v>
       </c>
       <c r="B16" t="s">
         <v>324</v>
       </c>
+      <c r="C16" t="s">
+        <v>475</v>
+      </c>
       <c r="D16" t="s">
-        <v>475</v>
-      </c>
-      <c r="E16" t="s">
         <v>519</v>
       </c>
-      <c r="F16" s="4">
+      <c r="E16" s="4">
         <v>84960.372700000007</v>
       </c>
+      <c r="F16" t="s">
+        <v>323</v>
+      </c>
       <c r="G16" t="s">
-        <v>323</v>
+        <v>512</v>
       </c>
       <c r="H16" t="s">
-        <v>512</v>
-      </c>
-      <c r="I16" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>325</v>
       </c>
       <c r="B17" t="s">
         <v>326</v>
       </c>
+      <c r="C17" s="7" t="s">
+        <v>475</v>
+      </c>
       <c r="D17" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="E17" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="F17" s="8">
+      <c r="E17" s="8">
         <v>0</v>
       </c>
+      <c r="F17" s="7" t="s">
+        <v>325</v>
+      </c>
       <c r="G17" s="7" t="s">
-        <v>325</v>
+        <v>512</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="I17" s="7" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>327</v>
       </c>
       <c r="B18" t="s">
         <v>328</v>
       </c>
-      <c r="D18" t="s">
+      <c r="C18" t="s">
         <v>504</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="F18" s="8">
+      <c r="E18" s="8">
         <v>0</v>
       </c>
+      <c r="F18" t="s">
+        <v>327</v>
+      </c>
       <c r="G18" t="s">
-        <v>327</v>
-      </c>
-      <c r="H18" t="s">
-        <v>512</v>
-      </c>
-      <c r="I18" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>329</v>
       </c>
       <c r="B19" t="s">
         <v>330</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C19" t="s">
         <v>530</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="F19" s="8">
+      <c r="E19" s="8">
         <v>0</v>
       </c>
+      <c r="F19" t="s">
+        <v>329</v>
+      </c>
       <c r="G19" t="s">
-        <v>329</v>
-      </c>
-      <c r="H19" t="s">
-        <v>512</v>
-      </c>
-      <c r="I19" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>331</v>
       </c>
       <c r="B20" t="s">
         <v>332</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C20" t="s">
         <v>480</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F20" s="4">
+      <c r="E20" s="4">
         <v>48.300000000000004</v>
       </c>
+      <c r="F20" t="s">
+        <v>331</v>
+      </c>
       <c r="G20" t="s">
-        <v>331</v>
+        <v>512</v>
       </c>
       <c r="H20" t="s">
-        <v>512</v>
-      </c>
-      <c r="I20" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>333</v>
       </c>
       <c r="B21" t="s">
         <v>334</v>
       </c>
-      <c r="D21" t="s">
+      <c r="C21" t="s">
         <v>526</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F21">
+      <c r="E21">
         <v>151.80000000000001</v>
       </c>
+      <c r="F21" t="s">
+        <v>333</v>
+      </c>
       <c r="G21" t="s">
-        <v>333</v>
+        <v>512</v>
       </c>
       <c r="H21" t="s">
-        <v>512</v>
-      </c>
-      <c r="I21" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>335</v>
       </c>
       <c r="B22" t="s">
         <v>336</v>
       </c>
-      <c r="D22" t="s">
+      <c r="C22" t="s">
         <v>526</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F22">
+      <c r="E22">
         <v>151.80000000000001</v>
       </c>
+      <c r="F22" t="s">
+        <v>335</v>
+      </c>
       <c r="G22" t="s">
-        <v>335</v>
+        <v>512</v>
       </c>
       <c r="H22" t="s">
-        <v>512</v>
-      </c>
-      <c r="I22" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>337</v>
       </c>
       <c r="B23" t="s">
         <v>338</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C23" t="s">
         <v>526</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F23">
+      <c r="E23">
         <v>107.64000000000001</v>
       </c>
+      <c r="F23" t="s">
+        <v>337</v>
+      </c>
       <c r="G23" t="s">
-        <v>337</v>
+        <v>512</v>
       </c>
       <c r="H23" t="s">
-        <v>512</v>
-      </c>
-      <c r="I23" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>339</v>
       </c>
       <c r="B24" t="s">
         <v>340</v>
       </c>
-      <c r="D24" t="s">
+      <c r="C24" t="s">
         <v>526</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F24">
+      <c r="E24">
         <v>107.64000000000001</v>
       </c>
+      <c r="F24" t="s">
+        <v>339</v>
+      </c>
       <c r="G24" t="s">
-        <v>339</v>
+        <v>512</v>
       </c>
       <c r="H24" t="s">
-        <v>512</v>
-      </c>
-      <c r="I24" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>341</v>
       </c>
       <c r="B25" t="s">
         <v>342</v>
       </c>
-      <c r="D25" t="s">
+      <c r="C25" t="s">
         <v>526</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F25">
+      <c r="E25">
         <v>460</v>
       </c>
+      <c r="F25" t="s">
+        <v>341</v>
+      </c>
       <c r="G25" t="s">
-        <v>341</v>
+        <v>512</v>
       </c>
       <c r="H25" t="s">
-        <v>512</v>
-      </c>
-      <c r="I25" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>343</v>
       </c>
       <c r="B26" t="s">
         <v>344</v>
       </c>
-      <c r="D26" t="s">
+      <c r="C26" t="s">
         <v>480</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F26">
+      <c r="E26">
         <v>60.720000000000006</v>
       </c>
+      <c r="F26" t="s">
+        <v>343</v>
+      </c>
       <c r="G26" t="s">
-        <v>343</v>
+        <v>512</v>
       </c>
       <c r="H26" t="s">
-        <v>512</v>
-      </c>
-      <c r="I26" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>345</v>
       </c>
       <c r="B27" t="s">
         <v>346</v>
       </c>
+      <c r="C27" s="7" t="s">
+        <v>480</v>
+      </c>
       <c r="D27" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="E27" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="F27" s="7">
+      <c r="E27" s="7">
         <v>0</v>
       </c>
+      <c r="F27" s="7" t="s">
+        <v>345</v>
+      </c>
       <c r="G27" s="7" t="s">
-        <v>345</v>
+        <v>512</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="I27" s="7" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>347</v>
       </c>
       <c r="B28" t="s">
         <v>348</v>
       </c>
-      <c r="D28" t="s">
+      <c r="C28" t="s">
         <v>480</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F28">
+      <c r="E28">
         <v>69.92</v>
       </c>
+      <c r="F28" t="s">
+        <v>347</v>
+      </c>
       <c r="G28" t="s">
-        <v>347</v>
+        <v>512</v>
       </c>
       <c r="H28" t="s">
-        <v>512</v>
-      </c>
-      <c r="I28" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>349</v>
       </c>
       <c r="B29" t="s">
         <v>350</v>
       </c>
-      <c r="D29" t="s">
+      <c r="C29" t="s">
         <v>480</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F29">
+      <c r="E29">
         <v>92</v>
       </c>
+      <c r="F29" t="s">
+        <v>349</v>
+      </c>
       <c r="G29" t="s">
-        <v>349</v>
+        <v>512</v>
       </c>
       <c r="H29" t="s">
-        <v>512</v>
-      </c>
-      <c r="I29" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>351</v>
       </c>
       <c r="B30" t="s">
         <v>352</v>
       </c>
+      <c r="C30" t="s">
+        <v>531</v>
+      </c>
       <c r="D30" t="s">
-        <v>531</v>
-      </c>
-      <c r="E30" t="s">
         <v>521</v>
       </c>
-      <c r="F30" s="4">
+      <c r="E30" s="4">
         <v>5558.8207439999996</v>
       </c>
+      <c r="F30" t="s">
+        <v>351</v>
+      </c>
       <c r="G30" t="s">
-        <v>351</v>
+        <v>512</v>
       </c>
       <c r="H30" t="s">
-        <v>512</v>
-      </c>
-      <c r="I30" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>353</v>
       </c>
       <c r="B31" t="s">
         <v>354</v>
       </c>
-      <c r="D31" t="s">
+      <c r="C31" t="s">
         <v>531</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="F31" s="6">
+      <c r="E31" s="6">
         <v>2808400</v>
       </c>
+      <c r="F31" t="s">
+        <v>353</v>
+      </c>
       <c r="G31" t="s">
-        <v>353</v>
+        <v>512</v>
       </c>
       <c r="H31" t="s">
-        <v>512</v>
-      </c>
-      <c r="I31" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>355</v>
       </c>
       <c r="B32" t="s">
         <v>356</v>
       </c>
+      <c r="C32" t="s">
+        <v>531</v>
+      </c>
       <c r="D32" t="s">
-        <v>531</v>
-      </c>
-      <c r="E32" t="s">
         <v>521</v>
       </c>
-      <c r="F32" s="4">
+      <c r="E32" s="4">
         <v>5558.8207439999996</v>
       </c>
+      <c r="F32" t="s">
+        <v>355</v>
+      </c>
       <c r="G32" t="s">
-        <v>355</v>
+        <v>512</v>
       </c>
       <c r="H32" t="s">
-        <v>512</v>
-      </c>
-      <c r="I32" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>357</v>
       </c>
       <c r="B33" t="s">
         <v>358</v>
       </c>
+      <c r="C33" t="s">
+        <v>532</v>
+      </c>
       <c r="D33" t="s">
-        <v>532</v>
-      </c>
-      <c r="E33" t="s">
         <v>521</v>
       </c>
-      <c r="F33" s="4">
+      <c r="E33" s="4">
         <v>8359.6771829999998</v>
       </c>
+      <c r="F33" t="s">
+        <v>357</v>
+      </c>
       <c r="G33" t="s">
-        <v>357</v>
+        <v>512</v>
       </c>
       <c r="H33" t="s">
-        <v>512</v>
-      </c>
-      <c r="I33" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>359</v>
       </c>
       <c r="B34" t="s">
         <v>360</v>
       </c>
+      <c r="C34" s="7" t="s">
+        <v>532</v>
+      </c>
       <c r="D34" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="E34" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="F34" s="7">
+      <c r="E34" s="7">
         <v>0</v>
       </c>
+      <c r="F34" s="7" t="s">
+        <v>359</v>
+      </c>
       <c r="G34" s="7" t="s">
-        <v>359</v>
+        <v>512</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="I34" s="7" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>361</v>
       </c>
       <c r="B35" t="s">
         <v>362</v>
       </c>
+      <c r="C35" t="s">
+        <v>532</v>
+      </c>
       <c r="D35" t="s">
-        <v>532</v>
-      </c>
-      <c r="E35" t="s">
         <v>521</v>
       </c>
-      <c r="F35" s="4">
+      <c r="E35" s="4">
         <v>8359.6771829999998</v>
       </c>
+      <c r="F35" t="s">
+        <v>361</v>
+      </c>
       <c r="G35" t="s">
-        <v>361</v>
+        <v>512</v>
       </c>
       <c r="H35" t="s">
-        <v>512</v>
-      </c>
-      <c r="I35" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>363</v>
       </c>
       <c r="B36" t="s">
         <v>364</v>
       </c>
+      <c r="C36" t="s">
+        <v>532</v>
+      </c>
       <c r="D36" t="s">
-        <v>532</v>
-      </c>
-      <c r="E36" t="s">
         <v>519</v>
       </c>
-      <c r="F36" s="4">
+      <c r="E36" s="4">
         <v>37659.260040000001</v>
       </c>
+      <c r="F36" t="s">
+        <v>363</v>
+      </c>
       <c r="G36" t="s">
-        <v>363</v>
+        <v>512</v>
       </c>
       <c r="H36" t="s">
-        <v>512</v>
-      </c>
-      <c r="I36" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>365</v>
       </c>
       <c r="B37" t="s">
         <v>366</v>
       </c>
-      <c r="D37" t="s">
+      <c r="C37" t="s">
         <v>532</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F37">
+      <c r="E37">
         <v>57.960000000000008</v>
       </c>
+      <c r="F37" t="s">
+        <v>365</v>
+      </c>
       <c r="G37" t="s">
-        <v>365</v>
+        <v>512</v>
       </c>
       <c r="H37" t="s">
-        <v>512</v>
-      </c>
-      <c r="I37" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>367</v>
       </c>
       <c r="B38" t="s">
         <v>368</v>
       </c>
-      <c r="D38" t="s">
+      <c r="C38" t="s">
         <v>532</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="F38" s="9">
+      <c r="E38" s="9">
         <v>1017.817839</v>
       </c>
+      <c r="F38" t="s">
+        <v>367</v>
+      </c>
       <c r="G38" t="s">
-        <v>367</v>
+        <v>512</v>
       </c>
       <c r="H38" t="s">
-        <v>512</v>
-      </c>
-      <c r="I38" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>369</v>
       </c>
       <c r="B39" t="s">
         <v>370</v>
       </c>
-      <c r="D39" t="s">
+      <c r="C39" t="s">
         <v>475</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="F39" s="6">
+      <c r="E39" s="6">
         <v>8698800</v>
       </c>
+      <c r="F39" t="s">
+        <v>369</v>
+      </c>
       <c r="G39" t="s">
-        <v>369</v>
+        <v>512</v>
       </c>
       <c r="H39" t="s">
-        <v>512</v>
-      </c>
-      <c r="I39" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>371</v>
       </c>
       <c r="B40" t="s">
         <v>372</v>
       </c>
-      <c r="D40" t="s">
+      <c r="C40" t="s">
         <v>532</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F40">
+      <c r="E40">
         <v>47.84</v>
       </c>
+      <c r="F40" t="s">
+        <v>371</v>
+      </c>
       <c r="G40" t="s">
-        <v>371</v>
+        <v>512</v>
       </c>
       <c r="H40" t="s">
-        <v>512</v>
-      </c>
-      <c r="I40" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>373</v>
       </c>
       <c r="B41" t="s">
         <v>374</v>
       </c>
-      <c r="D41" t="s">
+      <c r="C41" t="s">
         <v>532</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F41">
+      <c r="E41">
         <v>58.88</v>
       </c>
+      <c r="F41" t="s">
+        <v>373</v>
+      </c>
       <c r="G41" t="s">
-        <v>373</v>
+        <v>512</v>
       </c>
       <c r="H41" t="s">
-        <v>512</v>
-      </c>
-      <c r="I41" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>375</v>
       </c>
       <c r="B42" t="s">
         <v>376</v>
       </c>
+      <c r="C42" t="s">
+        <v>475</v>
+      </c>
       <c r="D42" t="s">
-        <v>475</v>
-      </c>
-      <c r="E42" t="s">
         <v>521</v>
       </c>
-      <c r="F42" s="4">
+      <c r="E42" s="4">
         <v>18859.671920000001</v>
       </c>
+      <c r="F42" t="s">
+        <v>375</v>
+      </c>
       <c r="G42" t="s">
-        <v>375</v>
+        <v>512</v>
       </c>
       <c r="H42" t="s">
-        <v>512</v>
-      </c>
-      <c r="I42" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>377</v>
       </c>
       <c r="B43" t="s">
         <v>378</v>
       </c>
-      <c r="D43" t="s">
+      <c r="C43" t="s">
         <v>475</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F43">
+      <c r="E43">
         <v>115.46</v>
       </c>
+      <c r="F43" t="s">
+        <v>377</v>
+      </c>
       <c r="G43" t="s">
-        <v>377</v>
+        <v>512</v>
       </c>
       <c r="H43" t="s">
-        <v>512</v>
-      </c>
-      <c r="I43" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>379</v>
       </c>
       <c r="B44" t="s">
         <v>380</v>
       </c>
-      <c r="D44" t="s">
+      <c r="C44" t="s">
         <v>477</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="F44" s="6">
+      <c r="E44" s="6">
         <v>9767500</v>
       </c>
+      <c r="F44" t="s">
+        <v>379</v>
+      </c>
       <c r="G44" t="s">
-        <v>379</v>
+        <v>512</v>
       </c>
       <c r="H44" t="s">
-        <v>512</v>
-      </c>
-      <c r="I44" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>381</v>
       </c>
       <c r="B45" t="s">
         <v>382</v>
       </c>
-      <c r="D45" t="s">
+      <c r="C45" t="s">
         <v>475</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="D45" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F45">
+      <c r="E45">
         <v>77.28</v>
       </c>
+      <c r="F45" t="s">
+        <v>381</v>
+      </c>
       <c r="G45" t="s">
-        <v>381</v>
+        <v>512</v>
       </c>
       <c r="H45" t="s">
-        <v>512</v>
-      </c>
-      <c r="I45" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>383</v>
       </c>
       <c r="B46" t="s">
         <v>384</v>
       </c>
-      <c r="D46" t="s">
+      <c r="C46" t="s">
         <v>475</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="D46" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F46">
+      <c r="E46">
         <v>62.1</v>
       </c>
+      <c r="F46" t="s">
+        <v>383</v>
+      </c>
       <c r="G46" t="s">
-        <v>383</v>
+        <v>512</v>
       </c>
       <c r="H46" t="s">
-        <v>512</v>
-      </c>
-      <c r="I46" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>385</v>
       </c>
       <c r="B47" t="s">
         <v>386</v>
       </c>
-      <c r="D47" t="s">
+      <c r="C47" t="s">
         <v>475</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="D47" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F47">
+      <c r="E47">
         <v>62.1</v>
       </c>
+      <c r="F47" t="s">
+        <v>385</v>
+      </c>
       <c r="G47" t="s">
-        <v>385</v>
+        <v>512</v>
       </c>
       <c r="H47" t="s">
-        <v>512</v>
-      </c>
-      <c r="I47" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>387</v>
       </c>
       <c r="B48" t="s">
         <v>388</v>
       </c>
+      <c r="C48" s="7" t="s">
+        <v>532</v>
+      </c>
       <c r="D48" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="E48" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="F48" s="7">
+      <c r="E48" s="7">
         <v>0</v>
       </c>
+      <c r="F48" s="7" t="s">
+        <v>387</v>
+      </c>
       <c r="G48" s="7" t="s">
-        <v>387</v>
+        <v>512</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="I48" s="7" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>389</v>
       </c>
       <c r="B49" t="s">
         <v>390</v>
       </c>
+      <c r="C49" s="7" t="s">
+        <v>532</v>
+      </c>
       <c r="D49" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="E49" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="F49" s="7">
+      <c r="E49" s="7">
         <v>0</v>
       </c>
+      <c r="F49" s="7" t="s">
+        <v>389</v>
+      </c>
       <c r="G49" s="7" t="s">
-        <v>389</v>
+        <v>512</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="I49" s="7" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>391</v>
       </c>
       <c r="B50" t="s">
         <v>392</v>
       </c>
+      <c r="C50" t="s">
+        <v>487</v>
+      </c>
       <c r="D50" t="s">
-        <v>487</v>
-      </c>
-      <c r="E50" t="s">
         <v>521</v>
       </c>
-      <c r="F50" s="4">
+      <c r="E50" s="4">
         <v>10324.136979999999</v>
       </c>
+      <c r="F50" t="s">
+        <v>391</v>
+      </c>
       <c r="G50" t="s">
-        <v>391</v>
+        <v>512</v>
       </c>
       <c r="H50" t="s">
-        <v>512</v>
-      </c>
-      <c r="I50" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>393</v>
       </c>
       <c r="B51" t="s">
         <v>394</v>
       </c>
-      <c r="D51" t="s">
+      <c r="C51" t="s">
         <v>487</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="D51" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F51">
+      <c r="E51">
         <v>151.34</v>
       </c>
+      <c r="F51" t="s">
+        <v>393</v>
+      </c>
       <c r="G51" t="s">
-        <v>393</v>
+        <v>512</v>
       </c>
       <c r="H51" t="s">
-        <v>512</v>
-      </c>
-      <c r="I51" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>395</v>
       </c>
       <c r="B52" t="s">
         <v>396</v>
       </c>
-      <c r="D52" t="s">
+      <c r="C52" t="s">
         <v>487</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="D52" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F52">
+      <c r="E52">
         <v>90.62</v>
       </c>
+      <c r="F52" t="s">
+        <v>395</v>
+      </c>
       <c r="G52" t="s">
-        <v>395</v>
+        <v>512</v>
       </c>
       <c r="H52" t="s">
-        <v>512</v>
-      </c>
-      <c r="I52" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>397</v>
       </c>
       <c r="B53" t="s">
         <v>398</v>
       </c>
-      <c r="D53" t="s">
+      <c r="C53" t="s">
         <v>487</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="D53" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F53">
+      <c r="E53">
         <v>64.400000000000006</v>
       </c>
+      <c r="F53" t="s">
+        <v>397</v>
+      </c>
       <c r="G53" t="s">
-        <v>397</v>
+        <v>512</v>
       </c>
       <c r="H53" t="s">
-        <v>512</v>
-      </c>
-      <c r="I53" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>399</v>
       </c>
       <c r="B54" t="s">
         <v>400</v>
       </c>
-      <c r="D54" t="s">
+      <c r="C54" t="s">
         <v>487</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="D54" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F54">
+      <c r="E54">
         <v>64.400000000000006</v>
       </c>
+      <c r="F54" t="s">
+        <v>399</v>
+      </c>
       <c r="G54" t="s">
-        <v>399</v>
+        <v>512</v>
       </c>
       <c r="H54" t="s">
-        <v>512</v>
-      </c>
-      <c r="I54" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>401</v>
       </c>
       <c r="B55" t="s">
         <v>402</v>
       </c>
+      <c r="C55" t="s">
+        <v>487</v>
+      </c>
       <c r="D55" t="s">
-        <v>487</v>
-      </c>
-      <c r="E55" t="s">
         <v>519</v>
       </c>
-      <c r="F55" s="4">
+      <c r="E55" s="4">
         <v>46508.896309999996</v>
       </c>
+      <c r="F55" t="s">
+        <v>401</v>
+      </c>
       <c r="G55" t="s">
-        <v>401</v>
+        <v>512</v>
       </c>
       <c r="H55" t="s">
-        <v>512</v>
-      </c>
-      <c r="I55" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>403</v>
       </c>
       <c r="B56" t="s">
         <v>404</v>
       </c>
-      <c r="D56" t="s">
+      <c r="C56" t="s">
         <v>485</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="D56" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="F56" s="9">
+      <c r="E56" s="9">
         <v>1761.4671989999999</v>
       </c>
+      <c r="F56" t="s">
+        <v>403</v>
+      </c>
       <c r="G56" t="s">
-        <v>403</v>
+        <v>512</v>
       </c>
       <c r="H56" t="s">
-        <v>512</v>
-      </c>
-      <c r="I56" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>405</v>
       </c>
       <c r="B57" t="s">
         <v>406</v>
       </c>
-      <c r="D57" t="s">
+      <c r="C57" t="s">
         <v>485</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="D57" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F57">
+      <c r="E57">
         <v>164.68</v>
       </c>
+      <c r="F57" t="s">
+        <v>405</v>
+      </c>
       <c r="G57" t="s">
-        <v>405</v>
+        <v>512</v>
       </c>
       <c r="H57" t="s">
-        <v>512</v>
-      </c>
-      <c r="I57" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>407</v>
       </c>
       <c r="B58" t="s">
         <v>408</v>
       </c>
-      <c r="D58" t="s">
+      <c r="C58" t="s">
         <v>485</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="D58" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F58">
+      <c r="E58">
         <v>155.47999999999999</v>
       </c>
+      <c r="F58" t="s">
+        <v>407</v>
+      </c>
       <c r="G58" t="s">
-        <v>407</v>
+        <v>512</v>
       </c>
       <c r="H58" t="s">
-        <v>512</v>
-      </c>
-      <c r="I58" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>409</v>
       </c>
       <c r="B59" t="s">
         <v>410</v>
       </c>
-      <c r="D59" t="s">
+      <c r="C59" t="s">
         <v>485</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="D59" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F59">
+      <c r="E59">
         <v>124.2</v>
       </c>
+      <c r="F59" t="s">
+        <v>409</v>
+      </c>
       <c r="G59" t="s">
-        <v>409</v>
+        <v>512</v>
       </c>
       <c r="H59" t="s">
-        <v>512</v>
-      </c>
-      <c r="I59" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>411</v>
       </c>
       <c r="B60" t="s">
         <v>412</v>
       </c>
-      <c r="D60" t="s">
+      <c r="C60" t="s">
         <v>485</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="D60" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F60">
+      <c r="E60">
         <v>124.2</v>
       </c>
+      <c r="F60" t="s">
+        <v>411</v>
+      </c>
       <c r="G60" t="s">
-        <v>411</v>
+        <v>512</v>
       </c>
       <c r="H60" t="s">
-        <v>512</v>
-      </c>
-      <c r="I60" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>413</v>
       </c>
       <c r="B61" t="s">
         <v>414</v>
       </c>
-      <c r="D61" t="s">
+      <c r="C61" t="s">
         <v>487</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="D61" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="F61" s="6">
+      <c r="E61" s="6">
         <v>11845000</v>
       </c>
+      <c r="F61" t="s">
+        <v>413</v>
+      </c>
       <c r="G61" t="s">
-        <v>413</v>
+        <v>512</v>
       </c>
       <c r="H61" t="s">
-        <v>512</v>
-      </c>
-      <c r="I61" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>415</v>
       </c>
       <c r="B62" t="s">
         <v>416</v>
       </c>
-      <c r="D62" t="s">
+      <c r="C62" t="s">
         <v>485</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="D62" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F62">
+      <c r="E62">
         <v>92.92</v>
       </c>
+      <c r="F62" t="s">
+        <v>415</v>
+      </c>
       <c r="G62" t="s">
-        <v>415</v>
+        <v>512</v>
       </c>
       <c r="H62" t="s">
-        <v>512</v>
-      </c>
-      <c r="I62" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>417</v>
       </c>
       <c r="B63" t="s">
         <v>418</v>
       </c>
-      <c r="D63" t="s">
+      <c r="C63" t="s">
         <v>485</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="D63" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F63">
+      <c r="E63">
         <v>50.14</v>
       </c>
+      <c r="F63" t="s">
+        <v>417</v>
+      </c>
       <c r="G63" t="s">
-        <v>417</v>
+        <v>512</v>
       </c>
       <c r="H63" t="s">
-        <v>512</v>
-      </c>
-      <c r="I63" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>419</v>
       </c>
       <c r="B64" t="s">
         <v>420</v>
       </c>
-      <c r="D64" t="s">
+      <c r="C64" t="s">
         <v>485</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F64">
+      <c r="E64">
         <v>50.14</v>
       </c>
+      <c r="F64" t="s">
+        <v>419</v>
+      </c>
       <c r="G64" t="s">
-        <v>419</v>
+        <v>512</v>
       </c>
       <c r="H64" t="s">
-        <v>512</v>
-      </c>
-      <c r="I64" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>421</v>
       </c>
       <c r="B65" t="s">
         <v>422</v>
       </c>
-      <c r="D65" t="s">
+      <c r="C65" t="s">
         <v>485</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="D65" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F65">
+      <c r="E65">
         <v>55.2</v>
       </c>
+      <c r="F65" t="s">
+        <v>421</v>
+      </c>
       <c r="G65" t="s">
-        <v>421</v>
+        <v>512</v>
       </c>
       <c r="H65" t="s">
-        <v>512</v>
-      </c>
-      <c r="I65" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>423</v>
       </c>
       <c r="B66" t="s">
         <v>424</v>
       </c>
-      <c r="D66" t="s">
+      <c r="C66" t="s">
         <v>485</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="D66" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F66">
+      <c r="E66">
         <v>57.5</v>
       </c>
+      <c r="F66" t="s">
+        <v>423</v>
+      </c>
       <c r="G66" t="s">
-        <v>423</v>
+        <v>512</v>
       </c>
       <c r="H66" t="s">
-        <v>512</v>
-      </c>
-      <c r="I66" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>425</v>
       </c>
       <c r="B67" t="s">
         <v>426</v>
       </c>
+      <c r="C67" t="s">
+        <v>485</v>
+      </c>
       <c r="D67" t="s">
-        <v>485</v>
-      </c>
-      <c r="E67" t="s">
         <v>521</v>
       </c>
-      <c r="F67" s="4">
+      <c r="E67" s="4">
         <v>14467.517260000001</v>
       </c>
+      <c r="F67" t="s">
+        <v>425</v>
+      </c>
       <c r="G67" t="s">
-        <v>425</v>
+        <v>512</v>
       </c>
       <c r="H67" t="s">
-        <v>512</v>
-      </c>
-      <c r="I67" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>427</v>
       </c>
       <c r="B68" t="s">
         <v>428</v>
       </c>
+      <c r="C68" t="s">
+        <v>485</v>
+      </c>
       <c r="D68" t="s">
-        <v>485</v>
-      </c>
-      <c r="E68" t="s">
         <v>519</v>
       </c>
-      <c r="F68" s="4">
+      <c r="E68" s="4">
         <v>65174.286350000002</v>
       </c>
+      <c r="F68" t="s">
+        <v>427</v>
+      </c>
       <c r="G68" t="s">
-        <v>427</v>
+        <v>512</v>
       </c>
       <c r="H68" t="s">
-        <v>512</v>
-      </c>
-      <c r="I68" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>429</v>
       </c>
       <c r="B69" t="s">
         <v>430</v>
       </c>
-      <c r="D69" t="s">
+      <c r="C69" t="s">
         <v>485</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="D69" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="F69" s="6">
+      <c r="E69" s="6">
         <v>10739000</v>
       </c>
+      <c r="F69" t="s">
+        <v>429</v>
+      </c>
       <c r="G69" t="s">
-        <v>429</v>
+        <v>512</v>
       </c>
       <c r="H69" t="s">
-        <v>512</v>
-      </c>
-      <c r="I69" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>431</v>
       </c>
       <c r="B70" t="s">
         <v>432</v>
       </c>
-      <c r="D70" t="s">
+      <c r="C70" t="s">
         <v>501</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="D70" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F70">
+      <c r="E70">
         <v>51.52</v>
       </c>
+      <c r="F70" t="s">
+        <v>431</v>
+      </c>
       <c r="G70" t="s">
-        <v>431</v>
+        <v>512</v>
       </c>
       <c r="H70" t="s">
-        <v>512</v>
-      </c>
-      <c r="I70" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>433</v>
       </c>
       <c r="B71" t="s">
         <v>434</v>
       </c>
-      <c r="D71" t="s">
+      <c r="C71" t="s">
         <v>483</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="D71" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="F71" s="7">
+      <c r="E71" s="7">
         <v>0</v>
       </c>
-      <c r="G71" t="s">
+      <c r="F71" t="s">
         <v>433</v>
       </c>
+      <c r="G71" s="7" t="s">
+        <v>512</v>
+      </c>
       <c r="H71" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="I71" s="7" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>435</v>
       </c>
       <c r="B72" t="s">
         <v>436</v>
       </c>
-      <c r="D72" t="s">
+      <c r="C72" t="s">
         <v>483</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="D72" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="F72" s="7">
+      <c r="E72" s="7">
         <v>0</v>
       </c>
-      <c r="G72" t="s">
+      <c r="F72" t="s">
         <v>435</v>
       </c>
+      <c r="G72" s="7" t="s">
+        <v>512</v>
+      </c>
       <c r="H72" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="I72" s="7" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>437</v>
       </c>
       <c r="B73" t="s">
         <v>438</v>
       </c>
+      <c r="C73" s="7" t="s">
+        <v>437</v>
+      </c>
       <c r="D73" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="E73" s="7">
+        <v>0</v>
+      </c>
+      <c r="F73" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="G73" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="H73" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="F73" s="7">
-        <v>0</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>439</v>
       </c>
       <c r="B74" t="s">
         <v>440</v>
       </c>
-      <c r="D74" t="s">
+      <c r="C74" t="s">
         <v>499</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="D74" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="F74" s="9">
+      <c r="E74" s="9">
         <v>1256.997198</v>
       </c>
+      <c r="F74" t="s">
+        <v>439</v>
+      </c>
       <c r="G74" t="s">
-        <v>439</v>
+        <v>512</v>
       </c>
       <c r="H74" t="s">
-        <v>512</v>
-      </c>
-      <c r="I74" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>441</v>
       </c>
       <c r="B75" t="s">
         <v>442</v>
       </c>
+      <c r="C75" t="s">
+        <v>499</v>
+      </c>
       <c r="D75" t="s">
-        <v>499</v>
-      </c>
-      <c r="E75" t="s">
         <v>521</v>
       </c>
-      <c r="F75" s="4">
+      <c r="E75" s="4">
         <v>10324.136979999999</v>
       </c>
+      <c r="F75" t="s">
+        <v>441</v>
+      </c>
       <c r="G75" t="s">
-        <v>441</v>
+        <v>512</v>
       </c>
       <c r="H75" t="s">
-        <v>512</v>
-      </c>
-      <c r="I75" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>443</v>
       </c>
       <c r="B76" t="s">
         <v>444</v>
       </c>
+      <c r="C76" t="s">
+        <v>533</v>
+      </c>
       <c r="D76" t="s">
-        <v>533</v>
-      </c>
-      <c r="E76" t="s">
         <v>521</v>
       </c>
-      <c r="F76" s="4">
+      <c r="E76" s="4">
         <v>10028.18125</v>
       </c>
+      <c r="F76" t="s">
+        <v>443</v>
+      </c>
       <c r="G76" t="s">
-        <v>443</v>
+        <v>512</v>
       </c>
       <c r="H76" t="s">
-        <v>512</v>
-      </c>
-      <c r="I76" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>445</v>
       </c>
       <c r="B77" t="s">
         <v>446</v>
       </c>
-      <c r="D77" t="s">
+      <c r="C77" t="s">
         <v>534</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="D77" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="F77" s="9">
+      <c r="E77" s="9">
         <v>1220.963626</v>
       </c>
+      <c r="F77" t="s">
+        <v>445</v>
+      </c>
       <c r="G77" t="s">
-        <v>445</v>
+        <v>512</v>
       </c>
       <c r="H77" t="s">
-        <v>512</v>
-      </c>
-      <c r="I77" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>447</v>
       </c>
       <c r="B78" t="s">
         <v>448</v>
       </c>
-      <c r="D78" t="s">
+      <c r="C78" t="s">
         <v>534</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="D78" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F78">
+      <c r="E78">
         <v>52.44</v>
       </c>
+      <c r="F78" t="s">
+        <v>447</v>
+      </c>
       <c r="G78" t="s">
-        <v>447</v>
+        <v>512</v>
       </c>
       <c r="H78" t="s">
-        <v>512</v>
-      </c>
-      <c r="I78" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>449</v>
       </c>
       <c r="B79" t="s">
         <v>450</v>
       </c>
-      <c r="D79" t="s">
+      <c r="C79" t="s">
         <v>534</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="D79" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F79">
+      <c r="E79">
         <v>57.96</v>
       </c>
+      <c r="F79" t="s">
+        <v>449</v>
+      </c>
       <c r="G79" t="s">
-        <v>449</v>
+        <v>512</v>
       </c>
       <c r="H79" t="s">
-        <v>512</v>
-      </c>
-      <c r="I79" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>451</v>
       </c>
       <c r="B80" t="s">
         <v>452</v>
       </c>
+      <c r="C80" t="s">
+        <v>496</v>
+      </c>
       <c r="D80" t="s">
-        <v>496</v>
-      </c>
-      <c r="E80" t="s">
         <v>521</v>
       </c>
-      <c r="F80" s="4">
+      <c r="E80" s="4">
         <v>11199.13654</v>
       </c>
+      <c r="F80" t="s">
+        <v>451</v>
+      </c>
       <c r="G80" t="s">
-        <v>451</v>
+        <v>512</v>
       </c>
       <c r="H80" t="s">
-        <v>512</v>
-      </c>
-      <c r="I80" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>453</v>
       </c>
       <c r="B81" t="s">
         <v>454</v>
       </c>
+      <c r="C81" t="s">
+        <v>496</v>
+      </c>
       <c r="D81" t="s">
-        <v>496</v>
-      </c>
-      <c r="E81" t="s">
         <v>519</v>
       </c>
-      <c r="F81" s="4">
+      <c r="E81" s="4">
         <v>50450.655700000003</v>
       </c>
+      <c r="F81" t="s">
+        <v>453</v>
+      </c>
       <c r="G81" t="s">
-        <v>453</v>
+        <v>512</v>
       </c>
       <c r="H81" t="s">
-        <v>512</v>
-      </c>
-      <c r="I81" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>455</v>
       </c>
       <c r="B82" t="s">
         <v>456</v>
       </c>
-      <c r="D82" t="s">
+      <c r="C82" t="s">
         <v>496</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="D82" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F82">
+      <c r="E82">
         <v>133.4</v>
       </c>
+      <c r="F82" t="s">
+        <v>455</v>
+      </c>
       <c r="G82" t="s">
-        <v>455</v>
+        <v>512</v>
       </c>
       <c r="H82" t="s">
-        <v>512</v>
-      </c>
-      <c r="I82" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>457</v>
       </c>
       <c r="B83" t="s">
         <v>458</v>
       </c>
-      <c r="D83" t="s">
+      <c r="C83" t="s">
         <v>496</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="D83" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F83">
+      <c r="E83">
         <v>64.400000000000006</v>
       </c>
+      <c r="F83" t="s">
+        <v>457</v>
+      </c>
       <c r="G83" t="s">
-        <v>457</v>
+        <v>512</v>
       </c>
       <c r="H83" t="s">
-        <v>512</v>
-      </c>
-      <c r="I83" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>459</v>
       </c>
       <c r="B84" t="s">
         <v>460</v>
       </c>
-      <c r="D84" t="s">
+      <c r="C84" t="s">
         <v>493</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="D84" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="F84">
+      <c r="E84">
         <v>8625000</v>
       </c>
+      <c r="F84" t="s">
+        <v>459</v>
+      </c>
       <c r="G84" t="s">
-        <v>459</v>
+        <v>512</v>
       </c>
       <c r="H84" t="s">
-        <v>512</v>
-      </c>
-      <c r="I84" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>461</v>
       </c>
       <c r="B85" t="s">
         <v>462</v>
       </c>
-      <c r="D85" t="s">
+      <c r="C85" t="s">
         <v>535</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="D85" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="F85" s="7">
+      <c r="E85" s="7">
         <v>0</v>
       </c>
-      <c r="G85" t="s">
+      <c r="F85" t="s">
         <v>461</v>
       </c>
+      <c r="G85" s="7" t="s">
+        <v>512</v>
+      </c>
       <c r="H85" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="I85" s="7" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>463</v>
       </c>
       <c r="B86" t="s">
         <v>464</v>
       </c>
-      <c r="D86" t="s">
+      <c r="C86" t="s">
         <v>487</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="D86" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="F86" s="9">
+      <c r="E86" s="9">
         <v>1256.997198</v>
       </c>
+      <c r="F86" t="s">
+        <v>463</v>
+      </c>
       <c r="G86" t="s">
-        <v>463</v>
+        <v>512</v>
       </c>
       <c r="H86" t="s">
-        <v>512</v>
-      </c>
-      <c r="I86" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>465</v>
       </c>
       <c r="B87" t="s">
         <v>466</v>
       </c>
-      <c r="D87" t="s">
+      <c r="C87" t="s">
         <v>536</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="D87" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F87">
+      <c r="E87">
         <v>147.19999999999999</v>
       </c>
+      <c r="F87" t="s">
+        <v>465</v>
+      </c>
       <c r="G87" t="s">
-        <v>465</v>
+        <v>512</v>
       </c>
       <c r="H87" t="s">
-        <v>512</v>
-      </c>
-      <c r="I87" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>467</v>
       </c>
       <c r="B88" t="s">
         <v>468</v>
       </c>
-      <c r="D88" t="s">
+      <c r="C88" t="s">
         <v>536</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="D88" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F88">
+      <c r="E88">
         <v>123.28</v>
       </c>
+      <c r="F88" t="s">
+        <v>467</v>
+      </c>
       <c r="G88" t="s">
-        <v>467</v>
+        <v>512</v>
       </c>
       <c r="H88" t="s">
-        <v>512</v>
-      </c>
-      <c r="I88" t="s">
         <v>524</v>
       </c>
     </row>

--- a/Node_Information_TU.xlsx
+++ b/Node_Information_TU.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TU DELFT - Master Thesis\Foodcycle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8007EA9-7AE0-4970-9572-5DDFB25C7862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B84199C0-0EF1-44D8-A0E9-3B4F3D42091D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FB76EC11-D391-4904-8734-C0040D3EB498}"/>
+    <workbookView xWindow="2220" yWindow="1812" windowWidth="10788" windowHeight="8880" activeTab="1" xr2:uid="{C8631FA3-EDA5-4979-8CF3-34D80DE8E275}"/>
   </bookViews>
   <sheets>
-    <sheet name="vacant spaces" sheetId="1" r:id="rId1"/>
-    <sheet name="waste outputs" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1725,10 +1725,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2049,18 +2051,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A4F829-DF03-4EA3-9CBB-0BCF842C769E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35D4B15-D29D-4989-827A-1F74BBE06D57}">
   <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:G147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -2069,19 +2067,19 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>472</v>
       </c>
     </row>
@@ -2092,19 +2090,19 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>31174.536655</v>
       </c>
-      <c r="D2" t="s">
-        <v>473</v>
-      </c>
-      <c r="E2" t="s">
-        <v>473</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2115,19 +2113,19 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>23824.099084000001</v>
       </c>
-      <c r="D3" t="s">
-        <v>473</v>
-      </c>
-      <c r="E3" t="s">
-        <v>473</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2138,19 +2136,19 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>9665.3696419999997</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F4" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2161,19 +2159,19 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>8429.6334690000003</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F5" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2184,19 +2182,19 @@
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>8272.572478</v>
       </c>
-      <c r="D6" t="s">
-        <v>473</v>
-      </c>
-      <c r="E6" t="s">
-        <v>473</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="D6" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2207,19 +2205,19 @@
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>8061.2871999999998</v>
       </c>
-      <c r="D7" t="s">
-        <v>473</v>
-      </c>
-      <c r="E7" t="s">
-        <v>473</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2230,19 +2228,19 @@
       <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>6439.3171910000001</v>
       </c>
-      <c r="D8" t="s">
-        <v>473</v>
-      </c>
-      <c r="E8" t="s">
-        <v>473</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="D8" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2253,19 +2251,19 @@
       <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>6015.4002810000002</v>
       </c>
-      <c r="D9" t="s">
-        <v>473</v>
-      </c>
-      <c r="E9" t="s">
-        <v>473</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2276,19 +2274,19 @@
       <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>5436.1120639999999</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="F10" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2299,19 +2297,19 @@
       <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>4880.6949619999996</v>
       </c>
-      <c r="D11" t="s">
-        <v>473</v>
-      </c>
-      <c r="E11" t="s">
-        <v>473</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="D11" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2322,19 +2320,19 @@
       <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>4720.7078570000003</v>
       </c>
-      <c r="D12" t="s">
-        <v>473</v>
-      </c>
-      <c r="E12" t="s">
-        <v>473</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="D12" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2345,19 +2343,19 @@
       <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>4436.9056129999999</v>
       </c>
-      <c r="D13" t="s">
-        <v>473</v>
-      </c>
-      <c r="E13" t="s">
-        <v>473</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="D13" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2368,19 +2366,19 @@
       <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>3912.406602</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="F14" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2391,19 +2389,19 @@
       <c r="B15" t="s">
         <v>30</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>3860.8052539999999</v>
       </c>
-      <c r="D15" t="s">
-        <v>473</v>
-      </c>
-      <c r="E15" t="s">
-        <v>473</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2414,19 +2412,19 @@
       <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>3795.5508420000001</v>
       </c>
-      <c r="D16" t="s">
-        <v>473</v>
-      </c>
-      <c r="E16" t="s">
-        <v>473</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="D16" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2437,19 +2435,19 @@
       <c r="B17" t="s">
         <v>34</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>3414.2072400000002</v>
       </c>
-      <c r="D17" t="s">
-        <v>473</v>
-      </c>
-      <c r="E17" t="s">
-        <v>473</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2460,19 +2458,19 @@
       <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>3321.5999430000002</v>
       </c>
-      <c r="D18" t="s">
-        <v>473</v>
-      </c>
-      <c r="E18" t="s">
-        <v>473</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="D18" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2483,19 +2481,19 @@
       <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>3035.0676050000002</v>
       </c>
-      <c r="D19" t="s">
-        <v>473</v>
-      </c>
-      <c r="E19" t="s">
-        <v>473</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="D19" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2506,19 +2504,19 @@
       <c r="B20" t="s">
         <v>40</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>2707.0497319999999</v>
       </c>
-      <c r="D20" t="s">
-        <v>473</v>
-      </c>
-      <c r="E20" t="s">
-        <v>473</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="D20" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2529,19 +2527,19 @@
       <c r="B21" t="s">
         <v>42</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>2570.6053980000002</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="F21" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2552,19 +2550,19 @@
       <c r="B22" t="s">
         <v>44</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>2542.3542550000002</v>
       </c>
-      <c r="D22" t="s">
-        <v>473</v>
-      </c>
-      <c r="E22" t="s">
-        <v>473</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="D22" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2575,19 +2573,19 @@
       <c r="B23" t="s">
         <v>46</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>2541.1915239999998</v>
       </c>
-      <c r="D23" t="s">
-        <v>473</v>
-      </c>
-      <c r="E23" t="s">
-        <v>473</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2598,19 +2596,19 @@
       <c r="B24" t="s">
         <v>48</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>2440.6488789999999</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="F24" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2621,19 +2619,19 @@
       <c r="B25" t="s">
         <v>50</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>2245.407526</v>
       </c>
-      <c r="D25" t="s">
-        <v>473</v>
-      </c>
-      <c r="E25" t="s">
-        <v>473</v>
-      </c>
-      <c r="F25" s="1" t="s">
+      <c r="D25" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2644,19 +2642,19 @@
       <c r="B26" t="s">
         <v>52</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>2167.9804559999998</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="F26" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2667,19 +2665,19 @@
       <c r="B27" t="s">
         <v>54</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>2144.1043049999998</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="F27" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2690,19 +2688,19 @@
       <c r="B28" t="s">
         <v>56</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>2139.3186569999998</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="F28" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2713,19 +2711,19 @@
       <c r="B29" t="s">
         <v>58</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>2111.0300670000001</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="F29" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2736,19 +2734,19 @@
       <c r="B30" t="s">
         <v>60</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>2093.1709860000001</v>
       </c>
-      <c r="D30" t="s">
-        <v>473</v>
-      </c>
-      <c r="E30" t="s">
-        <v>473</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="D30" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2759,19 +2757,19 @@
       <c r="B31" t="s">
         <v>62</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>1954.974543</v>
       </c>
-      <c r="D31" t="s">
-        <v>473</v>
-      </c>
-      <c r="E31" t="s">
-        <v>473</v>
-      </c>
-      <c r="F31" s="1" t="s">
+      <c r="D31" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="1" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2782,19 +2780,19 @@
       <c r="B32" t="s">
         <v>64</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>1942.882355</v>
       </c>
-      <c r="D32" t="s">
-        <v>473</v>
-      </c>
-      <c r="E32" t="s">
-        <v>473</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="D32" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2805,19 +2803,19 @@
       <c r="B33" t="s">
         <v>66</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>1921.86682</v>
       </c>
-      <c r="D33" t="s">
-        <v>473</v>
-      </c>
-      <c r="E33" t="s">
-        <v>473</v>
-      </c>
-      <c r="F33" s="1" t="s">
+      <c r="D33" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2828,19 +2826,19 @@
       <c r="B34" t="s">
         <v>68</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>1665.1012900000001</v>
       </c>
-      <c r="D34" t="s">
-        <v>473</v>
-      </c>
-      <c r="E34" t="s">
-        <v>473</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="D34" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2851,19 +2849,19 @@
       <c r="B35" t="s">
         <v>70</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>1658.4798290000001</v>
       </c>
-      <c r="D35" t="s">
-        <v>473</v>
-      </c>
-      <c r="E35" t="s">
-        <v>473</v>
-      </c>
-      <c r="F35" s="1" t="s">
+      <c r="D35" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2874,19 +2872,19 @@
       <c r="B36" t="s">
         <v>72</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>1610.590794</v>
       </c>
-      <c r="D36" t="s">
-        <v>473</v>
-      </c>
-      <c r="E36" t="s">
-        <v>473</v>
-      </c>
-      <c r="F36" s="1" t="s">
+      <c r="D36" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2897,19 +2895,19 @@
       <c r="B37" t="s">
         <v>74</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>1597.5119299999999</v>
       </c>
-      <c r="D37" t="s">
-        <v>473</v>
-      </c>
-      <c r="E37" t="s">
-        <v>473</v>
-      </c>
-      <c r="F37" s="1" t="s">
+      <c r="D37" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="1" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2920,19 +2918,19 @@
       <c r="B38" t="s">
         <v>76</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>1578.7820959999999</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="F38" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2943,19 +2941,19 @@
       <c r="B39" t="s">
         <v>78</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>1572.935303</v>
       </c>
-      <c r="D39" t="s">
-        <v>473</v>
-      </c>
-      <c r="E39" t="s">
-        <v>473</v>
-      </c>
-      <c r="F39" s="1" t="s">
+      <c r="D39" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2966,19 +2964,19 @@
       <c r="B40" t="s">
         <v>80</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>1501.150494</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="F40" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2989,19 +2987,19 @@
       <c r="B41" t="s">
         <v>82</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>1501.150494</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="F41" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3012,19 +3010,19 @@
       <c r="B42" t="s">
         <v>84</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>1354.2838959999999</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="F42" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3035,19 +3033,19 @@
       <c r="B43" t="s">
         <v>86</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
         <v>1340.761573</v>
       </c>
-      <c r="D43" t="s">
-        <v>473</v>
-      </c>
-      <c r="E43" t="s">
-        <v>473</v>
-      </c>
-      <c r="F43" s="1" t="s">
+      <c r="D43" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="1" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3058,19 +3056,19 @@
       <c r="B44" t="s">
         <v>88</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>1288.877422</v>
       </c>
-      <c r="D44" t="s">
-        <v>473</v>
-      </c>
-      <c r="E44" t="s">
-        <v>473</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="D44" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3081,19 +3079,19 @@
       <c r="B45" t="s">
         <v>90</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
         <v>1275.764993</v>
       </c>
-      <c r="D45" t="s">
-        <v>473</v>
-      </c>
-      <c r="E45" t="s">
-        <v>473</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="D45" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3104,19 +3102,19 @@
       <c r="B46" t="s">
         <v>92</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <v>1233.5239079999999</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="F46" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3127,19 +3125,19 @@
       <c r="B47" t="s">
         <v>94</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>1231.7751949999999</v>
       </c>
-      <c r="D47" t="s">
-        <v>473</v>
-      </c>
-      <c r="E47" t="s">
-        <v>473</v>
-      </c>
-      <c r="F47" s="1" t="s">
+      <c r="D47" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3150,19 +3148,19 @@
       <c r="B48" t="s">
         <v>96</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>1153.400093</v>
       </c>
-      <c r="D48" t="s">
-        <v>473</v>
-      </c>
-      <c r="E48" t="s">
-        <v>473</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="D48" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3173,19 +3171,19 @@
       <c r="B49" t="s">
         <v>98</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1">
         <v>1148.7480860000001</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="F49" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3196,19 +3194,19 @@
       <c r="B50" t="s">
         <v>100</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1">
         <v>1130.80954</v>
       </c>
-      <c r="D50" t="s">
-        <v>473</v>
-      </c>
-      <c r="E50" t="s">
-        <v>473</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="D50" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3219,19 +3217,19 @@
       <c r="B51" t="s">
         <v>102</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="1">
         <v>1091.5993570000001</v>
       </c>
-      <c r="D51" t="s">
-        <v>473</v>
-      </c>
-      <c r="E51" t="s">
-        <v>473</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="D51" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3242,19 +3240,19 @@
       <c r="B52" t="s">
         <v>104</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="1">
         <v>1060.91461</v>
       </c>
-      <c r="D52" t="s">
-        <v>473</v>
-      </c>
-      <c r="E52" t="s">
-        <v>473</v>
-      </c>
-      <c r="F52" s="1" t="s">
+      <c r="D52" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="1" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3265,19 +3263,19 @@
       <c r="B53" t="s">
         <v>106</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="1">
         <v>1055.834638</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="F53" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3288,19 +3286,19 @@
       <c r="B54" t="s">
         <v>108</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="1">
         <v>1044.1050869999999</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="F54" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3311,19 +3309,19 @@
       <c r="B55" t="s">
         <v>110</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="1">
         <v>1034.0140550000001</v>
       </c>
-      <c r="D55" t="s">
-        <v>473</v>
-      </c>
-      <c r="E55" t="s">
-        <v>473</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="D55" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3334,19 +3332,19 @@
       <c r="B56" t="s">
         <v>112</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="1">
         <v>950.17440699999997</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="F56" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3357,19 +3355,19 @@
       <c r="B57" t="s">
         <v>114</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="1">
         <v>937.01029300000005</v>
       </c>
-      <c r="D57" t="s">
-        <v>473</v>
-      </c>
-      <c r="E57" t="s">
-        <v>473</v>
-      </c>
-      <c r="F57" s="1" t="s">
+      <c r="D57" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3380,19 +3378,19 @@
       <c r="B58" t="s">
         <v>116</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1">
         <v>886.90109600000005</v>
       </c>
-      <c r="D58" t="s">
-        <v>473</v>
-      </c>
-      <c r="E58" t="s">
-        <v>473</v>
-      </c>
-      <c r="F58" s="1" t="s">
+      <c r="D58" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="1" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3403,19 +3401,19 @@
       <c r="B59" t="s">
         <v>118</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="1">
         <v>886.22100699999999</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="F59" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3426,19 +3424,19 @@
       <c r="B60" t="s">
         <v>120</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="1">
         <v>886.22100699999999</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="F60" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3449,19 +3447,19 @@
       <c r="B61" t="s">
         <v>122</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="1">
         <v>886.22100699999999</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="F61" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3472,19 +3470,19 @@
       <c r="B62" t="s">
         <v>124</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="1">
         <v>886.22100699999999</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="F62" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3495,19 +3493,19 @@
       <c r="B63" t="s">
         <v>126</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="1">
         <v>886.22100699999999</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="F63" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3518,19 +3516,19 @@
       <c r="B64" t="s">
         <v>128</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="1">
         <v>886.22100699999999</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="F64" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3541,19 +3539,19 @@
       <c r="B65" t="s">
         <v>130</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="1">
         <v>886.22100699999999</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="F65" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3564,19 +3562,19 @@
       <c r="B66" t="s">
         <v>132</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="1">
         <v>886.22100699999999</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G66" t="s">
+      <c r="F66" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3587,19 +3585,19 @@
       <c r="B67" t="s">
         <v>134</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="1">
         <v>884.45984599999997</v>
       </c>
-      <c r="D67" t="s">
-        <v>473</v>
-      </c>
-      <c r="E67" t="s">
-        <v>473</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G67" t="s">
+      <c r="D67" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3610,19 +3608,19 @@
       <c r="B68" t="s">
         <v>136</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="1">
         <v>871.979286</v>
       </c>
-      <c r="D68" t="s">
-        <v>473</v>
-      </c>
-      <c r="E68" t="s">
-        <v>473</v>
-      </c>
-      <c r="F68" s="1" t="s">
+      <c r="D68" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="1" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3633,19 +3631,19 @@
       <c r="B69" t="s">
         <v>138</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="1">
         <v>849.66133300000001</v>
       </c>
-      <c r="D69" t="s">
-        <v>473</v>
-      </c>
-      <c r="E69" t="s">
-        <v>473</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G69" t="s">
+      <c r="D69" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3656,19 +3654,19 @@
       <c r="B70" t="s">
         <v>140</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="1">
         <v>817.90353000000005</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="F70" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3679,19 +3677,19 @@
       <c r="B71" t="s">
         <v>142</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="1">
         <v>816.51211999999998</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="F71" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3702,19 +3700,19 @@
       <c r="B72" t="s">
         <v>144</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="1">
         <v>784.69636300000002</v>
       </c>
-      <c r="D72" t="s">
-        <v>473</v>
-      </c>
-      <c r="E72" t="s">
-        <v>473</v>
-      </c>
-      <c r="F72" s="1" t="s">
+      <c r="D72" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="1" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3725,19 +3723,19 @@
       <c r="B73" t="s">
         <v>146</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="1">
         <v>782.43185200000005</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G73" t="s">
+      <c r="F73" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3748,19 +3746,19 @@
       <c r="B74" t="s">
         <v>148</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="1">
         <v>741.89980600000001</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G74" t="s">
+      <c r="F74" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G74" s="1" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3771,19 +3769,19 @@
       <c r="B75" t="s">
         <v>150</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="1">
         <v>735.65105900000003</v>
       </c>
-      <c r="D75" t="s">
-        <v>473</v>
-      </c>
-      <c r="E75" t="s">
-        <v>473</v>
-      </c>
-      <c r="F75" s="1" t="s">
+      <c r="D75" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="1" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3794,19 +3792,19 @@
       <c r="B76" t="s">
         <v>152</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="1">
         <v>734.14002000000005</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G76" t="s">
+      <c r="F76" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G76" s="1" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3817,19 +3815,19 @@
       <c r="B77" t="s">
         <v>154</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="1">
         <v>731.33723599999996</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G77" t="s">
+      <c r="F77" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G77" s="1" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3840,19 +3838,19 @@
       <c r="B78" t="s">
         <v>156</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="1">
         <v>694.035302</v>
       </c>
-      <c r="D78" t="s">
-        <v>473</v>
-      </c>
-      <c r="E78" t="s">
-        <v>473</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G78" t="s">
+      <c r="D78" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G78" s="1" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3863,19 +3861,19 @@
       <c r="B79" t="s">
         <v>158</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="1">
         <v>669.74844399999995</v>
       </c>
-      <c r="D79" t="s">
-        <v>473</v>
-      </c>
-      <c r="E79" t="s">
-        <v>473</v>
-      </c>
-      <c r="F79" s="1" t="s">
+      <c r="D79" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="1" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3886,19 +3884,19 @@
       <c r="B80" t="s">
         <v>160</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="1">
         <v>641.94745999999998</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F80" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G80" t="s">
+      <c r="F80" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G80" s="1" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3909,19 +3907,19 @@
       <c r="B81" t="s">
         <v>162</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="1">
         <v>636.56769499999996</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="F81" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3932,19 +3930,19 @@
       <c r="B82" t="s">
         <v>164</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="1">
         <v>619.17893800000002</v>
       </c>
-      <c r="D82" t="s">
-        <v>473</v>
-      </c>
-      <c r="E82" t="s">
-        <v>473</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G82" t="s">
+      <c r="D82" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G82" s="1" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3955,19 +3953,19 @@
       <c r="B83" t="s">
         <v>166</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="1">
         <v>603.53602000000001</v>
       </c>
-      <c r="D83" t="s">
-        <v>473</v>
-      </c>
-      <c r="E83" t="s">
-        <v>473</v>
-      </c>
-      <c r="F83" s="1" t="s">
+      <c r="D83" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="1" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3978,19 +3976,19 @@
       <c r="B84" t="s">
         <v>168</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="1">
         <v>566.43260199999997</v>
       </c>
-      <c r="D84" t="s">
-        <v>473</v>
-      </c>
-      <c r="E84" t="s">
-        <v>473</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G84" t="s">
+      <c r="D84" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G84" s="1" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4001,19 +3999,19 @@
       <c r="B85" t="s">
         <v>170</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="1">
         <v>560.23707899999999</v>
       </c>
-      <c r="D85" t="s">
-        <v>473</v>
-      </c>
-      <c r="E85" t="s">
-        <v>473</v>
-      </c>
-      <c r="F85" s="1" t="s">
+      <c r="D85" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" s="1" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4024,19 +4022,19 @@
       <c r="B86" t="s">
         <v>172</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="1">
         <v>559.77295300000003</v>
       </c>
-      <c r="D86" t="s">
-        <v>473</v>
-      </c>
-      <c r="E86" t="s">
-        <v>473</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G86" t="s">
+      <c r="D86" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4047,19 +4045,19 @@
       <c r="B87" t="s">
         <v>174</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="1">
         <v>549.393913</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G87" t="s">
+      <c r="F87" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G87" s="1" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4070,19 +4068,19 @@
       <c r="B88" t="s">
         <v>176</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="1">
         <v>545.51456299999995</v>
       </c>
-      <c r="D88" t="s">
-        <v>473</v>
-      </c>
-      <c r="E88" t="s">
-        <v>473</v>
-      </c>
-      <c r="F88" s="1" t="s">
+      <c r="D88" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="1" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4093,19 +4091,19 @@
       <c r="B89" t="s">
         <v>178</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="1">
         <v>513.13563399999998</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F89" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G89" t="s">
+      <c r="F89" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4116,19 +4114,19 @@
       <c r="B90" t="s">
         <v>180</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="1">
         <v>506.80062600000002</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G90" t="s">
+      <c r="F90" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G90" s="1" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4139,19 +4137,19 @@
       <c r="B91" t="s">
         <v>182</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="1">
         <v>501.81874099999999</v>
       </c>
-      <c r="D91" t="s">
-        <v>473</v>
-      </c>
-      <c r="E91" t="s">
-        <v>473</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G91" t="s">
+      <c r="D91" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G91" s="1" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4162,19 +4160,19 @@
       <c r="B92" t="s">
         <v>184</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="1">
         <v>494.83449999999999</v>
       </c>
-      <c r="D92" t="s">
-        <v>473</v>
-      </c>
-      <c r="E92" t="s">
-        <v>473</v>
-      </c>
-      <c r="F92" s="1" t="s">
+      <c r="D92" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4185,19 +4183,19 @@
       <c r="B93" t="s">
         <v>186</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="1">
         <v>475.829477</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F93" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G93" t="s">
+      <c r="F93" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G93" s="1" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4208,19 +4206,19 @@
       <c r="B94" t="s">
         <v>188</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="1">
         <v>475.829477</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G94" t="s">
+      <c r="F94" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G94" s="1" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4231,19 +4229,19 @@
       <c r="B95" t="s">
         <v>190</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="1">
         <v>473.01391799999999</v>
       </c>
-      <c r="D95" t="s">
-        <v>473</v>
-      </c>
-      <c r="E95" t="s">
-        <v>473</v>
-      </c>
-      <c r="F95" s="1" t="s">
+      <c r="D95" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="1" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4254,19 +4252,19 @@
       <c r="B96" t="s">
         <v>192</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="1">
         <v>443.45054800000003</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F96" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G96" t="s">
+      <c r="F96" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G96" s="1" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4277,19 +4275,19 @@
       <c r="B97" t="s">
         <v>194</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="1">
         <v>439.22720900000002</v>
       </c>
-      <c r="D97" t="s">
-        <v>473</v>
-      </c>
-      <c r="E97" t="s">
-        <v>473</v>
-      </c>
-      <c r="F97" s="1" t="s">
+      <c r="D97" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" s="1" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4300,19 +4298,19 @@
       <c r="B98" t="s">
         <v>196</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="1">
         <v>436.38860899999997</v>
       </c>
-      <c r="D98" t="s">
-        <v>473</v>
-      </c>
-      <c r="E98" t="s">
-        <v>473</v>
-      </c>
-      <c r="F98" s="1" t="s">
+      <c r="D98" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F98" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" s="1" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4323,19 +4321,19 @@
       <c r="B99" t="s">
         <v>198</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="1">
         <v>402.63761199999999</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F99" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G99" t="s">
+      <c r="F99" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G99" s="1" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4346,19 +4344,19 @@
       <c r="B100" t="s">
         <v>200</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="1">
         <v>388.062522</v>
       </c>
-      <c r="D100" t="s">
-        <v>473</v>
-      </c>
-      <c r="E100" t="s">
-        <v>473</v>
-      </c>
-      <c r="F100" s="1" t="s">
+      <c r="D100" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" s="1" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4369,19 +4367,19 @@
       <c r="B101" t="s">
         <v>202</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="1">
         <v>387.13936699999999</v>
       </c>
-      <c r="D101" t="s">
-        <v>473</v>
-      </c>
-      <c r="E101" t="s">
-        <v>473</v>
-      </c>
-      <c r="F101" s="1" t="s">
+      <c r="D101" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" s="1" t="s">
         <v>201</v>
       </c>
     </row>
@@ -4392,19 +4390,19 @@
       <c r="B102" t="s">
         <v>204</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="1">
         <v>373.21048500000001</v>
       </c>
-      <c r="D102" t="s">
-        <v>473</v>
-      </c>
-      <c r="E102" t="s">
-        <v>473</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G102" t="s">
+      <c r="D102" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G102" s="1" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4415,19 +4413,19 @@
       <c r="B103" t="s">
         <v>206</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="1">
         <v>371.65379300000001</v>
       </c>
-      <c r="D103" t="s">
-        <v>473</v>
-      </c>
-      <c r="E103" t="s">
-        <v>473</v>
-      </c>
-      <c r="F103" s="1" t="s">
+      <c r="D103" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F103" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" s="1" t="s">
         <v>205</v>
       </c>
     </row>
@@ -4438,19 +4436,19 @@
       <c r="B104" t="s">
         <v>208</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="1">
         <v>367.430454</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G104" t="s">
+      <c r="F104" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G104" s="1" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4461,19 +4459,19 @@
       <c r="B105" t="s">
         <v>210</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="1">
         <v>360.39155599999998</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F105" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G105" t="s">
+      <c r="F105" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G105" s="1" t="s">
         <v>209</v>
       </c>
     </row>
@@ -4484,19 +4482,19 @@
       <c r="B106" t="s">
         <v>212</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="1">
         <v>338.57097399999998</v>
       </c>
-      <c r="D106" t="s">
-        <v>473</v>
-      </c>
-      <c r="E106" t="s">
-        <v>473</v>
-      </c>
-      <c r="F106" s="1" t="s">
+      <c r="D106" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F106" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" s="1" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4507,19 +4505,19 @@
       <c r="B107" t="s">
         <v>214</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="1">
         <v>338.33961199999999</v>
       </c>
-      <c r="D107" t="s">
-        <v>473</v>
-      </c>
-      <c r="E107" t="s">
-        <v>473</v>
-      </c>
-      <c r="F107" s="1" t="s">
+      <c r="D107" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F107" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G107" s="1" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4530,19 +4528,19 @@
       <c r="B108" t="s">
         <v>216</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="1">
         <v>329.29722600000002</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F108" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G108" t="s">
+      <c r="F108" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G108" s="1" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4553,19 +4551,19 @@
       <c r="B109" t="s">
         <v>218</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="1">
         <v>319.677165</v>
       </c>
-      <c r="D109" t="s">
-        <v>473</v>
-      </c>
-      <c r="E109" t="s">
-        <v>473</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G109" t="s">
+      <c r="D109" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G109" s="1" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4576,19 +4574,19 @@
       <c r="B110" t="s">
         <v>220</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="1">
         <v>315.34261199999997</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E110" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F110" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G110" t="s">
+      <c r="F110" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G110" s="1" t="s">
         <v>219</v>
       </c>
     </row>
@@ -4599,19 +4597,19 @@
       <c r="B111" t="s">
         <v>222</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="1">
         <v>307.89686599999999</v>
       </c>
-      <c r="D111" t="s">
-        <v>473</v>
-      </c>
-      <c r="E111" t="s">
-        <v>473</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G111" t="s">
+      <c r="D111" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G111" s="1" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4622,19 +4620,19 @@
       <c r="B112" t="s">
         <v>224</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="1">
         <v>306.19204500000001</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F112" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G112" t="s">
+      <c r="F112" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G112" s="1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4645,19 +4643,19 @@
       <c r="B113" t="s">
         <v>226</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="1">
         <v>285.11820899999998</v>
       </c>
-      <c r="D113" t="s">
-        <v>473</v>
-      </c>
-      <c r="E113" t="s">
-        <v>473</v>
-      </c>
-      <c r="F113" s="1" t="s">
+      <c r="D113" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F113" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G113" s="1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4668,19 +4666,19 @@
       <c r="B114" t="s">
         <v>228</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="1">
         <v>273.90462200000002</v>
       </c>
-      <c r="D114" t="s">
-        <v>473</v>
-      </c>
-      <c r="E114" t="s">
-        <v>473</v>
-      </c>
-      <c r="F114" s="1" t="s">
+      <c r="D114" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G114" s="1" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4691,19 +4689,19 @@
       <c r="B115" t="s">
         <v>230</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="1">
         <v>265.36643900000001</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F115" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G115" t="s">
+      <c r="F115" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G115" s="1" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4714,19 +4712,19 @@
       <c r="B116" t="s">
         <v>232</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="1">
         <v>248.22898699999999</v>
       </c>
-      <c r="D116" t="s">
-        <v>473</v>
-      </c>
-      <c r="E116" t="s">
-        <v>473</v>
-      </c>
-      <c r="F116" s="1" t="s">
+      <c r="D116" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F116" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116" s="1" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4737,19 +4735,19 @@
       <c r="B117" t="s">
         <v>234</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="1">
         <v>237.914738</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F117" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G117" t="s">
+      <c r="F117" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G117" s="1" t="s">
         <v>233</v>
       </c>
     </row>
@@ -4760,19 +4758,19 @@
       <c r="B118" t="s">
         <v>236</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="1">
         <v>221.053856</v>
       </c>
-      <c r="D118" t="s">
-        <v>473</v>
-      </c>
-      <c r="E118" t="s">
-        <v>473</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G118" t="s">
+      <c r="D118" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G118" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4783,19 +4781,19 @@
       <c r="B119" t="s">
         <v>238</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="1">
         <v>216.798046</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E119" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F119" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G119" t="s">
+      <c r="F119" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G119" s="1" t="s">
         <v>237</v>
       </c>
     </row>
@@ -4806,19 +4804,19 @@
       <c r="B120" t="s">
         <v>240</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="1">
         <v>216.798046</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E120" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F120" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G120" t="s">
+      <c r="F120" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G120" s="1" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4829,19 +4827,19 @@
       <c r="B121" t="s">
         <v>242</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="1">
         <v>209.05525800000001</v>
       </c>
-      <c r="D121" t="s">
-        <v>473</v>
-      </c>
-      <c r="E121" t="s">
-        <v>473</v>
-      </c>
-      <c r="F121" s="1" t="s">
+      <c r="D121" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G121" s="1" t="s">
         <v>241</v>
       </c>
     </row>
@@ -4852,19 +4850,19 @@
       <c r="B122" t="s">
         <v>244</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="1">
         <v>202.72024999999999</v>
       </c>
-      <c r="D122" t="s">
-        <v>473</v>
-      </c>
-      <c r="E122" t="s">
-        <v>473</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G122" t="s">
+      <c r="D122" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G122" s="1" t="s">
         <v>243</v>
       </c>
     </row>
@@ -4875,19 +4873,19 @@
       <c r="B123" t="s">
         <v>246</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="1">
         <v>199.632282</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E123" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F123" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G123" t="s">
+      <c r="F123" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G123" s="1" t="s">
         <v>245</v>
       </c>
     </row>
@@ -4898,19 +4896,19 @@
       <c r="B124" t="s">
         <v>248</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="1">
         <v>192.161373</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E124" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F124" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G124" t="s">
+      <c r="F124" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G124" s="1" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4921,19 +4919,19 @@
       <c r="B125" t="s">
         <v>250</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="1">
         <v>191.032928</v>
       </c>
-      <c r="D125" t="s">
-        <v>473</v>
-      </c>
-      <c r="E125" t="s">
-        <v>473</v>
-      </c>
-      <c r="F125" s="1" t="s">
+      <c r="D125" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F125" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G125" s="1" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4944,19 +4942,19 @@
       <c r="B126" t="s">
         <v>252</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="1">
         <v>185.826896</v>
       </c>
-      <c r="D126" t="s">
-        <v>473</v>
-      </c>
-      <c r="E126" t="s">
-        <v>473</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G126" t="s">
+      <c r="D126" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G126" s="1" t="s">
         <v>251</v>
       </c>
     </row>
@@ -4967,19 +4965,19 @@
       <c r="B127" t="s">
         <v>254</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="1">
         <v>177.38021900000001</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E127" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F127" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G127" t="s">
+      <c r="F127" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G127" s="1" t="s">
         <v>253</v>
       </c>
     </row>
@@ -4990,19 +4988,19 @@
       <c r="B128" t="s">
         <v>256</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="1">
         <v>177.133105</v>
       </c>
-      <c r="D128" t="s">
-        <v>473</v>
-      </c>
-      <c r="E128" t="s">
-        <v>473</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G128" t="s">
+      <c r="D128" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G128" s="1" t="s">
         <v>255</v>
       </c>
     </row>
@@ -5013,19 +5011,19 @@
       <c r="B129" t="s">
         <v>258</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="1">
         <v>166.89995400000001</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E129" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F129" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G129" t="s">
+      <c r="F129" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G129" s="1" t="s">
         <v>257</v>
       </c>
     </row>
@@ -5036,19 +5034,19 @@
       <c r="B130" t="s">
         <v>260</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="1">
         <v>158.37519599999999</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E130" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F130" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G130" t="s">
+      <c r="F130" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G130" s="1" t="s">
         <v>259</v>
       </c>
     </row>
@@ -5059,19 +5057,19 @@
       <c r="B131" t="s">
         <v>262</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="1">
         <v>149.579037</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E131" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F131" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G131" t="s">
+      <c r="F131" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G131" s="1" t="s">
         <v>261</v>
       </c>
     </row>
@@ -5082,19 +5080,19 @@
       <c r="B132" t="s">
         <v>264</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="1">
         <v>147.355996</v>
       </c>
-      <c r="D132" t="s">
-        <v>473</v>
-      </c>
-      <c r="E132" t="s">
-        <v>473</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G132" t="s">
+      <c r="D132" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G132" s="1" t="s">
         <v>263</v>
       </c>
     </row>
@@ -5105,19 +5103,19 @@
       <c r="B133" t="s">
         <v>266</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="1">
         <v>137.96239299999999</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E133" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F133" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G133" t="s">
+      <c r="F133" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G133" s="1" t="s">
         <v>265</v>
       </c>
     </row>
@@ -5128,19 +5126,19 @@
       <c r="B134" t="s">
         <v>268</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="1">
         <v>137.29369700000001</v>
       </c>
-      <c r="D134" t="s">
-        <v>473</v>
-      </c>
-      <c r="E134" t="s">
-        <v>473</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G134" t="s">
+      <c r="D134" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G134" s="1" t="s">
         <v>267</v>
       </c>
     </row>
@@ -5151,19 +5149,19 @@
       <c r="B135" t="s">
         <v>270</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="1">
         <v>133.566698</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E135" t="s">
+      <c r="E135" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F135" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G135" t="s">
+      <c r="F135" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G135" s="1" t="s">
         <v>269</v>
       </c>
     </row>
@@ -5174,19 +5172,19 @@
       <c r="B136" t="s">
         <v>272</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="1">
         <v>107.033708</v>
       </c>
-      <c r="D136" t="s">
-        <v>473</v>
-      </c>
-      <c r="E136" t="s">
-        <v>473</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G136" t="s">
+      <c r="D136" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G136" s="1" t="s">
         <v>271</v>
       </c>
     </row>
@@ -5197,19 +5195,19 @@
       <c r="B137" t="s">
         <v>274</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="1">
         <v>105.58346400000001</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E137" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F137" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G137" t="s">
+      <c r="F137" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G137" s="1" t="s">
         <v>273</v>
       </c>
     </row>
@@ -5220,19 +5218,19 @@
       <c r="B138" t="s">
         <v>276</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="1">
         <v>103.471795</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E138" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F138" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G138" t="s">
+      <c r="F138" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G138" s="1" t="s">
         <v>275</v>
       </c>
     </row>
@@ -5243,19 +5241,19 @@
       <c r="B139" t="s">
         <v>278</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="1">
         <v>84.466770999999994</v>
       </c>
-      <c r="D139" t="s">
-        <v>473</v>
-      </c>
-      <c r="E139" t="s">
-        <v>473</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G139" t="s">
+      <c r="D139" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G139" s="1" t="s">
         <v>277</v>
       </c>
     </row>
@@ -5266,19 +5264,19 @@
       <c r="B140" t="s">
         <v>280</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="1">
         <v>83.121305000000007</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E140" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F140" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G140" t="s">
+      <c r="F140" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G140" s="1" t="s">
         <v>279</v>
       </c>
     </row>
@@ -5289,19 +5287,19 @@
       <c r="B141" t="s">
         <v>282</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="1">
         <v>73.908424999999994</v>
       </c>
-      <c r="D141" t="s">
-        <v>473</v>
-      </c>
-      <c r="E141" t="s">
-        <v>473</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G141" t="s">
+      <c r="D141" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G141" s="1" t="s">
         <v>281</v>
       </c>
     </row>
@@ -5312,19 +5310,19 @@
       <c r="B142" t="s">
         <v>284</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="1">
         <v>56.943728</v>
       </c>
-      <c r="D142" t="s">
-        <v>473</v>
-      </c>
-      <c r="E142" t="s">
-        <v>473</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G142" t="s">
+      <c r="D142" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G142" s="1" t="s">
         <v>283</v>
       </c>
     </row>
@@ -5335,19 +5333,19 @@
       <c r="B143" t="s">
         <v>286</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="1">
         <v>54.199511000000001</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="E143" t="s">
-        <v>473</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G143" t="s">
+      <c r="E143" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G143" s="1" t="s">
         <v>285</v>
       </c>
     </row>
@@ -5358,19 +5356,19 @@
       <c r="B144" t="s">
         <v>288</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="1">
         <v>47.626941000000002</v>
       </c>
-      <c r="D144" t="s">
-        <v>473</v>
-      </c>
-      <c r="E144" t="s">
-        <v>473</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G144" t="s">
+      <c r="D144" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G144" s="1" t="s">
         <v>287</v>
       </c>
     </row>
@@ -5381,19 +5379,19 @@
       <c r="B145" t="s">
         <v>290</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="1">
         <v>45.752834</v>
       </c>
-      <c r="D145" t="s">
-        <v>473</v>
-      </c>
-      <c r="E145" t="s">
-        <v>473</v>
-      </c>
-      <c r="F145" s="1" t="s">
+      <c r="D145" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F145" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="G145" t="s">
+      <c r="G145" s="1" t="s">
         <v>289</v>
       </c>
     </row>
@@ -5404,19 +5402,19 @@
       <c r="B146" t="s">
         <v>292</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="1">
         <v>22.524471999999999</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E146" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F146" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G146" t="s">
+      <c r="F146" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G146" s="1" t="s">
         <v>291</v>
       </c>
     </row>
@@ -5427,19 +5425,19 @@
       <c r="B147" t="s">
         <v>294</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="1">
         <v>17.542418000000001</v>
       </c>
-      <c r="D147" t="s">
-        <v>473</v>
-      </c>
-      <c r="E147" t="s">
-        <v>473</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G147" t="s">
+      <c r="D147" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G147" s="1" t="s">
         <v>293</v>
       </c>
     </row>
@@ -5449,19 +5447,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBAE289B-BF99-4F3A-8A11-675EC99B9846}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DEEA59-6A3E-4EDB-A413-7BBE84535284}">
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:H1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="67.5546875" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -5470,22 +5463,22 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>512</v>
       </c>
     </row>
@@ -5496,22 +5489,22 @@
       <c r="B2" t="s">
         <v>296</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="5">
         <v>1732320</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="G2" t="s">
-        <v>512</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G2" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>514</v>
       </c>
     </row>
@@ -5522,22 +5515,22 @@
       <c r="B3" t="s">
         <v>298</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="6">
         <v>592000</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="G3" t="s">
-        <v>512</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="G3" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>516</v>
       </c>
     </row>
@@ -5548,22 +5541,22 @@
       <c r="B4" t="s">
         <v>300</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="7">
         <v>938</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="G4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="G4" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>518</v>
       </c>
     </row>
@@ -5574,22 +5567,22 @@
       <c r="B5" t="s">
         <v>302</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="6">
         <v>50412.010999999999</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="G5" t="s">
-        <v>512</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="G5" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>520</v>
       </c>
     </row>
@@ -5600,22 +5593,22 @@
       <c r="B6" t="s">
         <v>304</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="6">
         <v>40142.316980000003</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="G6" t="s">
-        <v>512</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G6" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>522</v>
       </c>
     </row>
@@ -5626,22 +5619,22 @@
       <c r="B7" t="s">
         <v>306</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>170.20000000000002</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="G7" t="s">
-        <v>512</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="G7" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>524</v>
       </c>
     </row>
@@ -5652,22 +5645,22 @@
       <c r="B8" t="s">
         <v>308</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>92</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="G8" t="s">
-        <v>512</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="G8" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>524</v>
       </c>
     </row>
@@ -5678,22 +5671,22 @@
       <c r="B9" t="s">
         <v>310</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>72.680000000000007</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="G9" t="s">
-        <v>512</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G9" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>524</v>
       </c>
     </row>
@@ -5704,22 +5697,22 @@
       <c r="B10" t="s">
         <v>312</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>55.2</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="G10" t="s">
-        <v>512</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="G10" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>524</v>
       </c>
     </row>
@@ -5730,22 +5723,22 @@
       <c r="B11" t="s">
         <v>314</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="6">
         <v>477438.75</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="G11" t="s">
-        <v>512</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="G11" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>520</v>
       </c>
     </row>
@@ -5756,22 +5749,22 @@
       <c r="B12" t="s">
         <v>316</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="6">
         <v>2864.4</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="G12" t="s">
-        <v>512</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="G12" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>522</v>
       </c>
     </row>
@@ -5782,22 +5775,22 @@
       <c r="B13" t="s">
         <v>318</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="6">
         <v>14857.68302</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="G13" t="s">
-        <v>512</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="G13" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>522</v>
       </c>
     </row>
@@ -5808,22 +5801,22 @@
       <c r="B14" t="s">
         <v>320</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="7">
         <v>11474</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="G14" t="s">
-        <v>512</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="G14" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>518</v>
       </c>
     </row>
@@ -5834,22 +5827,22 @@
       <c r="B15" t="s">
         <v>322</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="8">
         <v>5258100</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G15" t="s">
-        <v>512</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="G15" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>528</v>
       </c>
     </row>
@@ -5860,22 +5853,22 @@
       <c r="B16" t="s">
         <v>324</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="6">
         <v>84960.372700000007</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="G16" t="s">
-        <v>512</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="G16" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>520</v>
       </c>
     </row>
@@ -5886,22 +5879,22 @@
       <c r="B17" t="s">
         <v>326</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="10">
         <v>0</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="H17" s="7" t="s">
+      <c r="G17" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>529</v>
       </c>
     </row>
@@ -5912,22 +5905,22 @@
       <c r="B18" t="s">
         <v>328</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="10">
         <v>0</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="G18" t="s">
-        <v>512</v>
-      </c>
-      <c r="H18" s="7" t="s">
+      <c r="G18" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>529</v>
       </c>
     </row>
@@ -5938,22 +5931,22 @@
       <c r="B19" t="s">
         <v>330</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="10">
         <v>0</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="G19" t="s">
-        <v>512</v>
-      </c>
-      <c r="H19" s="7" t="s">
+      <c r="G19" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H19" s="9" t="s">
         <v>529</v>
       </c>
     </row>
@@ -5964,22 +5957,22 @@
       <c r="B20" t="s">
         <v>332</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="6">
         <v>48.300000000000004</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="G20" t="s">
-        <v>512</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="G20" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>524</v>
       </c>
     </row>
@@ -5990,22 +5983,22 @@
       <c r="B21" t="s">
         <v>334</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <v>151.80000000000001</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="G21" t="s">
-        <v>512</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="G21" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6016,22 +6009,22 @@
       <c r="B22" t="s">
         <v>336</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="4">
         <v>151.80000000000001</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="G22" t="s">
-        <v>512</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="G22" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6042,22 +6035,22 @@
       <c r="B23" t="s">
         <v>338</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="4">
         <v>107.64000000000001</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="G23" t="s">
-        <v>512</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="G23" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6068,22 +6061,22 @@
       <c r="B24" t="s">
         <v>340</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="4">
         <v>107.64000000000001</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="G24" t="s">
-        <v>512</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="G24" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6094,22 +6087,22 @@
       <c r="B25" t="s">
         <v>342</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="4">
         <v>460</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="G25" t="s">
-        <v>512</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="G25" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6120,22 +6113,22 @@
       <c r="B26" t="s">
         <v>344</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="4">
         <v>60.720000000000006</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="G26" t="s">
-        <v>512</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="G26" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6146,22 +6139,22 @@
       <c r="B27" t="s">
         <v>346</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="9">
         <v>0</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="G27" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="H27" s="7" t="s">
+      <c r="G27" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="H27" s="9" t="s">
         <v>529</v>
       </c>
     </row>
@@ -6172,22 +6165,22 @@
       <c r="B28" t="s">
         <v>348</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="4">
         <v>69.92</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="G28" t="s">
-        <v>512</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="G28" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6198,22 +6191,22 @@
       <c r="B29" t="s">
         <v>350</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="4">
         <v>92</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="G29" t="s">
-        <v>512</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="G29" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6224,22 +6217,22 @@
       <c r="B30" t="s">
         <v>352</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="6">
         <v>5558.8207439999996</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="G30" t="s">
-        <v>512</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="G30" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H30" s="4" t="s">
         <v>522</v>
       </c>
     </row>
@@ -6250,22 +6243,22 @@
       <c r="B31" t="s">
         <v>354</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="8">
         <v>2808400</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="G31" t="s">
-        <v>512</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="G31" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>528</v>
       </c>
     </row>
@@ -6276,22 +6269,22 @@
       <c r="B32" t="s">
         <v>356</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="6">
         <v>5558.8207439999996</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="G32" t="s">
-        <v>512</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="G32" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>522</v>
       </c>
     </row>
@@ -6302,22 +6295,22 @@
       <c r="B33" t="s">
         <v>358</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="6">
         <v>8359.6771829999998</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G33" t="s">
-        <v>512</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="G33" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>522</v>
       </c>
     </row>
@@ -6328,22 +6321,22 @@
       <c r="B34" t="s">
         <v>360</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="9">
         <v>0</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="G34" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="H34" s="7" t="s">
+      <c r="G34" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="H34" s="9" t="s">
         <v>529</v>
       </c>
     </row>
@@ -6354,22 +6347,22 @@
       <c r="B35" t="s">
         <v>362</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="6">
         <v>8359.6771829999998</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="G35" t="s">
-        <v>512</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="G35" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>522</v>
       </c>
     </row>
@@ -6380,22 +6373,22 @@
       <c r="B36" t="s">
         <v>364</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="6">
         <v>37659.260040000001</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="G36" t="s">
-        <v>512</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="G36" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>520</v>
       </c>
     </row>
@@ -6406,22 +6399,22 @@
       <c r="B37" t="s">
         <v>366</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="4">
         <v>57.960000000000008</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="G37" t="s">
-        <v>512</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="G37" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6432,22 +6425,22 @@
       <c r="B38" t="s">
         <v>368</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="11">
         <v>1017.817839</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="G38" t="s">
-        <v>512</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="G38" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>518</v>
       </c>
     </row>
@@ -6458,22 +6451,22 @@
       <c r="B39" t="s">
         <v>370</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="8">
         <v>8698800</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="G39" t="s">
-        <v>512</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="G39" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H39" s="4" t="s">
         <v>528</v>
       </c>
     </row>
@@ -6484,22 +6477,22 @@
       <c r="B40" t="s">
         <v>372</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="4">
         <v>47.84</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="G40" t="s">
-        <v>512</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="G40" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6510,22 +6503,22 @@
       <c r="B41" t="s">
         <v>374</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="4">
         <v>58.88</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="G41" t="s">
-        <v>512</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="G41" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6536,22 +6529,22 @@
       <c r="B42" t="s">
         <v>376</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="6">
         <v>18859.671920000001</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="G42" t="s">
-        <v>512</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="G42" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>522</v>
       </c>
     </row>
@@ -6562,22 +6555,22 @@
       <c r="B43" t="s">
         <v>378</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="4">
         <v>115.46</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="G43" t="s">
-        <v>512</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="G43" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6588,22 +6581,22 @@
       <c r="B44" t="s">
         <v>380</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="8">
         <v>9767500</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="G44" t="s">
-        <v>512</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="G44" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>528</v>
       </c>
     </row>
@@ -6614,22 +6607,22 @@
       <c r="B45" t="s">
         <v>382</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="4">
         <v>77.28</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="G45" t="s">
-        <v>512</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="G45" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H45" s="4" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6640,22 +6633,22 @@
       <c r="B46" t="s">
         <v>384</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="4">
         <v>62.1</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="G46" t="s">
-        <v>512</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="G46" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H46" s="4" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6666,22 +6659,22 @@
       <c r="B47" t="s">
         <v>386</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="4">
         <v>62.1</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="G47" t="s">
-        <v>512</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="G47" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H47" s="4" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6692,22 +6685,22 @@
       <c r="B48" t="s">
         <v>388</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="9">
         <v>0</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="G48" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="H48" s="7" t="s">
+      <c r="G48" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="H48" s="9" t="s">
         <v>529</v>
       </c>
     </row>
@@ -6718,22 +6711,22 @@
       <c r="B49" t="s">
         <v>390</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="9">
         <v>0</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="G49" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="H49" s="7" t="s">
+      <c r="G49" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="H49" s="9" t="s">
         <v>529</v>
       </c>
     </row>
@@ -6744,22 +6737,22 @@
       <c r="B50" t="s">
         <v>392</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="6">
         <v>10324.136979999999</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="G50" t="s">
-        <v>512</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="G50" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H50" s="4" t="s">
         <v>522</v>
       </c>
     </row>
@@ -6770,22 +6763,22 @@
       <c r="B51" t="s">
         <v>394</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="4">
         <v>151.34</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="G51" t="s">
-        <v>512</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="G51" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H51" s="4" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6796,22 +6789,22 @@
       <c r="B52" t="s">
         <v>396</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="4">
         <v>90.62</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="G52" t="s">
-        <v>512</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="G52" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H52" s="4" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6822,22 +6815,22 @@
       <c r="B53" t="s">
         <v>398</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="4">
         <v>64.400000000000006</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="G53" t="s">
-        <v>512</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="G53" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H53" s="4" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6848,22 +6841,22 @@
       <c r="B54" t="s">
         <v>400</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="4">
         <v>64.400000000000006</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="G54" t="s">
-        <v>512</v>
-      </c>
-      <c r="H54" t="s">
+      <c r="G54" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H54" s="4" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6874,22 +6867,22 @@
       <c r="B55" t="s">
         <v>402</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="6">
         <v>46508.896309999996</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="G55" t="s">
-        <v>512</v>
-      </c>
-      <c r="H55" t="s">
+      <c r="G55" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H55" s="4" t="s">
         <v>520</v>
       </c>
     </row>
@@ -6900,22 +6893,22 @@
       <c r="B56" t="s">
         <v>404</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56" s="11">
         <v>1761.4671989999999</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="G56" t="s">
-        <v>512</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="G56" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H56" s="4" t="s">
         <v>518</v>
       </c>
     </row>
@@ -6926,22 +6919,22 @@
       <c r="B57" t="s">
         <v>406</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="4">
         <v>164.68</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="G57" t="s">
-        <v>512</v>
-      </c>
-      <c r="H57" t="s">
+      <c r="G57" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H57" s="4" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6952,22 +6945,22 @@
       <c r="B58" t="s">
         <v>408</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="4">
         <v>155.47999999999999</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="G58" t="s">
-        <v>512</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="G58" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H58" s="4" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6978,22 +6971,22 @@
       <c r="B59" t="s">
         <v>410</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="4">
         <v>124.2</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="G59" t="s">
-        <v>512</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="G59" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H59" s="4" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7004,22 +6997,22 @@
       <c r="B60" t="s">
         <v>412</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="4">
         <v>124.2</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="G60" t="s">
-        <v>512</v>
-      </c>
-      <c r="H60" t="s">
+      <c r="G60" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H60" s="4" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7030,22 +7023,22 @@
       <c r="B61" t="s">
         <v>414</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="8">
         <v>11845000</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="G61" t="s">
-        <v>512</v>
-      </c>
-      <c r="H61" t="s">
+      <c r="G61" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H61" s="4" t="s">
         <v>528</v>
       </c>
     </row>
@@ -7056,22 +7049,22 @@
       <c r="B62" t="s">
         <v>416</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="4">
         <v>92.92</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="G62" t="s">
-        <v>512</v>
-      </c>
-      <c r="H62" t="s">
+      <c r="G62" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H62" s="4" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7082,22 +7075,22 @@
       <c r="B63" t="s">
         <v>418</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="4">
         <v>50.14</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="G63" t="s">
-        <v>512</v>
-      </c>
-      <c r="H63" t="s">
+      <c r="G63" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H63" s="4" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7108,22 +7101,22 @@
       <c r="B64" t="s">
         <v>420</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="4">
         <v>50.14</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="G64" t="s">
-        <v>512</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="G64" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H64" s="4" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7134,22 +7127,22 @@
       <c r="B65" t="s">
         <v>422</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="4">
         <v>55.2</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="G65" t="s">
-        <v>512</v>
-      </c>
-      <c r="H65" t="s">
+      <c r="G65" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H65" s="4" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7160,22 +7153,22 @@
       <c r="B66" t="s">
         <v>424</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="4">
         <v>57.5</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="G66" t="s">
-        <v>512</v>
-      </c>
-      <c r="H66" t="s">
+      <c r="G66" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H66" s="4" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7186,22 +7179,22 @@
       <c r="B67" t="s">
         <v>426</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="6">
         <v>14467.517260000001</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="G67" t="s">
-        <v>512</v>
-      </c>
-      <c r="H67" t="s">
+      <c r="G67" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H67" s="4" t="s">
         <v>522</v>
       </c>
     </row>
@@ -7212,22 +7205,22 @@
       <c r="B68" t="s">
         <v>428</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="6">
         <v>65174.286350000002</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="G68" t="s">
-        <v>512</v>
-      </c>
-      <c r="H68" t="s">
+      <c r="G68" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H68" s="4" t="s">
         <v>520</v>
       </c>
     </row>
@@ -7238,22 +7231,22 @@
       <c r="B69" t="s">
         <v>430</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E69" s="8">
         <v>10739000</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="G69" t="s">
-        <v>512</v>
-      </c>
-      <c r="H69" t="s">
+      <c r="G69" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H69" s="4" t="s">
         <v>528</v>
       </c>
     </row>
@@ -7264,22 +7257,22 @@
       <c r="B70" t="s">
         <v>432</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="4">
         <v>51.52</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="G70" t="s">
-        <v>512</v>
-      </c>
-      <c r="H70" t="s">
+      <c r="G70" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H70" s="4" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7290,22 +7283,22 @@
       <c r="B71" t="s">
         <v>434</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71" s="9">
         <v>0</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="G71" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="H71" s="7" t="s">
+      <c r="G71" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="H71" s="9" t="s">
         <v>529</v>
       </c>
     </row>
@@ -7316,22 +7309,22 @@
       <c r="B72" t="s">
         <v>436</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E72" s="9">
         <v>0</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="G72" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="H72" s="7" t="s">
+      <c r="G72" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="H72" s="9" t="s">
         <v>529</v>
       </c>
     </row>
@@ -7342,22 +7335,22 @@
       <c r="B73" t="s">
         <v>438</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E73" s="9">
         <v>0</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F73" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="G73" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="H73" s="7" t="s">
+      <c r="G73" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="H73" s="9" t="s">
         <v>529</v>
       </c>
     </row>
@@ -7368,22 +7361,22 @@
       <c r="B74" t="s">
         <v>440</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E74" s="11">
         <v>1256.997198</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G74" t="s">
-        <v>512</v>
-      </c>
-      <c r="H74" t="s">
+      <c r="G74" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H74" s="4" t="s">
         <v>518</v>
       </c>
     </row>
@@ -7394,22 +7387,22 @@
       <c r="B75" t="s">
         <v>442</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75" s="6">
         <v>10324.136979999999</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="G75" t="s">
-        <v>512</v>
-      </c>
-      <c r="H75" t="s">
+      <c r="G75" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H75" s="4" t="s">
         <v>522</v>
       </c>
     </row>
@@ -7420,22 +7413,22 @@
       <c r="B76" t="s">
         <v>444</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E76" s="6">
         <v>10028.18125</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="G76" t="s">
-        <v>512</v>
-      </c>
-      <c r="H76" t="s">
+      <c r="G76" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H76" s="4" t="s">
         <v>522</v>
       </c>
     </row>
@@ -7446,22 +7439,22 @@
       <c r="B77" t="s">
         <v>446</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E77" s="11">
         <v>1220.963626</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="G77" t="s">
-        <v>512</v>
-      </c>
-      <c r="H77" t="s">
+      <c r="G77" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H77" s="4" t="s">
         <v>518</v>
       </c>
     </row>
@@ -7472,22 +7465,22 @@
       <c r="B78" t="s">
         <v>448</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="4">
         <v>52.44</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="G78" t="s">
-        <v>512</v>
-      </c>
-      <c r="H78" t="s">
+      <c r="G78" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H78" s="4" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7498,22 +7491,22 @@
       <c r="B79" t="s">
         <v>450</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="4">
         <v>57.96</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="G79" t="s">
-        <v>512</v>
-      </c>
-      <c r="H79" t="s">
+      <c r="G79" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H79" s="4" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7524,22 +7517,22 @@
       <c r="B80" t="s">
         <v>452</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E80" s="6">
         <v>11199.13654</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="G80" t="s">
-        <v>512</v>
-      </c>
-      <c r="H80" t="s">
+      <c r="G80" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H80" s="4" t="s">
         <v>522</v>
       </c>
     </row>
@@ -7550,22 +7543,22 @@
       <c r="B81" t="s">
         <v>454</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E81" s="6">
         <v>50450.655700000003</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="G81" t="s">
-        <v>512</v>
-      </c>
-      <c r="H81" t="s">
+      <c r="G81" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H81" s="4" t="s">
         <v>520</v>
       </c>
     </row>
@@ -7576,22 +7569,22 @@
       <c r="B82" t="s">
         <v>456</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="4">
         <v>133.4</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="G82" t="s">
-        <v>512</v>
-      </c>
-      <c r="H82" t="s">
+      <c r="G82" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H82" s="4" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7602,22 +7595,22 @@
       <c r="B83" t="s">
         <v>458</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="4">
         <v>64.400000000000006</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="G83" t="s">
-        <v>512</v>
-      </c>
-      <c r="H83" t="s">
+      <c r="G83" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H83" s="4" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7628,22 +7621,22 @@
       <c r="B84" t="s">
         <v>460</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D84" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="4">
         <v>8625000</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="G84" t="s">
-        <v>512</v>
-      </c>
-      <c r="H84" t="s">
+      <c r="G84" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H84" s="4" t="s">
         <v>514</v>
       </c>
     </row>
@@ -7654,22 +7647,22 @@
       <c r="B85" t="s">
         <v>462</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="D85" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E85" s="9">
         <v>0</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="G85" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="H85" s="7" t="s">
+      <c r="G85" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="H85" s="9" t="s">
         <v>529</v>
       </c>
     </row>
@@ -7680,22 +7673,22 @@
       <c r="B86" t="s">
         <v>464</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="E86" s="9">
+      <c r="E86" s="11">
         <v>1256.997198</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="G86" t="s">
-        <v>512</v>
-      </c>
-      <c r="H86" t="s">
+      <c r="G86" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H86" s="4" t="s">
         <v>518</v>
       </c>
     </row>
@@ -7706,22 +7699,22 @@
       <c r="B87" t="s">
         <v>466</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="4">
         <v>147.19999999999999</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="G87" t="s">
-        <v>512</v>
-      </c>
-      <c r="H87" t="s">
+      <c r="G87" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H87" s="4" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7732,22 +7725,22 @@
       <c r="B88" t="s">
         <v>468</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D88" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="4">
         <v>123.28</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="G88" t="s">
-        <v>512</v>
-      </c>
-      <c r="H88" t="s">
+      <c r="G88" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H88" s="4" t="s">
         <v>524</v>
       </c>
     </row>

--- a/Node_Information_TU.xlsx
+++ b/Node_Information_TU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TU DELFT - Master Thesis\Foodcycle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B84199C0-0EF1-44D8-A0E9-3B4F3D42091D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FD044A6-D0AC-4CF0-BDA6-F417E3C50EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="1812" windowWidth="10788" windowHeight="8880" activeTab="1" xr2:uid="{C8631FA3-EDA5-4979-8CF3-34D80DE8E275}"/>
+    <workbookView xWindow="3264" yWindow="2856" windowWidth="10788" windowHeight="8880" activeTab="1" xr2:uid="{BA24F6BD-595B-43AF-BBE9-67D532782760}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
     <t>V3</t>
   </si>
   <si>
-    <t>{254.491041, 556.132177, -4}</t>
+    <t>{254.491041, 556.132177, 0}</t>
   </si>
   <si>
     <t>V4</t>
@@ -1725,12 +1725,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2051,11 +2049,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35D4B15-D29D-4989-827A-1F74BBE06D57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5FBFAB-473A-4E0C-81C7-FEB26F03EA77}">
   <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:G147"/>
+      <selection activeCell="D1" sqref="D1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2067,19 +2065,19 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>469</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>470</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>472</v>
       </c>
     </row>
@@ -2090,19 +2088,19 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>31174.536655</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="D2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2113,19 +2111,19 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>23824.099084000001</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="D3" t="s">
+        <v>473</v>
+      </c>
+      <c r="E3" t="s">
+        <v>473</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2136,19 +2134,19 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>9665.3696419999997</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>475</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>476</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2159,19 +2157,19 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>8429.6334690000003</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>477</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>478</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2182,19 +2180,19 @@
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>8272.572478</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="D6" t="s">
+        <v>473</v>
+      </c>
+      <c r="E6" t="s">
+        <v>473</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2205,19 +2203,19 @@
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>8061.2871999999998</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="D7" t="s">
+        <v>473</v>
+      </c>
+      <c r="E7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2228,19 +2226,19 @@
       <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>6439.3171910000001</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="D8" t="s">
+        <v>473</v>
+      </c>
+      <c r="E8" t="s">
+        <v>473</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2251,19 +2249,19 @@
       <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>6015.4002810000002</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="D9" t="s">
+        <v>473</v>
+      </c>
+      <c r="E9" t="s">
+        <v>473</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2274,19 +2272,19 @@
       <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>5436.1120639999999</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>480</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>476</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2297,19 +2295,19 @@
       <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>4880.6949619999996</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="D11" t="s">
+        <v>473</v>
+      </c>
+      <c r="E11" t="s">
+        <v>473</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2320,19 +2318,19 @@
       <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>4720.7078570000003</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="D12" t="s">
+        <v>473</v>
+      </c>
+      <c r="E12" t="s">
+        <v>473</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2343,19 +2341,19 @@
       <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>4436.9056129999999</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="D13" t="s">
+        <v>473</v>
+      </c>
+      <c r="E13" t="s">
+        <v>473</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2366,19 +2364,19 @@
       <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>3912.406602</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>481</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>476</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="F14" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G14" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2389,19 +2387,19 @@
       <c r="B15" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>3860.8052539999999</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="D15" t="s">
+        <v>473</v>
+      </c>
+      <c r="E15" t="s">
+        <v>473</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2412,19 +2410,19 @@
       <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>3795.5508420000001</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="D16" t="s">
+        <v>473</v>
+      </c>
+      <c r="E16" t="s">
+        <v>473</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G16" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2435,19 +2433,19 @@
       <c r="B17" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>3414.2072400000002</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="D17" t="s">
+        <v>473</v>
+      </c>
+      <c r="E17" t="s">
+        <v>473</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2458,19 +2456,19 @@
       <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>3321.5999430000002</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="D18" t="s">
+        <v>473</v>
+      </c>
+      <c r="E18" t="s">
+        <v>473</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2481,19 +2479,19 @@
       <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>3035.0676050000002</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="D19" t="s">
+        <v>473</v>
+      </c>
+      <c r="E19" t="s">
+        <v>473</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G19" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2504,19 +2502,19 @@
       <c r="B20" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>2707.0497319999999</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="D20" t="s">
+        <v>473</v>
+      </c>
+      <c r="E20" t="s">
+        <v>473</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G20" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2527,19 +2525,19 @@
       <c r="B21" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>2570.6053980000002</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>483</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>476</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="F21" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G21" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2550,19 +2548,19 @@
       <c r="B22" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>2542.3542550000002</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F22" s="2" t="s">
+      <c r="D22" t="s">
+        <v>473</v>
+      </c>
+      <c r="E22" t="s">
+        <v>473</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2573,19 +2571,19 @@
       <c r="B23" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>2541.1915239999998</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F23" s="2" t="s">
+      <c r="D23" t="s">
+        <v>473</v>
+      </c>
+      <c r="E23" t="s">
+        <v>473</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2596,19 +2594,19 @@
       <c r="B24" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>2440.6488789999999</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>485</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>476</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="F24" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G24" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2619,19 +2617,19 @@
       <c r="B25" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>2245.407526</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F25" s="2" t="s">
+      <c r="D25" t="s">
+        <v>473</v>
+      </c>
+      <c r="E25" t="s">
+        <v>473</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2642,19 +2640,19 @@
       <c r="B26" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>2167.9804559999998</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>487</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>476</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="F26" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G26" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2665,19 +2663,19 @@
       <c r="B27" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>2144.1043049999998</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>488</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>476</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G27" s="1" t="s">
+      <c r="F27" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G27" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2688,19 +2686,19 @@
       <c r="B28" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>2139.3186569999998</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>476</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G28" s="1" t="s">
+      <c r="F28" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G28" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2711,19 +2709,19 @@
       <c r="B29" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>2111.0300670000001</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>476</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G29" s="1" t="s">
+      <c r="F29" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G29" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2734,19 +2732,19 @@
       <c r="B30" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>2093.1709860000001</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G30" s="1" t="s">
+      <c r="D30" t="s">
+        <v>473</v>
+      </c>
+      <c r="E30" t="s">
+        <v>473</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G30" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2757,19 +2755,19 @@
       <c r="B31" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>1954.974543</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="D31" t="s">
+        <v>473</v>
+      </c>
+      <c r="E31" t="s">
+        <v>473</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2780,19 +2778,19 @@
       <c r="B32" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>1942.882355</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G32" s="1" t="s">
+      <c r="D32" t="s">
+        <v>473</v>
+      </c>
+      <c r="E32" t="s">
+        <v>473</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G32" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2803,19 +2801,19 @@
       <c r="B33" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>1921.86682</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F33" s="2" t="s">
+      <c r="D33" t="s">
+        <v>473</v>
+      </c>
+      <c r="E33" t="s">
+        <v>473</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2826,19 +2824,19 @@
       <c r="B34" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34">
         <v>1665.1012900000001</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G34" s="1" t="s">
+      <c r="D34" t="s">
+        <v>473</v>
+      </c>
+      <c r="E34" t="s">
+        <v>473</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G34" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2849,19 +2847,19 @@
       <c r="B35" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35">
         <v>1658.4798290000001</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F35" s="2" t="s">
+      <c r="D35" t="s">
+        <v>473</v>
+      </c>
+      <c r="E35" t="s">
+        <v>473</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2872,19 +2870,19 @@
       <c r="B36" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36">
         <v>1610.590794</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F36" s="2" t="s">
+      <c r="D36" t="s">
+        <v>473</v>
+      </c>
+      <c r="E36" t="s">
+        <v>473</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2895,19 +2893,19 @@
       <c r="B37" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37">
         <v>1597.5119299999999</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F37" s="2" t="s">
+      <c r="D37" t="s">
+        <v>473</v>
+      </c>
+      <c r="E37" t="s">
+        <v>473</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2918,19 +2916,19 @@
       <c r="B38" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38">
         <v>1578.7820959999999</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
         <v>492</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" t="s">
         <v>476</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G38" s="1" t="s">
+      <c r="F38" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G38" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2941,19 +2939,19 @@
       <c r="B39" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39">
         <v>1572.935303</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F39" s="2" t="s">
+      <c r="D39" t="s">
+        <v>473</v>
+      </c>
+      <c r="E39" t="s">
+        <v>473</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2964,19 +2962,19 @@
       <c r="B40" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40">
         <v>1501.150494</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" t="s">
         <v>79</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" t="s">
         <v>476</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G40" s="1" t="s">
+      <c r="F40" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G40" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2987,19 +2985,19 @@
       <c r="B41" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41">
         <v>1501.150494</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" t="s">
         <v>476</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G41" s="1" t="s">
+      <c r="F41" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G41" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3010,19 +3008,19 @@
       <c r="B42" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42">
         <v>1354.2838959999999</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" t="s">
         <v>493</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" t="s">
         <v>476</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G42" s="1" t="s">
+      <c r="F42" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G42" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3033,19 +3031,19 @@
       <c r="B43" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43">
         <v>1340.761573</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F43" s="2" t="s">
+      <c r="D43" t="s">
+        <v>473</v>
+      </c>
+      <c r="E43" t="s">
+        <v>473</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3056,19 +3054,19 @@
       <c r="B44" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44">
         <v>1288.877422</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G44" s="1" t="s">
+      <c r="D44" t="s">
+        <v>473</v>
+      </c>
+      <c r="E44" t="s">
+        <v>473</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G44" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3079,19 +3077,19 @@
       <c r="B45" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45">
         <v>1275.764993</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G45" s="1" t="s">
+      <c r="D45" t="s">
+        <v>473</v>
+      </c>
+      <c r="E45" t="s">
+        <v>473</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G45" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3102,19 +3100,19 @@
       <c r="B46" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46">
         <v>1233.5239079999999</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" t="s">
         <v>485</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" t="s">
         <v>476</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G46" s="1" t="s">
+      <c r="F46" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G46" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3125,19 +3123,19 @@
       <c r="B47" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47">
         <v>1231.7751949999999</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F47" s="2" t="s">
+      <c r="D47" t="s">
+        <v>473</v>
+      </c>
+      <c r="E47" t="s">
+        <v>473</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3148,19 +3146,19 @@
       <c r="B48" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48">
         <v>1153.400093</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G48" s="1" t="s">
+      <c r="D48" t="s">
+        <v>473</v>
+      </c>
+      <c r="E48" t="s">
+        <v>473</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G48" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3171,19 +3169,19 @@
       <c r="B49" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49">
         <v>1148.7480860000001</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" t="s">
         <v>494</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" t="s">
         <v>476</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G49" s="1" t="s">
+      <c r="F49" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G49" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3194,19 +3192,19 @@
       <c r="B50" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50">
         <v>1130.80954</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G50" s="1" t="s">
+      <c r="D50" t="s">
+        <v>473</v>
+      </c>
+      <c r="E50" t="s">
+        <v>473</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G50" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3217,19 +3215,19 @@
       <c r="B51" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51">
         <v>1091.5993570000001</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G51" s="1" t="s">
+      <c r="D51" t="s">
+        <v>473</v>
+      </c>
+      <c r="E51" t="s">
+        <v>473</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G51" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3240,19 +3238,19 @@
       <c r="B52" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52">
         <v>1060.91461</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F52" s="2" t="s">
+      <c r="D52" t="s">
+        <v>473</v>
+      </c>
+      <c r="E52" t="s">
+        <v>473</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G52" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3263,19 +3261,19 @@
       <c r="B53" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53">
         <v>1055.834638</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" t="s">
         <v>495</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" t="s">
         <v>476</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G53" s="1" t="s">
+      <c r="F53" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G53" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3286,19 +3284,19 @@
       <c r="B54" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54">
         <v>1044.1050869999999</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" t="s">
         <v>496</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" t="s">
         <v>476</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G54" s="1" t="s">
+      <c r="F54" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G54" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3309,19 +3307,19 @@
       <c r="B55" t="s">
         <v>110</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55">
         <v>1034.0140550000001</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G55" s="1" t="s">
+      <c r="D55" t="s">
+        <v>473</v>
+      </c>
+      <c r="E55" t="s">
+        <v>473</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G55" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3332,19 +3330,19 @@
       <c r="B56" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56">
         <v>950.17440699999997</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" t="s">
         <v>497</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" t="s">
         <v>476</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G56" s="1" t="s">
+      <c r="F56" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G56" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3355,19 +3353,19 @@
       <c r="B57" t="s">
         <v>114</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57">
         <v>937.01029300000005</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F57" s="2" t="s">
+      <c r="D57" t="s">
+        <v>473</v>
+      </c>
+      <c r="E57" t="s">
+        <v>473</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G57" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3378,19 +3376,19 @@
       <c r="B58" t="s">
         <v>116</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58">
         <v>886.90109600000005</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F58" s="2" t="s">
+      <c r="D58" t="s">
+        <v>473</v>
+      </c>
+      <c r="E58" t="s">
+        <v>473</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G58" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3401,19 +3399,19 @@
       <c r="B59" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59">
         <v>886.22100699999999</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" t="s">
         <v>117</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" t="s">
         <v>476</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G59" s="1" t="s">
+      <c r="F59" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G59" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3424,19 +3422,19 @@
       <c r="B60" t="s">
         <v>120</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60">
         <v>886.22100699999999</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" t="s">
         <v>119</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" t="s">
         <v>476</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G60" s="1" t="s">
+      <c r="F60" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G60" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3447,19 +3445,19 @@
       <c r="B61" t="s">
         <v>122</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61">
         <v>886.22100699999999</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" t="s">
         <v>121</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" t="s">
         <v>476</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G61" s="1" t="s">
+      <c r="F61" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G61" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3470,19 +3468,19 @@
       <c r="B62" t="s">
         <v>124</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62">
         <v>886.22100699999999</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" t="s">
         <v>123</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" t="s">
         <v>476</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G62" s="1" t="s">
+      <c r="F62" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G62" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3493,19 +3491,19 @@
       <c r="B63" t="s">
         <v>126</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63">
         <v>886.22100699999999</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" t="s">
         <v>125</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" t="s">
         <v>476</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G63" s="1" t="s">
+      <c r="F63" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G63" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3516,19 +3514,19 @@
       <c r="B64" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64">
         <v>886.22100699999999</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" t="s">
         <v>127</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" t="s">
         <v>476</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G64" s="1" t="s">
+      <c r="F64" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G64" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3539,19 +3537,19 @@
       <c r="B65" t="s">
         <v>130</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65">
         <v>886.22100699999999</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" t="s">
         <v>129</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" t="s">
         <v>476</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G65" s="1" t="s">
+      <c r="F65" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G65" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3562,19 +3560,19 @@
       <c r="B66" t="s">
         <v>132</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66">
         <v>886.22100699999999</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" t="s">
         <v>131</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" t="s">
         <v>476</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G66" s="1" t="s">
+      <c r="F66" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G66" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3585,19 +3583,19 @@
       <c r="B67" t="s">
         <v>134</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67">
         <v>884.45984599999997</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G67" s="1" t="s">
+      <c r="D67" t="s">
+        <v>473</v>
+      </c>
+      <c r="E67" t="s">
+        <v>473</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G67" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3608,19 +3606,19 @@
       <c r="B68" t="s">
         <v>136</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68">
         <v>871.979286</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F68" s="2" t="s">
+      <c r="D68" t="s">
+        <v>473</v>
+      </c>
+      <c r="E68" t="s">
+        <v>473</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G68" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3631,19 +3629,19 @@
       <c r="B69" t="s">
         <v>138</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69">
         <v>849.66133300000001</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G69" s="1" t="s">
+      <c r="D69" t="s">
+        <v>473</v>
+      </c>
+      <c r="E69" t="s">
+        <v>473</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G69" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3654,19 +3652,19 @@
       <c r="B70" t="s">
         <v>140</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70">
         <v>817.90353000000005</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" t="s">
         <v>477</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" t="s">
         <v>498</v>
       </c>
-      <c r="F70" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="G70" s="1" t="s">
+      <c r="F70" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G70" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3677,19 +3675,19 @@
       <c r="B71" t="s">
         <v>142</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71">
         <v>816.51211999999998</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" t="s">
         <v>141</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" t="s">
         <v>476</v>
       </c>
-      <c r="F71" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G71" s="1" t="s">
+      <c r="F71" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G71" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3700,19 +3698,19 @@
       <c r="B72" t="s">
         <v>144</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72">
         <v>784.69636300000002</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F72" s="2" t="s">
+      <c r="D72" t="s">
+        <v>473</v>
+      </c>
+      <c r="E72" t="s">
+        <v>473</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G72" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3723,19 +3721,19 @@
       <c r="B73" t="s">
         <v>146</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73">
         <v>782.43185200000005</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" t="s">
         <v>499</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" t="s">
         <v>476</v>
       </c>
-      <c r="F73" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G73" s="1" t="s">
+      <c r="F73" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G73" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3746,19 +3744,19 @@
       <c r="B74" t="s">
         <v>148</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74">
         <v>741.89980600000001</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" t="s">
         <v>496</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" t="s">
         <v>476</v>
       </c>
-      <c r="F74" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G74" s="1" t="s">
+      <c r="F74" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G74" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3769,19 +3767,19 @@
       <c r="B75" t="s">
         <v>150</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75">
         <v>735.65105900000003</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F75" s="2" t="s">
+      <c r="D75" t="s">
+        <v>473</v>
+      </c>
+      <c r="E75" t="s">
+        <v>473</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G75" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3792,19 +3790,19 @@
       <c r="B76" t="s">
         <v>152</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76">
         <v>734.14002000000005</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" t="s">
         <v>494</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" t="s">
         <v>476</v>
       </c>
-      <c r="F76" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G76" s="1" t="s">
+      <c r="F76" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G76" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3815,19 +3813,19 @@
       <c r="B77" t="s">
         <v>154</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77">
         <v>731.33723599999996</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" t="s">
         <v>500</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E77" t="s">
         <v>476</v>
       </c>
-      <c r="F77" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G77" s="1" t="s">
+      <c r="F77" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G77" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3838,19 +3836,19 @@
       <c r="B78" t="s">
         <v>156</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78">
         <v>694.035302</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G78" s="1" t="s">
+      <c r="D78" t="s">
+        <v>473</v>
+      </c>
+      <c r="E78" t="s">
+        <v>473</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G78" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3861,19 +3859,19 @@
       <c r="B79" t="s">
         <v>158</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79">
         <v>669.74844399999995</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F79" s="2" t="s">
+      <c r="D79" t="s">
+        <v>473</v>
+      </c>
+      <c r="E79" t="s">
+        <v>473</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="G79" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3884,19 +3882,19 @@
       <c r="B80" t="s">
         <v>160</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80">
         <v>641.94745999999998</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" t="s">
         <v>159</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E80" t="s">
         <v>476</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G80" s="1" t="s">
+      <c r="F80" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G80" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3907,19 +3905,19 @@
       <c r="B81" t="s">
         <v>162</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81">
         <v>636.56769499999996</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" t="s">
         <v>480</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" t="s">
         <v>476</v>
       </c>
-      <c r="F81" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G81" s="1" t="s">
+      <c r="F81" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G81" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3930,19 +3928,19 @@
       <c r="B82" t="s">
         <v>164</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82">
         <v>619.17893800000002</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G82" s="1" t="s">
+      <c r="D82" t="s">
+        <v>473</v>
+      </c>
+      <c r="E82" t="s">
+        <v>473</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G82" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3953,19 +3951,19 @@
       <c r="B83" t="s">
         <v>166</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83">
         <v>603.53602000000001</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F83" s="2" t="s">
+      <c r="D83" t="s">
+        <v>473</v>
+      </c>
+      <c r="E83" t="s">
+        <v>473</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G83" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3976,19 +3974,19 @@
       <c r="B84" t="s">
         <v>168</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84">
         <v>566.43260199999997</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G84" s="1" t="s">
+      <c r="D84" t="s">
+        <v>473</v>
+      </c>
+      <c r="E84" t="s">
+        <v>473</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G84" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3999,19 +3997,19 @@
       <c r="B85" t="s">
         <v>170</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85">
         <v>560.23707899999999</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F85" s="2" t="s">
+      <c r="D85" t="s">
+        <v>473</v>
+      </c>
+      <c r="E85" t="s">
+        <v>473</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="G85" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4022,19 +4020,19 @@
       <c r="B86" t="s">
         <v>172</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86">
         <v>559.77295300000003</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G86" s="1" t="s">
+      <c r="D86" t="s">
+        <v>473</v>
+      </c>
+      <c r="E86" t="s">
+        <v>473</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G86" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4045,19 +4043,19 @@
       <c r="B87" t="s">
         <v>174</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87">
         <v>549.393913</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" t="s">
         <v>494</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" t="s">
         <v>476</v>
       </c>
-      <c r="F87" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G87" s="1" t="s">
+      <c r="F87" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G87" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4068,19 +4066,19 @@
       <c r="B88" t="s">
         <v>176</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88">
         <v>545.51456299999995</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F88" s="2" t="s">
+      <c r="D88" t="s">
+        <v>473</v>
+      </c>
+      <c r="E88" t="s">
+        <v>473</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="G88" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4091,19 +4089,19 @@
       <c r="B89" t="s">
         <v>178</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89">
         <v>513.13563399999998</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" t="s">
         <v>177</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" t="s">
         <v>476</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G89" s="1" t="s">
+      <c r="F89" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G89" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4114,19 +4112,19 @@
       <c r="B90" t="s">
         <v>180</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90">
         <v>506.80062600000002</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" t="s">
         <v>495</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" t="s">
         <v>476</v>
       </c>
-      <c r="F90" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G90" s="1" t="s">
+      <c r="F90" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G90" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4137,19 +4135,19 @@
       <c r="B91" t="s">
         <v>182</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91">
         <v>501.81874099999999</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G91" s="1" t="s">
+      <c r="D91" t="s">
+        <v>473</v>
+      </c>
+      <c r="E91" t="s">
+        <v>473</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G91" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4160,19 +4158,19 @@
       <c r="B92" t="s">
         <v>184</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92">
         <v>494.83449999999999</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F92" s="2" t="s">
+      <c r="D92" t="s">
+        <v>473</v>
+      </c>
+      <c r="E92" t="s">
+        <v>473</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="G92" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4183,19 +4181,19 @@
       <c r="B93" t="s">
         <v>186</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93">
         <v>475.829477</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" t="s">
         <v>185</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E93" t="s">
         <v>476</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G93" s="1" t="s">
+      <c r="F93" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G93" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4206,19 +4204,19 @@
       <c r="B94" t="s">
         <v>188</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94">
         <v>475.829477</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" t="s">
         <v>187</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E94" t="s">
         <v>476</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G94" s="1" t="s">
+      <c r="F94" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G94" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4229,19 +4227,19 @@
       <c r="B95" t="s">
         <v>190</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95">
         <v>473.01391799999999</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F95" s="2" t="s">
+      <c r="D95" t="s">
+        <v>473</v>
+      </c>
+      <c r="E95" t="s">
+        <v>473</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="G95" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4252,19 +4250,19 @@
       <c r="B96" t="s">
         <v>192</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96">
         <v>443.45054800000003</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" t="s">
         <v>487</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E96" t="s">
         <v>476</v>
       </c>
-      <c r="F96" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G96" s="1" t="s">
+      <c r="F96" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G96" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4275,19 +4273,19 @@
       <c r="B97" t="s">
         <v>194</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97">
         <v>439.22720900000002</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F97" s="2" t="s">
+      <c r="D97" t="s">
+        <v>473</v>
+      </c>
+      <c r="E97" t="s">
+        <v>473</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="G97" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4298,19 +4296,19 @@
       <c r="B98" t="s">
         <v>196</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98">
         <v>436.38860899999997</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F98" s="2" t="s">
+      <c r="D98" t="s">
+        <v>473</v>
+      </c>
+      <c r="E98" t="s">
+        <v>473</v>
+      </c>
+      <c r="F98" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="G98" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4321,19 +4319,19 @@
       <c r="B99" t="s">
         <v>198</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99">
         <v>402.63761199999999</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" t="s">
         <v>501</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E99" t="s">
         <v>476</v>
       </c>
-      <c r="F99" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G99" s="1" t="s">
+      <c r="F99" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G99" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4344,19 +4342,19 @@
       <c r="B100" t="s">
         <v>200</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100">
         <v>388.062522</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F100" s="2" t="s">
+      <c r="D100" t="s">
+        <v>473</v>
+      </c>
+      <c r="E100" t="s">
+        <v>473</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="G100" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4367,19 +4365,19 @@
       <c r="B101" t="s">
         <v>202</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101">
         <v>387.13936699999999</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F101" s="2" t="s">
+      <c r="D101" t="s">
+        <v>473</v>
+      </c>
+      <c r="E101" t="s">
+        <v>473</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="G101" t="s">
         <v>201</v>
       </c>
     </row>
@@ -4390,19 +4388,19 @@
       <c r="B102" t="s">
         <v>204</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102">
         <v>373.21048500000001</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G102" s="1" t="s">
+      <c r="D102" t="s">
+        <v>473</v>
+      </c>
+      <c r="E102" t="s">
+        <v>473</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G102" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4413,19 +4411,19 @@
       <c r="B103" t="s">
         <v>206</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103">
         <v>371.65379300000001</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F103" s="2" t="s">
+      <c r="D103" t="s">
+        <v>473</v>
+      </c>
+      <c r="E103" t="s">
+        <v>473</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="G103" s="1" t="s">
+      <c r="G103" t="s">
         <v>205</v>
       </c>
     </row>
@@ -4436,19 +4434,19 @@
       <c r="B104" t="s">
         <v>208</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104">
         <v>367.430454</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" t="s">
         <v>207</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E104" t="s">
         <v>476</v>
       </c>
-      <c r="F104" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G104" s="1" t="s">
+      <c r="F104" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G104" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4459,19 +4457,19 @@
       <c r="B105" t="s">
         <v>210</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105">
         <v>360.39155599999998</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" t="s">
         <v>496</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E105" t="s">
         <v>476</v>
       </c>
-      <c r="F105" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G105" s="1" t="s">
+      <c r="F105" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G105" t="s">
         <v>209</v>
       </c>
     </row>
@@ -4482,19 +4480,19 @@
       <c r="B106" t="s">
         <v>212</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106">
         <v>338.57097399999998</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F106" s="2" t="s">
+      <c r="D106" t="s">
+        <v>473</v>
+      </c>
+      <c r="E106" t="s">
+        <v>473</v>
+      </c>
+      <c r="F106" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="G106" s="1" t="s">
+      <c r="G106" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4505,19 +4503,19 @@
       <c r="B107" t="s">
         <v>214</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107">
         <v>338.33961199999999</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F107" s="2" t="s">
+      <c r="D107" t="s">
+        <v>473</v>
+      </c>
+      <c r="E107" t="s">
+        <v>473</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="G107" s="1" t="s">
+      <c r="G107" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4528,19 +4526,19 @@
       <c r="B108" t="s">
         <v>216</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108">
         <v>329.29722600000002</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" t="s">
         <v>502</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E108" t="s">
         <v>476</v>
       </c>
-      <c r="F108" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G108" s="1" t="s">
+      <c r="F108" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G108" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4551,19 +4549,19 @@
       <c r="B109" t="s">
         <v>218</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109">
         <v>319.677165</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G109" s="1" t="s">
+      <c r="D109" t="s">
+        <v>473</v>
+      </c>
+      <c r="E109" t="s">
+        <v>473</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G109" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4574,19 +4572,19 @@
       <c r="B110" t="s">
         <v>220</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110">
         <v>315.34261199999997</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D110" t="s">
         <v>219</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="E110" t="s">
         <v>476</v>
       </c>
-      <c r="F110" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G110" s="1" t="s">
+      <c r="F110" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G110" t="s">
         <v>219</v>
       </c>
     </row>
@@ -4597,19 +4595,19 @@
       <c r="B111" t="s">
         <v>222</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111">
         <v>307.89686599999999</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G111" s="1" t="s">
+      <c r="D111" t="s">
+        <v>473</v>
+      </c>
+      <c r="E111" t="s">
+        <v>473</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G111" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4620,19 +4618,19 @@
       <c r="B112" t="s">
         <v>224</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C112">
         <v>306.19204500000001</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" t="s">
         <v>483</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="E112" t="s">
         <v>476</v>
       </c>
-      <c r="F112" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G112" s="1" t="s">
+      <c r="F112" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G112" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4643,19 +4641,19 @@
       <c r="B113" t="s">
         <v>226</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C113">
         <v>285.11820899999998</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F113" s="2" t="s">
+      <c r="D113" t="s">
+        <v>473</v>
+      </c>
+      <c r="E113" t="s">
+        <v>473</v>
+      </c>
+      <c r="F113" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="G113" s="1" t="s">
+      <c r="G113" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4666,19 +4664,19 @@
       <c r="B114" t="s">
         <v>228</v>
       </c>
-      <c r="C114" s="1">
+      <c r="C114">
         <v>273.90462200000002</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F114" s="2" t="s">
+      <c r="D114" t="s">
+        <v>473</v>
+      </c>
+      <c r="E114" t="s">
+        <v>473</v>
+      </c>
+      <c r="F114" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="G114" s="1" t="s">
+      <c r="G114" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4689,19 +4687,19 @@
       <c r="B115" t="s">
         <v>230</v>
       </c>
-      <c r="C115" s="1">
+      <c r="C115">
         <v>265.36643900000001</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D115" t="s">
         <v>503</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="E115" t="s">
         <v>476</v>
       </c>
-      <c r="F115" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G115" s="1" t="s">
+      <c r="F115" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G115" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4712,19 +4710,19 @@
       <c r="B116" t="s">
         <v>232</v>
       </c>
-      <c r="C116" s="1">
+      <c r="C116">
         <v>248.22898699999999</v>
       </c>
-      <c r="D116" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F116" s="2" t="s">
+      <c r="D116" t="s">
+        <v>473</v>
+      </c>
+      <c r="E116" t="s">
+        <v>473</v>
+      </c>
+      <c r="F116" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="G116" s="1" t="s">
+      <c r="G116" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4735,19 +4733,19 @@
       <c r="B117" t="s">
         <v>234</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C117">
         <v>237.914738</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" t="s">
         <v>496</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="E117" t="s">
         <v>476</v>
       </c>
-      <c r="F117" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G117" s="1" t="s">
+      <c r="F117" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G117" t="s">
         <v>233</v>
       </c>
     </row>
@@ -4758,19 +4756,19 @@
       <c r="B118" t="s">
         <v>236</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C118">
         <v>221.053856</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G118" s="1" t="s">
+      <c r="D118" t="s">
+        <v>473</v>
+      </c>
+      <c r="E118" t="s">
+        <v>473</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G118" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4781,19 +4779,19 @@
       <c r="B119" t="s">
         <v>238</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C119">
         <v>216.798046</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D119" t="s">
         <v>237</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="E119" t="s">
         <v>476</v>
       </c>
-      <c r="F119" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G119" s="1" t="s">
+      <c r="F119" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G119" t="s">
         <v>237</v>
       </c>
     </row>
@@ -4804,19 +4802,19 @@
       <c r="B120" t="s">
         <v>240</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C120">
         <v>216.798046</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D120" t="s">
         <v>239</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="E120" t="s">
         <v>476</v>
       </c>
-      <c r="F120" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G120" s="1" t="s">
+      <c r="F120" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G120" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4827,19 +4825,19 @@
       <c r="B121" t="s">
         <v>242</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C121">
         <v>209.05525800000001</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F121" s="2" t="s">
+      <c r="D121" t="s">
+        <v>473</v>
+      </c>
+      <c r="E121" t="s">
+        <v>473</v>
+      </c>
+      <c r="F121" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="G121" s="1" t="s">
+      <c r="G121" t="s">
         <v>241</v>
       </c>
     </row>
@@ -4850,19 +4848,19 @@
       <c r="B122" t="s">
         <v>244</v>
       </c>
-      <c r="C122" s="1">
+      <c r="C122">
         <v>202.72024999999999</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G122" s="1" t="s">
+      <c r="D122" t="s">
+        <v>473</v>
+      </c>
+      <c r="E122" t="s">
+        <v>473</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G122" t="s">
         <v>243</v>
       </c>
     </row>
@@ -4873,19 +4871,19 @@
       <c r="B123" t="s">
         <v>246</v>
       </c>
-      <c r="C123" s="1">
+      <c r="C123">
         <v>199.632282</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D123" t="s">
         <v>504</v>
       </c>
-      <c r="E123" s="1" t="s">
+      <c r="E123" t="s">
         <v>476</v>
       </c>
-      <c r="F123" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G123" s="1" t="s">
+      <c r="F123" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G123" t="s">
         <v>245</v>
       </c>
     </row>
@@ -4896,19 +4894,19 @@
       <c r="B124" t="s">
         <v>248</v>
       </c>
-      <c r="C124" s="1">
+      <c r="C124">
         <v>192.161373</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D124" t="s">
         <v>505</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="E124" t="s">
         <v>476</v>
       </c>
-      <c r="F124" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G124" s="1" t="s">
+      <c r="F124" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G124" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4919,19 +4917,19 @@
       <c r="B125" t="s">
         <v>250</v>
       </c>
-      <c r="C125" s="1">
+      <c r="C125">
         <v>191.032928</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F125" s="2" t="s">
+      <c r="D125" t="s">
+        <v>473</v>
+      </c>
+      <c r="E125" t="s">
+        <v>473</v>
+      </c>
+      <c r="F125" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="G125" s="1" t="s">
+      <c r="G125" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4942,19 +4940,19 @@
       <c r="B126" t="s">
         <v>252</v>
       </c>
-      <c r="C126" s="1">
+      <c r="C126">
         <v>185.826896</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G126" s="1" t="s">
+      <c r="D126" t="s">
+        <v>473</v>
+      </c>
+      <c r="E126" t="s">
+        <v>473</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G126" t="s">
         <v>251</v>
       </c>
     </row>
@@ -4965,19 +4963,19 @@
       <c r="B127" t="s">
         <v>254</v>
       </c>
-      <c r="C127" s="1">
+      <c r="C127">
         <v>177.38021900000001</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D127" t="s">
         <v>253</v>
       </c>
-      <c r="E127" s="1" t="s">
+      <c r="E127" t="s">
         <v>476</v>
       </c>
-      <c r="F127" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G127" s="1" t="s">
+      <c r="F127" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G127" t="s">
         <v>253</v>
       </c>
     </row>
@@ -4988,19 +4986,19 @@
       <c r="B128" t="s">
         <v>256</v>
       </c>
-      <c r="C128" s="1">
+      <c r="C128">
         <v>177.133105</v>
       </c>
-      <c r="D128" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G128" s="1" t="s">
+      <c r="D128" t="s">
+        <v>473</v>
+      </c>
+      <c r="E128" t="s">
+        <v>473</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G128" t="s">
         <v>255</v>
       </c>
     </row>
@@ -5011,19 +5009,19 @@
       <c r="B129" t="s">
         <v>258</v>
       </c>
-      <c r="C129" s="1">
+      <c r="C129">
         <v>166.89995400000001</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D129" t="s">
         <v>257</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="E129" t="s">
         <v>476</v>
       </c>
-      <c r="F129" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G129" s="1" t="s">
+      <c r="F129" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G129" t="s">
         <v>257</v>
       </c>
     </row>
@@ -5034,19 +5032,19 @@
       <c r="B130" t="s">
         <v>260</v>
       </c>
-      <c r="C130" s="1">
+      <c r="C130">
         <v>158.37519599999999</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D130" t="s">
         <v>259</v>
       </c>
-      <c r="E130" s="1" t="s">
+      <c r="E130" t="s">
         <v>476</v>
       </c>
-      <c r="F130" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G130" s="1" t="s">
+      <c r="F130" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G130" t="s">
         <v>259</v>
       </c>
     </row>
@@ -5057,19 +5055,19 @@
       <c r="B131" t="s">
         <v>262</v>
       </c>
-      <c r="C131" s="1">
+      <c r="C131">
         <v>149.579037</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D131" t="s">
         <v>506</v>
       </c>
-      <c r="E131" s="1" t="s">
+      <c r="E131" t="s">
         <v>476</v>
       </c>
-      <c r="F131" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G131" s="1" t="s">
+      <c r="F131" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G131" t="s">
         <v>261</v>
       </c>
     </row>
@@ -5080,19 +5078,19 @@
       <c r="B132" t="s">
         <v>264</v>
       </c>
-      <c r="C132" s="1">
+      <c r="C132">
         <v>147.355996</v>
       </c>
-      <c r="D132" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G132" s="1" t="s">
+      <c r="D132" t="s">
+        <v>473</v>
+      </c>
+      <c r="E132" t="s">
+        <v>473</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G132" t="s">
         <v>263</v>
       </c>
     </row>
@@ -5103,19 +5101,19 @@
       <c r="B133" t="s">
         <v>266</v>
       </c>
-      <c r="C133" s="1">
+      <c r="C133">
         <v>137.96239299999999</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D133" t="s">
         <v>501</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="E133" t="s">
         <v>476</v>
       </c>
-      <c r="F133" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G133" s="1" t="s">
+      <c r="F133" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G133" t="s">
         <v>265</v>
       </c>
     </row>
@@ -5126,19 +5124,19 @@
       <c r="B134" t="s">
         <v>268</v>
       </c>
-      <c r="C134" s="1">
+      <c r="C134">
         <v>137.29369700000001</v>
       </c>
-      <c r="D134" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G134" s="1" t="s">
+      <c r="D134" t="s">
+        <v>473</v>
+      </c>
+      <c r="E134" t="s">
+        <v>473</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G134" t="s">
         <v>267</v>
       </c>
     </row>
@@ -5149,19 +5147,19 @@
       <c r="B135" t="s">
         <v>270</v>
       </c>
-      <c r="C135" s="1">
+      <c r="C135">
         <v>133.566698</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D135" t="s">
         <v>269</v>
       </c>
-      <c r="E135" s="1" t="s">
+      <c r="E135" t="s">
         <v>476</v>
       </c>
-      <c r="F135" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G135" s="1" t="s">
+      <c r="F135" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G135" t="s">
         <v>269</v>
       </c>
     </row>
@@ -5172,19 +5170,19 @@
       <c r="B136" t="s">
         <v>272</v>
       </c>
-      <c r="C136" s="1">
+      <c r="C136">
         <v>107.033708</v>
       </c>
-      <c r="D136" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G136" s="1" t="s">
+      <c r="D136" t="s">
+        <v>473</v>
+      </c>
+      <c r="E136" t="s">
+        <v>473</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G136" t="s">
         <v>271</v>
       </c>
     </row>
@@ -5195,19 +5193,19 @@
       <c r="B137" t="s">
         <v>274</v>
       </c>
-      <c r="C137" s="1">
+      <c r="C137">
         <v>105.58346400000001</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D137" t="s">
         <v>503</v>
       </c>
-      <c r="E137" s="1" t="s">
+      <c r="E137" t="s">
         <v>476</v>
       </c>
-      <c r="F137" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G137" s="1" t="s">
+      <c r="F137" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G137" t="s">
         <v>273</v>
       </c>
     </row>
@@ -5218,19 +5216,19 @@
       <c r="B138" t="s">
         <v>276</v>
       </c>
-      <c r="C138" s="1">
+      <c r="C138">
         <v>103.471795</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D138" t="s">
         <v>487</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="E138" t="s">
         <v>476</v>
       </c>
-      <c r="F138" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G138" s="1" t="s">
+      <c r="F138" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G138" t="s">
         <v>275</v>
       </c>
     </row>
@@ -5241,19 +5239,19 @@
       <c r="B139" t="s">
         <v>278</v>
       </c>
-      <c r="C139" s="1">
+      <c r="C139">
         <v>84.466770999999994</v>
       </c>
-      <c r="D139" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G139" s="1" t="s">
+      <c r="D139" t="s">
+        <v>473</v>
+      </c>
+      <c r="E139" t="s">
+        <v>473</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G139" t="s">
         <v>277</v>
       </c>
     </row>
@@ -5264,19 +5262,19 @@
       <c r="B140" t="s">
         <v>280</v>
       </c>
-      <c r="C140" s="1">
+      <c r="C140">
         <v>83.121305000000007</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D140" t="s">
         <v>507</v>
       </c>
-      <c r="E140" s="1" t="s">
+      <c r="E140" t="s">
         <v>476</v>
       </c>
-      <c r="F140" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G140" s="1" t="s">
+      <c r="F140" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G140" t="s">
         <v>279</v>
       </c>
     </row>
@@ -5287,19 +5285,19 @@
       <c r="B141" t="s">
         <v>282</v>
       </c>
-      <c r="C141" s="1">
+      <c r="C141">
         <v>73.908424999999994</v>
       </c>
-      <c r="D141" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G141" s="1" t="s">
+      <c r="D141" t="s">
+        <v>473</v>
+      </c>
+      <c r="E141" t="s">
+        <v>473</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G141" t="s">
         <v>281</v>
       </c>
     </row>
@@ -5310,19 +5308,19 @@
       <c r="B142" t="s">
         <v>284</v>
       </c>
-      <c r="C142" s="1">
+      <c r="C142">
         <v>56.943728</v>
       </c>
-      <c r="D142" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G142" s="1" t="s">
+      <c r="D142" t="s">
+        <v>473</v>
+      </c>
+      <c r="E142" t="s">
+        <v>473</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G142" t="s">
         <v>283</v>
       </c>
     </row>
@@ -5333,19 +5331,19 @@
       <c r="B143" t="s">
         <v>286</v>
       </c>
-      <c r="C143" s="1">
+      <c r="C143">
         <v>54.199511000000001</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D143" t="s">
         <v>476</v>
       </c>
-      <c r="E143" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G143" s="1" t="s">
+      <c r="E143" t="s">
+        <v>473</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G143" t="s">
         <v>285</v>
       </c>
     </row>
@@ -5356,19 +5354,19 @@
       <c r="B144" t="s">
         <v>288</v>
       </c>
-      <c r="C144" s="1">
+      <c r="C144">
         <v>47.626941000000002</v>
       </c>
-      <c r="D144" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G144" s="1" t="s">
+      <c r="D144" t="s">
+        <v>473</v>
+      </c>
+      <c r="E144" t="s">
+        <v>473</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G144" t="s">
         <v>287</v>
       </c>
     </row>
@@ -5379,19 +5377,19 @@
       <c r="B145" t="s">
         <v>290</v>
       </c>
-      <c r="C145" s="1">
+      <c r="C145">
         <v>45.752834</v>
       </c>
-      <c r="D145" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F145" s="2" t="s">
+      <c r="D145" t="s">
+        <v>473</v>
+      </c>
+      <c r="E145" t="s">
+        <v>473</v>
+      </c>
+      <c r="F145" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="G145" s="1" t="s">
+      <c r="G145" t="s">
         <v>289</v>
       </c>
     </row>
@@ -5402,19 +5400,19 @@
       <c r="B146" t="s">
         <v>292</v>
       </c>
-      <c r="C146" s="1">
+      <c r="C146">
         <v>22.524471999999999</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="D146" t="s">
         <v>291</v>
       </c>
-      <c r="E146" s="1" t="s">
+      <c r="E146" t="s">
         <v>476</v>
       </c>
-      <c r="F146" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G146" s="1" t="s">
+      <c r="F146" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G146" t="s">
         <v>291</v>
       </c>
     </row>
@@ -5425,19 +5423,19 @@
       <c r="B147" t="s">
         <v>294</v>
       </c>
-      <c r="C147" s="1">
+      <c r="C147">
         <v>17.542418000000001</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G147" s="1" t="s">
+      <c r="D147" t="s">
+        <v>473</v>
+      </c>
+      <c r="E147" t="s">
+        <v>473</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G147" t="s">
         <v>293</v>
       </c>
     </row>
@@ -5447,11 +5445,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DEEA59-6A3E-4EDB-A413-7BBE84535284}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C802AB5-9701-4DD9-AD7A-747D80F26855}">
   <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:H88"/>
+      <selection activeCell="C1" sqref="C1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5463,22 +5461,22 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
         <v>508</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>509</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" t="s">
         <v>510</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" t="s">
         <v>472</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" t="s">
         <v>511</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" t="s">
         <v>512</v>
       </c>
     </row>
@@ -5489,22 +5487,22 @@
       <c r="B2" t="s">
         <v>296</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>513</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>1732320</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" t="s">
         <v>295</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" t="s">
+        <v>512</v>
+      </c>
+      <c r="H2" t="s">
         <v>514</v>
       </c>
     </row>
@@ -5515,22 +5513,22 @@
       <c r="B3" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>477</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>592000</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" t="s">
         <v>297</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" t="s">
+        <v>512</v>
+      </c>
+      <c r="H3" t="s">
         <v>516</v>
       </c>
     </row>
@@ -5541,22 +5539,22 @@
       <c r="B4" t="s">
         <v>300</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>477</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>938</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" t="s">
         <v>299</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="G4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H4" t="s">
         <v>518</v>
       </c>
     </row>
@@ -5567,22 +5565,22 @@
       <c r="B5" t="s">
         <v>302</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>477</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>519</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>50412.010999999999</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" t="s">
         <v>301</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="G5" t="s">
+        <v>512</v>
+      </c>
+      <c r="H5" t="s">
         <v>520</v>
       </c>
     </row>
@@ -5593,22 +5591,22 @@
       <c r="B6" t="s">
         <v>304</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>477</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>521</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>40142.316980000003</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" t="s">
         <v>303</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="G6" t="s">
+        <v>512</v>
+      </c>
+      <c r="H6" t="s">
         <v>522</v>
       </c>
     </row>
@@ -5619,22 +5617,22 @@
       <c r="B7" t="s">
         <v>306</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>477</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7">
         <v>170.20000000000002</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" t="s">
         <v>305</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="G7" t="s">
+        <v>512</v>
+      </c>
+      <c r="H7" t="s">
         <v>524</v>
       </c>
     </row>
@@ -5645,22 +5643,22 @@
       <c r="B8" t="s">
         <v>308</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>477</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8">
         <v>92</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" t="s">
         <v>307</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="G8" t="s">
+        <v>512</v>
+      </c>
+      <c r="H8" t="s">
         <v>524</v>
       </c>
     </row>
@@ -5671,22 +5669,22 @@
       <c r="B9" t="s">
         <v>310</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>477</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9">
         <v>72.680000000000007</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" t="s">
         <v>309</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="G9" t="s">
+        <v>512</v>
+      </c>
+      <c r="H9" t="s">
         <v>524</v>
       </c>
     </row>
@@ -5697,22 +5695,22 @@
       <c r="B10" t="s">
         <v>312</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>477</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10">
         <v>55.2</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" t="s">
         <v>311</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="G10" t="s">
+        <v>512</v>
+      </c>
+      <c r="H10" t="s">
         <v>524</v>
       </c>
     </row>
@@ -5723,22 +5721,22 @@
       <c r="B11" t="s">
         <v>314</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
         <v>525</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" t="s">
         <v>519</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>477438.75</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" t="s">
         <v>313</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H11" s="4" t="s">
+      <c r="G11" t="s">
+        <v>512</v>
+      </c>
+      <c r="H11" t="s">
         <v>520</v>
       </c>
     </row>
@@ -5749,22 +5747,22 @@
       <c r="B12" t="s">
         <v>316</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" t="s">
         <v>525</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" t="s">
         <v>521</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>2864.4</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" t="s">
         <v>315</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H12" s="4" t="s">
+      <c r="G12" t="s">
+        <v>512</v>
+      </c>
+      <c r="H12" t="s">
         <v>522</v>
       </c>
     </row>
@@ -5775,22 +5773,22 @@
       <c r="B13" t="s">
         <v>318</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" t="s">
         <v>526</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" t="s">
         <v>521</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="4">
         <v>14857.68302</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" t="s">
         <v>317</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H13" s="4" t="s">
+      <c r="G13" t="s">
+        <v>512</v>
+      </c>
+      <c r="H13" t="s">
         <v>522</v>
       </c>
     </row>
@@ -5801,22 +5799,22 @@
       <c r="B14" t="s">
         <v>320</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" t="s">
         <v>526</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <v>11474</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" t="s">
         <v>319</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H14" s="4" t="s">
+      <c r="G14" t="s">
+        <v>512</v>
+      </c>
+      <c r="H14" t="s">
         <v>518</v>
       </c>
     </row>
@@ -5827,22 +5825,22 @@
       <c r="B15" t="s">
         <v>322</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" t="s">
         <v>526</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="6">
         <v>5258100</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" t="s">
         <v>321</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H15" s="4" t="s">
+      <c r="G15" t="s">
+        <v>512</v>
+      </c>
+      <c r="H15" t="s">
         <v>528</v>
       </c>
     </row>
@@ -5853,22 +5851,22 @@
       <c r="B16" t="s">
         <v>324</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" t="s">
         <v>475</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" t="s">
         <v>519</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="4">
         <v>84960.372700000007</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" t="s">
         <v>323</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H16" s="4" t="s">
+      <c r="G16" t="s">
+        <v>512</v>
+      </c>
+      <c r="H16" t="s">
         <v>520</v>
       </c>
     </row>
@@ -5879,22 +5877,22 @@
       <c r="B17" t="s">
         <v>326</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="8">
         <v>0</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="H17" s="9" t="s">
+      <c r="G17" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>529</v>
       </c>
     </row>
@@ -5905,22 +5903,22 @@
       <c r="B18" t="s">
         <v>328</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" t="s">
         <v>504</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="8">
         <v>0</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" t="s">
         <v>327</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H18" s="9" t="s">
+      <c r="G18" t="s">
+        <v>512</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>529</v>
       </c>
     </row>
@@ -5931,22 +5929,22 @@
       <c r="B19" t="s">
         <v>330</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" t="s">
         <v>530</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="8">
         <v>0</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" t="s">
         <v>329</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H19" s="9" t="s">
+      <c r="G19" t="s">
+        <v>512</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>529</v>
       </c>
     </row>
@@ -5957,22 +5955,22 @@
       <c r="B20" t="s">
         <v>332</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" t="s">
         <v>480</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="4">
         <v>48.300000000000004</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" t="s">
         <v>331</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H20" s="4" t="s">
+      <c r="G20" t="s">
+        <v>512</v>
+      </c>
+      <c r="H20" t="s">
         <v>524</v>
       </c>
     </row>
@@ -5983,22 +5981,22 @@
       <c r="B21" t="s">
         <v>334</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" t="s">
         <v>526</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21">
         <v>151.80000000000001</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" t="s">
         <v>333</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H21" s="4" t="s">
+      <c r="G21" t="s">
+        <v>512</v>
+      </c>
+      <c r="H21" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6009,22 +6007,22 @@
       <c r="B22" t="s">
         <v>336</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" t="s">
         <v>526</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22">
         <v>151.80000000000001</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" t="s">
         <v>335</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H22" s="4" t="s">
+      <c r="G22" t="s">
+        <v>512</v>
+      </c>
+      <c r="H22" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6035,22 +6033,22 @@
       <c r="B23" t="s">
         <v>338</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" t="s">
         <v>526</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23">
         <v>107.64000000000001</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" t="s">
         <v>337</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H23" s="4" t="s">
+      <c r="G23" t="s">
+        <v>512</v>
+      </c>
+      <c r="H23" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6061,22 +6059,22 @@
       <c r="B24" t="s">
         <v>340</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" t="s">
         <v>526</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24">
         <v>107.64000000000001</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" t="s">
         <v>339</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H24" s="4" t="s">
+      <c r="G24" t="s">
+        <v>512</v>
+      </c>
+      <c r="H24" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6087,22 +6085,22 @@
       <c r="B25" t="s">
         <v>342</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" t="s">
         <v>526</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25">
         <v>460</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" t="s">
         <v>341</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H25" s="4" t="s">
+      <c r="G25" t="s">
+        <v>512</v>
+      </c>
+      <c r="H25" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6113,22 +6111,22 @@
       <c r="B26" t="s">
         <v>344</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" t="s">
         <v>480</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26">
         <v>60.720000000000006</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" t="s">
         <v>343</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H26" s="4" t="s">
+      <c r="G26" t="s">
+        <v>512</v>
+      </c>
+      <c r="H26" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6139,22 +6137,22 @@
       <c r="B27" t="s">
         <v>346</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="7">
         <v>0</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="G27" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="H27" s="9" t="s">
+      <c r="G27" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="H27" s="7" t="s">
         <v>529</v>
       </c>
     </row>
@@ -6165,22 +6163,22 @@
       <c r="B28" t="s">
         <v>348</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" t="s">
         <v>480</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28">
         <v>69.92</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" t="s">
         <v>347</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H28" s="4" t="s">
+      <c r="G28" t="s">
+        <v>512</v>
+      </c>
+      <c r="H28" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6191,22 +6189,22 @@
       <c r="B29" t="s">
         <v>350</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" t="s">
         <v>480</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29">
         <v>92</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" t="s">
         <v>349</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H29" s="4" t="s">
+      <c r="G29" t="s">
+        <v>512</v>
+      </c>
+      <c r="H29" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6217,22 +6215,22 @@
       <c r="B30" t="s">
         <v>352</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" t="s">
         <v>531</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" t="s">
         <v>521</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="4">
         <v>5558.8207439999996</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" t="s">
         <v>351</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H30" s="4" t="s">
+      <c r="G30" t="s">
+        <v>512</v>
+      </c>
+      <c r="H30" t="s">
         <v>522</v>
       </c>
     </row>
@@ -6243,22 +6241,22 @@
       <c r="B31" t="s">
         <v>354</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" t="s">
         <v>531</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="6">
         <v>2808400</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" t="s">
         <v>353</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H31" s="4" t="s">
+      <c r="G31" t="s">
+        <v>512</v>
+      </c>
+      <c r="H31" t="s">
         <v>528</v>
       </c>
     </row>
@@ -6269,22 +6267,22 @@
       <c r="B32" t="s">
         <v>356</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" t="s">
         <v>531</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" t="s">
         <v>521</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="4">
         <v>5558.8207439999996</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" t="s">
         <v>355</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H32" s="4" t="s">
+      <c r="G32" t="s">
+        <v>512</v>
+      </c>
+      <c r="H32" t="s">
         <v>522</v>
       </c>
     </row>
@@ -6295,22 +6293,22 @@
       <c r="B33" t="s">
         <v>358</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" t="s">
         <v>532</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" t="s">
         <v>521</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="4">
         <v>8359.6771829999998</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" t="s">
         <v>357</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H33" s="4" t="s">
+      <c r="G33" t="s">
+        <v>512</v>
+      </c>
+      <c r="H33" t="s">
         <v>522</v>
       </c>
     </row>
@@ -6321,22 +6319,22 @@
       <c r="B34" t="s">
         <v>360</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="7">
         <v>0</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="G34" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="H34" s="9" t="s">
+      <c r="G34" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="H34" s="7" t="s">
         <v>529</v>
       </c>
     </row>
@@ -6347,22 +6345,22 @@
       <c r="B35" t="s">
         <v>362</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" t="s">
         <v>532</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" t="s">
         <v>521</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="4">
         <v>8359.6771829999998</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" t="s">
         <v>361</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H35" s="4" t="s">
+      <c r="G35" t="s">
+        <v>512</v>
+      </c>
+      <c r="H35" t="s">
         <v>522</v>
       </c>
     </row>
@@ -6373,22 +6371,22 @@
       <c r="B36" t="s">
         <v>364</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" t="s">
         <v>532</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" t="s">
         <v>519</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="4">
         <v>37659.260040000001</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" t="s">
         <v>363</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H36" s="4" t="s">
+      <c r="G36" t="s">
+        <v>512</v>
+      </c>
+      <c r="H36" t="s">
         <v>520</v>
       </c>
     </row>
@@ -6399,22 +6397,22 @@
       <c r="B37" t="s">
         <v>366</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" t="s">
         <v>532</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37">
         <v>57.960000000000008</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" t="s">
         <v>365</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H37" s="4" t="s">
+      <c r="G37" t="s">
+        <v>512</v>
+      </c>
+      <c r="H37" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6425,22 +6423,22 @@
       <c r="B38" t="s">
         <v>368</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" t="s">
         <v>532</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="9">
         <v>1017.817839</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" t="s">
         <v>367</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H38" s="4" t="s">
+      <c r="G38" t="s">
+        <v>512</v>
+      </c>
+      <c r="H38" t="s">
         <v>518</v>
       </c>
     </row>
@@ -6451,22 +6449,22 @@
       <c r="B39" t="s">
         <v>370</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" t="s">
         <v>475</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="6">
         <v>8698800</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" t="s">
         <v>369</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H39" s="4" t="s">
+      <c r="G39" t="s">
+        <v>512</v>
+      </c>
+      <c r="H39" t="s">
         <v>528</v>
       </c>
     </row>
@@ -6477,22 +6475,22 @@
       <c r="B40" t="s">
         <v>372</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" t="s">
         <v>532</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40">
         <v>47.84</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" t="s">
         <v>371</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H40" s="4" t="s">
+      <c r="G40" t="s">
+        <v>512</v>
+      </c>
+      <c r="H40" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6503,22 +6501,22 @@
       <c r="B41" t="s">
         <v>374</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" t="s">
         <v>532</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41">
         <v>58.88</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" t="s">
         <v>373</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H41" s="4" t="s">
+      <c r="G41" t="s">
+        <v>512</v>
+      </c>
+      <c r="H41" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6529,22 +6527,22 @@
       <c r="B42" t="s">
         <v>376</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" t="s">
         <v>475</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" t="s">
         <v>521</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="4">
         <v>18859.671920000001</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" t="s">
         <v>375</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H42" s="4" t="s">
+      <c r="G42" t="s">
+        <v>512</v>
+      </c>
+      <c r="H42" t="s">
         <v>522</v>
       </c>
     </row>
@@ -6555,22 +6553,22 @@
       <c r="B43" t="s">
         <v>378</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" t="s">
         <v>475</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43">
         <v>115.46</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" t="s">
         <v>377</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H43" s="4" t="s">
+      <c r="G43" t="s">
+        <v>512</v>
+      </c>
+      <c r="H43" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6581,22 +6579,22 @@
       <c r="B44" t="s">
         <v>380</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" t="s">
         <v>477</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="6">
         <v>9767500</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" t="s">
         <v>379</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H44" s="4" t="s">
+      <c r="G44" t="s">
+        <v>512</v>
+      </c>
+      <c r="H44" t="s">
         <v>528</v>
       </c>
     </row>
@@ -6607,22 +6605,22 @@
       <c r="B45" t="s">
         <v>382</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" t="s">
         <v>475</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45">
         <v>77.28</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" t="s">
         <v>381</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H45" s="4" t="s">
+      <c r="G45" t="s">
+        <v>512</v>
+      </c>
+      <c r="H45" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6633,22 +6631,22 @@
       <c r="B46" t="s">
         <v>384</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" t="s">
         <v>475</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46">
         <v>62.1</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" t="s">
         <v>383</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H46" s="4" t="s">
+      <c r="G46" t="s">
+        <v>512</v>
+      </c>
+      <c r="H46" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6659,22 +6657,22 @@
       <c r="B47" t="s">
         <v>386</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" t="s">
         <v>475</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47">
         <v>62.1</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" t="s">
         <v>385</v>
       </c>
-      <c r="G47" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H47" s="4" t="s">
+      <c r="G47" t="s">
+        <v>512</v>
+      </c>
+      <c r="H47" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6685,22 +6683,22 @@
       <c r="B48" t="s">
         <v>388</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="7">
         <v>0</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="G48" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="H48" s="9" t="s">
+      <c r="G48" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="H48" s="7" t="s">
         <v>529</v>
       </c>
     </row>
@@ -6711,22 +6709,22 @@
       <c r="B49" t="s">
         <v>390</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="7">
         <v>0</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="G49" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="H49" s="9" t="s">
+      <c r="G49" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="H49" s="7" t="s">
         <v>529</v>
       </c>
     </row>
@@ -6737,22 +6735,22 @@
       <c r="B50" t="s">
         <v>392</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" t="s">
         <v>487</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" t="s">
         <v>521</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="4">
         <v>10324.136979999999</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" t="s">
         <v>391</v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H50" s="4" t="s">
+      <c r="G50" t="s">
+        <v>512</v>
+      </c>
+      <c r="H50" t="s">
         <v>522</v>
       </c>
     </row>
@@ -6763,22 +6761,22 @@
       <c r="B51" t="s">
         <v>394</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" t="s">
         <v>487</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51">
         <v>151.34</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" t="s">
         <v>393</v>
       </c>
-      <c r="G51" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H51" s="4" t="s">
+      <c r="G51" t="s">
+        <v>512</v>
+      </c>
+      <c r="H51" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6789,22 +6787,22 @@
       <c r="B52" t="s">
         <v>396</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" t="s">
         <v>487</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52">
         <v>90.62</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F52" t="s">
         <v>395</v>
       </c>
-      <c r="G52" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H52" s="4" t="s">
+      <c r="G52" t="s">
+        <v>512</v>
+      </c>
+      <c r="H52" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6815,22 +6813,22 @@
       <c r="B53" t="s">
         <v>398</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" t="s">
         <v>487</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53">
         <v>64.400000000000006</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F53" t="s">
         <v>397</v>
       </c>
-      <c r="G53" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H53" s="4" t="s">
+      <c r="G53" t="s">
+        <v>512</v>
+      </c>
+      <c r="H53" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6841,22 +6839,22 @@
       <c r="B54" t="s">
         <v>400</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" t="s">
         <v>487</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54">
         <v>64.400000000000006</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F54" t="s">
         <v>399</v>
       </c>
-      <c r="G54" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H54" s="4" t="s">
+      <c r="G54" t="s">
+        <v>512</v>
+      </c>
+      <c r="H54" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6867,22 +6865,22 @@
       <c r="B55" t="s">
         <v>402</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" t="s">
         <v>487</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" t="s">
         <v>519</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="4">
         <v>46508.896309999996</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F55" t="s">
         <v>401</v>
       </c>
-      <c r="G55" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H55" s="4" t="s">
+      <c r="G55" t="s">
+        <v>512</v>
+      </c>
+      <c r="H55" t="s">
         <v>520</v>
       </c>
     </row>
@@ -6893,22 +6891,22 @@
       <c r="B56" t="s">
         <v>404</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" t="s">
         <v>485</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E56" s="9">
         <v>1761.4671989999999</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" t="s">
         <v>403</v>
       </c>
-      <c r="G56" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H56" s="4" t="s">
+      <c r="G56" t="s">
+        <v>512</v>
+      </c>
+      <c r="H56" t="s">
         <v>518</v>
       </c>
     </row>
@@ -6919,22 +6917,22 @@
       <c r="B57" t="s">
         <v>406</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" t="s">
         <v>485</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57">
         <v>164.68</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" t="s">
         <v>405</v>
       </c>
-      <c r="G57" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H57" s="4" t="s">
+      <c r="G57" t="s">
+        <v>512</v>
+      </c>
+      <c r="H57" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6945,22 +6943,22 @@
       <c r="B58" t="s">
         <v>408</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" t="s">
         <v>485</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58">
         <v>155.47999999999999</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F58" t="s">
         <v>407</v>
       </c>
-      <c r="G58" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H58" s="4" t="s">
+      <c r="G58" t="s">
+        <v>512</v>
+      </c>
+      <c r="H58" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6971,22 +6969,22 @@
       <c r="B59" t="s">
         <v>410</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" t="s">
         <v>485</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59">
         <v>124.2</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F59" t="s">
         <v>409</v>
       </c>
-      <c r="G59" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H59" s="4" t="s">
+      <c r="G59" t="s">
+        <v>512</v>
+      </c>
+      <c r="H59" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6997,22 +6995,22 @@
       <c r="B60" t="s">
         <v>412</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" t="s">
         <v>485</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60">
         <v>124.2</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F60" t="s">
         <v>411</v>
       </c>
-      <c r="G60" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H60" s="4" t="s">
+      <c r="G60" t="s">
+        <v>512</v>
+      </c>
+      <c r="H60" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7023,22 +7021,22 @@
       <c r="B61" t="s">
         <v>414</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" t="s">
         <v>487</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="E61" s="8">
+      <c r="E61" s="6">
         <v>11845000</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F61" t="s">
         <v>413</v>
       </c>
-      <c r="G61" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H61" s="4" t="s">
+      <c r="G61" t="s">
+        <v>512</v>
+      </c>
+      <c r="H61" t="s">
         <v>528</v>
       </c>
     </row>
@@ -7049,22 +7047,22 @@
       <c r="B62" t="s">
         <v>416</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" t="s">
         <v>485</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62">
         <v>92.92</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" t="s">
         <v>415</v>
       </c>
-      <c r="G62" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H62" s="4" t="s">
+      <c r="G62" t="s">
+        <v>512</v>
+      </c>
+      <c r="H62" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7075,22 +7073,22 @@
       <c r="B63" t="s">
         <v>418</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" t="s">
         <v>485</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63">
         <v>50.14</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F63" t="s">
         <v>417</v>
       </c>
-      <c r="G63" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H63" s="4" t="s">
+      <c r="G63" t="s">
+        <v>512</v>
+      </c>
+      <c r="H63" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7101,22 +7099,22 @@
       <c r="B64" t="s">
         <v>420</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" t="s">
         <v>485</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64">
         <v>50.14</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F64" t="s">
         <v>419</v>
       </c>
-      <c r="G64" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H64" s="4" t="s">
+      <c r="G64" t="s">
+        <v>512</v>
+      </c>
+      <c r="H64" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7127,22 +7125,22 @@
       <c r="B65" t="s">
         <v>422</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" t="s">
         <v>485</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65">
         <v>55.2</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="F65" t="s">
         <v>421</v>
       </c>
-      <c r="G65" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H65" s="4" t="s">
+      <c r="G65" t="s">
+        <v>512</v>
+      </c>
+      <c r="H65" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7153,22 +7151,22 @@
       <c r="B66" t="s">
         <v>424</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" t="s">
         <v>485</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66">
         <v>57.5</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F66" t="s">
         <v>423</v>
       </c>
-      <c r="G66" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H66" s="4" t="s">
+      <c r="G66" t="s">
+        <v>512</v>
+      </c>
+      <c r="H66" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7179,22 +7177,22 @@
       <c r="B67" t="s">
         <v>426</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" t="s">
         <v>485</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" t="s">
         <v>521</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E67" s="4">
         <v>14467.517260000001</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F67" t="s">
         <v>425</v>
       </c>
-      <c r="G67" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H67" s="4" t="s">
+      <c r="G67" t="s">
+        <v>512</v>
+      </c>
+      <c r="H67" t="s">
         <v>522</v>
       </c>
     </row>
@@ -7205,22 +7203,22 @@
       <c r="B68" t="s">
         <v>428</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" t="s">
         <v>485</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" t="s">
         <v>519</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E68" s="4">
         <v>65174.286350000002</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F68" t="s">
         <v>427</v>
       </c>
-      <c r="G68" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H68" s="4" t="s">
+      <c r="G68" t="s">
+        <v>512</v>
+      </c>
+      <c r="H68" t="s">
         <v>520</v>
       </c>
     </row>
@@ -7231,22 +7229,22 @@
       <c r="B69" t="s">
         <v>430</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" t="s">
         <v>485</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="E69" s="8">
+      <c r="E69" s="6">
         <v>10739000</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F69" t="s">
         <v>429</v>
       </c>
-      <c r="G69" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H69" s="4" t="s">
+      <c r="G69" t="s">
+        <v>512</v>
+      </c>
+      <c r="H69" t="s">
         <v>528</v>
       </c>
     </row>
@@ -7257,22 +7255,22 @@
       <c r="B70" t="s">
         <v>432</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" t="s">
         <v>501</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70">
         <v>51.52</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F70" t="s">
         <v>431</v>
       </c>
-      <c r="G70" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H70" s="4" t="s">
+      <c r="G70" t="s">
+        <v>512</v>
+      </c>
+      <c r="H70" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7283,22 +7281,22 @@
       <c r="B71" t="s">
         <v>434</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" t="s">
         <v>483</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E71" s="7">
         <v>0</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="F71" t="s">
         <v>433</v>
       </c>
-      <c r="G71" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="H71" s="9" t="s">
+      <c r="G71" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="H71" s="7" t="s">
         <v>529</v>
       </c>
     </row>
@@ -7309,22 +7307,22 @@
       <c r="B72" t="s">
         <v>436</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" t="s">
         <v>483</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D72" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E72" s="7">
         <v>0</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="F72" t="s">
         <v>435</v>
       </c>
-      <c r="G72" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="H72" s="9" t="s">
+      <c r="G72" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="H72" s="7" t="s">
         <v>529</v>
       </c>
     </row>
@@ -7335,22 +7333,22 @@
       <c r="B73" t="s">
         <v>438</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D73" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E73" s="7">
         <v>0</v>
       </c>
-      <c r="F73" s="9" t="s">
+      <c r="F73" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="G73" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="H73" s="9" t="s">
+      <c r="G73" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="H73" s="7" t="s">
         <v>529</v>
       </c>
     </row>
@@ -7361,22 +7359,22 @@
       <c r="B74" t="s">
         <v>440</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" t="s">
         <v>499</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D74" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E74" s="9">
         <v>1256.997198</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="F74" t="s">
         <v>439</v>
       </c>
-      <c r="G74" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H74" s="4" t="s">
+      <c r="G74" t="s">
+        <v>512</v>
+      </c>
+      <c r="H74" t="s">
         <v>518</v>
       </c>
     </row>
@@ -7387,22 +7385,22 @@
       <c r="B75" t="s">
         <v>442</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" t="s">
         <v>499</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" t="s">
         <v>521</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E75" s="4">
         <v>10324.136979999999</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F75" t="s">
         <v>441</v>
       </c>
-      <c r="G75" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H75" s="4" t="s">
+      <c r="G75" t="s">
+        <v>512</v>
+      </c>
+      <c r="H75" t="s">
         <v>522</v>
       </c>
     </row>
@@ -7413,22 +7411,22 @@
       <c r="B76" t="s">
         <v>444</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" t="s">
         <v>533</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" t="s">
         <v>521</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E76" s="4">
         <v>10028.18125</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="F76" t="s">
         <v>443</v>
       </c>
-      <c r="G76" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H76" s="4" t="s">
+      <c r="G76" t="s">
+        <v>512</v>
+      </c>
+      <c r="H76" t="s">
         <v>522</v>
       </c>
     </row>
@@ -7439,22 +7437,22 @@
       <c r="B77" t="s">
         <v>446</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" t="s">
         <v>534</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="D77" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="E77" s="11">
+      <c r="E77" s="9">
         <v>1220.963626</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="F77" t="s">
         <v>445</v>
       </c>
-      <c r="G77" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H77" s="4" t="s">
+      <c r="G77" t="s">
+        <v>512</v>
+      </c>
+      <c r="H77" t="s">
         <v>518</v>
       </c>
     </row>
@@ -7465,22 +7463,22 @@
       <c r="B78" t="s">
         <v>448</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" t="s">
         <v>534</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="D78" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E78">
         <v>52.44</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="F78" t="s">
         <v>447</v>
       </c>
-      <c r="G78" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H78" s="4" t="s">
+      <c r="G78" t="s">
+        <v>512</v>
+      </c>
+      <c r="H78" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7491,22 +7489,22 @@
       <c r="B79" t="s">
         <v>450</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" t="s">
         <v>534</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="D79" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E79">
         <v>57.96</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="F79" t="s">
         <v>449</v>
       </c>
-      <c r="G79" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H79" s="4" t="s">
+      <c r="G79" t="s">
+        <v>512</v>
+      </c>
+      <c r="H79" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7517,22 +7515,22 @@
       <c r="B80" t="s">
         <v>452</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" t="s">
         <v>496</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" t="s">
         <v>521</v>
       </c>
-      <c r="E80" s="6">
+      <c r="E80" s="4">
         <v>11199.13654</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="F80" t="s">
         <v>451</v>
       </c>
-      <c r="G80" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H80" s="4" t="s">
+      <c r="G80" t="s">
+        <v>512</v>
+      </c>
+      <c r="H80" t="s">
         <v>522</v>
       </c>
     </row>
@@ -7543,22 +7541,22 @@
       <c r="B81" t="s">
         <v>454</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" t="s">
         <v>496</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" t="s">
         <v>519</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E81" s="4">
         <v>50450.655700000003</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="F81" t="s">
         <v>453</v>
       </c>
-      <c r="G81" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H81" s="4" t="s">
+      <c r="G81" t="s">
+        <v>512</v>
+      </c>
+      <c r="H81" t="s">
         <v>520</v>
       </c>
     </row>
@@ -7569,22 +7567,22 @@
       <c r="B82" t="s">
         <v>456</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" t="s">
         <v>496</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D82" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E82">
         <v>133.4</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="F82" t="s">
         <v>455</v>
       </c>
-      <c r="G82" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H82" s="4" t="s">
+      <c r="G82" t="s">
+        <v>512</v>
+      </c>
+      <c r="H82" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7595,22 +7593,22 @@
       <c r="B83" t="s">
         <v>458</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" t="s">
         <v>496</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D83" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E83">
         <v>64.400000000000006</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="F83" t="s">
         <v>457</v>
       </c>
-      <c r="G83" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H83" s="4" t="s">
+      <c r="G83" t="s">
+        <v>512</v>
+      </c>
+      <c r="H83" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7621,22 +7619,22 @@
       <c r="B84" t="s">
         <v>460</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" t="s">
         <v>493</v>
       </c>
-      <c r="D84" s="9" t="s">
+      <c r="D84" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E84">
         <v>8625000</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="F84" t="s">
         <v>459</v>
       </c>
-      <c r="G84" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H84" s="4" t="s">
+      <c r="G84" t="s">
+        <v>512</v>
+      </c>
+      <c r="H84" t="s">
         <v>514</v>
       </c>
     </row>
@@ -7647,22 +7645,22 @@
       <c r="B85" t="s">
         <v>462</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" t="s">
         <v>535</v>
       </c>
-      <c r="D85" s="9" t="s">
+      <c r="D85" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E85" s="7">
         <v>0</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F85" t="s">
         <v>461</v>
       </c>
-      <c r="G85" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="H85" s="9" t="s">
+      <c r="G85" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="H85" s="7" t="s">
         <v>529</v>
       </c>
     </row>
@@ -7673,22 +7671,22 @@
       <c r="B86" t="s">
         <v>464</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" t="s">
         <v>487</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="D86" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="E86" s="11">
+      <c r="E86" s="9">
         <v>1256.997198</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F86" t="s">
         <v>463</v>
       </c>
-      <c r="G86" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H86" s="4" t="s">
+      <c r="G86" t="s">
+        <v>512</v>
+      </c>
+      <c r="H86" t="s">
         <v>518</v>
       </c>
     </row>
@@ -7699,22 +7697,22 @@
       <c r="B87" t="s">
         <v>466</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" t="s">
         <v>536</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="D87" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E87">
         <v>147.19999999999999</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="F87" t="s">
         <v>465</v>
       </c>
-      <c r="G87" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H87" s="4" t="s">
+      <c r="G87" t="s">
+        <v>512</v>
+      </c>
+      <c r="H87" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7725,22 +7723,22 @@
       <c r="B88" t="s">
         <v>468</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" t="s">
         <v>536</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="D88" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E88">
         <v>123.28</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="F88" t="s">
         <v>467</v>
       </c>
-      <c r="G88" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H88" s="4" t="s">
+      <c r="G88" t="s">
+        <v>512</v>
+      </c>
+      <c r="H88" t="s">
         <v>524</v>
       </c>
     </row>

--- a/Node_Information_TU.xlsx
+++ b/Node_Information_TU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TU DELFT - Master Thesis\Foodcycle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FD044A6-D0AC-4CF0-BDA6-F417E3C50EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14E19028-B481-4644-BE02-BCBF7223B5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3264" yWindow="2856" windowWidth="10788" windowHeight="8880" activeTab="1" xr2:uid="{BA24F6BD-595B-43AF-BBE9-67D532782760}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3EF27F17-41F7-4F6D-BA61-AF8076AE8B36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="537">
   <si>
     <t>Identifier</t>
   </si>
@@ -62,13 +62,13 @@
     <t>V2</t>
   </si>
   <si>
-    <t>{766.997201, 400.341737, 0}</t>
+    <t>{766.997201, 400.341737, 12}</t>
   </si>
   <si>
     <t>V3</t>
   </si>
   <si>
-    <t>{254.491041, 556.132177, 0}</t>
+    <t>{254.491041, 556.132177, -4}</t>
   </si>
   <si>
     <t>V4</t>
@@ -98,7 +98,7 @@
     <t>V8</t>
   </si>
   <si>
-    <t>{826.49752, 584.987928, 0}</t>
+    <t>{826.49752, 584.987928, 12}</t>
   </si>
   <si>
     <t>V9</t>
@@ -122,7 +122,7 @@
     <t>V12</t>
   </si>
   <si>
-    <t>{2104.099002, 708.543263, 0}</t>
+    <t>{2104.099002, 708.543263, 12.0}</t>
   </si>
   <si>
     <t>V13</t>
@@ -164,7 +164,7 @@
     <t>V19</t>
   </si>
   <si>
-    <t>{1467.87926, 462.26593, 0}</t>
+    <t>{1467.87926, 462.26593, 12}</t>
   </si>
   <si>
     <t>V20</t>
@@ -182,7 +182,7 @@
     <t>V22</t>
   </si>
   <si>
-    <t>{1102.010609, 565.395898, 0}</t>
+    <t>{1102.010609, 565.395898, 12}</t>
   </si>
   <si>
     <t>V23</t>
@@ -194,19 +194,19 @@
     <t>V24</t>
   </si>
   <si>
-    <t>{1136.901105, 469.397271, 0}</t>
+    <t>{1136.901105, 469.397271, 12}</t>
   </si>
   <si>
     <t>V25</t>
   </si>
   <si>
-    <t>{854.301619, 678.271942, 0}</t>
+    <t>{854.301619, 678.271942, 12}</t>
   </si>
   <si>
     <t>V26</t>
   </si>
   <si>
-    <t>{1765.662254, 759.761065, 0}</t>
+    <t>{1765.662254, 759.761065, 12}</t>
   </si>
   <si>
     <t>V27</t>
@@ -266,7 +266,7 @@
     <t>V36</t>
   </si>
   <si>
-    <t>{2231.559493, 182.612876, 0}</t>
+    <t>{2231.559493, 182.612876, 12}</t>
   </si>
   <si>
     <t>V37</t>
@@ -278,19 +278,19 @@
     <t>V38</t>
   </si>
   <si>
-    <t>{1307.476123, 361.299511, 0}</t>
+    <t>{1307.476123, 361.299511, 12}</t>
   </si>
   <si>
     <t>V39</t>
   </si>
   <si>
-    <t>{1307.476123, 447.714593, 0}</t>
+    <t>{1307.476123, 447.714593, 12.0}</t>
   </si>
   <si>
     <t>V40</t>
   </si>
   <si>
-    <t>{2252.746342, 255.457019, 0}</t>
+    <t>{2252.746342, 255.457019, 12}</t>
   </si>
   <si>
     <t>V41</t>
@@ -314,7 +314,7 @@
     <t>V44</t>
   </si>
   <si>
-    <t>{1021.549269, 560.580277, 0}</t>
+    <t>{1021.549269, 560.580277, 12}</t>
   </si>
   <si>
     <t>V45</t>
@@ -332,7 +332,7 @@
     <t>V47</t>
   </si>
   <si>
-    <t>{2087.886501, 604.053783, 0}</t>
+    <t>{2087.886501, 604.053783, 12}</t>
   </si>
   <si>
     <t>V48</t>
@@ -356,13 +356,13 @@
     <t>V51</t>
   </si>
   <si>
-    <t>{1056.358892, 242.452808, 0}</t>
+    <t>{1056.358892, 242.452808, 12}</t>
   </si>
   <si>
     <t>V52</t>
   </si>
   <si>
-    <t>{1959.42501, 268.942099, 0}</t>
+    <t>{1959.42501, 268.942099, 12}</t>
   </si>
   <si>
     <t>V53</t>
@@ -374,7 +374,7 @@
     <t>V54</t>
   </si>
   <si>
-    <t>{942.191497, 230.737664, 0}</t>
+    <t>{942.191497, 230.737664, 12}</t>
   </si>
   <si>
     <t>V55</t>
@@ -392,49 +392,49 @@
     <t>V57</t>
   </si>
   <si>
-    <t>{1196.644963, 359.892335, 0}</t>
+    <t>{1196.644963, 359.892335, 12}</t>
   </si>
   <si>
     <t>V58</t>
   </si>
   <si>
-    <t>{1196.644963, 282.706047, 0}</t>
+    <t>{1196.644963, 282.706047, 12}</t>
   </si>
   <si>
     <t>V59</t>
   </si>
   <si>
-    <t>{1096.806179, 282.706047, 0}</t>
+    <t>{1096.806179, 282.706047, 12}</t>
   </si>
   <si>
     <t>V60</t>
   </si>
   <si>
-    <t>{1146.306081, 340.595763, 0}</t>
+    <t>{1146.306081, 340.595763, 12}</t>
   </si>
   <si>
     <t>V61</t>
   </si>
   <si>
-    <t>{1096.806179, 321.299191, 0}</t>
+    <t>{1096.806179, 321.299191, 12}</t>
   </si>
   <si>
     <t>V62</t>
   </si>
   <si>
-    <t>{1196.644963, 321.299191, 0}</t>
+    <t>{1196.644963, 321.299191, 12}</t>
   </si>
   <si>
     <t>V63</t>
   </si>
   <si>
-    <t>{1096.806179, 359.892335, 0}</t>
+    <t>{1096.806179, 359.892335, 12}</t>
   </si>
   <si>
     <t>V64</t>
   </si>
   <si>
-    <t>{1146.306081, 302.002619, 0}</t>
+    <t>{1146.306081, 302.002619, 12}</t>
   </si>
   <si>
     <t>V65</t>
@@ -464,7 +464,7 @@
     <t>V69</t>
   </si>
   <si>
-    <t>{1927.641057, 698.019698, 0}</t>
+    <t>{1927.641057, 698.019698, 12}</t>
   </si>
   <si>
     <t>V70</t>
@@ -476,13 +476,13 @@
     <t>V71</t>
   </si>
   <si>
-    <t>{1170.88866, 730.078854, 0}</t>
+    <t>{1170.88866, 730.078854, 12}</t>
   </si>
   <si>
     <t>V72</t>
   </si>
   <si>
-    <t>{1944.840175, 199.245266, 0}</t>
+    <t>{1944.840175, 199.245266, 12}</t>
   </si>
   <si>
     <t>V73</t>
@@ -494,7 +494,7 @@
     <t>V74</t>
   </si>
   <si>
-    <t>{2001.02806, 641.807945, 0}</t>
+    <t>{2001.02806, 641.807945, 12}</t>
   </si>
   <si>
     <t>V75</t>
@@ -518,13 +518,13 @@
     <t>V78</t>
   </si>
   <si>
-    <t>{709.0206, 201.34272, 0}</t>
+    <t>{709.0206, 201.34272, 12}</t>
   </si>
   <si>
     <t>V79</t>
   </si>
   <si>
-    <t>{885.322889, 592.55806, 0}</t>
+    <t>{885.322889, 592.55806, 12}</t>
   </si>
   <si>
     <t>V80</t>
@@ -560,7 +560,7 @@
     <t>V85</t>
   </si>
   <si>
-    <t>{2059.209388, 641.807945, 0}</t>
+    <t>{2059.209388, 641.807945, 12}</t>
   </si>
   <si>
     <t>V86</t>
@@ -572,13 +572,13 @@
     <t>V87</t>
   </si>
   <si>
-    <t>{1120.540968, 243.71128, 0}</t>
+    <t>{1120.540968, 243.71128, 12}</t>
   </si>
   <si>
     <t>V88</t>
   </si>
   <si>
-    <t>{985.884456, 239.935863, 0}</t>
+    <t>{985.884456, 239.935863, 12}</t>
   </si>
   <si>
     <t>V89</t>
@@ -596,13 +596,13 @@
     <t>V91</t>
   </si>
   <si>
-    <t>{1162.070546, 243.291789, 0}</t>
+    <t>{1162.070546, 243.291789, 12}</t>
   </si>
   <si>
     <t>V92</t>
   </si>
   <si>
-    <t>{1202.341653, 243.291789, 0}</t>
+    <t>{1202.341653, 243.291789, 12}</t>
   </si>
   <si>
     <t>V93</t>
@@ -614,7 +614,7 @@
     <t>V94</t>
   </si>
   <si>
-    <t>{1180.528137, 402.278761, 0}</t>
+    <t>{1180.528137, 402.278761, 12}</t>
   </si>
   <si>
     <t>V95</t>
@@ -632,7 +632,7 @@
     <t>V97</t>
   </si>
   <si>
-    <t>{1273.333716, 711.489837, 0}</t>
+    <t>{1273.333716, 711.489837, 12}</t>
   </si>
   <si>
     <t>V98</t>
@@ -662,13 +662,13 @@
     <t>V102</t>
   </si>
   <si>
-    <t>{1886.95046, 725.286593, 0}</t>
+    <t>{1886.95046, 725.286593, 12}</t>
   </si>
   <si>
     <t>V103</t>
   </si>
   <si>
-    <t>{1905.40805, 199.664757, 0}</t>
+    <t>{1905.40805, 199.664757, 12}</t>
   </si>
   <si>
     <t>V104</t>
@@ -686,7 +686,7 @@
     <t>V106</t>
   </si>
   <si>
-    <t>{749.263449, 220.917178, 0}</t>
+    <t>{749.263449, 220.917178, 12}</t>
   </si>
   <si>
     <t>V107</t>
@@ -698,7 +698,7 @@
     <t>V108</t>
   </si>
   <si>
-    <t>{2120.187284, 479.884539, 0}</t>
+    <t>{2120.187284, 479.884539, 12}</t>
   </si>
   <si>
     <t>V109</t>
@@ -710,7 +710,7 @@
     <t>V110</t>
   </si>
   <si>
-    <t>{1379.786215, 389.69404, 0}</t>
+    <t>{1379.786215, 389.69404, 12}</t>
   </si>
   <si>
     <t>V111</t>
@@ -728,7 +728,7 @@
     <t>V113</t>
   </si>
   <si>
-    <t>{2118.089831, 203.440173, 0}</t>
+    <t>{2118.089831, 203.440173, 12}</t>
   </si>
   <si>
     <t>V114</t>
@@ -740,7 +740,7 @@
     <t>V115</t>
   </si>
   <si>
-    <t>{1951.552026, 218.541838, 0}</t>
+    <t>{1951.552026, 218.541838, 12}</t>
   </si>
   <si>
     <t>V116</t>
@@ -752,13 +752,13 @@
     <t>V117</t>
   </si>
   <si>
-    <t>{1969.590126, 481.562501, 0}</t>
+    <t>{1969.590126, 481.562501, 12}</t>
   </si>
   <si>
     <t>V118</t>
   </si>
   <si>
-    <t>{1969.590126, 443.808339, 0}</t>
+    <t>{1969.590126, 443.808339, 12}</t>
   </si>
   <si>
     <t>V119</t>
@@ -776,13 +776,13 @@
     <t>V121</t>
   </si>
   <si>
-    <t>{618.830102, 518.897005, 0}</t>
+    <t>{618.830102, 518.897005, 12}</t>
   </si>
   <si>
     <t>V122</t>
   </si>
   <si>
-    <t>{204.792622, 650.197759, 0}</t>
+    <t>{204.792622, 650.197759, 12}</t>
   </si>
   <si>
     <t>V123</t>
@@ -800,7 +800,7 @@
     <t>V125</t>
   </si>
   <si>
-    <t>{1879.819118, 481.562501, 0}</t>
+    <t>{1879.819118, 481.562501, 12}</t>
   </si>
   <si>
     <t>V126</t>
@@ -812,19 +812,19 @@
     <t>V127</t>
   </si>
   <si>
-    <t>{1891.150962, 585.077942, 0}</t>
+    <t>{1891.150962, 585.077942, 12}</t>
   </si>
   <si>
     <t>V128</t>
   </si>
   <si>
-    <t>{1879.819118, 442.549867, 0}</t>
+    <t>{1879.819118, 442.549867, 12}</t>
   </si>
   <si>
     <t>V129</t>
   </si>
   <si>
-    <t>{381.049617, 522.281747, 0}</t>
+    <t>{381.049617, 522.281747, 12}</t>
   </si>
   <si>
     <t>V130</t>
@@ -836,7 +836,7 @@
     <t>V131</t>
   </si>
   <si>
-    <t>{1261.070349, 712.282381, 0}</t>
+    <t>{1261.070349, 712.282381, 12}</t>
   </si>
   <si>
     <t>V132</t>
@@ -848,7 +848,7 @@
     <t>V133</t>
   </si>
   <si>
-    <t>{1884.449721, 616.882019, 0}</t>
+    <t>{1884.449721, 616.882019, 12}</t>
   </si>
   <si>
     <t>V134</t>
@@ -860,13 +860,13 @@
     <t>V135</t>
   </si>
   <si>
-    <t>{2134.449968, 197.567304, 0}</t>
+    <t>{2134.449968, 197.567304, 12}</t>
   </si>
   <si>
     <t>V136</t>
   </si>
   <si>
-    <t>{1042.515699, 455.973569, 0}</t>
+    <t>{1042.515699, 455.973569, 12}</t>
   </si>
   <si>
     <t>V137</t>
@@ -878,7 +878,7 @@
     <t>V138</t>
   </si>
   <si>
-    <t>{599.151462, 516.677845, 0}</t>
+    <t>{599.151462, 516.677845, 12}</t>
   </si>
   <si>
     <t>V139</t>
@@ -896,7 +896,7 @@
     <t>V141</t>
   </si>
   <si>
-    <t>{2071.945855, 622.930864, 0}</t>
+    <t>{2071.945855, 622.930864, 12}</t>
   </si>
   <si>
     <t>V142</t>
@@ -914,7 +914,7 @@
     <t>V144</t>
   </si>
   <si>
-    <t>{1886.95046, 605.731746, 0}</t>
+    <t>{1886.95046, 605.731746, 12}</t>
   </si>
   <si>
     <t>V145</t>
@@ -1445,6 +1445,129 @@
     <t>{938.062517, 294.469485, 0}</t>
   </si>
   <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Waste Type</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Node Type</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>W7</t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>W2</t>
+  </si>
+  <si>
+    <t>sawdust</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>W3</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>W4</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>W5</t>
+  </si>
+  <si>
+    <t>co2</t>
+  </si>
+  <si>
+    <t>Lib</t>
+  </si>
+  <si>
+    <t>Aula</t>
+  </si>
+  <si>
+    <t>W6</t>
+  </si>
+  <si>
+    <t>rainwater</t>
+  </si>
+  <si>
+    <t>3me</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>donercompany</t>
+  </si>
+  <si>
+    <t>foodtrucks</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>TPM</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>EEMCS2</t>
+  </si>
+  <si>
+    <t>CEG</t>
+  </si>
+  <si>
+    <t>Bouwcampus</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>EEMCS</t>
+  </si>
+  <si>
+    <t>AS2</t>
+  </si>
+  <si>
+    <t>fellowship</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>datacenter</t>
+  </si>
+  <si>
+    <t>compostbin</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
     <t>Building</t>
   </si>
   <si>
@@ -1454,54 +1577,33 @@
     <t>Orientation</t>
   </si>
   <si>
-    <t>Tag</t>
-  </si>
-  <si>
     <t>outside</t>
   </si>
   <si>
     <t>S</t>
   </si>
   <si>
-    <t>3me</t>
-  </si>
-  <si>
     <t>roof</t>
   </si>
   <si>
-    <t>BK</t>
-  </si>
-  <si>
     <t>basement</t>
   </si>
   <si>
     <t>E</t>
   </si>
   <si>
-    <t>AS</t>
-  </si>
-  <si>
     <t>hollandptc</t>
   </si>
   <si>
     <t>SW</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>NE</t>
   </si>
   <si>
-    <t>CEG</t>
-  </si>
-  <si>
     <t>NW</t>
   </si>
   <si>
-    <t>EEMCS2</t>
-  </si>
-  <si>
     <t>TNO</t>
   </si>
   <si>
@@ -1517,42 +1619,27 @@
     <t>Radex</t>
   </si>
   <si>
-    <t>datacenter</t>
-  </si>
-  <si>
     <t>AS(reactor)</t>
   </si>
   <si>
     <t>TNO2</t>
   </si>
   <si>
-    <t>AE</t>
-  </si>
-  <si>
     <t>windtunnellab</t>
   </si>
   <si>
     <t>intermediate</t>
   </si>
   <si>
-    <t>EEMCS</t>
-  </si>
-  <si>
     <t>ProcessEnergy</t>
   </si>
   <si>
-    <t>Bouwcampus</t>
-  </si>
-  <si>
     <t>Inholland</t>
   </si>
   <si>
     <t>catalysislab</t>
   </si>
   <si>
-    <t>donercompany</t>
-  </si>
-  <si>
     <t>bouwpub</t>
   </si>
   <si>
@@ -1560,93 +1647,6 @@
   </si>
   <si>
     <t>stud</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Waste Type</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Node Type</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>W7</t>
-  </si>
-  <si>
-    <t>heat</t>
-  </si>
-  <si>
-    <t>W2</t>
-  </si>
-  <si>
-    <t>sawdust</t>
-  </si>
-  <si>
-    <t>W1</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>W3</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>W4</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>W5</t>
-  </si>
-  <si>
-    <t>co2</t>
-  </si>
-  <si>
-    <t>Lib</t>
-  </si>
-  <si>
-    <t>Aula</t>
-  </si>
-  <si>
-    <t>W6</t>
-  </si>
-  <si>
-    <t>rainwater</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>foodtrucks</t>
-  </si>
-  <si>
-    <t>TPM</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>AS2</t>
-  </si>
-  <si>
-    <t>fellowship</t>
-  </si>
-  <si>
-    <t>compostbin</t>
-  </si>
-  <si>
-    <t>education</t>
   </si>
 </sst>
 </file>
@@ -1664,12 +1664,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1697,6 +1691,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1728,14 +1728,14 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2049,16 +2049,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5FBFAB-473A-4E0C-81C7-FEB26F03EA77}">
-  <dimension ref="A1:G147"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78B065E-3482-434C-99A1-EFCCCCE8DB57}">
+  <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2069,19 +2069,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>469</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>470</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="G1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F1" t="s">
+        <v>511</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="H1" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2091,20 +2094,23 @@
       <c r="C2">
         <v>31174.536655</v>
       </c>
-      <c r="D2" t="s">
-        <v>473</v>
+      <c r="D2">
+        <v>31174.536655</v>
       </c>
       <c r="E2" t="s">
-        <v>473</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G2" t="s">
+        <v>513</v>
+      </c>
+      <c r="F2" t="s">
+        <v>513</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2114,20 +2120,23 @@
       <c r="C3">
         <v>23824.099084000001</v>
       </c>
-      <c r="D3" t="s">
-        <v>473</v>
+      <c r="D3">
+        <v>23824.099084000001</v>
       </c>
       <c r="E3" t="s">
-        <v>473</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G3" t="s">
+        <v>513</v>
+      </c>
+      <c r="F3" t="s">
+        <v>513</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2137,20 +2146,23 @@
       <c r="C4">
         <v>9665.3696419999997</v>
       </c>
-      <c r="D4" t="s">
-        <v>475</v>
+      <c r="D4">
+        <v>9665.3696419999997</v>
       </c>
       <c r="E4" t="s">
-        <v>476</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G4" t="s">
+        <v>492</v>
+      </c>
+      <c r="F4" t="s">
+        <v>515</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2160,20 +2172,23 @@
       <c r="C5">
         <v>8429.6334690000003</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>8429.6334690000003</v>
+      </c>
+      <c r="E5" t="s">
         <v>477</v>
       </c>
-      <c r="E5" t="s">
-        <v>478</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F5" t="s">
+        <v>516</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="H5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2183,20 +2198,23 @@
       <c r="C6">
         <v>8272.572478</v>
       </c>
-      <c r="D6" t="s">
-        <v>473</v>
+      <c r="D6">
+        <v>8272.572478</v>
       </c>
       <c r="E6" t="s">
-        <v>473</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G6" t="s">
+        <v>513</v>
+      </c>
+      <c r="F6" t="s">
+        <v>513</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2206,20 +2224,23 @@
       <c r="C7">
         <v>8061.2871999999998</v>
       </c>
-      <c r="D7" t="s">
-        <v>473</v>
+      <c r="D7">
+        <v>8061.2871999999998</v>
       </c>
       <c r="E7" t="s">
-        <v>473</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="G7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F7" t="s">
+        <v>513</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="H7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2229,20 +2250,23 @@
       <c r="C8">
         <v>6439.3171910000001</v>
       </c>
-      <c r="D8" t="s">
-        <v>473</v>
+      <c r="D8">
+        <v>6439.3171910000001</v>
       </c>
       <c r="E8" t="s">
-        <v>473</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G8" t="s">
+        <v>513</v>
+      </c>
+      <c r="F8" t="s">
+        <v>513</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2252,20 +2276,23 @@
       <c r="C9">
         <v>6015.4002810000002</v>
       </c>
-      <c r="D9" t="s">
-        <v>473</v>
+      <c r="D9">
+        <v>6015.4002810000002</v>
       </c>
       <c r="E9" t="s">
-        <v>473</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="G9" t="s">
+        <v>513</v>
+      </c>
+      <c r="F9" t="s">
+        <v>513</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="H9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2275,20 +2302,23 @@
       <c r="C10">
         <v>5436.1120639999999</v>
       </c>
-      <c r="D10" t="s">
-        <v>480</v>
+      <c r="D10">
+        <v>5436.1120639999999</v>
       </c>
       <c r="E10" t="s">
-        <v>476</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G10" t="s">
+        <v>496</v>
+      </c>
+      <c r="F10" t="s">
+        <v>515</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2298,20 +2328,23 @@
       <c r="C11">
         <v>4880.6949619999996</v>
       </c>
-      <c r="D11" t="s">
-        <v>473</v>
+      <c r="D11">
+        <v>4880.6949619999996</v>
       </c>
       <c r="E11" t="s">
-        <v>473</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G11" t="s">
+        <v>513</v>
+      </c>
+      <c r="F11" t="s">
+        <v>513</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2321,20 +2354,23 @@
       <c r="C12">
         <v>4720.7078570000003</v>
       </c>
-      <c r="D12" t="s">
-        <v>473</v>
+      <c r="D12">
+        <v>4720.7078570000003</v>
       </c>
       <c r="E12" t="s">
-        <v>473</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G12" t="s">
+        <v>513</v>
+      </c>
+      <c r="F12" t="s">
+        <v>513</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -2344,20 +2380,23 @@
       <c r="C13">
         <v>4436.9056129999999</v>
       </c>
-      <c r="D13" t="s">
-        <v>473</v>
+      <c r="D13">
+        <v>4436.9056129999999</v>
       </c>
       <c r="E13" t="s">
-        <v>473</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G13" t="s">
+        <v>513</v>
+      </c>
+      <c r="F13" t="s">
+        <v>513</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2367,20 +2406,23 @@
       <c r="C14">
         <v>3912.406602</v>
       </c>
-      <c r="D14" t="s">
-        <v>481</v>
+      <c r="D14">
+        <v>3912.406602</v>
       </c>
       <c r="E14" t="s">
-        <v>476</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G14" t="s">
+        <v>518</v>
+      </c>
+      <c r="F14" t="s">
+        <v>515</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -2390,20 +2432,23 @@
       <c r="C15">
         <v>3860.8052539999999</v>
       </c>
-      <c r="D15" t="s">
-        <v>473</v>
+      <c r="D15">
+        <v>3860.8052539999999</v>
       </c>
       <c r="E15" t="s">
-        <v>473</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="G15" t="s">
+        <v>513</v>
+      </c>
+      <c r="F15" t="s">
+        <v>513</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="H15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2413,20 +2458,23 @@
       <c r="C16">
         <v>3795.5508420000001</v>
       </c>
-      <c r="D16" t="s">
-        <v>473</v>
+      <c r="D16">
+        <v>3795.5508420000001</v>
       </c>
       <c r="E16" t="s">
-        <v>473</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G16" t="s">
+        <v>513</v>
+      </c>
+      <c r="F16" t="s">
+        <v>513</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -2436,20 +2484,23 @@
       <c r="C17">
         <v>3414.2072400000002</v>
       </c>
-      <c r="D17" t="s">
-        <v>473</v>
+      <c r="D17">
+        <v>3414.2072400000002</v>
       </c>
       <c r="E17" t="s">
-        <v>473</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="G17" t="s">
+        <v>513</v>
+      </c>
+      <c r="F17" t="s">
+        <v>513</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="H17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -2459,20 +2510,23 @@
       <c r="C18">
         <v>3321.5999430000002</v>
       </c>
-      <c r="D18" t="s">
-        <v>473</v>
+      <c r="D18">
+        <v>3321.5999430000002</v>
       </c>
       <c r="E18" t="s">
-        <v>473</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="G18" t="s">
+        <v>513</v>
+      </c>
+      <c r="F18" t="s">
+        <v>513</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="H18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -2482,20 +2536,23 @@
       <c r="C19">
         <v>3035.0676050000002</v>
       </c>
-      <c r="D19" t="s">
-        <v>473</v>
+      <c r="D19">
+        <v>3035.0676050000002</v>
       </c>
       <c r="E19" t="s">
-        <v>473</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G19" t="s">
+        <v>513</v>
+      </c>
+      <c r="F19" t="s">
+        <v>513</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -2505,20 +2562,23 @@
       <c r="C20">
         <v>2707.0497319999999</v>
       </c>
-      <c r="D20" t="s">
-        <v>473</v>
+      <c r="D20">
+        <v>2707.0497319999999</v>
       </c>
       <c r="E20" t="s">
-        <v>473</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G20" t="s">
+        <v>513</v>
+      </c>
+      <c r="F20" t="s">
+        <v>513</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -2528,20 +2588,23 @@
       <c r="C21">
         <v>2570.6053980000002</v>
       </c>
-      <c r="D21" t="s">
-        <v>483</v>
+      <c r="D21">
+        <v>2570.6053980000002</v>
       </c>
       <c r="E21" t="s">
-        <v>476</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G21" t="s">
+        <v>502</v>
+      </c>
+      <c r="F21" t="s">
+        <v>515</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -2551,20 +2614,23 @@
       <c r="C22">
         <v>2542.3542550000002</v>
       </c>
-      <c r="D22" t="s">
-        <v>473</v>
+      <c r="D22">
+        <v>2542.3542550000002</v>
       </c>
       <c r="E22" t="s">
-        <v>473</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="G22" t="s">
+        <v>513</v>
+      </c>
+      <c r="F22" t="s">
+        <v>513</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="H22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -2574,20 +2640,23 @@
       <c r="C23">
         <v>2541.1915239999998</v>
       </c>
-      <c r="D23" t="s">
-        <v>473</v>
+      <c r="D23">
+        <v>2541.1915239999998</v>
       </c>
       <c r="E23" t="s">
-        <v>473</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="G23" t="s">
+        <v>513</v>
+      </c>
+      <c r="F23" t="s">
+        <v>513</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="H23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -2597,20 +2666,23 @@
       <c r="C24">
         <v>2440.6488789999999</v>
       </c>
-      <c r="D24" t="s">
-        <v>485</v>
+      <c r="D24">
+        <v>2440.6488789999999</v>
       </c>
       <c r="E24" t="s">
-        <v>476</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G24" t="s">
+        <v>500</v>
+      </c>
+      <c r="F24" t="s">
+        <v>515</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -2620,20 +2692,23 @@
       <c r="C25">
         <v>2245.407526</v>
       </c>
-      <c r="D25" t="s">
-        <v>473</v>
+      <c r="D25">
+        <v>2245.407526</v>
       </c>
       <c r="E25" t="s">
-        <v>473</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="G25" t="s">
+        <v>513</v>
+      </c>
+      <c r="F25" t="s">
+        <v>513</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="H25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -2643,20 +2718,23 @@
       <c r="C26">
         <v>2167.9804559999998</v>
       </c>
-      <c r="D26" t="s">
-        <v>487</v>
+      <c r="D26">
+        <v>2167.9804559999998</v>
       </c>
       <c r="E26" t="s">
-        <v>476</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G26" t="s">
+        <v>499</v>
+      </c>
+      <c r="F26" t="s">
+        <v>515</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -2666,20 +2744,23 @@
       <c r="C27">
         <v>2144.1043049999998</v>
       </c>
-      <c r="D27" t="s">
-        <v>488</v>
+      <c r="D27">
+        <v>2144.1043049999998</v>
       </c>
       <c r="E27" t="s">
-        <v>476</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G27" t="s">
+        <v>522</v>
+      </c>
+      <c r="F27" t="s">
+        <v>515</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -2689,20 +2770,23 @@
       <c r="C28">
         <v>2139.3186569999998</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28">
+        <v>2139.3186569999998</v>
+      </c>
+      <c r="E28" t="s">
         <v>55</v>
       </c>
-      <c r="E28" t="s">
-        <v>476</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="F28" t="s">
+        <v>515</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -2712,20 +2796,23 @@
       <c r="C29">
         <v>2111.0300670000001</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29">
+        <v>2111.0300670000001</v>
+      </c>
+      <c r="E29" t="s">
         <v>57</v>
       </c>
-      <c r="E29" t="s">
-        <v>476</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="F29" t="s">
+        <v>515</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -2735,20 +2822,23 @@
       <c r="C30">
         <v>2093.1709860000001</v>
       </c>
-      <c r="D30" t="s">
-        <v>473</v>
+      <c r="D30">
+        <v>2093.1709860000001</v>
       </c>
       <c r="E30" t="s">
-        <v>473</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G30" t="s">
+        <v>513</v>
+      </c>
+      <c r="F30" t="s">
+        <v>513</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H30" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -2758,20 +2848,23 @@
       <c r="C31">
         <v>1954.974543</v>
       </c>
-      <c r="D31" t="s">
-        <v>473</v>
+      <c r="D31">
+        <v>1954.974543</v>
       </c>
       <c r="E31" t="s">
-        <v>473</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="G31" t="s">
+        <v>513</v>
+      </c>
+      <c r="F31" t="s">
+        <v>513</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="H31" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -2781,20 +2874,23 @@
       <c r="C32">
         <v>1942.882355</v>
       </c>
-      <c r="D32" t="s">
-        <v>473</v>
+      <c r="D32">
+        <v>1942.882355</v>
       </c>
       <c r="E32" t="s">
-        <v>473</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G32" t="s">
+        <v>513</v>
+      </c>
+      <c r="F32" t="s">
+        <v>513</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H32" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -2804,20 +2900,23 @@
       <c r="C33">
         <v>1921.86682</v>
       </c>
-      <c r="D33" t="s">
-        <v>473</v>
+      <c r="D33">
+        <v>1921.86682</v>
       </c>
       <c r="E33" t="s">
-        <v>473</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="G33" t="s">
+        <v>513</v>
+      </c>
+      <c r="F33" t="s">
+        <v>513</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="H33" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -2827,20 +2926,23 @@
       <c r="C34">
         <v>1665.1012900000001</v>
       </c>
-      <c r="D34" t="s">
-        <v>473</v>
+      <c r="D34">
+        <v>1665.1012900000001</v>
       </c>
       <c r="E34" t="s">
-        <v>473</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G34" t="s">
+        <v>513</v>
+      </c>
+      <c r="F34" t="s">
+        <v>513</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H34" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -2850,20 +2952,23 @@
       <c r="C35">
         <v>1658.4798290000001</v>
       </c>
-      <c r="D35" t="s">
-        <v>473</v>
+      <c r="D35">
+        <v>1658.4798290000001</v>
       </c>
       <c r="E35" t="s">
-        <v>473</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="G35" t="s">
+        <v>513</v>
+      </c>
+      <c r="F35" t="s">
+        <v>513</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="H35" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -2873,20 +2978,23 @@
       <c r="C36">
         <v>1610.590794</v>
       </c>
-      <c r="D36" t="s">
-        <v>473</v>
+      <c r="D36">
+        <v>1610.590794</v>
       </c>
       <c r="E36" t="s">
-        <v>473</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="G36" t="s">
+        <v>513</v>
+      </c>
+      <c r="F36" t="s">
+        <v>513</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="H36" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -2896,20 +3004,23 @@
       <c r="C37">
         <v>1597.5119299999999</v>
       </c>
-      <c r="D37" t="s">
-        <v>473</v>
+      <c r="D37">
+        <v>1597.5119299999999</v>
       </c>
       <c r="E37" t="s">
-        <v>473</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="G37" t="s">
+        <v>513</v>
+      </c>
+      <c r="F37" t="s">
+        <v>513</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="H37" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -2919,20 +3030,23 @@
       <c r="C38">
         <v>1578.7820959999999</v>
       </c>
-      <c r="D38" t="s">
-        <v>492</v>
+      <c r="D38">
+        <v>1578.7820959999999</v>
       </c>
       <c r="E38" t="s">
-        <v>476</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G38" t="s">
+        <v>526</v>
+      </c>
+      <c r="F38" t="s">
+        <v>515</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H38" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -2942,20 +3056,23 @@
       <c r="C39">
         <v>1572.935303</v>
       </c>
-      <c r="D39" t="s">
-        <v>473</v>
+      <c r="D39">
+        <v>1572.935303</v>
       </c>
       <c r="E39" t="s">
-        <v>473</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="G39" t="s">
+        <v>513</v>
+      </c>
+      <c r="F39" t="s">
+        <v>513</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="H39" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -2965,20 +3082,23 @@
       <c r="C40">
         <v>1501.150494</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40">
+        <v>1501.150494</v>
+      </c>
+      <c r="E40" t="s">
         <v>79</v>
       </c>
-      <c r="E40" t="s">
-        <v>476</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="F40" t="s">
+        <v>515</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H40" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -2988,20 +3108,23 @@
       <c r="C41">
         <v>1501.150494</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41">
+        <v>1501.150494</v>
+      </c>
+      <c r="E41" t="s">
         <v>81</v>
       </c>
-      <c r="E41" t="s">
-        <v>476</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="F41" t="s">
+        <v>515</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H41" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -3011,20 +3134,23 @@
       <c r="C42">
         <v>1354.2838959999999</v>
       </c>
-      <c r="D42" t="s">
-        <v>493</v>
+      <c r="D42">
+        <v>1354.2838959999999</v>
       </c>
       <c r="E42" t="s">
-        <v>476</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G42" t="s">
+        <v>507</v>
+      </c>
+      <c r="F42" t="s">
+        <v>515</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H42" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -3034,20 +3160,23 @@
       <c r="C43">
         <v>1340.761573</v>
       </c>
-      <c r="D43" t="s">
-        <v>473</v>
+      <c r="D43">
+        <v>1340.761573</v>
       </c>
       <c r="E43" t="s">
-        <v>473</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="G43" t="s">
+        <v>513</v>
+      </c>
+      <c r="F43" t="s">
+        <v>513</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="H43" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -3057,20 +3186,23 @@
       <c r="C44">
         <v>1288.877422</v>
       </c>
-      <c r="D44" t="s">
-        <v>473</v>
+      <c r="D44">
+        <v>1288.877422</v>
       </c>
       <c r="E44" t="s">
-        <v>473</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G44" t="s">
+        <v>513</v>
+      </c>
+      <c r="F44" t="s">
+        <v>513</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H44" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -3080,20 +3212,23 @@
       <c r="C45">
         <v>1275.764993</v>
       </c>
-      <c r="D45" t="s">
-        <v>473</v>
+      <c r="D45">
+        <v>1275.764993</v>
       </c>
       <c r="E45" t="s">
-        <v>473</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G45" t="s">
+        <v>513</v>
+      </c>
+      <c r="F45" t="s">
+        <v>513</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H45" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -3103,20 +3238,23 @@
       <c r="C46">
         <v>1233.5239079999999</v>
       </c>
-      <c r="D46" t="s">
-        <v>485</v>
+      <c r="D46">
+        <v>1233.5239079999999</v>
       </c>
       <c r="E46" t="s">
-        <v>476</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G46" t="s">
+        <v>500</v>
+      </c>
+      <c r="F46" t="s">
+        <v>515</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H46" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -3126,20 +3264,23 @@
       <c r="C47">
         <v>1231.7751949999999</v>
       </c>
-      <c r="D47" t="s">
-        <v>473</v>
+      <c r="D47">
+        <v>1231.7751949999999</v>
       </c>
       <c r="E47" t="s">
-        <v>473</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="G47" t="s">
+        <v>513</v>
+      </c>
+      <c r="F47" t="s">
+        <v>513</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="H47" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -3149,20 +3290,23 @@
       <c r="C48">
         <v>1153.400093</v>
       </c>
-      <c r="D48" t="s">
-        <v>473</v>
+      <c r="D48">
+        <v>1153.400093</v>
       </c>
       <c r="E48" t="s">
-        <v>473</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G48" t="s">
+        <v>513</v>
+      </c>
+      <c r="F48" t="s">
+        <v>513</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H48" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -3172,20 +3316,23 @@
       <c r="C49">
         <v>1148.7480860000001</v>
       </c>
-      <c r="D49" t="s">
-        <v>494</v>
+      <c r="D49">
+        <v>1148.7480860000001</v>
       </c>
       <c r="E49" t="s">
-        <v>476</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G49" t="s">
+        <v>527</v>
+      </c>
+      <c r="F49" t="s">
+        <v>515</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H49" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -3195,20 +3342,23 @@
       <c r="C50">
         <v>1130.80954</v>
       </c>
-      <c r="D50" t="s">
-        <v>473</v>
+      <c r="D50">
+        <v>1130.80954</v>
       </c>
       <c r="E50" t="s">
-        <v>473</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G50" t="s">
+        <v>513</v>
+      </c>
+      <c r="F50" t="s">
+        <v>513</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H50" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -3218,20 +3368,23 @@
       <c r="C51">
         <v>1091.5993570000001</v>
       </c>
-      <c r="D51" t="s">
-        <v>473</v>
+      <c r="D51">
+        <v>1091.5993570000001</v>
       </c>
       <c r="E51" t="s">
-        <v>473</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G51" t="s">
+        <v>513</v>
+      </c>
+      <c r="F51" t="s">
+        <v>513</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H51" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -3241,20 +3394,23 @@
       <c r="C52">
         <v>1060.91461</v>
       </c>
-      <c r="D52" t="s">
-        <v>473</v>
+      <c r="D52">
+        <v>1060.91461</v>
       </c>
       <c r="E52" t="s">
-        <v>473</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="G52" t="s">
+        <v>513</v>
+      </c>
+      <c r="F52" t="s">
+        <v>513</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="H52" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -3264,20 +3420,23 @@
       <c r="C53">
         <v>1055.834638</v>
       </c>
-      <c r="D53" t="s">
-        <v>495</v>
+      <c r="D53">
+        <v>1055.834638</v>
       </c>
       <c r="E53" t="s">
-        <v>476</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G53" t="s">
+        <v>528</v>
+      </c>
+      <c r="F53" t="s">
+        <v>515</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H53" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -3287,20 +3446,23 @@
       <c r="C54">
         <v>1044.1050869999999</v>
       </c>
-      <c r="D54" t="s">
-        <v>496</v>
+      <c r="D54">
+        <v>1044.1050869999999</v>
       </c>
       <c r="E54" t="s">
-        <v>476</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G54" t="s">
+        <v>506</v>
+      </c>
+      <c r="F54" t="s">
+        <v>515</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H54" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -3310,20 +3472,23 @@
       <c r="C55">
         <v>1034.0140550000001</v>
       </c>
-      <c r="D55" t="s">
-        <v>473</v>
+      <c r="D55">
+        <v>1034.0140550000001</v>
       </c>
       <c r="E55" t="s">
-        <v>473</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G55" t="s">
+        <v>513</v>
+      </c>
+      <c r="F55" t="s">
+        <v>513</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H55" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -3333,20 +3498,23 @@
       <c r="C56">
         <v>950.17440699999997</v>
       </c>
-      <c r="D56" t="s">
-        <v>497</v>
+      <c r="D56">
+        <v>950.17440699999997</v>
       </c>
       <c r="E56" t="s">
-        <v>476</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G56" t="s">
+        <v>529</v>
+      </c>
+      <c r="F56" t="s">
+        <v>515</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H56" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -3356,20 +3524,23 @@
       <c r="C57">
         <v>937.01029300000005</v>
       </c>
-      <c r="D57" t="s">
-        <v>473</v>
+      <c r="D57">
+        <v>937.01029300000005</v>
       </c>
       <c r="E57" t="s">
-        <v>473</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="G57" t="s">
+        <v>513</v>
+      </c>
+      <c r="F57" t="s">
+        <v>513</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="H57" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -3379,20 +3550,23 @@
       <c r="C58">
         <v>886.90109600000005</v>
       </c>
-      <c r="D58" t="s">
-        <v>473</v>
+      <c r="D58">
+        <v>886.90109600000005</v>
       </c>
       <c r="E58" t="s">
-        <v>473</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="G58" t="s">
+        <v>513</v>
+      </c>
+      <c r="F58" t="s">
+        <v>513</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="H58" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -3402,20 +3576,23 @@
       <c r="C59">
         <v>886.22100699999999</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59">
+        <v>886.22100699999999</v>
+      </c>
+      <c r="E59" t="s">
         <v>117</v>
       </c>
-      <c r="E59" t="s">
-        <v>476</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="F59" t="s">
+        <v>515</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H59" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -3425,20 +3602,23 @@
       <c r="C60">
         <v>886.22100699999999</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60">
+        <v>886.22100699999999</v>
+      </c>
+      <c r="E60" t="s">
         <v>119</v>
       </c>
-      <c r="E60" t="s">
-        <v>476</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="F60" t="s">
+        <v>515</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H60" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -3448,20 +3628,23 @@
       <c r="C61">
         <v>886.22100699999999</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61">
+        <v>886.22100699999999</v>
+      </c>
+      <c r="E61" t="s">
         <v>121</v>
       </c>
-      <c r="E61" t="s">
-        <v>476</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="F61" t="s">
+        <v>515</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H61" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -3471,20 +3654,23 @@
       <c r="C62">
         <v>886.22100699999999</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62">
+        <v>886.22100699999999</v>
+      </c>
+      <c r="E62" t="s">
         <v>123</v>
       </c>
-      <c r="E62" t="s">
-        <v>476</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="F62" t="s">
+        <v>515</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H62" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -3494,20 +3680,23 @@
       <c r="C63">
         <v>886.22100699999999</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63">
+        <v>886.22100699999999</v>
+      </c>
+      <c r="E63" t="s">
         <v>125</v>
       </c>
-      <c r="E63" t="s">
-        <v>476</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="F63" t="s">
+        <v>515</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H63" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -3517,20 +3706,23 @@
       <c r="C64">
         <v>886.22100699999999</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64">
+        <v>886.22100699999999</v>
+      </c>
+      <c r="E64" t="s">
         <v>127</v>
       </c>
-      <c r="E64" t="s">
-        <v>476</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="F64" t="s">
+        <v>515</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H64" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -3540,20 +3732,23 @@
       <c r="C65">
         <v>886.22100699999999</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65">
+        <v>886.22100699999999</v>
+      </c>
+      <c r="E65" t="s">
         <v>129</v>
       </c>
-      <c r="E65" t="s">
-        <v>476</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="F65" t="s">
+        <v>515</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H65" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -3563,20 +3758,23 @@
       <c r="C66">
         <v>886.22100699999999</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66">
+        <v>886.22100699999999</v>
+      </c>
+      <c r="E66" t="s">
         <v>131</v>
       </c>
-      <c r="E66" t="s">
-        <v>476</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G66" t="s">
+      <c r="F66" t="s">
+        <v>515</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H66" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -3586,20 +3784,23 @@
       <c r="C67">
         <v>884.45984599999997</v>
       </c>
-      <c r="D67" t="s">
-        <v>473</v>
+      <c r="D67">
+        <v>884.45984599999997</v>
       </c>
       <c r="E67" t="s">
-        <v>473</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G67" t="s">
+        <v>513</v>
+      </c>
+      <c r="F67" t="s">
+        <v>513</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H67" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -3609,20 +3810,23 @@
       <c r="C68">
         <v>871.979286</v>
       </c>
-      <c r="D68" t="s">
-        <v>473</v>
+      <c r="D68">
+        <v>871.979286</v>
       </c>
       <c r="E68" t="s">
-        <v>473</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="G68" t="s">
+        <v>513</v>
+      </c>
+      <c r="F68" t="s">
+        <v>513</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="H68" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -3632,20 +3836,23 @@
       <c r="C69">
         <v>849.66133300000001</v>
       </c>
-      <c r="D69" t="s">
-        <v>473</v>
+      <c r="D69">
+        <v>849.66133300000001</v>
       </c>
       <c r="E69" t="s">
-        <v>473</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G69" t="s">
+        <v>513</v>
+      </c>
+      <c r="F69" t="s">
+        <v>513</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H69" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -3655,20 +3862,23 @@
       <c r="C70">
         <v>817.90353000000005</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70">
+        <v>817.90353000000005</v>
+      </c>
+      <c r="E70" t="s">
         <v>477</v>
       </c>
-      <c r="E70" t="s">
-        <v>498</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="F70" t="s">
+        <v>530</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="H70" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -3678,20 +3888,23 @@
       <c r="C71">
         <v>816.51211999999998</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71">
+        <v>816.51211999999998</v>
+      </c>
+      <c r="E71" t="s">
         <v>141</v>
       </c>
-      <c r="E71" t="s">
-        <v>476</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="F71" t="s">
+        <v>515</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H71" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -3701,20 +3914,23 @@
       <c r="C72">
         <v>784.69636300000002</v>
       </c>
-      <c r="D72" t="s">
-        <v>473</v>
+      <c r="D72">
+        <v>784.69636300000002</v>
       </c>
       <c r="E72" t="s">
-        <v>473</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="G72" t="s">
+        <v>513</v>
+      </c>
+      <c r="F72" t="s">
+        <v>513</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="H72" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -3724,20 +3940,23 @@
       <c r="C73">
         <v>782.43185200000005</v>
       </c>
-      <c r="D73" t="s">
-        <v>499</v>
+      <c r="D73">
+        <v>782.43185200000005</v>
       </c>
       <c r="E73" t="s">
-        <v>476</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G73" t="s">
+        <v>503</v>
+      </c>
+      <c r="F73" t="s">
+        <v>515</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H73" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -3747,20 +3966,23 @@
       <c r="C74">
         <v>741.89980600000001</v>
       </c>
-      <c r="D74" t="s">
-        <v>496</v>
+      <c r="D74">
+        <v>741.89980600000001</v>
       </c>
       <c r="E74" t="s">
-        <v>476</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G74" t="s">
+        <v>506</v>
+      </c>
+      <c r="F74" t="s">
+        <v>515</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H74" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -3770,20 +3992,23 @@
       <c r="C75">
         <v>735.65105900000003</v>
       </c>
-      <c r="D75" t="s">
-        <v>473</v>
+      <c r="D75">
+        <v>735.65105900000003</v>
       </c>
       <c r="E75" t="s">
-        <v>473</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="G75" t="s">
+        <v>513</v>
+      </c>
+      <c r="F75" t="s">
+        <v>513</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="H75" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -3793,20 +4018,23 @@
       <c r="C76">
         <v>734.14002000000005</v>
       </c>
-      <c r="D76" t="s">
-        <v>494</v>
+      <c r="D76">
+        <v>734.14002000000005</v>
       </c>
       <c r="E76" t="s">
-        <v>476</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G76" t="s">
+        <v>527</v>
+      </c>
+      <c r="F76" t="s">
+        <v>515</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H76" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -3816,20 +4044,23 @@
       <c r="C77">
         <v>731.33723599999996</v>
       </c>
-      <c r="D77" t="s">
-        <v>500</v>
+      <c r="D77">
+        <v>731.33723599999996</v>
       </c>
       <c r="E77" t="s">
-        <v>476</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G77" t="s">
+        <v>531</v>
+      </c>
+      <c r="F77" t="s">
+        <v>515</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H77" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -3839,20 +4070,23 @@
       <c r="C78">
         <v>694.035302</v>
       </c>
-      <c r="D78" t="s">
-        <v>473</v>
+      <c r="D78">
+        <v>694.035302</v>
       </c>
       <c r="E78" t="s">
-        <v>473</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G78" t="s">
+        <v>513</v>
+      </c>
+      <c r="F78" t="s">
+        <v>513</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H78" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -3862,20 +4096,23 @@
       <c r="C79">
         <v>669.74844399999995</v>
       </c>
-      <c r="D79" t="s">
-        <v>473</v>
+      <c r="D79">
+        <v>669.74844399999995</v>
       </c>
       <c r="E79" t="s">
-        <v>473</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="G79" t="s">
+        <v>513</v>
+      </c>
+      <c r="F79" t="s">
+        <v>513</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="H79" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -3885,20 +4122,23 @@
       <c r="C80">
         <v>641.94745999999998</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80">
+        <v>641.94745999999998</v>
+      </c>
+      <c r="E80" t="s">
         <v>159</v>
       </c>
-      <c r="E80" t="s">
-        <v>476</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G80" t="s">
+      <c r="F80" t="s">
+        <v>515</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H80" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -3908,20 +4148,23 @@
       <c r="C81">
         <v>636.56769499999996</v>
       </c>
-      <c r="D81" t="s">
-        <v>480</v>
+      <c r="D81">
+        <v>636.56769499999996</v>
       </c>
       <c r="E81" t="s">
-        <v>476</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G81" t="s">
+        <v>496</v>
+      </c>
+      <c r="F81" t="s">
+        <v>515</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H81" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -3931,20 +4174,23 @@
       <c r="C82">
         <v>619.17893800000002</v>
       </c>
-      <c r="D82" t="s">
-        <v>473</v>
+      <c r="D82">
+        <v>619.17893800000002</v>
       </c>
       <c r="E82" t="s">
-        <v>473</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G82" t="s">
+        <v>513</v>
+      </c>
+      <c r="F82" t="s">
+        <v>513</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H82" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>165</v>
       </c>
@@ -3954,20 +4200,23 @@
       <c r="C83">
         <v>603.53602000000001</v>
       </c>
-      <c r="D83" t="s">
-        <v>473</v>
+      <c r="D83">
+        <v>603.53602000000001</v>
       </c>
       <c r="E83" t="s">
-        <v>473</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="G83" t="s">
+        <v>513</v>
+      </c>
+      <c r="F83" t="s">
+        <v>513</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="H83" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>167</v>
       </c>
@@ -3977,20 +4226,23 @@
       <c r="C84">
         <v>566.43260199999997</v>
       </c>
-      <c r="D84" t="s">
-        <v>473</v>
+      <c r="D84">
+        <v>566.43260199999997</v>
       </c>
       <c r="E84" t="s">
-        <v>473</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G84" t="s">
+        <v>513</v>
+      </c>
+      <c r="F84" t="s">
+        <v>513</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H84" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>169</v>
       </c>
@@ -4000,20 +4252,23 @@
       <c r="C85">
         <v>560.23707899999999</v>
       </c>
-      <c r="D85" t="s">
-        <v>473</v>
+      <c r="D85">
+        <v>560.23707899999999</v>
       </c>
       <c r="E85" t="s">
-        <v>473</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="G85" t="s">
+        <v>513</v>
+      </c>
+      <c r="F85" t="s">
+        <v>513</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="H85" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>171</v>
       </c>
@@ -4023,20 +4278,23 @@
       <c r="C86">
         <v>559.77295300000003</v>
       </c>
-      <c r="D86" t="s">
-        <v>473</v>
+      <c r="D86">
+        <v>559.77295300000003</v>
       </c>
       <c r="E86" t="s">
-        <v>473</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G86" t="s">
+        <v>513</v>
+      </c>
+      <c r="F86" t="s">
+        <v>513</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H86" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>173</v>
       </c>
@@ -4046,20 +4304,23 @@
       <c r="C87">
         <v>549.393913</v>
       </c>
-      <c r="D87" t="s">
-        <v>494</v>
+      <c r="D87">
+        <v>549.393913</v>
       </c>
       <c r="E87" t="s">
-        <v>476</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G87" t="s">
+        <v>527</v>
+      </c>
+      <c r="F87" t="s">
+        <v>515</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H87" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>175</v>
       </c>
@@ -4069,20 +4330,23 @@
       <c r="C88">
         <v>545.51456299999995</v>
       </c>
-      <c r="D88" t="s">
-        <v>473</v>
+      <c r="D88">
+        <v>545.51456299999995</v>
       </c>
       <c r="E88" t="s">
-        <v>473</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="G88" t="s">
+        <v>513</v>
+      </c>
+      <c r="F88" t="s">
+        <v>513</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="H88" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>177</v>
       </c>
@@ -4092,20 +4356,23 @@
       <c r="C89">
         <v>513.13563399999998</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89">
+        <v>513.13563399999998</v>
+      </c>
+      <c r="E89" t="s">
         <v>177</v>
       </c>
-      <c r="E89" t="s">
-        <v>476</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G89" t="s">
+      <c r="F89" t="s">
+        <v>515</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H89" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>179</v>
       </c>
@@ -4115,20 +4382,23 @@
       <c r="C90">
         <v>506.80062600000002</v>
       </c>
-      <c r="D90" t="s">
-        <v>495</v>
+      <c r="D90">
+        <v>506.80062600000002</v>
       </c>
       <c r="E90" t="s">
-        <v>476</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G90" t="s">
+        <v>528</v>
+      </c>
+      <c r="F90" t="s">
+        <v>515</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H90" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>181</v>
       </c>
@@ -4138,20 +4408,23 @@
       <c r="C91">
         <v>501.81874099999999</v>
       </c>
-      <c r="D91" t="s">
-        <v>473</v>
+      <c r="D91">
+        <v>501.81874099999999</v>
       </c>
       <c r="E91" t="s">
-        <v>473</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G91" t="s">
+        <v>513</v>
+      </c>
+      <c r="F91" t="s">
+        <v>513</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H91" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>183</v>
       </c>
@@ -4161,20 +4434,23 @@
       <c r="C92">
         <v>494.83449999999999</v>
       </c>
-      <c r="D92" t="s">
-        <v>473</v>
+      <c r="D92">
+        <v>494.83449999999999</v>
       </c>
       <c r="E92" t="s">
-        <v>473</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="G92" t="s">
+        <v>513</v>
+      </c>
+      <c r="F92" t="s">
+        <v>513</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="H92" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>185</v>
       </c>
@@ -4184,20 +4460,23 @@
       <c r="C93">
         <v>475.829477</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93">
+        <v>475.829477</v>
+      </c>
+      <c r="E93" t="s">
         <v>185</v>
       </c>
-      <c r="E93" t="s">
-        <v>476</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G93" t="s">
+      <c r="F93" t="s">
+        <v>515</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H93" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>187</v>
       </c>
@@ -4207,20 +4486,23 @@
       <c r="C94">
         <v>475.829477</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94">
+        <v>475.829477</v>
+      </c>
+      <c r="E94" t="s">
         <v>187</v>
       </c>
-      <c r="E94" t="s">
-        <v>476</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G94" t="s">
+      <c r="F94" t="s">
+        <v>515</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H94" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>189</v>
       </c>
@@ -4230,20 +4512,23 @@
       <c r="C95">
         <v>473.01391799999999</v>
       </c>
-      <c r="D95" t="s">
-        <v>473</v>
+      <c r="D95">
+        <v>473.01391799999999</v>
       </c>
       <c r="E95" t="s">
-        <v>473</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="G95" t="s">
+        <v>513</v>
+      </c>
+      <c r="F95" t="s">
+        <v>513</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="H95" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>191</v>
       </c>
@@ -4253,20 +4538,23 @@
       <c r="C96">
         <v>443.45054800000003</v>
       </c>
-      <c r="D96" t="s">
-        <v>487</v>
+      <c r="D96">
+        <v>443.45054800000003</v>
       </c>
       <c r="E96" t="s">
-        <v>476</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G96" t="s">
+        <v>499</v>
+      </c>
+      <c r="F96" t="s">
+        <v>515</v>
+      </c>
+      <c r="G96" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H96" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>193</v>
       </c>
@@ -4276,20 +4564,23 @@
       <c r="C97">
         <v>439.22720900000002</v>
       </c>
-      <c r="D97" t="s">
-        <v>473</v>
+      <c r="D97">
+        <v>439.22720900000002</v>
       </c>
       <c r="E97" t="s">
-        <v>473</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="G97" t="s">
+        <v>513</v>
+      </c>
+      <c r="F97" t="s">
+        <v>513</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="H97" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>195</v>
       </c>
@@ -4299,20 +4590,23 @@
       <c r="C98">
         <v>436.38860899999997</v>
       </c>
-      <c r="D98" t="s">
-        <v>473</v>
+      <c r="D98">
+        <v>436.38860899999997</v>
       </c>
       <c r="E98" t="s">
-        <v>473</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="G98" t="s">
+        <v>513</v>
+      </c>
+      <c r="F98" t="s">
+        <v>513</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="H98" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>197</v>
       </c>
@@ -4322,20 +4616,23 @@
       <c r="C99">
         <v>402.63761199999999</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99">
+        <v>402.63761199999999</v>
+      </c>
+      <c r="E99" t="s">
         <v>501</v>
       </c>
-      <c r="E99" t="s">
-        <v>476</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G99" t="s">
+      <c r="F99" t="s">
+        <v>515</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H99" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>199</v>
       </c>
@@ -4345,20 +4642,23 @@
       <c r="C100">
         <v>388.062522</v>
       </c>
-      <c r="D100" t="s">
-        <v>473</v>
+      <c r="D100">
+        <v>388.062522</v>
       </c>
       <c r="E100" t="s">
-        <v>473</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="G100" t="s">
+        <v>513</v>
+      </c>
+      <c r="F100" t="s">
+        <v>513</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="H100" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>201</v>
       </c>
@@ -4368,20 +4668,23 @@
       <c r="C101">
         <v>387.13936699999999</v>
       </c>
-      <c r="D101" t="s">
-        <v>473</v>
+      <c r="D101">
+        <v>387.13936699999999</v>
       </c>
       <c r="E101" t="s">
-        <v>473</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="G101" t="s">
+        <v>513</v>
+      </c>
+      <c r="F101" t="s">
+        <v>513</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="H101" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>203</v>
       </c>
@@ -4391,20 +4694,23 @@
       <c r="C102">
         <v>373.21048500000001</v>
       </c>
-      <c r="D102" t="s">
-        <v>473</v>
+      <c r="D102">
+        <v>373.21048500000001</v>
       </c>
       <c r="E102" t="s">
-        <v>473</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G102" t="s">
+        <v>513</v>
+      </c>
+      <c r="F102" t="s">
+        <v>513</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H102" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>205</v>
       </c>
@@ -4414,20 +4720,23 @@
       <c r="C103">
         <v>371.65379300000001</v>
       </c>
-      <c r="D103" t="s">
-        <v>473</v>
+      <c r="D103">
+        <v>371.65379300000001</v>
       </c>
       <c r="E103" t="s">
-        <v>473</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="G103" t="s">
+        <v>513</v>
+      </c>
+      <c r="F103" t="s">
+        <v>513</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="H103" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>207</v>
       </c>
@@ -4437,20 +4746,23 @@
       <c r="C104">
         <v>367.430454</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104">
+        <v>367.430454</v>
+      </c>
+      <c r="E104" t="s">
         <v>207</v>
       </c>
-      <c r="E104" t="s">
-        <v>476</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G104" t="s">
+      <c r="F104" t="s">
+        <v>515</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H104" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>209</v>
       </c>
@@ -4460,20 +4772,23 @@
       <c r="C105">
         <v>360.39155599999998</v>
       </c>
-      <c r="D105" t="s">
-        <v>496</v>
+      <c r="D105">
+        <v>360.39155599999998</v>
       </c>
       <c r="E105" t="s">
-        <v>476</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G105" t="s">
+        <v>506</v>
+      </c>
+      <c r="F105" t="s">
+        <v>515</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H105" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>211</v>
       </c>
@@ -4483,20 +4798,23 @@
       <c r="C106">
         <v>338.57097399999998</v>
       </c>
-      <c r="D106" t="s">
-        <v>473</v>
+      <c r="D106">
+        <v>338.57097399999998</v>
       </c>
       <c r="E106" t="s">
-        <v>473</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="G106" t="s">
+        <v>513</v>
+      </c>
+      <c r="F106" t="s">
+        <v>513</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="H106" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>213</v>
       </c>
@@ -4506,20 +4824,23 @@
       <c r="C107">
         <v>338.33961199999999</v>
       </c>
-      <c r="D107" t="s">
-        <v>473</v>
+      <c r="D107">
+        <v>338.33961199999999</v>
       </c>
       <c r="E107" t="s">
-        <v>473</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="G107" t="s">
+        <v>513</v>
+      </c>
+      <c r="F107" t="s">
+        <v>513</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="H107" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>215</v>
       </c>
@@ -4529,20 +4850,23 @@
       <c r="C108">
         <v>329.29722600000002</v>
       </c>
-      <c r="D108" t="s">
-        <v>502</v>
+      <c r="D108">
+        <v>329.29722600000002</v>
       </c>
       <c r="E108" t="s">
-        <v>476</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G108" t="s">
+        <v>532</v>
+      </c>
+      <c r="F108" t="s">
+        <v>515</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H108" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>217</v>
       </c>
@@ -4552,20 +4876,23 @@
       <c r="C109">
         <v>319.677165</v>
       </c>
-      <c r="D109" t="s">
-        <v>473</v>
+      <c r="D109">
+        <v>319.677165</v>
       </c>
       <c r="E109" t="s">
-        <v>473</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G109" t="s">
+        <v>513</v>
+      </c>
+      <c r="F109" t="s">
+        <v>513</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H109" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>219</v>
       </c>
@@ -4575,20 +4902,23 @@
       <c r="C110">
         <v>315.34261199999997</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110">
+        <v>315.34261199999997</v>
+      </c>
+      <c r="E110" t="s">
         <v>219</v>
       </c>
-      <c r="E110" t="s">
-        <v>476</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G110" t="s">
+      <c r="F110" t="s">
+        <v>515</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H110" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>221</v>
       </c>
@@ -4598,20 +4928,23 @@
       <c r="C111">
         <v>307.89686599999999</v>
       </c>
-      <c r="D111" t="s">
-        <v>473</v>
+      <c r="D111">
+        <v>307.89686599999999</v>
       </c>
       <c r="E111" t="s">
-        <v>473</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G111" t="s">
+        <v>513</v>
+      </c>
+      <c r="F111" t="s">
+        <v>513</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H111" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>223</v>
       </c>
@@ -4621,20 +4954,23 @@
       <c r="C112">
         <v>306.19204500000001</v>
       </c>
-      <c r="D112" t="s">
-        <v>483</v>
+      <c r="D112">
+        <v>306.19204500000001</v>
       </c>
       <c r="E112" t="s">
-        <v>476</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G112" t="s">
+        <v>502</v>
+      </c>
+      <c r="F112" t="s">
+        <v>515</v>
+      </c>
+      <c r="G112" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H112" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>225</v>
       </c>
@@ -4644,20 +4980,23 @@
       <c r="C113">
         <v>285.11820899999998</v>
       </c>
-      <c r="D113" t="s">
-        <v>473</v>
+      <c r="D113">
+        <v>285.11820899999998</v>
       </c>
       <c r="E113" t="s">
-        <v>473</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="G113" t="s">
+        <v>513</v>
+      </c>
+      <c r="F113" t="s">
+        <v>513</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="H113" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>227</v>
       </c>
@@ -4667,20 +5006,23 @@
       <c r="C114">
         <v>273.90462200000002</v>
       </c>
-      <c r="D114" t="s">
-        <v>473</v>
+      <c r="D114">
+        <v>273.90462200000002</v>
       </c>
       <c r="E114" t="s">
-        <v>473</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="G114" t="s">
+        <v>513</v>
+      </c>
+      <c r="F114" t="s">
+        <v>513</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="H114" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>229</v>
       </c>
@@ -4690,20 +5032,23 @@
       <c r="C115">
         <v>265.36643900000001</v>
       </c>
-      <c r="D115" t="s">
-        <v>503</v>
+      <c r="D115">
+        <v>265.36643900000001</v>
       </c>
       <c r="E115" t="s">
-        <v>476</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G115" t="s">
+        <v>533</v>
+      </c>
+      <c r="F115" t="s">
+        <v>515</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H115" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>231</v>
       </c>
@@ -4713,20 +5058,23 @@
       <c r="C116">
         <v>248.22898699999999</v>
       </c>
-      <c r="D116" t="s">
-        <v>473</v>
+      <c r="D116">
+        <v>248.22898699999999</v>
       </c>
       <c r="E116" t="s">
-        <v>473</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="G116" t="s">
+        <v>513</v>
+      </c>
+      <c r="F116" t="s">
+        <v>513</v>
+      </c>
+      <c r="G116" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="H116" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>233</v>
       </c>
@@ -4736,20 +5084,23 @@
       <c r="C117">
         <v>237.914738</v>
       </c>
-      <c r="D117" t="s">
-        <v>496</v>
+      <c r="D117">
+        <v>237.914738</v>
       </c>
       <c r="E117" t="s">
-        <v>476</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G117" t="s">
+        <v>506</v>
+      </c>
+      <c r="F117" t="s">
+        <v>515</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H117" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>235</v>
       </c>
@@ -4759,20 +5110,23 @@
       <c r="C118">
         <v>221.053856</v>
       </c>
-      <c r="D118" t="s">
-        <v>473</v>
+      <c r="D118">
+        <v>221.053856</v>
       </c>
       <c r="E118" t="s">
-        <v>473</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G118" t="s">
+        <v>513</v>
+      </c>
+      <c r="F118" t="s">
+        <v>513</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H118" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>237</v>
       </c>
@@ -4782,20 +5136,23 @@
       <c r="C119">
         <v>216.798046</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119">
+        <v>216.798046</v>
+      </c>
+      <c r="E119" t="s">
         <v>237</v>
       </c>
-      <c r="E119" t="s">
-        <v>476</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G119" t="s">
+      <c r="F119" t="s">
+        <v>515</v>
+      </c>
+      <c r="G119" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H119" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>239</v>
       </c>
@@ -4805,20 +5162,23 @@
       <c r="C120">
         <v>216.798046</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120">
+        <v>216.798046</v>
+      </c>
+      <c r="E120" t="s">
         <v>239</v>
       </c>
-      <c r="E120" t="s">
-        <v>476</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G120" t="s">
+      <c r="F120" t="s">
+        <v>515</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H120" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>241</v>
       </c>
@@ -4828,20 +5188,23 @@
       <c r="C121">
         <v>209.05525800000001</v>
       </c>
-      <c r="D121" t="s">
-        <v>473</v>
+      <c r="D121">
+        <v>209.05525800000001</v>
       </c>
       <c r="E121" t="s">
-        <v>473</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="G121" t="s">
+        <v>513</v>
+      </c>
+      <c r="F121" t="s">
+        <v>513</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="H121" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>243</v>
       </c>
@@ -4851,20 +5214,23 @@
       <c r="C122">
         <v>202.72024999999999</v>
       </c>
-      <c r="D122" t="s">
-        <v>473</v>
+      <c r="D122">
+        <v>202.72024999999999</v>
       </c>
       <c r="E122" t="s">
-        <v>473</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G122" t="s">
+        <v>513</v>
+      </c>
+      <c r="F122" t="s">
+        <v>513</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H122" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>245</v>
       </c>
@@ -4874,20 +5240,23 @@
       <c r="C123">
         <v>199.632282</v>
       </c>
-      <c r="D123" t="s">
-        <v>504</v>
+      <c r="D123">
+        <v>199.632282</v>
       </c>
       <c r="E123" t="s">
-        <v>476</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G123" t="s">
+        <v>494</v>
+      </c>
+      <c r="F123" t="s">
+        <v>515</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H123" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>247</v>
       </c>
@@ -4897,20 +5266,23 @@
       <c r="C124">
         <v>192.161373</v>
       </c>
-      <c r="D124" t="s">
-        <v>505</v>
+      <c r="D124">
+        <v>192.161373</v>
       </c>
       <c r="E124" t="s">
-        <v>476</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G124" t="s">
+        <v>534</v>
+      </c>
+      <c r="F124" t="s">
+        <v>515</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H124" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>249</v>
       </c>
@@ -4920,20 +5292,23 @@
       <c r="C125">
         <v>191.032928</v>
       </c>
-      <c r="D125" t="s">
-        <v>473</v>
+      <c r="D125">
+        <v>191.032928</v>
       </c>
       <c r="E125" t="s">
-        <v>473</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="G125" t="s">
+        <v>513</v>
+      </c>
+      <c r="F125" t="s">
+        <v>513</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="H125" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>251</v>
       </c>
@@ -4943,20 +5318,23 @@
       <c r="C126">
         <v>185.826896</v>
       </c>
-      <c r="D126" t="s">
-        <v>473</v>
+      <c r="D126">
+        <v>185.826896</v>
       </c>
       <c r="E126" t="s">
-        <v>473</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G126" t="s">
+        <v>513</v>
+      </c>
+      <c r="F126" t="s">
+        <v>513</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H126" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>253</v>
       </c>
@@ -4966,20 +5344,23 @@
       <c r="C127">
         <v>177.38021900000001</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127">
+        <v>177.38021900000001</v>
+      </c>
+      <c r="E127" t="s">
         <v>253</v>
       </c>
-      <c r="E127" t="s">
-        <v>476</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G127" t="s">
+      <c r="F127" t="s">
+        <v>515</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H127" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>255</v>
       </c>
@@ -4989,20 +5370,23 @@
       <c r="C128">
         <v>177.133105</v>
       </c>
-      <c r="D128" t="s">
-        <v>473</v>
+      <c r="D128">
+        <v>177.133105</v>
       </c>
       <c r="E128" t="s">
-        <v>473</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G128" t="s">
+        <v>513</v>
+      </c>
+      <c r="F128" t="s">
+        <v>513</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H128" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>257</v>
       </c>
@@ -5012,20 +5396,23 @@
       <c r="C129">
         <v>166.89995400000001</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129">
+        <v>166.89995400000001</v>
+      </c>
+      <c r="E129" t="s">
         <v>257</v>
       </c>
-      <c r="E129" t="s">
-        <v>476</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G129" t="s">
+      <c r="F129" t="s">
+        <v>515</v>
+      </c>
+      <c r="G129" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H129" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>259</v>
       </c>
@@ -5035,20 +5422,23 @@
       <c r="C130">
         <v>158.37519599999999</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130">
+        <v>158.37519599999999</v>
+      </c>
+      <c r="E130" t="s">
         <v>259</v>
       </c>
-      <c r="E130" t="s">
-        <v>476</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G130" t="s">
+      <c r="F130" t="s">
+        <v>515</v>
+      </c>
+      <c r="G130" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H130" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>261</v>
       </c>
@@ -5058,20 +5448,23 @@
       <c r="C131">
         <v>149.579037</v>
       </c>
-      <c r="D131" t="s">
-        <v>506</v>
+      <c r="D131">
+        <v>149.579037</v>
       </c>
       <c r="E131" t="s">
-        <v>476</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G131" t="s">
+        <v>535</v>
+      </c>
+      <c r="F131" t="s">
+        <v>515</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H131" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>263</v>
       </c>
@@ -5081,20 +5474,23 @@
       <c r="C132">
         <v>147.355996</v>
       </c>
-      <c r="D132" t="s">
-        <v>473</v>
+      <c r="D132">
+        <v>147.355996</v>
       </c>
       <c r="E132" t="s">
-        <v>473</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G132" t="s">
+        <v>513</v>
+      </c>
+      <c r="F132" t="s">
+        <v>513</v>
+      </c>
+      <c r="G132" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H132" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>265</v>
       </c>
@@ -5104,20 +5500,23 @@
       <c r="C133">
         <v>137.96239299999999</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133">
+        <v>137.96239299999999</v>
+      </c>
+      <c r="E133" t="s">
         <v>501</v>
       </c>
-      <c r="E133" t="s">
-        <v>476</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G133" t="s">
+      <c r="F133" t="s">
+        <v>515</v>
+      </c>
+      <c r="G133" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H133" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>267</v>
       </c>
@@ -5127,20 +5526,23 @@
       <c r="C134">
         <v>137.29369700000001</v>
       </c>
-      <c r="D134" t="s">
-        <v>473</v>
+      <c r="D134">
+        <v>137.29369700000001</v>
       </c>
       <c r="E134" t="s">
-        <v>473</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G134" t="s">
+        <v>513</v>
+      </c>
+      <c r="F134" t="s">
+        <v>513</v>
+      </c>
+      <c r="G134" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H134" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>269</v>
       </c>
@@ -5150,20 +5552,23 @@
       <c r="C135">
         <v>133.566698</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135">
+        <v>133.566698</v>
+      </c>
+      <c r="E135" t="s">
         <v>269</v>
       </c>
-      <c r="E135" t="s">
-        <v>476</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G135" t="s">
+      <c r="F135" t="s">
+        <v>515</v>
+      </c>
+      <c r="G135" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H135" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>271</v>
       </c>
@@ -5173,20 +5578,23 @@
       <c r="C136">
         <v>107.033708</v>
       </c>
-      <c r="D136" t="s">
-        <v>473</v>
+      <c r="D136">
+        <v>107.033708</v>
       </c>
       <c r="E136" t="s">
-        <v>473</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G136" t="s">
+        <v>513</v>
+      </c>
+      <c r="F136" t="s">
+        <v>513</v>
+      </c>
+      <c r="G136" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H136" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>273</v>
       </c>
@@ -5196,20 +5604,23 @@
       <c r="C137">
         <v>105.58346400000001</v>
       </c>
-      <c r="D137" t="s">
-        <v>503</v>
+      <c r="D137">
+        <v>105.58346400000001</v>
       </c>
       <c r="E137" t="s">
-        <v>476</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G137" t="s">
+        <v>533</v>
+      </c>
+      <c r="F137" t="s">
+        <v>515</v>
+      </c>
+      <c r="G137" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H137" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>275</v>
       </c>
@@ -5219,20 +5630,23 @@
       <c r="C138">
         <v>103.471795</v>
       </c>
-      <c r="D138" t="s">
-        <v>487</v>
+      <c r="D138">
+        <v>103.471795</v>
       </c>
       <c r="E138" t="s">
-        <v>476</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G138" t="s">
+        <v>499</v>
+      </c>
+      <c r="F138" t="s">
+        <v>515</v>
+      </c>
+      <c r="G138" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H138" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>277</v>
       </c>
@@ -5242,20 +5656,23 @@
       <c r="C139">
         <v>84.466770999999994</v>
       </c>
-      <c r="D139" t="s">
-        <v>473</v>
+      <c r="D139">
+        <v>84.466770999999994</v>
       </c>
       <c r="E139" t="s">
-        <v>473</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G139" t="s">
+        <v>513</v>
+      </c>
+      <c r="F139" t="s">
+        <v>513</v>
+      </c>
+      <c r="G139" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H139" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>279</v>
       </c>
@@ -5265,20 +5682,23 @@
       <c r="C140">
         <v>83.121305000000007</v>
       </c>
-      <c r="D140" t="s">
-        <v>507</v>
+      <c r="D140">
+        <v>83.121305000000007</v>
       </c>
       <c r="E140" t="s">
-        <v>476</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G140" t="s">
+        <v>536</v>
+      </c>
+      <c r="F140" t="s">
+        <v>515</v>
+      </c>
+      <c r="G140" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H140" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>281</v>
       </c>
@@ -5288,20 +5708,23 @@
       <c r="C141">
         <v>73.908424999999994</v>
       </c>
-      <c r="D141" t="s">
-        <v>473</v>
+      <c r="D141">
+        <v>73.908424999999994</v>
       </c>
       <c r="E141" t="s">
-        <v>473</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G141" t="s">
+        <v>513</v>
+      </c>
+      <c r="F141" t="s">
+        <v>513</v>
+      </c>
+      <c r="G141" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H141" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>283</v>
       </c>
@@ -5311,20 +5734,23 @@
       <c r="C142">
         <v>56.943728</v>
       </c>
-      <c r="D142" t="s">
-        <v>473</v>
+      <c r="D142">
+        <v>56.943728</v>
       </c>
       <c r="E142" t="s">
-        <v>473</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G142" t="s">
+        <v>513</v>
+      </c>
+      <c r="F142" t="s">
+        <v>513</v>
+      </c>
+      <c r="G142" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H142" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>285</v>
       </c>
@@ -5334,20 +5760,23 @@
       <c r="C143">
         <v>54.199511000000001</v>
       </c>
-      <c r="D143" t="s">
-        <v>476</v>
+      <c r="D143">
+        <v>54.199511000000001</v>
       </c>
       <c r="E143" t="s">
-        <v>473</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G143" t="s">
+        <v>515</v>
+      </c>
+      <c r="F143" t="s">
+        <v>513</v>
+      </c>
+      <c r="G143" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H143" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>287</v>
       </c>
@@ -5357,20 +5786,23 @@
       <c r="C144">
         <v>47.626941000000002</v>
       </c>
-      <c r="D144" t="s">
-        <v>473</v>
+      <c r="D144">
+        <v>47.626941000000002</v>
       </c>
       <c r="E144" t="s">
-        <v>473</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G144" t="s">
+        <v>513</v>
+      </c>
+      <c r="F144" t="s">
+        <v>513</v>
+      </c>
+      <c r="G144" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H144" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>289</v>
       </c>
@@ -5380,20 +5812,23 @@
       <c r="C145">
         <v>45.752834</v>
       </c>
-      <c r="D145" t="s">
-        <v>473</v>
+      <c r="D145">
+        <v>45.752834</v>
       </c>
       <c r="E145" t="s">
-        <v>473</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="G145" t="s">
+        <v>513</v>
+      </c>
+      <c r="F145" t="s">
+        <v>513</v>
+      </c>
+      <c r="G145" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="H145" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>291</v>
       </c>
@@ -5403,20 +5838,23 @@
       <c r="C146">
         <v>22.524471999999999</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146">
+        <v>22.524471999999999</v>
+      </c>
+      <c r="E146" t="s">
         <v>291</v>
       </c>
-      <c r="E146" t="s">
-        <v>476</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G146" t="s">
+      <c r="F146" t="s">
+        <v>515</v>
+      </c>
+      <c r="G146" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H146" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>293</v>
       </c>
@@ -5426,16 +5864,19 @@
       <c r="C147">
         <v>17.542418000000001</v>
       </c>
-      <c r="D147" t="s">
-        <v>473</v>
+      <c r="D147">
+        <v>17.542418000000001</v>
       </c>
       <c r="E147" t="s">
-        <v>473</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G147" t="s">
+        <v>513</v>
+      </c>
+      <c r="F147" t="s">
+        <v>513</v>
+      </c>
+      <c r="G147" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H147" t="s">
         <v>293</v>
       </c>
     </row>
@@ -5445,10 +5886,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C802AB5-9701-4DD9-AD7A-747D80F26855}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE415A6-DB08-447C-8A05-3C11ED9C5276}">
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:H1048576"/>
     </sheetView>
   </sheetViews>
@@ -5462,22 +5903,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>508</v>
+        <v>469</v>
       </c>
       <c r="D1" t="s">
-        <v>509</v>
+        <v>470</v>
       </c>
       <c r="E1" t="s">
-        <v>510</v>
+        <v>471</v>
       </c>
       <c r="F1" t="s">
         <v>472</v>
       </c>
       <c r="G1" t="s">
-        <v>511</v>
+        <v>473</v>
       </c>
       <c r="H1" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -5491,19 +5932,19 @@
         <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>513</v>
-      </c>
-      <c r="E2" s="3">
+        <v>475</v>
+      </c>
+      <c r="E2" s="1">
         <v>1732320</v>
       </c>
       <c r="F2" t="s">
         <v>295</v>
       </c>
       <c r="G2" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H2" t="s">
-        <v>514</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -5516,20 +5957,20 @@
       <c r="C3" t="s">
         <v>477</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="D3" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E3" s="2">
         <v>592000</v>
       </c>
       <c r="F3" t="s">
         <v>297</v>
       </c>
       <c r="G3" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H3" t="s">
-        <v>516</v>
+        <v>479</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -5542,20 +5983,20 @@
       <c r="C4" t="s">
         <v>477</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="D4" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="E4" s="3">
         <v>938</v>
       </c>
       <c r="F4" t="s">
         <v>299</v>
       </c>
       <c r="G4" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H4" t="s">
-        <v>518</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -5569,19 +6010,19 @@
         <v>477</v>
       </c>
       <c r="D5" t="s">
-        <v>519</v>
-      </c>
-      <c r="E5" s="4">
+        <v>482</v>
+      </c>
+      <c r="E5" s="2">
         <v>50412.010999999999</v>
       </c>
       <c r="F5" t="s">
         <v>301</v>
       </c>
       <c r="G5" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H5" t="s">
-        <v>520</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -5595,19 +6036,19 @@
         <v>477</v>
       </c>
       <c r="D6" t="s">
-        <v>521</v>
-      </c>
-      <c r="E6" s="4">
+        <v>484</v>
+      </c>
+      <c r="E6" s="2">
         <v>40142.316980000003</v>
       </c>
       <c r="F6" t="s">
         <v>303</v>
       </c>
       <c r="G6" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H6" t="s">
-        <v>522</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -5620,8 +6061,8 @@
       <c r="C7" t="s">
         <v>477</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>523</v>
+      <c r="D7" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E7">
         <v>170.20000000000002</v>
@@ -5630,10 +6071,10 @@
         <v>305</v>
       </c>
       <c r="G7" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H7" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -5646,8 +6087,8 @@
       <c r="C8" t="s">
         <v>477</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>523</v>
+      <c r="D8" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E8">
         <v>92</v>
@@ -5656,10 +6097,10 @@
         <v>307</v>
       </c>
       <c r="G8" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H8" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -5672,8 +6113,8 @@
       <c r="C9" t="s">
         <v>477</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>523</v>
+      <c r="D9" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E9">
         <v>72.680000000000007</v>
@@ -5682,10 +6123,10 @@
         <v>309</v>
       </c>
       <c r="G9" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H9" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -5698,8 +6139,8 @@
       <c r="C10" t="s">
         <v>477</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>523</v>
+      <c r="D10" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E10">
         <v>55.2</v>
@@ -5708,10 +6149,10 @@
         <v>311</v>
       </c>
       <c r="G10" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H10" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -5722,22 +6163,22 @@
         <v>314</v>
       </c>
       <c r="C11" t="s">
-        <v>525</v>
+        <v>488</v>
       </c>
       <c r="D11" t="s">
-        <v>519</v>
-      </c>
-      <c r="E11" s="4">
+        <v>482</v>
+      </c>
+      <c r="E11" s="2">
         <v>477438.75</v>
       </c>
       <c r="F11" t="s">
         <v>313</v>
       </c>
       <c r="G11" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H11" t="s">
-        <v>520</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -5748,22 +6189,22 @@
         <v>316</v>
       </c>
       <c r="C12" t="s">
-        <v>525</v>
+        <v>488</v>
       </c>
       <c r="D12" t="s">
-        <v>521</v>
-      </c>
-      <c r="E12" s="4">
+        <v>484</v>
+      </c>
+      <c r="E12" s="2">
         <v>2864.4</v>
       </c>
       <c r="F12" t="s">
         <v>315</v>
       </c>
       <c r="G12" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H12" t="s">
-        <v>522</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -5774,22 +6215,22 @@
         <v>318</v>
       </c>
       <c r="C13" t="s">
-        <v>526</v>
+        <v>489</v>
       </c>
       <c r="D13" t="s">
-        <v>521</v>
-      </c>
-      <c r="E13" s="4">
+        <v>484</v>
+      </c>
+      <c r="E13" s="2">
         <v>14857.68302</v>
       </c>
       <c r="F13" t="s">
         <v>317</v>
       </c>
       <c r="G13" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H13" t="s">
-        <v>522</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -5800,22 +6241,22 @@
         <v>320</v>
       </c>
       <c r="C14" t="s">
-        <v>526</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="E14" s="5">
+        <v>489</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="E14" s="3">
         <v>11474</v>
       </c>
       <c r="F14" t="s">
         <v>319</v>
       </c>
       <c r="G14" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H14" t="s">
-        <v>518</v>
+        <v>481</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -5826,22 +6267,22 @@
         <v>322</v>
       </c>
       <c r="C15" t="s">
-        <v>526</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="E15" s="6">
+        <v>489</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="E15" s="4">
         <v>5258100</v>
       </c>
       <c r="F15" t="s">
         <v>321</v>
       </c>
       <c r="G15" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H15" t="s">
-        <v>528</v>
+        <v>491</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -5852,22 +6293,22 @@
         <v>324</v>
       </c>
       <c r="C16" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="D16" t="s">
-        <v>519</v>
-      </c>
-      <c r="E16" s="4">
+        <v>482</v>
+      </c>
+      <c r="E16" s="2">
         <v>84960.372700000007</v>
       </c>
       <c r="F16" t="s">
         <v>323</v>
       </c>
       <c r="G16" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H16" t="s">
-        <v>520</v>
+        <v>483</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -5877,23 +6318,23 @@
       <c r="B17" t="s">
         <v>326</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="E17" s="8">
+      <c r="C17" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="E17" s="6">
         <v>0</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>529</v>
+      <c r="G17" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -5904,22 +6345,22 @@
         <v>328</v>
       </c>
       <c r="C18" t="s">
-        <v>504</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="E18" s="8">
+        <v>494</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="E18" s="6">
         <v>0</v>
       </c>
       <c r="F18" t="s">
         <v>327</v>
       </c>
       <c r="G18" t="s">
-        <v>512</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>529</v>
+        <v>474</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -5930,22 +6371,22 @@
         <v>330</v>
       </c>
       <c r="C19" t="s">
-        <v>530</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="E19" s="8">
+        <v>495</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="E19" s="6">
         <v>0</v>
       </c>
       <c r="F19" t="s">
         <v>329</v>
       </c>
       <c r="G19" t="s">
-        <v>512</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>529</v>
+        <v>474</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -5956,22 +6397,22 @@
         <v>332</v>
       </c>
       <c r="C20" t="s">
-        <v>480</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="E20" s="4">
+        <v>496</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="E20" s="2">
         <v>48.300000000000004</v>
       </c>
       <c r="F20" t="s">
         <v>331</v>
       </c>
       <c r="G20" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H20" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -5982,10 +6423,10 @@
         <v>334</v>
       </c>
       <c r="C21" t="s">
-        <v>526</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>523</v>
+        <v>489</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E21">
         <v>151.80000000000001</v>
@@ -5994,10 +6435,10 @@
         <v>333</v>
       </c>
       <c r="G21" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H21" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -6008,10 +6449,10 @@
         <v>336</v>
       </c>
       <c r="C22" t="s">
-        <v>526</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>523</v>
+        <v>489</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E22">
         <v>151.80000000000001</v>
@@ -6020,10 +6461,10 @@
         <v>335</v>
       </c>
       <c r="G22" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H22" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -6034,10 +6475,10 @@
         <v>338</v>
       </c>
       <c r="C23" t="s">
-        <v>526</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>523</v>
+        <v>489</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E23">
         <v>107.64000000000001</v>
@@ -6046,10 +6487,10 @@
         <v>337</v>
       </c>
       <c r="G23" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H23" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -6060,10 +6501,10 @@
         <v>340</v>
       </c>
       <c r="C24" t="s">
-        <v>526</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>523</v>
+        <v>489</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E24">
         <v>107.64000000000001</v>
@@ -6072,10 +6513,10 @@
         <v>339</v>
       </c>
       <c r="G24" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H24" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -6086,10 +6527,10 @@
         <v>342</v>
       </c>
       <c r="C25" t="s">
-        <v>526</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>523</v>
+        <v>489</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E25">
         <v>460</v>
@@ -6098,10 +6539,10 @@
         <v>341</v>
       </c>
       <c r="G25" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H25" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -6112,10 +6553,10 @@
         <v>344</v>
       </c>
       <c r="C26" t="s">
-        <v>480</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>523</v>
+        <v>496</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E26">
         <v>60.720000000000006</v>
@@ -6124,10 +6565,10 @@
         <v>343</v>
       </c>
       <c r="G26" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H26" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -6137,23 +6578,23 @@
       <c r="B27" t="s">
         <v>346</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="E27" s="7">
+      <c r="C27" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="E27" s="5">
         <v>0</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="G27" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>529</v>
+      <c r="G27" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -6164,10 +6605,10 @@
         <v>348</v>
       </c>
       <c r="C28" t="s">
-        <v>480</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>523</v>
+        <v>496</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E28">
         <v>69.92</v>
@@ -6176,10 +6617,10 @@
         <v>347</v>
       </c>
       <c r="G28" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H28" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -6190,10 +6631,10 @@
         <v>350</v>
       </c>
       <c r="C29" t="s">
-        <v>480</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>523</v>
+        <v>496</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E29">
         <v>92</v>
@@ -6202,10 +6643,10 @@
         <v>349</v>
       </c>
       <c r="G29" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H29" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -6216,22 +6657,22 @@
         <v>352</v>
       </c>
       <c r="C30" t="s">
-        <v>531</v>
+        <v>497</v>
       </c>
       <c r="D30" t="s">
-        <v>521</v>
-      </c>
-      <c r="E30" s="4">
+        <v>484</v>
+      </c>
+      <c r="E30" s="2">
         <v>5558.8207439999996</v>
       </c>
       <c r="F30" t="s">
         <v>351</v>
       </c>
       <c r="G30" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H30" t="s">
-        <v>522</v>
+        <v>485</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -6242,22 +6683,22 @@
         <v>354</v>
       </c>
       <c r="C31" t="s">
-        <v>531</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="E31" s="6">
+        <v>497</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="E31" s="4">
         <v>2808400</v>
       </c>
       <c r="F31" t="s">
         <v>353</v>
       </c>
       <c r="G31" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H31" t="s">
-        <v>528</v>
+        <v>491</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -6268,22 +6709,22 @@
         <v>356</v>
       </c>
       <c r="C32" t="s">
-        <v>531</v>
+        <v>497</v>
       </c>
       <c r="D32" t="s">
-        <v>521</v>
-      </c>
-      <c r="E32" s="4">
+        <v>484</v>
+      </c>
+      <c r="E32" s="2">
         <v>5558.8207439999996</v>
       </c>
       <c r="F32" t="s">
         <v>355</v>
       </c>
       <c r="G32" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H32" t="s">
-        <v>522</v>
+        <v>485</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -6294,22 +6735,22 @@
         <v>358</v>
       </c>
       <c r="C33" t="s">
-        <v>532</v>
+        <v>498</v>
       </c>
       <c r="D33" t="s">
-        <v>521</v>
-      </c>
-      <c r="E33" s="4">
+        <v>484</v>
+      </c>
+      <c r="E33" s="2">
         <v>8359.6771829999998</v>
       </c>
       <c r="F33" t="s">
         <v>357</v>
       </c>
       <c r="G33" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H33" t="s">
-        <v>522</v>
+        <v>485</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -6319,23 +6760,23 @@
       <c r="B34" t="s">
         <v>360</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="E34" s="7">
+      <c r="C34" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="E34" s="5">
         <v>0</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="G34" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>529</v>
+      <c r="G34" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -6346,22 +6787,22 @@
         <v>362</v>
       </c>
       <c r="C35" t="s">
-        <v>532</v>
+        <v>498</v>
       </c>
       <c r="D35" t="s">
-        <v>521</v>
-      </c>
-      <c r="E35" s="4">
+        <v>484</v>
+      </c>
+      <c r="E35" s="2">
         <v>8359.6771829999998</v>
       </c>
       <c r="F35" t="s">
         <v>361</v>
       </c>
       <c r="G35" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H35" t="s">
-        <v>522</v>
+        <v>485</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -6372,22 +6813,22 @@
         <v>364</v>
       </c>
       <c r="C36" t="s">
-        <v>532</v>
+        <v>498</v>
       </c>
       <c r="D36" t="s">
-        <v>519</v>
-      </c>
-      <c r="E36" s="4">
+        <v>482</v>
+      </c>
+      <c r="E36" s="2">
         <v>37659.260040000001</v>
       </c>
       <c r="F36" t="s">
         <v>363</v>
       </c>
       <c r="G36" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H36" t="s">
-        <v>520</v>
+        <v>483</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -6398,10 +6839,10 @@
         <v>366</v>
       </c>
       <c r="C37" t="s">
-        <v>532</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>523</v>
+        <v>498</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E37">
         <v>57.960000000000008</v>
@@ -6410,10 +6851,10 @@
         <v>365</v>
       </c>
       <c r="G37" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H37" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -6424,22 +6865,22 @@
         <v>368</v>
       </c>
       <c r="C38" t="s">
-        <v>532</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="E38" s="9">
+        <v>498</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="E38" s="7">
         <v>1017.817839</v>
       </c>
       <c r="F38" t="s">
         <v>367</v>
       </c>
       <c r="G38" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H38" t="s">
-        <v>518</v>
+        <v>481</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -6450,22 +6891,22 @@
         <v>370</v>
       </c>
       <c r="C39" t="s">
-        <v>475</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="E39" s="6">
+        <v>492</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="E39" s="4">
         <v>8698800</v>
       </c>
       <c r="F39" t="s">
         <v>369</v>
       </c>
       <c r="G39" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H39" t="s">
-        <v>528</v>
+        <v>491</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -6476,10 +6917,10 @@
         <v>372</v>
       </c>
       <c r="C40" t="s">
-        <v>532</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>523</v>
+        <v>498</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E40">
         <v>47.84</v>
@@ -6488,10 +6929,10 @@
         <v>371</v>
       </c>
       <c r="G40" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H40" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -6502,10 +6943,10 @@
         <v>374</v>
       </c>
       <c r="C41" t="s">
-        <v>532</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>523</v>
+        <v>498</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E41">
         <v>58.88</v>
@@ -6514,10 +6955,10 @@
         <v>373</v>
       </c>
       <c r="G41" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H41" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -6528,22 +6969,22 @@
         <v>376</v>
       </c>
       <c r="C42" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="D42" t="s">
-        <v>521</v>
-      </c>
-      <c r="E42" s="4">
+        <v>484</v>
+      </c>
+      <c r="E42" s="2">
         <v>18859.671920000001</v>
       </c>
       <c r="F42" t="s">
         <v>375</v>
       </c>
       <c r="G42" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H42" t="s">
-        <v>522</v>
+        <v>485</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -6554,10 +6995,10 @@
         <v>378</v>
       </c>
       <c r="C43" t="s">
-        <v>475</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>523</v>
+        <v>492</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E43">
         <v>115.46</v>
@@ -6566,10 +7007,10 @@
         <v>377</v>
       </c>
       <c r="G43" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H43" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -6582,20 +7023,20 @@
       <c r="C44" t="s">
         <v>477</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="E44" s="6">
+      <c r="D44" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="E44" s="4">
         <v>9767500</v>
       </c>
       <c r="F44" t="s">
         <v>379</v>
       </c>
       <c r="G44" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H44" t="s">
-        <v>528</v>
+        <v>491</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -6606,10 +7047,10 @@
         <v>382</v>
       </c>
       <c r="C45" t="s">
-        <v>475</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>523</v>
+        <v>492</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E45">
         <v>77.28</v>
@@ -6618,10 +7059,10 @@
         <v>381</v>
       </c>
       <c r="G45" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H45" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -6632,10 +7073,10 @@
         <v>384</v>
       </c>
       <c r="C46" t="s">
-        <v>475</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>523</v>
+        <v>492</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E46">
         <v>62.1</v>
@@ -6644,10 +7085,10 @@
         <v>383</v>
       </c>
       <c r="G46" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H46" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -6658,10 +7099,10 @@
         <v>386</v>
       </c>
       <c r="C47" t="s">
-        <v>475</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>523</v>
+        <v>492</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E47">
         <v>62.1</v>
@@ -6670,10 +7111,10 @@
         <v>385</v>
       </c>
       <c r="G47" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H47" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -6683,23 +7124,23 @@
       <c r="B48" t="s">
         <v>388</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="E48" s="7">
+      <c r="C48" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="E48" s="5">
         <v>0</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="G48" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>529</v>
+      <c r="G48" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -6709,23 +7150,23 @@
       <c r="B49" t="s">
         <v>390</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="E49" s="7">
+      <c r="C49" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="E49" s="5">
         <v>0</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="G49" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>529</v>
+      <c r="G49" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -6736,22 +7177,22 @@
         <v>392</v>
       </c>
       <c r="C50" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="D50" t="s">
-        <v>521</v>
-      </c>
-      <c r="E50" s="4">
+        <v>484</v>
+      </c>
+      <c r="E50" s="2">
         <v>10324.136979999999</v>
       </c>
       <c r="F50" t="s">
         <v>391</v>
       </c>
       <c r="G50" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H50" t="s">
-        <v>522</v>
+        <v>485</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -6762,10 +7203,10 @@
         <v>394</v>
       </c>
       <c r="C51" t="s">
-        <v>487</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>523</v>
+        <v>499</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E51">
         <v>151.34</v>
@@ -6774,10 +7215,10 @@
         <v>393</v>
       </c>
       <c r="G51" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H51" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -6788,10 +7229,10 @@
         <v>396</v>
       </c>
       <c r="C52" t="s">
-        <v>487</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>523</v>
+        <v>499</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E52">
         <v>90.62</v>
@@ -6800,10 +7241,10 @@
         <v>395</v>
       </c>
       <c r="G52" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H52" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -6814,10 +7255,10 @@
         <v>398</v>
       </c>
       <c r="C53" t="s">
-        <v>487</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>523</v>
+        <v>499</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E53">
         <v>64.400000000000006</v>
@@ -6826,10 +7267,10 @@
         <v>397</v>
       </c>
       <c r="G53" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H53" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -6840,10 +7281,10 @@
         <v>400</v>
       </c>
       <c r="C54" t="s">
-        <v>487</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>523</v>
+        <v>499</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E54">
         <v>64.400000000000006</v>
@@ -6852,10 +7293,10 @@
         <v>399</v>
       </c>
       <c r="G54" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H54" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -6866,22 +7307,22 @@
         <v>402</v>
       </c>
       <c r="C55" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="D55" t="s">
-        <v>519</v>
-      </c>
-      <c r="E55" s="4">
+        <v>482</v>
+      </c>
+      <c r="E55" s="2">
         <v>46508.896309999996</v>
       </c>
       <c r="F55" t="s">
         <v>401</v>
       </c>
       <c r="G55" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H55" t="s">
-        <v>520</v>
+        <v>483</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -6892,22 +7333,22 @@
         <v>404</v>
       </c>
       <c r="C56" t="s">
-        <v>485</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="E56" s="9">
+        <v>500</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="E56" s="7">
         <v>1761.4671989999999</v>
       </c>
       <c r="F56" t="s">
         <v>403</v>
       </c>
       <c r="G56" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H56" t="s">
-        <v>518</v>
+        <v>481</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -6918,10 +7359,10 @@
         <v>406</v>
       </c>
       <c r="C57" t="s">
-        <v>485</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>523</v>
+        <v>500</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E57">
         <v>164.68</v>
@@ -6930,10 +7371,10 @@
         <v>405</v>
       </c>
       <c r="G57" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H57" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -6944,10 +7385,10 @@
         <v>408</v>
       </c>
       <c r="C58" t="s">
-        <v>485</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>523</v>
+        <v>500</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E58">
         <v>155.47999999999999</v>
@@ -6956,10 +7397,10 @@
         <v>407</v>
       </c>
       <c r="G58" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H58" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -6970,10 +7411,10 @@
         <v>410</v>
       </c>
       <c r="C59" t="s">
-        <v>485</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>523</v>
+        <v>500</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E59">
         <v>124.2</v>
@@ -6982,10 +7423,10 @@
         <v>409</v>
       </c>
       <c r="G59" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H59" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -6996,10 +7437,10 @@
         <v>412</v>
       </c>
       <c r="C60" t="s">
-        <v>485</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>523</v>
+        <v>500</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E60">
         <v>124.2</v>
@@ -7008,10 +7449,10 @@
         <v>411</v>
       </c>
       <c r="G60" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H60" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -7022,22 +7463,22 @@
         <v>414</v>
       </c>
       <c r="C61" t="s">
-        <v>487</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="E61" s="6">
+        <v>499</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="E61" s="4">
         <v>11845000</v>
       </c>
       <c r="F61" t="s">
         <v>413</v>
       </c>
       <c r="G61" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H61" t="s">
-        <v>528</v>
+        <v>491</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -7048,10 +7489,10 @@
         <v>416</v>
       </c>
       <c r="C62" t="s">
-        <v>485</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>523</v>
+        <v>500</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E62">
         <v>92.92</v>
@@ -7060,10 +7501,10 @@
         <v>415</v>
       </c>
       <c r="G62" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H62" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -7074,10 +7515,10 @@
         <v>418</v>
       </c>
       <c r="C63" t="s">
-        <v>485</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>523</v>
+        <v>500</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E63">
         <v>50.14</v>
@@ -7086,10 +7527,10 @@
         <v>417</v>
       </c>
       <c r="G63" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H63" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -7100,10 +7541,10 @@
         <v>420</v>
       </c>
       <c r="C64" t="s">
-        <v>485</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>523</v>
+        <v>500</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E64">
         <v>50.14</v>
@@ -7112,10 +7553,10 @@
         <v>419</v>
       </c>
       <c r="G64" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H64" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -7126,10 +7567,10 @@
         <v>422</v>
       </c>
       <c r="C65" t="s">
-        <v>485</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>523</v>
+        <v>500</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E65">
         <v>55.2</v>
@@ -7138,10 +7579,10 @@
         <v>421</v>
       </c>
       <c r="G65" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H65" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -7152,10 +7593,10 @@
         <v>424</v>
       </c>
       <c r="C66" t="s">
-        <v>485</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>523</v>
+        <v>500</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E66">
         <v>57.5</v>
@@ -7164,10 +7605,10 @@
         <v>423</v>
       </c>
       <c r="G66" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H66" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -7178,22 +7619,22 @@
         <v>426</v>
       </c>
       <c r="C67" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="D67" t="s">
-        <v>521</v>
-      </c>
-      <c r="E67" s="4">
+        <v>484</v>
+      </c>
+      <c r="E67" s="2">
         <v>14467.517260000001</v>
       </c>
       <c r="F67" t="s">
         <v>425</v>
       </c>
       <c r="G67" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H67" t="s">
-        <v>522</v>
+        <v>485</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -7204,22 +7645,22 @@
         <v>428</v>
       </c>
       <c r="C68" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="D68" t="s">
-        <v>519</v>
-      </c>
-      <c r="E68" s="4">
+        <v>482</v>
+      </c>
+      <c r="E68" s="2">
         <v>65174.286350000002</v>
       </c>
       <c r="F68" t="s">
         <v>427</v>
       </c>
       <c r="G68" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H68" t="s">
-        <v>520</v>
+        <v>483</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -7230,22 +7671,22 @@
         <v>430</v>
       </c>
       <c r="C69" t="s">
-        <v>485</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="E69" s="6">
+        <v>500</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="E69" s="4">
         <v>10739000</v>
       </c>
       <c r="F69" t="s">
         <v>429</v>
       </c>
       <c r="G69" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H69" t="s">
-        <v>528</v>
+        <v>491</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -7258,8 +7699,8 @@
       <c r="C70" t="s">
         <v>501</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>523</v>
+      <c r="D70" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E70">
         <v>51.52</v>
@@ -7268,10 +7709,10 @@
         <v>431</v>
       </c>
       <c r="G70" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H70" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -7282,22 +7723,22 @@
         <v>434</v>
       </c>
       <c r="C71" t="s">
-        <v>483</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="E71" s="7">
+        <v>502</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="E71" s="5">
         <v>0</v>
       </c>
       <c r="F71" t="s">
         <v>433</v>
       </c>
-      <c r="G71" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>529</v>
+      <c r="G71" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -7308,22 +7749,22 @@
         <v>436</v>
       </c>
       <c r="C72" t="s">
-        <v>483</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="E72" s="7">
+        <v>502</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="E72" s="5">
         <v>0</v>
       </c>
       <c r="F72" t="s">
         <v>435</v>
       </c>
-      <c r="G72" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>529</v>
+      <c r="G72" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -7333,23 +7774,23 @@
       <c r="B73" t="s">
         <v>438</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="D73" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="E73" s="7">
+      <c r="D73" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="E73" s="5">
         <v>0</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F73" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="G73" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>529</v>
+      <c r="G73" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -7360,22 +7801,22 @@
         <v>440</v>
       </c>
       <c r="C74" t="s">
-        <v>499</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="E74" s="9">
+        <v>503</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="E74" s="7">
         <v>1256.997198</v>
       </c>
       <c r="F74" t="s">
         <v>439</v>
       </c>
       <c r="G74" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H74" t="s">
-        <v>518</v>
+        <v>481</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -7386,22 +7827,22 @@
         <v>442</v>
       </c>
       <c r="C75" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="D75" t="s">
-        <v>521</v>
-      </c>
-      <c r="E75" s="4">
+        <v>484</v>
+      </c>
+      <c r="E75" s="2">
         <v>10324.136979999999</v>
       </c>
       <c r="F75" t="s">
         <v>441</v>
       </c>
       <c r="G75" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H75" t="s">
-        <v>522</v>
+        <v>485</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -7412,22 +7853,22 @@
         <v>444</v>
       </c>
       <c r="C76" t="s">
-        <v>533</v>
+        <v>504</v>
       </c>
       <c r="D76" t="s">
-        <v>521</v>
-      </c>
-      <c r="E76" s="4">
+        <v>484</v>
+      </c>
+      <c r="E76" s="2">
         <v>10028.18125</v>
       </c>
       <c r="F76" t="s">
         <v>443</v>
       </c>
       <c r="G76" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H76" t="s">
-        <v>522</v>
+        <v>485</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -7438,22 +7879,22 @@
         <v>446</v>
       </c>
       <c r="C77" t="s">
-        <v>534</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="E77" s="9">
+        <v>505</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="E77" s="7">
         <v>1220.963626</v>
       </c>
       <c r="F77" t="s">
         <v>445</v>
       </c>
       <c r="G77" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H77" t="s">
-        <v>518</v>
+        <v>481</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -7464,10 +7905,10 @@
         <v>448</v>
       </c>
       <c r="C78" t="s">
-        <v>534</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>523</v>
+        <v>505</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E78">
         <v>52.44</v>
@@ -7476,10 +7917,10 @@
         <v>447</v>
       </c>
       <c r="G78" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H78" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -7490,10 +7931,10 @@
         <v>450</v>
       </c>
       <c r="C79" t="s">
-        <v>534</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>523</v>
+        <v>505</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E79">
         <v>57.96</v>
@@ -7502,10 +7943,10 @@
         <v>449</v>
       </c>
       <c r="G79" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H79" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -7516,22 +7957,22 @@
         <v>452</v>
       </c>
       <c r="C80" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="D80" t="s">
-        <v>521</v>
-      </c>
-      <c r="E80" s="4">
+        <v>484</v>
+      </c>
+      <c r="E80" s="2">
         <v>11199.13654</v>
       </c>
       <c r="F80" t="s">
         <v>451</v>
       </c>
       <c r="G80" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H80" t="s">
-        <v>522</v>
+        <v>485</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -7542,22 +7983,22 @@
         <v>454</v>
       </c>
       <c r="C81" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="D81" t="s">
-        <v>519</v>
-      </c>
-      <c r="E81" s="4">
+        <v>482</v>
+      </c>
+      <c r="E81" s="2">
         <v>50450.655700000003</v>
       </c>
       <c r="F81" t="s">
         <v>453</v>
       </c>
       <c r="G81" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H81" t="s">
-        <v>520</v>
+        <v>483</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -7568,10 +8009,10 @@
         <v>456</v>
       </c>
       <c r="C82" t="s">
-        <v>496</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>523</v>
+        <v>506</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E82">
         <v>133.4</v>
@@ -7580,10 +8021,10 @@
         <v>455</v>
       </c>
       <c r="G82" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H82" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -7594,10 +8035,10 @@
         <v>458</v>
       </c>
       <c r="C83" t="s">
-        <v>496</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>523</v>
+        <v>506</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E83">
         <v>64.400000000000006</v>
@@ -7606,10 +8047,10 @@
         <v>457</v>
       </c>
       <c r="G83" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H83" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -7620,10 +8061,10 @@
         <v>460</v>
       </c>
       <c r="C84" t="s">
-        <v>493</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>475</v>
       </c>
       <c r="E84">
         <v>8625000</v>
@@ -7632,10 +8073,10 @@
         <v>459</v>
       </c>
       <c r="G84" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H84" t="s">
-        <v>514</v>
+        <v>476</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -7646,22 +8087,22 @@
         <v>462</v>
       </c>
       <c r="C85" t="s">
-        <v>535</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="E85" s="7">
+        <v>508</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="E85" s="5">
         <v>0</v>
       </c>
       <c r="F85" t="s">
         <v>461</v>
       </c>
-      <c r="G85" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>529</v>
+      <c r="G85" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -7672,22 +8113,22 @@
         <v>464</v>
       </c>
       <c r="C86" t="s">
-        <v>487</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="E86" s="9">
+        <v>499</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="E86" s="7">
         <v>1256.997198</v>
       </c>
       <c r="F86" t="s">
         <v>463</v>
       </c>
       <c r="G86" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H86" t="s">
-        <v>518</v>
+        <v>481</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -7698,10 +8139,10 @@
         <v>466</v>
       </c>
       <c r="C87" t="s">
-        <v>536</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>523</v>
+        <v>509</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E87">
         <v>147.19999999999999</v>
@@ -7710,10 +8151,10 @@
         <v>465</v>
       </c>
       <c r="G87" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H87" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -7724,10 +8165,10 @@
         <v>468</v>
       </c>
       <c r="C88" t="s">
-        <v>536</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>523</v>
+        <v>509</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E88">
         <v>123.28</v>
@@ -7736,10 +8177,10 @@
         <v>467</v>
       </c>
       <c r="G88" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="H88" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>

--- a/Node_Information_TU.xlsx
+++ b/Node_Information_TU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TU DELFT - Master Thesis\Foodcycle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14E19028-B481-4644-BE02-BCBF7223B5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52EEFD90-ACC0-4FD4-AFFE-D9C689EAAA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3EF27F17-41F7-4F6D-BA61-AF8076AE8B36}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{FE7D1687-5240-4C84-B0AC-6581024682DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="537">
   <si>
     <t>Identifier</t>
   </si>
@@ -62,13 +62,13 @@
     <t>V2</t>
   </si>
   <si>
-    <t>{766.997201, 400.341737, 12}</t>
+    <t>{766.997201, 400.341737, 0}</t>
   </si>
   <si>
     <t>V3</t>
   </si>
   <si>
-    <t>{254.491041, 556.132177, -4}</t>
+    <t>{254.491041, 556.132177, 0}</t>
   </si>
   <si>
     <t>V4</t>
@@ -98,7 +98,7 @@
     <t>V8</t>
   </si>
   <si>
-    <t>{826.49752, 584.987928, 12}</t>
+    <t>{826.49752, 584.987928, 0}</t>
   </si>
   <si>
     <t>V9</t>
@@ -122,7 +122,7 @@
     <t>V12</t>
   </si>
   <si>
-    <t>{2104.099002, 708.543263, 12.0}</t>
+    <t>{2104.099002, 708.543263, 0}</t>
   </si>
   <si>
     <t>V13</t>
@@ -164,7 +164,7 @@
     <t>V19</t>
   </si>
   <si>
-    <t>{1467.87926, 462.26593, 12}</t>
+    <t>{1467.87926, 462.26593, 0}</t>
   </si>
   <si>
     <t>V20</t>
@@ -182,7 +182,7 @@
     <t>V22</t>
   </si>
   <si>
-    <t>{1102.010609, 565.395898, 12}</t>
+    <t>{1102.010609, 565.395898, 0}</t>
   </si>
   <si>
     <t>V23</t>
@@ -194,19 +194,19 @@
     <t>V24</t>
   </si>
   <si>
-    <t>{1136.901105, 469.397271, 12}</t>
+    <t>{1136.901105, 469.397271, 0}</t>
   </si>
   <si>
     <t>V25</t>
   </si>
   <si>
-    <t>{854.301619, 678.271942, 12}</t>
+    <t>{854.301619, 678.271942, 0}</t>
   </si>
   <si>
     <t>V26</t>
   </si>
   <si>
-    <t>{1765.662254, 759.761065, 12}</t>
+    <t>{1765.662254, 759.761065, 0}</t>
   </si>
   <si>
     <t>V27</t>
@@ -266,7 +266,7 @@
     <t>V36</t>
   </si>
   <si>
-    <t>{2231.559493, 182.612876, 12}</t>
+    <t>{2231.559493, 182.612876, 0}</t>
   </si>
   <si>
     <t>V37</t>
@@ -278,19 +278,19 @@
     <t>V38</t>
   </si>
   <si>
-    <t>{1307.476123, 361.299511, 12}</t>
+    <t>{1307.476123, 361.299511, 0}</t>
   </si>
   <si>
     <t>V39</t>
   </si>
   <si>
-    <t>{1307.476123, 447.714593, 12.0}</t>
+    <t>{1307.476123, 447.714593, 0}</t>
   </si>
   <si>
     <t>V40</t>
   </si>
   <si>
-    <t>{2252.746342, 255.457019, 12}</t>
+    <t>{2252.746342, 255.457019, 0}</t>
   </si>
   <si>
     <t>V41</t>
@@ -314,7 +314,7 @@
     <t>V44</t>
   </si>
   <si>
-    <t>{1021.549269, 560.580277, 12}</t>
+    <t>{1021.549269, 560.580277, 0}</t>
   </si>
   <si>
     <t>V45</t>
@@ -332,7 +332,7 @@
     <t>V47</t>
   </si>
   <si>
-    <t>{2087.886501, 604.053783, 12}</t>
+    <t>{2087.886501, 604.053783, 0}</t>
   </si>
   <si>
     <t>V48</t>
@@ -356,13 +356,13 @@
     <t>V51</t>
   </si>
   <si>
-    <t>{1056.358892, 242.452808, 12}</t>
+    <t>{1056.358892, 242.452808, 0}</t>
   </si>
   <si>
     <t>V52</t>
   </si>
   <si>
-    <t>{1959.42501, 268.942099, 12}</t>
+    <t>{1959.42501, 268.942099, 0}</t>
   </si>
   <si>
     <t>V53</t>
@@ -374,7 +374,7 @@
     <t>V54</t>
   </si>
   <si>
-    <t>{942.191497, 230.737664, 12}</t>
+    <t>{942.191497, 230.737664, 0}</t>
   </si>
   <si>
     <t>V55</t>
@@ -392,49 +392,49 @@
     <t>V57</t>
   </si>
   <si>
-    <t>{1196.644963, 359.892335, 12}</t>
+    <t>{1196.644963, 359.892335, 0}</t>
   </si>
   <si>
     <t>V58</t>
   </si>
   <si>
-    <t>{1196.644963, 282.706047, 12}</t>
+    <t>{1196.644963, 282.706047, 0}</t>
   </si>
   <si>
     <t>V59</t>
   </si>
   <si>
-    <t>{1096.806179, 282.706047, 12}</t>
+    <t>{1096.806179, 282.706047, 0}</t>
   </si>
   <si>
     <t>V60</t>
   </si>
   <si>
-    <t>{1146.306081, 340.595763, 12}</t>
+    <t>{1146.306081, 340.595763, 0}</t>
   </si>
   <si>
     <t>V61</t>
   </si>
   <si>
-    <t>{1096.806179, 321.299191, 12}</t>
+    <t>{1096.806179, 321.299191, 0}</t>
   </si>
   <si>
     <t>V62</t>
   </si>
   <si>
-    <t>{1196.644963, 321.299191, 12}</t>
+    <t>{1196.644963, 321.299191, 0}</t>
   </si>
   <si>
     <t>V63</t>
   </si>
   <si>
-    <t>{1096.806179, 359.892335, 12}</t>
+    <t>{1096.806179, 359.892335, 0}</t>
   </si>
   <si>
     <t>V64</t>
   </si>
   <si>
-    <t>{1146.306081, 302.002619, 12}</t>
+    <t>{1146.306081, 302.002619, 0}</t>
   </si>
   <si>
     <t>V65</t>
@@ -464,7 +464,7 @@
     <t>V69</t>
   </si>
   <si>
-    <t>{1927.641057, 698.019698, 12}</t>
+    <t>{1927.641057, 698.019698, 0}</t>
   </si>
   <si>
     <t>V70</t>
@@ -476,13 +476,13 @@
     <t>V71</t>
   </si>
   <si>
-    <t>{1170.88866, 730.078854, 12}</t>
+    <t>{1170.88866, 730.078854, 0}</t>
   </si>
   <si>
     <t>V72</t>
   </si>
   <si>
-    <t>{1944.840175, 199.245266, 12}</t>
+    <t>{1944.840175, 199.245266, 0}</t>
   </si>
   <si>
     <t>V73</t>
@@ -494,7 +494,7 @@
     <t>V74</t>
   </si>
   <si>
-    <t>{2001.02806, 641.807945, 12}</t>
+    <t>{2001.02806, 641.807945, 0}</t>
   </si>
   <si>
     <t>V75</t>
@@ -518,13 +518,13 @@
     <t>V78</t>
   </si>
   <si>
-    <t>{709.0206, 201.34272, 12}</t>
+    <t>{709.0206, 201.34272, 0}</t>
   </si>
   <si>
     <t>V79</t>
   </si>
   <si>
-    <t>{885.322889, 592.55806, 12}</t>
+    <t>{885.322889, 592.55806, 0}</t>
   </si>
   <si>
     <t>V80</t>
@@ -560,7 +560,7 @@
     <t>V85</t>
   </si>
   <si>
-    <t>{2059.209388, 641.807945, 12}</t>
+    <t>{2059.209388, 641.807945, 0}</t>
   </si>
   <si>
     <t>V86</t>
@@ -572,13 +572,13 @@
     <t>V87</t>
   </si>
   <si>
-    <t>{1120.540968, 243.71128, 12}</t>
+    <t>{1120.540968, 243.71128, 0}</t>
   </si>
   <si>
     <t>V88</t>
   </si>
   <si>
-    <t>{985.884456, 239.935863, 12}</t>
+    <t>{985.884456, 239.935863, 0}</t>
   </si>
   <si>
     <t>V89</t>
@@ -596,13 +596,13 @@
     <t>V91</t>
   </si>
   <si>
-    <t>{1162.070546, 243.291789, 12}</t>
+    <t>{1162.070546, 243.291789, 0}</t>
   </si>
   <si>
     <t>V92</t>
   </si>
   <si>
-    <t>{1202.341653, 243.291789, 12}</t>
+    <t>{1202.341653, 243.291789, 0}</t>
   </si>
   <si>
     <t>V93</t>
@@ -614,7 +614,7 @@
     <t>V94</t>
   </si>
   <si>
-    <t>{1180.528137, 402.278761, 12}</t>
+    <t>{1180.528137, 402.278761, 0}</t>
   </si>
   <si>
     <t>V95</t>
@@ -632,7 +632,7 @@
     <t>V97</t>
   </si>
   <si>
-    <t>{1273.333716, 711.489837, 12}</t>
+    <t>{1273.333716, 711.489837, 0}</t>
   </si>
   <si>
     <t>V98</t>
@@ -662,13 +662,13 @@
     <t>V102</t>
   </si>
   <si>
-    <t>{1886.95046, 725.286593, 12}</t>
+    <t>{1886.95046, 725.286593, 0}</t>
   </si>
   <si>
     <t>V103</t>
   </si>
   <si>
-    <t>{1905.40805, 199.664757, 12}</t>
+    <t>{1905.40805, 199.664757, 0}</t>
   </si>
   <si>
     <t>V104</t>
@@ -686,7 +686,7 @@
     <t>V106</t>
   </si>
   <si>
-    <t>{749.263449, 220.917178, 12}</t>
+    <t>{749.263449, 220.917178, 0}</t>
   </si>
   <si>
     <t>V107</t>
@@ -698,7 +698,7 @@
     <t>V108</t>
   </si>
   <si>
-    <t>{2120.187284, 479.884539, 12}</t>
+    <t>{2120.187284, 479.884539, 0}</t>
   </si>
   <si>
     <t>V109</t>
@@ -710,7 +710,7 @@
     <t>V110</t>
   </si>
   <si>
-    <t>{1379.786215, 389.69404, 12}</t>
+    <t>{1379.786215, 389.69404, 0}</t>
   </si>
   <si>
     <t>V111</t>
@@ -728,7 +728,7 @@
     <t>V113</t>
   </si>
   <si>
-    <t>{2118.089831, 203.440173, 12}</t>
+    <t>{2118.089831, 203.440173, 0}</t>
   </si>
   <si>
     <t>V114</t>
@@ -740,7 +740,7 @@
     <t>V115</t>
   </si>
   <si>
-    <t>{1951.552026, 218.541838, 12}</t>
+    <t>{1951.552026, 218.541838, 0}</t>
   </si>
   <si>
     <t>V116</t>
@@ -752,13 +752,13 @@
     <t>V117</t>
   </si>
   <si>
-    <t>{1969.590126, 481.562501, 12}</t>
+    <t>{1969.590126, 481.562501, 0}</t>
   </si>
   <si>
     <t>V118</t>
   </si>
   <si>
-    <t>{1969.590126, 443.808339, 12}</t>
+    <t>{1969.590126, 443.808339, 0}</t>
   </si>
   <si>
     <t>V119</t>
@@ -776,13 +776,13 @@
     <t>V121</t>
   </si>
   <si>
-    <t>{618.830102, 518.897005, 12}</t>
+    <t>{618.830102, 518.897005, 0}</t>
   </si>
   <si>
     <t>V122</t>
   </si>
   <si>
-    <t>{204.792622, 650.197759, 12}</t>
+    <t>{204.792622, 650.197759, 0}</t>
   </si>
   <si>
     <t>V123</t>
@@ -800,7 +800,7 @@
     <t>V125</t>
   </si>
   <si>
-    <t>{1879.819118, 481.562501, 12}</t>
+    <t>{1879.819118, 481.562501, 0}</t>
   </si>
   <si>
     <t>V126</t>
@@ -812,19 +812,19 @@
     <t>V127</t>
   </si>
   <si>
-    <t>{1891.150962, 585.077942, 12}</t>
+    <t>{1891.150962, 585.077942, 0}</t>
   </si>
   <si>
     <t>V128</t>
   </si>
   <si>
-    <t>{1879.819118, 442.549867, 12}</t>
+    <t>{1879.819118, 442.549867, 0}</t>
   </si>
   <si>
     <t>V129</t>
   </si>
   <si>
-    <t>{381.049617, 522.281747, 12}</t>
+    <t>{381.049617, 522.281747, 0}</t>
   </si>
   <si>
     <t>V130</t>
@@ -836,7 +836,7 @@
     <t>V131</t>
   </si>
   <si>
-    <t>{1261.070349, 712.282381, 12}</t>
+    <t>{1261.070349, 712.282381, 0}</t>
   </si>
   <si>
     <t>V132</t>
@@ -848,7 +848,7 @@
     <t>V133</t>
   </si>
   <si>
-    <t>{1884.449721, 616.882019, 12}</t>
+    <t>{1884.449721, 616.882019, 0}</t>
   </si>
   <si>
     <t>V134</t>
@@ -860,13 +860,13 @@
     <t>V135</t>
   </si>
   <si>
-    <t>{2134.449968, 197.567304, 12}</t>
+    <t>{2134.449968, 197.567304, 0}</t>
   </si>
   <si>
     <t>V136</t>
   </si>
   <si>
-    <t>{1042.515699, 455.973569, 12}</t>
+    <t>{1042.515699, 455.973569, 0}</t>
   </si>
   <si>
     <t>V137</t>
@@ -878,7 +878,7 @@
     <t>V138</t>
   </si>
   <si>
-    <t>{599.151462, 516.677845, 12}</t>
+    <t>{599.151462, 516.677845, 0}</t>
   </si>
   <si>
     <t>V139</t>
@@ -896,7 +896,7 @@
     <t>V141</t>
   </si>
   <si>
-    <t>{2071.945855, 622.930864, 12}</t>
+    <t>{2071.945855, 622.930864, 0}</t>
   </si>
   <si>
     <t>V142</t>
@@ -914,7 +914,7 @@
     <t>V144</t>
   </si>
   <si>
-    <t>{1886.95046, 605.731746, 12}</t>
+    <t>{1886.95046, 605.731746, 0}</t>
   </si>
   <si>
     <t>V145</t>
@@ -1445,6 +1445,123 @@
     <t>{938.062517, 294.469485, 0}</t>
   </si>
   <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Orientation</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>outside</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>3me</t>
+  </si>
+  <si>
+    <t>roof</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>basement</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>hollandptc</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>CEG</t>
+  </si>
+  <si>
+    <t>NW</t>
+  </si>
+  <si>
+    <t>EEMCS2</t>
+  </si>
+  <si>
+    <t>TNO</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Radex</t>
+  </si>
+  <si>
+    <t>datacenter</t>
+  </si>
+  <si>
+    <t>AS(reactor)</t>
+  </si>
+  <si>
+    <t>TNO2</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>windtunnellab</t>
+  </si>
+  <si>
+    <t>intermediate</t>
+  </si>
+  <si>
+    <t>EEMCS</t>
+  </si>
+  <si>
+    <t>ProcessEnergy</t>
+  </si>
+  <si>
+    <t>Bouwcampus</t>
+  </si>
+  <si>
+    <t>Inholland</t>
+  </si>
+  <si>
+    <t>catalysislab</t>
+  </si>
+  <si>
+    <t>donercompany</t>
+  </si>
+  <si>
+    <t>bouwpub</t>
+  </si>
+  <si>
+    <t>boathouse</t>
+  </si>
+  <si>
+    <t>stud</t>
+  </si>
+  <si>
     <t>Source</t>
   </si>
   <si>
@@ -1454,9 +1571,6 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Tag</t>
-  </si>
-  <si>
     <t>Node Type</t>
   </si>
   <si>
@@ -1469,9 +1583,6 @@
     <t>heat</t>
   </si>
   <si>
-    <t>BK</t>
-  </si>
-  <si>
     <t>W2</t>
   </si>
   <si>
@@ -1514,139 +1625,28 @@
     <t>rainwater</t>
   </si>
   <si>
-    <t>3me</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
-    <t>donercompany</t>
-  </si>
-  <si>
     <t>foodtrucks</t>
   </si>
   <si>
-    <t>AS</t>
-  </si>
-  <si>
     <t>TPM</t>
   </si>
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>EEMCS2</t>
-  </si>
-  <si>
-    <t>CEG</t>
-  </si>
-  <si>
-    <t>Bouwcampus</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>EEMCS</t>
-  </si>
-  <si>
     <t>AS2</t>
   </si>
   <si>
     <t>fellowship</t>
   </si>
   <si>
-    <t>AE</t>
-  </si>
-  <si>
-    <t>datacenter</t>
-  </si>
-  <si>
     <t>compostbin</t>
   </si>
   <si>
     <t>education</t>
-  </si>
-  <si>
-    <t>Building</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Orientation</t>
-  </si>
-  <si>
-    <t>outside</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>roof</t>
-  </si>
-  <si>
-    <t>basement</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>hollandptc</t>
-  </si>
-  <si>
-    <t>SW</t>
-  </si>
-  <si>
-    <t>NE</t>
-  </si>
-  <si>
-    <t>NW</t>
-  </si>
-  <si>
-    <t>TNO</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>Radex</t>
-  </si>
-  <si>
-    <t>AS(reactor)</t>
-  </si>
-  <si>
-    <t>TNO2</t>
-  </si>
-  <si>
-    <t>windtunnellab</t>
-  </si>
-  <si>
-    <t>intermediate</t>
-  </si>
-  <si>
-    <t>ProcessEnergy</t>
-  </si>
-  <si>
-    <t>Inholland</t>
-  </si>
-  <si>
-    <t>catalysislab</t>
-  </si>
-  <si>
-    <t>bouwpub</t>
-  </si>
-  <si>
-    <t>boathouse</t>
-  </si>
-  <si>
-    <t>stud</t>
   </si>
 </sst>
 </file>
@@ -1664,6 +1664,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1691,12 +1697,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1728,14 +1728,14 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2049,16 +2049,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78B065E-3482-434C-99A1-EFCCCCE8DB57}">
-  <dimension ref="A1:H147"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D830ADF-A50B-4D33-A39D-142E19A44832}">
+  <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2069,22 +2069,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>469</v>
       </c>
       <c r="E1" t="s">
-        <v>510</v>
-      </c>
-      <c r="F1" t="s">
-        <v>511</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>512</v>
-      </c>
-      <c r="H1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G1" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2094,23 +2091,20 @@
       <c r="C2">
         <v>31174.536655</v>
       </c>
-      <c r="D2">
-        <v>31174.536655</v>
+      <c r="D2" t="s">
+        <v>473</v>
       </c>
       <c r="E2" t="s">
-        <v>513</v>
-      </c>
-      <c r="F2" t="s">
-        <v>513</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2120,23 +2114,20 @@
       <c r="C3">
         <v>23824.099084000001</v>
       </c>
-      <c r="D3">
-        <v>23824.099084000001</v>
+      <c r="D3" t="s">
+        <v>473</v>
       </c>
       <c r="E3" t="s">
-        <v>513</v>
-      </c>
-      <c r="F3" t="s">
-        <v>513</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H3" t="s">
+        <v>473</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2146,23 +2137,20 @@
       <c r="C4">
         <v>9665.3696419999997</v>
       </c>
-      <c r="D4">
-        <v>9665.3696419999997</v>
+      <c r="D4" t="s">
+        <v>475</v>
       </c>
       <c r="E4" t="s">
-        <v>492</v>
-      </c>
-      <c r="F4" t="s">
-        <v>515</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H4" t="s">
+        <v>476</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2172,23 +2160,20 @@
       <c r="C5">
         <v>8429.6334690000003</v>
       </c>
-      <c r="D5">
-        <v>8429.6334690000003</v>
+      <c r="D5" t="s">
+        <v>477</v>
       </c>
       <c r="E5" t="s">
-        <v>477</v>
-      </c>
-      <c r="F5" t="s">
-        <v>516</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="H5" t="s">
+        <v>478</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2198,23 +2183,20 @@
       <c r="C6">
         <v>8272.572478</v>
       </c>
-      <c r="D6">
-        <v>8272.572478</v>
+      <c r="D6" t="s">
+        <v>473</v>
       </c>
       <c r="E6" t="s">
-        <v>513</v>
-      </c>
-      <c r="F6" t="s">
-        <v>513</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H6" t="s">
+        <v>473</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2224,23 +2206,20 @@
       <c r="C7">
         <v>8061.2871999999998</v>
       </c>
-      <c r="D7">
-        <v>8061.2871999999998</v>
+      <c r="D7" t="s">
+        <v>473</v>
       </c>
       <c r="E7" t="s">
-        <v>513</v>
-      </c>
-      <c r="F7" t="s">
-        <v>513</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="H7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2250,23 +2229,20 @@
       <c r="C8">
         <v>6439.3171910000001</v>
       </c>
-      <c r="D8">
-        <v>6439.3171910000001</v>
+      <c r="D8" t="s">
+        <v>473</v>
       </c>
       <c r="E8" t="s">
-        <v>513</v>
-      </c>
-      <c r="F8" t="s">
-        <v>513</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H8" t="s">
+        <v>473</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2276,23 +2252,20 @@
       <c r="C9">
         <v>6015.4002810000002</v>
       </c>
-      <c r="D9">
-        <v>6015.4002810000002</v>
+      <c r="D9" t="s">
+        <v>473</v>
       </c>
       <c r="E9" t="s">
-        <v>513</v>
-      </c>
-      <c r="F9" t="s">
-        <v>513</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="H9" t="s">
+        <v>473</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2302,23 +2275,20 @@
       <c r="C10">
         <v>5436.1120639999999</v>
       </c>
-      <c r="D10">
-        <v>5436.1120639999999</v>
+      <c r="D10" t="s">
+        <v>480</v>
       </c>
       <c r="E10" t="s">
-        <v>496</v>
-      </c>
-      <c r="F10" t="s">
-        <v>515</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H10" t="s">
+        <v>476</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2328,23 +2298,20 @@
       <c r="C11">
         <v>4880.6949619999996</v>
       </c>
-      <c r="D11">
-        <v>4880.6949619999996</v>
+      <c r="D11" t="s">
+        <v>473</v>
       </c>
       <c r="E11" t="s">
-        <v>513</v>
-      </c>
-      <c r="F11" t="s">
-        <v>513</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H11" t="s">
+        <v>473</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2354,23 +2321,20 @@
       <c r="C12">
         <v>4720.7078570000003</v>
       </c>
-      <c r="D12">
-        <v>4720.7078570000003</v>
+      <c r="D12" t="s">
+        <v>473</v>
       </c>
       <c r="E12" t="s">
-        <v>513</v>
-      </c>
-      <c r="F12" t="s">
-        <v>513</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H12" t="s">
+        <v>473</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -2380,23 +2344,20 @@
       <c r="C13">
         <v>4436.9056129999999</v>
       </c>
-      <c r="D13">
-        <v>4436.9056129999999</v>
+      <c r="D13" t="s">
+        <v>473</v>
       </c>
       <c r="E13" t="s">
-        <v>513</v>
-      </c>
-      <c r="F13" t="s">
-        <v>513</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H13" t="s">
+        <v>473</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2406,23 +2367,20 @@
       <c r="C14">
         <v>3912.406602</v>
       </c>
-      <c r="D14">
-        <v>3912.406602</v>
+      <c r="D14" t="s">
+        <v>481</v>
       </c>
       <c r="E14" t="s">
-        <v>518</v>
-      </c>
-      <c r="F14" t="s">
-        <v>515</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H14" t="s">
+        <v>476</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -2432,23 +2390,20 @@
       <c r="C15">
         <v>3860.8052539999999</v>
       </c>
-      <c r="D15">
-        <v>3860.8052539999999</v>
+      <c r="D15" t="s">
+        <v>473</v>
       </c>
       <c r="E15" t="s">
-        <v>513</v>
-      </c>
-      <c r="F15" t="s">
-        <v>513</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="H15" t="s">
+        <v>473</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2458,23 +2413,20 @@
       <c r="C16">
         <v>3795.5508420000001</v>
       </c>
-      <c r="D16">
-        <v>3795.5508420000001</v>
+      <c r="D16" t="s">
+        <v>473</v>
       </c>
       <c r="E16" t="s">
-        <v>513</v>
-      </c>
-      <c r="F16" t="s">
-        <v>513</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H16" t="s">
+        <v>473</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -2484,23 +2436,20 @@
       <c r="C17">
         <v>3414.2072400000002</v>
       </c>
-      <c r="D17">
-        <v>3414.2072400000002</v>
+      <c r="D17" t="s">
+        <v>473</v>
       </c>
       <c r="E17" t="s">
-        <v>513</v>
-      </c>
-      <c r="F17" t="s">
-        <v>513</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="H17" t="s">
+        <v>473</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="G17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -2510,23 +2459,20 @@
       <c r="C18">
         <v>3321.5999430000002</v>
       </c>
-      <c r="D18">
-        <v>3321.5999430000002</v>
+      <c r="D18" t="s">
+        <v>473</v>
       </c>
       <c r="E18" t="s">
-        <v>513</v>
-      </c>
-      <c r="F18" t="s">
-        <v>513</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="H18" t="s">
+        <v>473</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="G18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -2536,23 +2482,20 @@
       <c r="C19">
         <v>3035.0676050000002</v>
       </c>
-      <c r="D19">
-        <v>3035.0676050000002</v>
+      <c r="D19" t="s">
+        <v>473</v>
       </c>
       <c r="E19" t="s">
-        <v>513</v>
-      </c>
-      <c r="F19" t="s">
-        <v>513</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H19" t="s">
+        <v>473</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -2562,23 +2505,20 @@
       <c r="C20">
         <v>2707.0497319999999</v>
       </c>
-      <c r="D20">
-        <v>2707.0497319999999</v>
+      <c r="D20" t="s">
+        <v>473</v>
       </c>
       <c r="E20" t="s">
-        <v>513</v>
-      </c>
-      <c r="F20" t="s">
-        <v>513</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H20" t="s">
+        <v>473</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -2588,23 +2528,20 @@
       <c r="C21">
         <v>2570.6053980000002</v>
       </c>
-      <c r="D21">
-        <v>2570.6053980000002</v>
+      <c r="D21" t="s">
+        <v>483</v>
       </c>
       <c r="E21" t="s">
-        <v>502</v>
-      </c>
-      <c r="F21" t="s">
-        <v>515</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H21" t="s">
+        <v>476</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -2614,23 +2551,20 @@
       <c r="C22">
         <v>2542.3542550000002</v>
       </c>
-      <c r="D22">
-        <v>2542.3542550000002</v>
+      <c r="D22" t="s">
+        <v>473</v>
       </c>
       <c r="E22" t="s">
-        <v>513</v>
-      </c>
-      <c r="F22" t="s">
-        <v>513</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="H22" t="s">
+        <v>473</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -2640,23 +2574,20 @@
       <c r="C23">
         <v>2541.1915239999998</v>
       </c>
-      <c r="D23">
-        <v>2541.1915239999998</v>
+      <c r="D23" t="s">
+        <v>473</v>
       </c>
       <c r="E23" t="s">
-        <v>513</v>
-      </c>
-      <c r="F23" t="s">
-        <v>513</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="H23" t="s">
+        <v>473</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -2666,23 +2597,20 @@
       <c r="C24">
         <v>2440.6488789999999</v>
       </c>
-      <c r="D24">
-        <v>2440.6488789999999</v>
+      <c r="D24" t="s">
+        <v>485</v>
       </c>
       <c r="E24" t="s">
-        <v>500</v>
-      </c>
-      <c r="F24" t="s">
-        <v>515</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H24" t="s">
+        <v>476</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -2692,23 +2620,20 @@
       <c r="C25">
         <v>2245.407526</v>
       </c>
-      <c r="D25">
-        <v>2245.407526</v>
+      <c r="D25" t="s">
+        <v>473</v>
       </c>
       <c r="E25" t="s">
-        <v>513</v>
-      </c>
-      <c r="F25" t="s">
-        <v>513</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>521</v>
-      </c>
-      <c r="H25" t="s">
+        <v>473</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -2718,23 +2643,20 @@
       <c r="C26">
         <v>2167.9804559999998</v>
       </c>
-      <c r="D26">
-        <v>2167.9804559999998</v>
+      <c r="D26" t="s">
+        <v>487</v>
       </c>
       <c r="E26" t="s">
-        <v>499</v>
-      </c>
-      <c r="F26" t="s">
-        <v>515</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H26" t="s">
+        <v>476</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -2744,23 +2666,20 @@
       <c r="C27">
         <v>2144.1043049999998</v>
       </c>
-      <c r="D27">
-        <v>2144.1043049999998</v>
+      <c r="D27" t="s">
+        <v>488</v>
       </c>
       <c r="E27" t="s">
-        <v>522</v>
-      </c>
-      <c r="F27" t="s">
-        <v>515</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H27" t="s">
+        <v>476</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -2770,23 +2689,20 @@
       <c r="C28">
         <v>2139.3186569999998</v>
       </c>
-      <c r="D28">
-        <v>2139.3186569999998</v>
+      <c r="D28" t="s">
+        <v>55</v>
       </c>
       <c r="E28" t="s">
+        <v>476</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G28" t="s">
         <v>55</v>
       </c>
-      <c r="F28" t="s">
-        <v>515</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -2796,23 +2712,20 @@
       <c r="C29">
         <v>2111.0300670000001</v>
       </c>
-      <c r="D29">
-        <v>2111.0300670000001</v>
+      <c r="D29" t="s">
+        <v>57</v>
       </c>
       <c r="E29" t="s">
+        <v>476</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G29" t="s">
         <v>57</v>
       </c>
-      <c r="F29" t="s">
-        <v>515</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -2822,23 +2735,20 @@
       <c r="C30">
         <v>2093.1709860000001</v>
       </c>
-      <c r="D30">
-        <v>2093.1709860000001</v>
+      <c r="D30" t="s">
+        <v>473</v>
       </c>
       <c r="E30" t="s">
-        <v>513</v>
-      </c>
-      <c r="F30" t="s">
-        <v>513</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H30" t="s">
+        <v>473</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G30" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -2848,23 +2758,20 @@
       <c r="C31">
         <v>1954.974543</v>
       </c>
-      <c r="D31">
-        <v>1954.974543</v>
+      <c r="D31" t="s">
+        <v>473</v>
       </c>
       <c r="E31" t="s">
-        <v>513</v>
-      </c>
-      <c r="F31" t="s">
-        <v>513</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="H31" t="s">
+        <v>473</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G31" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -2874,23 +2781,20 @@
       <c r="C32">
         <v>1942.882355</v>
       </c>
-      <c r="D32">
-        <v>1942.882355</v>
+      <c r="D32" t="s">
+        <v>473</v>
       </c>
       <c r="E32" t="s">
-        <v>513</v>
-      </c>
-      <c r="F32" t="s">
-        <v>513</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H32" t="s">
+        <v>473</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G32" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -2900,23 +2804,20 @@
       <c r="C33">
         <v>1921.86682</v>
       </c>
-      <c r="D33">
-        <v>1921.86682</v>
+      <c r="D33" t="s">
+        <v>473</v>
       </c>
       <c r="E33" t="s">
-        <v>513</v>
-      </c>
-      <c r="F33" t="s">
-        <v>513</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="H33" t="s">
+        <v>473</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G33" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -2926,23 +2827,20 @@
       <c r="C34">
         <v>1665.1012900000001</v>
       </c>
-      <c r="D34">
-        <v>1665.1012900000001</v>
+      <c r="D34" t="s">
+        <v>473</v>
       </c>
       <c r="E34" t="s">
-        <v>513</v>
-      </c>
-      <c r="F34" t="s">
-        <v>513</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H34" t="s">
+        <v>473</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G34" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -2952,23 +2850,20 @@
       <c r="C35">
         <v>1658.4798290000001</v>
       </c>
-      <c r="D35">
-        <v>1658.4798290000001</v>
+      <c r="D35" t="s">
+        <v>473</v>
       </c>
       <c r="E35" t="s">
-        <v>513</v>
-      </c>
-      <c r="F35" t="s">
-        <v>513</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="H35" t="s">
+        <v>473</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G35" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -2978,23 +2873,20 @@
       <c r="C36">
         <v>1610.590794</v>
       </c>
-      <c r="D36">
-        <v>1610.590794</v>
+      <c r="D36" t="s">
+        <v>473</v>
       </c>
       <c r="E36" t="s">
-        <v>513</v>
-      </c>
-      <c r="F36" t="s">
-        <v>513</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="H36" t="s">
+        <v>473</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="G36" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -3004,23 +2896,20 @@
       <c r="C37">
         <v>1597.5119299999999</v>
       </c>
-      <c r="D37">
-        <v>1597.5119299999999</v>
+      <c r="D37" t="s">
+        <v>473</v>
       </c>
       <c r="E37" t="s">
-        <v>513</v>
-      </c>
-      <c r="F37" t="s">
-        <v>513</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="H37" t="s">
+        <v>473</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="G37" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -3030,23 +2919,20 @@
       <c r="C38">
         <v>1578.7820959999999</v>
       </c>
-      <c r="D38">
-        <v>1578.7820959999999</v>
+      <c r="D38" t="s">
+        <v>492</v>
       </c>
       <c r="E38" t="s">
-        <v>526</v>
-      </c>
-      <c r="F38" t="s">
-        <v>515</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H38" t="s">
+        <v>476</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G38" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -3056,23 +2942,20 @@
       <c r="C39">
         <v>1572.935303</v>
       </c>
-      <c r="D39">
-        <v>1572.935303</v>
+      <c r="D39" t="s">
+        <v>473</v>
       </c>
       <c r="E39" t="s">
-        <v>513</v>
-      </c>
-      <c r="F39" t="s">
-        <v>513</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="H39" t="s">
+        <v>473</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G39" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -3082,23 +2965,20 @@
       <c r="C40">
         <v>1501.150494</v>
       </c>
-      <c r="D40">
-        <v>1501.150494</v>
+      <c r="D40" t="s">
+        <v>79</v>
       </c>
       <c r="E40" t="s">
+        <v>476</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G40" t="s">
         <v>79</v>
       </c>
-      <c r="F40" t="s">
-        <v>515</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H40" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -3108,23 +2988,20 @@
       <c r="C41">
         <v>1501.150494</v>
       </c>
-      <c r="D41">
-        <v>1501.150494</v>
+      <c r="D41" t="s">
+        <v>81</v>
       </c>
       <c r="E41" t="s">
+        <v>476</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G41" t="s">
         <v>81</v>
       </c>
-      <c r="F41" t="s">
-        <v>515</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -3134,23 +3011,20 @@
       <c r="C42">
         <v>1354.2838959999999</v>
       </c>
-      <c r="D42">
-        <v>1354.2838959999999</v>
+      <c r="D42" t="s">
+        <v>493</v>
       </c>
       <c r="E42" t="s">
-        <v>507</v>
-      </c>
-      <c r="F42" t="s">
-        <v>515</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H42" t="s">
+        <v>476</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G42" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -3160,23 +3034,20 @@
       <c r="C43">
         <v>1340.761573</v>
       </c>
-      <c r="D43">
-        <v>1340.761573</v>
+      <c r="D43" t="s">
+        <v>473</v>
       </c>
       <c r="E43" t="s">
-        <v>513</v>
-      </c>
-      <c r="F43" t="s">
-        <v>513</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="H43" t="s">
+        <v>473</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G43" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -3186,23 +3057,20 @@
       <c r="C44">
         <v>1288.877422</v>
       </c>
-      <c r="D44">
-        <v>1288.877422</v>
+      <c r="D44" t="s">
+        <v>473</v>
       </c>
       <c r="E44" t="s">
-        <v>513</v>
-      </c>
-      <c r="F44" t="s">
-        <v>513</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H44" t="s">
+        <v>473</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G44" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -3212,23 +3080,20 @@
       <c r="C45">
         <v>1275.764993</v>
       </c>
-      <c r="D45">
-        <v>1275.764993</v>
+      <c r="D45" t="s">
+        <v>473</v>
       </c>
       <c r="E45" t="s">
-        <v>513</v>
-      </c>
-      <c r="F45" t="s">
-        <v>513</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H45" t="s">
+        <v>473</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G45" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -3238,23 +3103,20 @@
       <c r="C46">
         <v>1233.5239079999999</v>
       </c>
-      <c r="D46">
-        <v>1233.5239079999999</v>
+      <c r="D46" t="s">
+        <v>485</v>
       </c>
       <c r="E46" t="s">
-        <v>500</v>
-      </c>
-      <c r="F46" t="s">
-        <v>515</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H46" t="s">
+        <v>476</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G46" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -3264,23 +3126,20 @@
       <c r="C47">
         <v>1231.7751949999999</v>
       </c>
-      <c r="D47">
-        <v>1231.7751949999999</v>
+      <c r="D47" t="s">
+        <v>473</v>
       </c>
       <c r="E47" t="s">
-        <v>513</v>
-      </c>
-      <c r="F47" t="s">
-        <v>513</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="H47" t="s">
+        <v>473</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="G47" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -3290,23 +3149,20 @@
       <c r="C48">
         <v>1153.400093</v>
       </c>
-      <c r="D48">
-        <v>1153.400093</v>
+      <c r="D48" t="s">
+        <v>473</v>
       </c>
       <c r="E48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F48" t="s">
-        <v>513</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H48" t="s">
+        <v>473</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G48" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -3316,23 +3172,20 @@
       <c r="C49">
         <v>1148.7480860000001</v>
       </c>
-      <c r="D49">
-        <v>1148.7480860000001</v>
+      <c r="D49" t="s">
+        <v>494</v>
       </c>
       <c r="E49" t="s">
-        <v>527</v>
-      </c>
-      <c r="F49" t="s">
-        <v>515</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H49" t="s">
+        <v>476</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G49" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -3342,23 +3195,20 @@
       <c r="C50">
         <v>1130.80954</v>
       </c>
-      <c r="D50">
-        <v>1130.80954</v>
+      <c r="D50" t="s">
+        <v>473</v>
       </c>
       <c r="E50" t="s">
-        <v>513</v>
-      </c>
-      <c r="F50" t="s">
-        <v>513</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H50" t="s">
+        <v>473</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G50" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -3368,23 +3218,20 @@
       <c r="C51">
         <v>1091.5993570000001</v>
       </c>
-      <c r="D51">
-        <v>1091.5993570000001</v>
+      <c r="D51" t="s">
+        <v>473</v>
       </c>
       <c r="E51" t="s">
-        <v>513</v>
-      </c>
-      <c r="F51" t="s">
-        <v>513</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H51" t="s">
+        <v>473</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G51" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -3394,23 +3241,20 @@
       <c r="C52">
         <v>1060.91461</v>
       </c>
-      <c r="D52">
-        <v>1060.91461</v>
+      <c r="D52" t="s">
+        <v>473</v>
       </c>
       <c r="E52" t="s">
-        <v>513</v>
-      </c>
-      <c r="F52" t="s">
-        <v>513</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="H52" t="s">
+        <v>473</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G52" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -3420,23 +3264,20 @@
       <c r="C53">
         <v>1055.834638</v>
       </c>
-      <c r="D53">
-        <v>1055.834638</v>
+      <c r="D53" t="s">
+        <v>495</v>
       </c>
       <c r="E53" t="s">
-        <v>528</v>
-      </c>
-      <c r="F53" t="s">
-        <v>515</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H53" t="s">
+        <v>476</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G53" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -3446,23 +3287,20 @@
       <c r="C54">
         <v>1044.1050869999999</v>
       </c>
-      <c r="D54">
-        <v>1044.1050869999999</v>
+      <c r="D54" t="s">
+        <v>496</v>
       </c>
       <c r="E54" t="s">
-        <v>506</v>
-      </c>
-      <c r="F54" t="s">
-        <v>515</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H54" t="s">
+        <v>476</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G54" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -3472,23 +3310,20 @@
       <c r="C55">
         <v>1034.0140550000001</v>
       </c>
-      <c r="D55">
-        <v>1034.0140550000001</v>
+      <c r="D55" t="s">
+        <v>473</v>
       </c>
       <c r="E55" t="s">
-        <v>513</v>
-      </c>
-      <c r="F55" t="s">
-        <v>513</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H55" t="s">
+        <v>473</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G55" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -3498,23 +3333,20 @@
       <c r="C56">
         <v>950.17440699999997</v>
       </c>
-      <c r="D56">
-        <v>950.17440699999997</v>
+      <c r="D56" t="s">
+        <v>497</v>
       </c>
       <c r="E56" t="s">
-        <v>529</v>
-      </c>
-      <c r="F56" t="s">
-        <v>515</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H56" t="s">
+        <v>476</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G56" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -3524,23 +3356,20 @@
       <c r="C57">
         <v>937.01029300000005</v>
       </c>
-      <c r="D57">
-        <v>937.01029300000005</v>
+      <c r="D57" t="s">
+        <v>473</v>
       </c>
       <c r="E57" t="s">
-        <v>513</v>
-      </c>
-      <c r="F57" t="s">
-        <v>513</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="H57" t="s">
+        <v>473</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G57" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -3550,23 +3379,20 @@
       <c r="C58">
         <v>886.90109600000005</v>
       </c>
-      <c r="D58">
-        <v>886.90109600000005</v>
+      <c r="D58" t="s">
+        <v>473</v>
       </c>
       <c r="E58" t="s">
-        <v>513</v>
-      </c>
-      <c r="F58" t="s">
-        <v>513</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="H58" t="s">
+        <v>473</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G58" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -3576,23 +3402,20 @@
       <c r="C59">
         <v>886.22100699999999</v>
       </c>
-      <c r="D59">
-        <v>886.22100699999999</v>
+      <c r="D59" t="s">
+        <v>117</v>
       </c>
       <c r="E59" t="s">
+        <v>476</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G59" t="s">
         <v>117</v>
       </c>
-      <c r="F59" t="s">
-        <v>515</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H59" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -3602,23 +3425,20 @@
       <c r="C60">
         <v>886.22100699999999</v>
       </c>
-      <c r="D60">
-        <v>886.22100699999999</v>
+      <c r="D60" t="s">
+        <v>119</v>
       </c>
       <c r="E60" t="s">
+        <v>476</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G60" t="s">
         <v>119</v>
       </c>
-      <c r="F60" t="s">
-        <v>515</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H60" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -3628,23 +3448,20 @@
       <c r="C61">
         <v>886.22100699999999</v>
       </c>
-      <c r="D61">
-        <v>886.22100699999999</v>
+      <c r="D61" t="s">
+        <v>121</v>
       </c>
       <c r="E61" t="s">
+        <v>476</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G61" t="s">
         <v>121</v>
       </c>
-      <c r="F61" t="s">
-        <v>515</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H61" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -3654,23 +3471,20 @@
       <c r="C62">
         <v>886.22100699999999</v>
       </c>
-      <c r="D62">
-        <v>886.22100699999999</v>
+      <c r="D62" t="s">
+        <v>123</v>
       </c>
       <c r="E62" t="s">
+        <v>476</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G62" t="s">
         <v>123</v>
       </c>
-      <c r="F62" t="s">
-        <v>515</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H62" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -3680,23 +3494,20 @@
       <c r="C63">
         <v>886.22100699999999</v>
       </c>
-      <c r="D63">
-        <v>886.22100699999999</v>
+      <c r="D63" t="s">
+        <v>125</v>
       </c>
       <c r="E63" t="s">
+        <v>476</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G63" t="s">
         <v>125</v>
       </c>
-      <c r="F63" t="s">
-        <v>515</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H63" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -3706,23 +3517,20 @@
       <c r="C64">
         <v>886.22100699999999</v>
       </c>
-      <c r="D64">
-        <v>886.22100699999999</v>
+      <c r="D64" t="s">
+        <v>127</v>
       </c>
       <c r="E64" t="s">
+        <v>476</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G64" t="s">
         <v>127</v>
       </c>
-      <c r="F64" t="s">
-        <v>515</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H64" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -3732,23 +3540,20 @@
       <c r="C65">
         <v>886.22100699999999</v>
       </c>
-      <c r="D65">
-        <v>886.22100699999999</v>
+      <c r="D65" t="s">
+        <v>129</v>
       </c>
       <c r="E65" t="s">
+        <v>476</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G65" t="s">
         <v>129</v>
       </c>
-      <c r="F65" t="s">
-        <v>515</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H65" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -3758,23 +3563,20 @@
       <c r="C66">
         <v>886.22100699999999</v>
       </c>
-      <c r="D66">
-        <v>886.22100699999999</v>
+      <c r="D66" t="s">
+        <v>131</v>
       </c>
       <c r="E66" t="s">
+        <v>476</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G66" t="s">
         <v>131</v>
       </c>
-      <c r="F66" t="s">
-        <v>515</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H66" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -3784,23 +3586,20 @@
       <c r="C67">
         <v>884.45984599999997</v>
       </c>
-      <c r="D67">
-        <v>884.45984599999997</v>
+      <c r="D67" t="s">
+        <v>473</v>
       </c>
       <c r="E67" t="s">
-        <v>513</v>
-      </c>
-      <c r="F67" t="s">
-        <v>513</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H67" t="s">
+        <v>473</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G67" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -3810,23 +3609,20 @@
       <c r="C68">
         <v>871.979286</v>
       </c>
-      <c r="D68">
-        <v>871.979286</v>
+      <c r="D68" t="s">
+        <v>473</v>
       </c>
       <c r="E68" t="s">
-        <v>513</v>
-      </c>
-      <c r="F68" t="s">
-        <v>513</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="H68" t="s">
+        <v>473</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G68" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -3836,23 +3632,20 @@
       <c r="C69">
         <v>849.66133300000001</v>
       </c>
-      <c r="D69">
-        <v>849.66133300000001</v>
+      <c r="D69" t="s">
+        <v>473</v>
       </c>
       <c r="E69" t="s">
-        <v>513</v>
-      </c>
-      <c r="F69" t="s">
-        <v>513</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H69" t="s">
+        <v>473</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G69" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -3862,23 +3655,20 @@
       <c r="C70">
         <v>817.90353000000005</v>
       </c>
-      <c r="D70">
-        <v>817.90353000000005</v>
+      <c r="D70" t="s">
+        <v>477</v>
       </c>
       <c r="E70" t="s">
-        <v>477</v>
-      </c>
-      <c r="F70" t="s">
-        <v>530</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="H70" t="s">
+        <v>498</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G70" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -3888,23 +3678,20 @@
       <c r="C71">
         <v>816.51211999999998</v>
       </c>
-      <c r="D71">
-        <v>816.51211999999998</v>
+      <c r="D71" t="s">
+        <v>141</v>
       </c>
       <c r="E71" t="s">
+        <v>476</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G71" t="s">
         <v>141</v>
       </c>
-      <c r="F71" t="s">
-        <v>515</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H71" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -3914,23 +3701,20 @@
       <c r="C72">
         <v>784.69636300000002</v>
       </c>
-      <c r="D72">
-        <v>784.69636300000002</v>
+      <c r="D72" t="s">
+        <v>473</v>
       </c>
       <c r="E72" t="s">
-        <v>513</v>
-      </c>
-      <c r="F72" t="s">
-        <v>513</v>
-      </c>
-      <c r="G72" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="H72" t="s">
+        <v>473</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G72" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -3940,23 +3724,20 @@
       <c r="C73">
         <v>782.43185200000005</v>
       </c>
-      <c r="D73">
-        <v>782.43185200000005</v>
+      <c r="D73" t="s">
+        <v>499</v>
       </c>
       <c r="E73" t="s">
-        <v>503</v>
-      </c>
-      <c r="F73" t="s">
-        <v>515</v>
-      </c>
-      <c r="G73" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H73" t="s">
+        <v>476</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G73" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -3966,23 +3747,20 @@
       <c r="C74">
         <v>741.89980600000001</v>
       </c>
-      <c r="D74">
-        <v>741.89980600000001</v>
+      <c r="D74" t="s">
+        <v>496</v>
       </c>
       <c r="E74" t="s">
-        <v>506</v>
-      </c>
-      <c r="F74" t="s">
-        <v>515</v>
-      </c>
-      <c r="G74" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H74" t="s">
+        <v>476</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G74" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -3992,23 +3770,20 @@
       <c r="C75">
         <v>735.65105900000003</v>
       </c>
-      <c r="D75">
-        <v>735.65105900000003</v>
+      <c r="D75" t="s">
+        <v>473</v>
       </c>
       <c r="E75" t="s">
-        <v>513</v>
-      </c>
-      <c r="F75" t="s">
-        <v>513</v>
-      </c>
-      <c r="G75" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="H75" t="s">
+        <v>473</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G75" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -4018,23 +3793,20 @@
       <c r="C76">
         <v>734.14002000000005</v>
       </c>
-      <c r="D76">
-        <v>734.14002000000005</v>
+      <c r="D76" t="s">
+        <v>494</v>
       </c>
       <c r="E76" t="s">
-        <v>527</v>
-      </c>
-      <c r="F76" t="s">
-        <v>515</v>
-      </c>
-      <c r="G76" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H76" t="s">
+        <v>476</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G76" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -4044,23 +3816,20 @@
       <c r="C77">
         <v>731.33723599999996</v>
       </c>
-      <c r="D77">
-        <v>731.33723599999996</v>
+      <c r="D77" t="s">
+        <v>500</v>
       </c>
       <c r="E77" t="s">
-        <v>531</v>
-      </c>
-      <c r="F77" t="s">
-        <v>515</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H77" t="s">
+        <v>476</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G77" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -4070,23 +3839,20 @@
       <c r="C78">
         <v>694.035302</v>
       </c>
-      <c r="D78">
-        <v>694.035302</v>
+      <c r="D78" t="s">
+        <v>473</v>
       </c>
       <c r="E78" t="s">
-        <v>513</v>
-      </c>
-      <c r="F78" t="s">
-        <v>513</v>
-      </c>
-      <c r="G78" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H78" t="s">
+        <v>473</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G78" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -4096,23 +3862,20 @@
       <c r="C79">
         <v>669.74844399999995</v>
       </c>
-      <c r="D79">
-        <v>669.74844399999995</v>
+      <c r="D79" t="s">
+        <v>473</v>
       </c>
       <c r="E79" t="s">
-        <v>513</v>
-      </c>
-      <c r="F79" t="s">
-        <v>513</v>
-      </c>
-      <c r="G79" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="H79" t="s">
+        <v>473</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="G79" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -4122,23 +3885,20 @@
       <c r="C80">
         <v>641.94745999999998</v>
       </c>
-      <c r="D80">
-        <v>641.94745999999998</v>
+      <c r="D80" t="s">
+        <v>159</v>
       </c>
       <c r="E80" t="s">
+        <v>476</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G80" t="s">
         <v>159</v>
       </c>
-      <c r="F80" t="s">
-        <v>515</v>
-      </c>
-      <c r="G80" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H80" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -4148,23 +3908,20 @@
       <c r="C81">
         <v>636.56769499999996</v>
       </c>
-      <c r="D81">
-        <v>636.56769499999996</v>
+      <c r="D81" t="s">
+        <v>480</v>
       </c>
       <c r="E81" t="s">
-        <v>496</v>
-      </c>
-      <c r="F81" t="s">
-        <v>515</v>
-      </c>
-      <c r="G81" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H81" t="s">
+        <v>476</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G81" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -4174,23 +3931,20 @@
       <c r="C82">
         <v>619.17893800000002</v>
       </c>
-      <c r="D82">
-        <v>619.17893800000002</v>
+      <c r="D82" t="s">
+        <v>473</v>
       </c>
       <c r="E82" t="s">
-        <v>513</v>
-      </c>
-      <c r="F82" t="s">
-        <v>513</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H82" t="s">
+        <v>473</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G82" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>165</v>
       </c>
@@ -4200,23 +3954,20 @@
       <c r="C83">
         <v>603.53602000000001</v>
       </c>
-      <c r="D83">
-        <v>603.53602000000001</v>
+      <c r="D83" t="s">
+        <v>473</v>
       </c>
       <c r="E83" t="s">
-        <v>513</v>
-      </c>
-      <c r="F83" t="s">
-        <v>513</v>
-      </c>
-      <c r="G83" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="H83" t="s">
+        <v>473</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="G83" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>167</v>
       </c>
@@ -4226,23 +3977,20 @@
       <c r="C84">
         <v>566.43260199999997</v>
       </c>
-      <c r="D84">
-        <v>566.43260199999997</v>
+      <c r="D84" t="s">
+        <v>473</v>
       </c>
       <c r="E84" t="s">
-        <v>513</v>
-      </c>
-      <c r="F84" t="s">
-        <v>513</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H84" t="s">
+        <v>473</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G84" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>169</v>
       </c>
@@ -4252,23 +4000,20 @@
       <c r="C85">
         <v>560.23707899999999</v>
       </c>
-      <c r="D85">
-        <v>560.23707899999999</v>
+      <c r="D85" t="s">
+        <v>473</v>
       </c>
       <c r="E85" t="s">
-        <v>513</v>
-      </c>
-      <c r="F85" t="s">
-        <v>513</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="H85" t="s">
+        <v>473</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G85" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>171</v>
       </c>
@@ -4278,23 +4023,20 @@
       <c r="C86">
         <v>559.77295300000003</v>
       </c>
-      <c r="D86">
-        <v>559.77295300000003</v>
+      <c r="D86" t="s">
+        <v>473</v>
       </c>
       <c r="E86" t="s">
-        <v>513</v>
-      </c>
-      <c r="F86" t="s">
-        <v>513</v>
-      </c>
-      <c r="G86" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H86" t="s">
+        <v>473</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G86" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>173</v>
       </c>
@@ -4304,23 +4046,20 @@
       <c r="C87">
         <v>549.393913</v>
       </c>
-      <c r="D87">
-        <v>549.393913</v>
+      <c r="D87" t="s">
+        <v>494</v>
       </c>
       <c r="E87" t="s">
-        <v>527</v>
-      </c>
-      <c r="F87" t="s">
-        <v>515</v>
-      </c>
-      <c r="G87" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H87" t="s">
+        <v>476</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G87" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>175</v>
       </c>
@@ -4330,23 +4069,20 @@
       <c r="C88">
         <v>545.51456299999995</v>
       </c>
-      <c r="D88">
-        <v>545.51456299999995</v>
+      <c r="D88" t="s">
+        <v>473</v>
       </c>
       <c r="E88" t="s">
-        <v>513</v>
-      </c>
-      <c r="F88" t="s">
-        <v>513</v>
-      </c>
-      <c r="G88" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="H88" t="s">
+        <v>473</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G88" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>177</v>
       </c>
@@ -4356,23 +4092,20 @@
       <c r="C89">
         <v>513.13563399999998</v>
       </c>
-      <c r="D89">
-        <v>513.13563399999998</v>
+      <c r="D89" t="s">
+        <v>177</v>
       </c>
       <c r="E89" t="s">
+        <v>476</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G89" t="s">
         <v>177</v>
       </c>
-      <c r="F89" t="s">
-        <v>515</v>
-      </c>
-      <c r="G89" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H89" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>179</v>
       </c>
@@ -4382,23 +4115,20 @@
       <c r="C90">
         <v>506.80062600000002</v>
       </c>
-      <c r="D90">
-        <v>506.80062600000002</v>
+      <c r="D90" t="s">
+        <v>495</v>
       </c>
       <c r="E90" t="s">
-        <v>528</v>
-      </c>
-      <c r="F90" t="s">
-        <v>515</v>
-      </c>
-      <c r="G90" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H90" t="s">
+        <v>476</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G90" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>181</v>
       </c>
@@ -4408,23 +4138,20 @@
       <c r="C91">
         <v>501.81874099999999</v>
       </c>
-      <c r="D91">
-        <v>501.81874099999999</v>
+      <c r="D91" t="s">
+        <v>473</v>
       </c>
       <c r="E91" t="s">
-        <v>513</v>
-      </c>
-      <c r="F91" t="s">
-        <v>513</v>
-      </c>
-      <c r="G91" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H91" t="s">
+        <v>473</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G91" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>183</v>
       </c>
@@ -4434,23 +4161,20 @@
       <c r="C92">
         <v>494.83449999999999</v>
       </c>
-      <c r="D92">
-        <v>494.83449999999999</v>
+      <c r="D92" t="s">
+        <v>473</v>
       </c>
       <c r="E92" t="s">
-        <v>513</v>
-      </c>
-      <c r="F92" t="s">
-        <v>513</v>
-      </c>
-      <c r="G92" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="H92" t="s">
+        <v>473</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="G92" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>185</v>
       </c>
@@ -4460,23 +4184,20 @@
       <c r="C93">
         <v>475.829477</v>
       </c>
-      <c r="D93">
-        <v>475.829477</v>
+      <c r="D93" t="s">
+        <v>185</v>
       </c>
       <c r="E93" t="s">
+        <v>476</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G93" t="s">
         <v>185</v>
       </c>
-      <c r="F93" t="s">
-        <v>515</v>
-      </c>
-      <c r="G93" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H93" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>187</v>
       </c>
@@ -4486,23 +4207,20 @@
       <c r="C94">
         <v>475.829477</v>
       </c>
-      <c r="D94">
-        <v>475.829477</v>
+      <c r="D94" t="s">
+        <v>187</v>
       </c>
       <c r="E94" t="s">
+        <v>476</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G94" t="s">
         <v>187</v>
       </c>
-      <c r="F94" t="s">
-        <v>515</v>
-      </c>
-      <c r="G94" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H94" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>189</v>
       </c>
@@ -4512,23 +4230,20 @@
       <c r="C95">
         <v>473.01391799999999</v>
       </c>
-      <c r="D95">
-        <v>473.01391799999999</v>
+      <c r="D95" t="s">
+        <v>473</v>
       </c>
       <c r="E95" t="s">
-        <v>513</v>
-      </c>
-      <c r="F95" t="s">
-        <v>513</v>
-      </c>
-      <c r="G95" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="H95" t="s">
+        <v>473</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G95" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>191</v>
       </c>
@@ -4538,23 +4253,20 @@
       <c r="C96">
         <v>443.45054800000003</v>
       </c>
-      <c r="D96">
-        <v>443.45054800000003</v>
+      <c r="D96" t="s">
+        <v>487</v>
       </c>
       <c r="E96" t="s">
-        <v>499</v>
-      </c>
-      <c r="F96" t="s">
-        <v>515</v>
-      </c>
-      <c r="G96" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H96" t="s">
+        <v>476</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G96" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>193</v>
       </c>
@@ -4564,23 +4276,20 @@
       <c r="C97">
         <v>439.22720900000002</v>
       </c>
-      <c r="D97">
-        <v>439.22720900000002</v>
+      <c r="D97" t="s">
+        <v>473</v>
       </c>
       <c r="E97" t="s">
-        <v>513</v>
-      </c>
-      <c r="F97" t="s">
-        <v>513</v>
-      </c>
-      <c r="G97" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="H97" t="s">
+        <v>473</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G97" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>195</v>
       </c>
@@ -4590,23 +4299,20 @@
       <c r="C98">
         <v>436.38860899999997</v>
       </c>
-      <c r="D98">
-        <v>436.38860899999997</v>
+      <c r="D98" t="s">
+        <v>473</v>
       </c>
       <c r="E98" t="s">
-        <v>513</v>
-      </c>
-      <c r="F98" t="s">
-        <v>513</v>
-      </c>
-      <c r="G98" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="H98" t="s">
+        <v>473</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G98" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>197</v>
       </c>
@@ -4616,23 +4322,20 @@
       <c r="C99">
         <v>402.63761199999999</v>
       </c>
-      <c r="D99">
-        <v>402.63761199999999</v>
+      <c r="D99" t="s">
+        <v>501</v>
       </c>
       <c r="E99" t="s">
-        <v>501</v>
-      </c>
-      <c r="F99" t="s">
-        <v>515</v>
-      </c>
-      <c r="G99" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H99" t="s">
+        <v>476</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G99" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>199</v>
       </c>
@@ -4642,23 +4345,20 @@
       <c r="C100">
         <v>388.062522</v>
       </c>
-      <c r="D100">
-        <v>388.062522</v>
+      <c r="D100" t="s">
+        <v>473</v>
       </c>
       <c r="E100" t="s">
-        <v>513</v>
-      </c>
-      <c r="F100" t="s">
-        <v>513</v>
-      </c>
-      <c r="G100" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="H100" t="s">
+        <v>473</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G100" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>201</v>
       </c>
@@ -4668,23 +4368,20 @@
       <c r="C101">
         <v>387.13936699999999</v>
       </c>
-      <c r="D101">
-        <v>387.13936699999999</v>
+      <c r="D101" t="s">
+        <v>473</v>
       </c>
       <c r="E101" t="s">
-        <v>513</v>
-      </c>
-      <c r="F101" t="s">
-        <v>513</v>
-      </c>
-      <c r="G101" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="H101" t="s">
+        <v>473</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G101" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>203</v>
       </c>
@@ -4694,23 +4391,20 @@
       <c r="C102">
         <v>373.21048500000001</v>
       </c>
-      <c r="D102">
-        <v>373.21048500000001</v>
+      <c r="D102" t="s">
+        <v>473</v>
       </c>
       <c r="E102" t="s">
-        <v>513</v>
-      </c>
-      <c r="F102" t="s">
-        <v>513</v>
-      </c>
-      <c r="G102" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H102" t="s">
+        <v>473</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G102" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>205</v>
       </c>
@@ -4720,23 +4414,20 @@
       <c r="C103">
         <v>371.65379300000001</v>
       </c>
-      <c r="D103">
-        <v>371.65379300000001</v>
+      <c r="D103" t="s">
+        <v>473</v>
       </c>
       <c r="E103" t="s">
-        <v>513</v>
-      </c>
-      <c r="F103" t="s">
-        <v>513</v>
-      </c>
-      <c r="G103" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="H103" t="s">
+        <v>473</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G103" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>207</v>
       </c>
@@ -4746,23 +4437,20 @@
       <c r="C104">
         <v>367.430454</v>
       </c>
-      <c r="D104">
-        <v>367.430454</v>
+      <c r="D104" t="s">
+        <v>207</v>
       </c>
       <c r="E104" t="s">
+        <v>476</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G104" t="s">
         <v>207</v>
       </c>
-      <c r="F104" t="s">
-        <v>515</v>
-      </c>
-      <c r="G104" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H104" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>209</v>
       </c>
@@ -4772,23 +4460,20 @@
       <c r="C105">
         <v>360.39155599999998</v>
       </c>
-      <c r="D105">
-        <v>360.39155599999998</v>
+      <c r="D105" t="s">
+        <v>496</v>
       </c>
       <c r="E105" t="s">
-        <v>506</v>
-      </c>
-      <c r="F105" t="s">
-        <v>515</v>
-      </c>
-      <c r="G105" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H105" t="s">
+        <v>476</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G105" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>211</v>
       </c>
@@ -4798,23 +4483,20 @@
       <c r="C106">
         <v>338.57097399999998</v>
       </c>
-      <c r="D106">
-        <v>338.57097399999998</v>
+      <c r="D106" t="s">
+        <v>473</v>
       </c>
       <c r="E106" t="s">
-        <v>513</v>
-      </c>
-      <c r="F106" t="s">
-        <v>513</v>
-      </c>
-      <c r="G106" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="H106" t="s">
+        <v>473</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G106" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>213</v>
       </c>
@@ -4824,23 +4506,20 @@
       <c r="C107">
         <v>338.33961199999999</v>
       </c>
-      <c r="D107">
-        <v>338.33961199999999</v>
+      <c r="D107" t="s">
+        <v>473</v>
       </c>
       <c r="E107" t="s">
-        <v>513</v>
-      </c>
-      <c r="F107" t="s">
-        <v>513</v>
-      </c>
-      <c r="G107" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="H107" t="s">
+        <v>473</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G107" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>215</v>
       </c>
@@ -4850,23 +4529,20 @@
       <c r="C108">
         <v>329.29722600000002</v>
       </c>
-      <c r="D108">
-        <v>329.29722600000002</v>
+      <c r="D108" t="s">
+        <v>502</v>
       </c>
       <c r="E108" t="s">
-        <v>532</v>
-      </c>
-      <c r="F108" t="s">
-        <v>515</v>
-      </c>
-      <c r="G108" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H108" t="s">
+        <v>476</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G108" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>217</v>
       </c>
@@ -4876,23 +4552,20 @@
       <c r="C109">
         <v>319.677165</v>
       </c>
-      <c r="D109">
-        <v>319.677165</v>
+      <c r="D109" t="s">
+        <v>473</v>
       </c>
       <c r="E109" t="s">
-        <v>513</v>
-      </c>
-      <c r="F109" t="s">
-        <v>513</v>
-      </c>
-      <c r="G109" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H109" t="s">
+        <v>473</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G109" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>219</v>
       </c>
@@ -4902,23 +4575,20 @@
       <c r="C110">
         <v>315.34261199999997</v>
       </c>
-      <c r="D110">
-        <v>315.34261199999997</v>
+      <c r="D110" t="s">
+        <v>219</v>
       </c>
       <c r="E110" t="s">
+        <v>476</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G110" t="s">
         <v>219</v>
       </c>
-      <c r="F110" t="s">
-        <v>515</v>
-      </c>
-      <c r="G110" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H110" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>221</v>
       </c>
@@ -4928,23 +4598,20 @@
       <c r="C111">
         <v>307.89686599999999</v>
       </c>
-      <c r="D111">
-        <v>307.89686599999999</v>
+      <c r="D111" t="s">
+        <v>473</v>
       </c>
       <c r="E111" t="s">
-        <v>513</v>
-      </c>
-      <c r="F111" t="s">
-        <v>513</v>
-      </c>
-      <c r="G111" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H111" t="s">
+        <v>473</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G111" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>223</v>
       </c>
@@ -4954,23 +4621,20 @@
       <c r="C112">
         <v>306.19204500000001</v>
       </c>
-      <c r="D112">
-        <v>306.19204500000001</v>
+      <c r="D112" t="s">
+        <v>483</v>
       </c>
       <c r="E112" t="s">
-        <v>502</v>
-      </c>
-      <c r="F112" t="s">
-        <v>515</v>
-      </c>
-      <c r="G112" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H112" t="s">
+        <v>476</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G112" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>225</v>
       </c>
@@ -4980,23 +4644,20 @@
       <c r="C113">
         <v>285.11820899999998</v>
       </c>
-      <c r="D113">
-        <v>285.11820899999998</v>
+      <c r="D113" t="s">
+        <v>473</v>
       </c>
       <c r="E113" t="s">
-        <v>513</v>
-      </c>
-      <c r="F113" t="s">
-        <v>513</v>
-      </c>
-      <c r="G113" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="H113" t="s">
+        <v>473</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="G113" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>227</v>
       </c>
@@ -5006,23 +4667,20 @@
       <c r="C114">
         <v>273.90462200000002</v>
       </c>
-      <c r="D114">
-        <v>273.90462200000002</v>
+      <c r="D114" t="s">
+        <v>473</v>
       </c>
       <c r="E114" t="s">
-        <v>513</v>
-      </c>
-      <c r="F114" t="s">
-        <v>513</v>
-      </c>
-      <c r="G114" s="8" t="s">
-        <v>521</v>
-      </c>
-      <c r="H114" t="s">
+        <v>473</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G114" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>229</v>
       </c>
@@ -5032,23 +4690,20 @@
       <c r="C115">
         <v>265.36643900000001</v>
       </c>
-      <c r="D115">
-        <v>265.36643900000001</v>
+      <c r="D115" t="s">
+        <v>503</v>
       </c>
       <c r="E115" t="s">
-        <v>533</v>
-      </c>
-      <c r="F115" t="s">
-        <v>515</v>
-      </c>
-      <c r="G115" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H115" t="s">
+        <v>476</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G115" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>231</v>
       </c>
@@ -5058,23 +4713,20 @@
       <c r="C116">
         <v>248.22898699999999</v>
       </c>
-      <c r="D116">
-        <v>248.22898699999999</v>
+      <c r="D116" t="s">
+        <v>473</v>
       </c>
       <c r="E116" t="s">
-        <v>513</v>
-      </c>
-      <c r="F116" t="s">
-        <v>513</v>
-      </c>
-      <c r="G116" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="H116" t="s">
+        <v>473</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="G116" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>233</v>
       </c>
@@ -5084,23 +4736,20 @@
       <c r="C117">
         <v>237.914738</v>
       </c>
-      <c r="D117">
-        <v>237.914738</v>
+      <c r="D117" t="s">
+        <v>496</v>
       </c>
       <c r="E117" t="s">
-        <v>506</v>
-      </c>
-      <c r="F117" t="s">
-        <v>515</v>
-      </c>
-      <c r="G117" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H117" t="s">
+        <v>476</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G117" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>235</v>
       </c>
@@ -5110,23 +4759,20 @@
       <c r="C118">
         <v>221.053856</v>
       </c>
-      <c r="D118">
-        <v>221.053856</v>
+      <c r="D118" t="s">
+        <v>473</v>
       </c>
       <c r="E118" t="s">
-        <v>513</v>
-      </c>
-      <c r="F118" t="s">
-        <v>513</v>
-      </c>
-      <c r="G118" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H118" t="s">
+        <v>473</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G118" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>237</v>
       </c>
@@ -5136,23 +4782,20 @@
       <c r="C119">
         <v>216.798046</v>
       </c>
-      <c r="D119">
-        <v>216.798046</v>
+      <c r="D119" t="s">
+        <v>237</v>
       </c>
       <c r="E119" t="s">
+        <v>476</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G119" t="s">
         <v>237</v>
       </c>
-      <c r="F119" t="s">
-        <v>515</v>
-      </c>
-      <c r="G119" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H119" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>239</v>
       </c>
@@ -5162,23 +4805,20 @@
       <c r="C120">
         <v>216.798046</v>
       </c>
-      <c r="D120">
-        <v>216.798046</v>
+      <c r="D120" t="s">
+        <v>239</v>
       </c>
       <c r="E120" t="s">
+        <v>476</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G120" t="s">
         <v>239</v>
       </c>
-      <c r="F120" t="s">
-        <v>515</v>
-      </c>
-      <c r="G120" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H120" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>241</v>
       </c>
@@ -5188,23 +4828,20 @@
       <c r="C121">
         <v>209.05525800000001</v>
       </c>
-      <c r="D121">
-        <v>209.05525800000001</v>
+      <c r="D121" t="s">
+        <v>473</v>
       </c>
       <c r="E121" t="s">
-        <v>513</v>
-      </c>
-      <c r="F121" t="s">
-        <v>513</v>
-      </c>
-      <c r="G121" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="H121" t="s">
+        <v>473</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G121" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>243</v>
       </c>
@@ -5214,23 +4851,20 @@
       <c r="C122">
         <v>202.72024999999999</v>
       </c>
-      <c r="D122">
-        <v>202.72024999999999</v>
+      <c r="D122" t="s">
+        <v>473</v>
       </c>
       <c r="E122" t="s">
-        <v>513</v>
-      </c>
-      <c r="F122" t="s">
-        <v>513</v>
-      </c>
-      <c r="G122" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H122" t="s">
+        <v>473</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G122" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>245</v>
       </c>
@@ -5240,23 +4874,20 @@
       <c r="C123">
         <v>199.632282</v>
       </c>
-      <c r="D123">
-        <v>199.632282</v>
+      <c r="D123" t="s">
+        <v>504</v>
       </c>
       <c r="E123" t="s">
-        <v>494</v>
-      </c>
-      <c r="F123" t="s">
-        <v>515</v>
-      </c>
-      <c r="G123" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H123" t="s">
+        <v>476</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G123" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>247</v>
       </c>
@@ -5266,23 +4897,20 @@
       <c r="C124">
         <v>192.161373</v>
       </c>
-      <c r="D124">
-        <v>192.161373</v>
+      <c r="D124" t="s">
+        <v>505</v>
       </c>
       <c r="E124" t="s">
-        <v>534</v>
-      </c>
-      <c r="F124" t="s">
-        <v>515</v>
-      </c>
-      <c r="G124" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H124" t="s">
+        <v>476</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G124" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>249</v>
       </c>
@@ -5292,23 +4920,20 @@
       <c r="C125">
         <v>191.032928</v>
       </c>
-      <c r="D125">
-        <v>191.032928</v>
+      <c r="D125" t="s">
+        <v>473</v>
       </c>
       <c r="E125" t="s">
-        <v>513</v>
-      </c>
-      <c r="F125" t="s">
-        <v>513</v>
-      </c>
-      <c r="G125" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="H125" t="s">
+        <v>473</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="G125" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>251</v>
       </c>
@@ -5318,23 +4943,20 @@
       <c r="C126">
         <v>185.826896</v>
       </c>
-      <c r="D126">
-        <v>185.826896</v>
+      <c r="D126" t="s">
+        <v>473</v>
       </c>
       <c r="E126" t="s">
-        <v>513</v>
-      </c>
-      <c r="F126" t="s">
-        <v>513</v>
-      </c>
-      <c r="G126" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H126" t="s">
+        <v>473</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G126" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>253</v>
       </c>
@@ -5344,23 +4966,20 @@
       <c r="C127">
         <v>177.38021900000001</v>
       </c>
-      <c r="D127">
-        <v>177.38021900000001</v>
+      <c r="D127" t="s">
+        <v>253</v>
       </c>
       <c r="E127" t="s">
+        <v>476</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G127" t="s">
         <v>253</v>
       </c>
-      <c r="F127" t="s">
-        <v>515</v>
-      </c>
-      <c r="G127" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H127" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>255</v>
       </c>
@@ -5370,23 +4989,20 @@
       <c r="C128">
         <v>177.133105</v>
       </c>
-      <c r="D128">
-        <v>177.133105</v>
+      <c r="D128" t="s">
+        <v>473</v>
       </c>
       <c r="E128" t="s">
-        <v>513</v>
-      </c>
-      <c r="F128" t="s">
-        <v>513</v>
-      </c>
-      <c r="G128" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H128" t="s">
+        <v>473</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G128" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>257</v>
       </c>
@@ -5396,23 +5012,20 @@
       <c r="C129">
         <v>166.89995400000001</v>
       </c>
-      <c r="D129">
-        <v>166.89995400000001</v>
+      <c r="D129" t="s">
+        <v>257</v>
       </c>
       <c r="E129" t="s">
+        <v>476</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G129" t="s">
         <v>257</v>
       </c>
-      <c r="F129" t="s">
-        <v>515</v>
-      </c>
-      <c r="G129" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H129" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>259</v>
       </c>
@@ -5422,23 +5035,20 @@
       <c r="C130">
         <v>158.37519599999999</v>
       </c>
-      <c r="D130">
-        <v>158.37519599999999</v>
+      <c r="D130" t="s">
+        <v>259</v>
       </c>
       <c r="E130" t="s">
+        <v>476</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G130" t="s">
         <v>259</v>
       </c>
-      <c r="F130" t="s">
-        <v>515</v>
-      </c>
-      <c r="G130" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H130" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>261</v>
       </c>
@@ -5448,23 +5058,20 @@
       <c r="C131">
         <v>149.579037</v>
       </c>
-      <c r="D131">
-        <v>149.579037</v>
+      <c r="D131" t="s">
+        <v>506</v>
       </c>
       <c r="E131" t="s">
-        <v>535</v>
-      </c>
-      <c r="F131" t="s">
-        <v>515</v>
-      </c>
-      <c r="G131" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H131" t="s">
+        <v>476</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G131" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>263</v>
       </c>
@@ -5474,23 +5081,20 @@
       <c r="C132">
         <v>147.355996</v>
       </c>
-      <c r="D132">
-        <v>147.355996</v>
+      <c r="D132" t="s">
+        <v>473</v>
       </c>
       <c r="E132" t="s">
-        <v>513</v>
-      </c>
-      <c r="F132" t="s">
-        <v>513</v>
-      </c>
-      <c r="G132" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H132" t="s">
+        <v>473</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G132" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>265</v>
       </c>
@@ -5500,23 +5104,20 @@
       <c r="C133">
         <v>137.96239299999999</v>
       </c>
-      <c r="D133">
-        <v>137.96239299999999</v>
+      <c r="D133" t="s">
+        <v>501</v>
       </c>
       <c r="E133" t="s">
-        <v>501</v>
-      </c>
-      <c r="F133" t="s">
-        <v>515</v>
-      </c>
-      <c r="G133" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H133" t="s">
+        <v>476</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G133" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>267</v>
       </c>
@@ -5526,23 +5127,20 @@
       <c r="C134">
         <v>137.29369700000001</v>
       </c>
-      <c r="D134">
-        <v>137.29369700000001</v>
+      <c r="D134" t="s">
+        <v>473</v>
       </c>
       <c r="E134" t="s">
-        <v>513</v>
-      </c>
-      <c r="F134" t="s">
-        <v>513</v>
-      </c>
-      <c r="G134" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H134" t="s">
+        <v>473</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G134" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>269</v>
       </c>
@@ -5552,23 +5150,20 @@
       <c r="C135">
         <v>133.566698</v>
       </c>
-      <c r="D135">
-        <v>133.566698</v>
+      <c r="D135" t="s">
+        <v>269</v>
       </c>
       <c r="E135" t="s">
+        <v>476</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G135" t="s">
         <v>269</v>
       </c>
-      <c r="F135" t="s">
-        <v>515</v>
-      </c>
-      <c r="G135" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H135" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>271</v>
       </c>
@@ -5578,23 +5173,20 @@
       <c r="C136">
         <v>107.033708</v>
       </c>
-      <c r="D136">
-        <v>107.033708</v>
+      <c r="D136" t="s">
+        <v>473</v>
       </c>
       <c r="E136" t="s">
-        <v>513</v>
-      </c>
-      <c r="F136" t="s">
-        <v>513</v>
-      </c>
-      <c r="G136" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H136" t="s">
+        <v>473</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G136" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>273</v>
       </c>
@@ -5604,23 +5196,20 @@
       <c r="C137">
         <v>105.58346400000001</v>
       </c>
-      <c r="D137">
-        <v>105.58346400000001</v>
+      <c r="D137" t="s">
+        <v>503</v>
       </c>
       <c r="E137" t="s">
-        <v>533</v>
-      </c>
-      <c r="F137" t="s">
-        <v>515</v>
-      </c>
-      <c r="G137" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H137" t="s">
+        <v>476</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G137" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>275</v>
       </c>
@@ -5630,23 +5219,20 @@
       <c r="C138">
         <v>103.471795</v>
       </c>
-      <c r="D138">
-        <v>103.471795</v>
+      <c r="D138" t="s">
+        <v>487</v>
       </c>
       <c r="E138" t="s">
-        <v>499</v>
-      </c>
-      <c r="F138" t="s">
-        <v>515</v>
-      </c>
-      <c r="G138" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H138" t="s">
+        <v>476</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G138" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>277</v>
       </c>
@@ -5656,23 +5242,20 @@
       <c r="C139">
         <v>84.466770999999994</v>
       </c>
-      <c r="D139">
-        <v>84.466770999999994</v>
+      <c r="D139" t="s">
+        <v>473</v>
       </c>
       <c r="E139" t="s">
-        <v>513</v>
-      </c>
-      <c r="F139" t="s">
-        <v>513</v>
-      </c>
-      <c r="G139" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H139" t="s">
+        <v>473</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G139" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>279</v>
       </c>
@@ -5682,23 +5265,20 @@
       <c r="C140">
         <v>83.121305000000007</v>
       </c>
-      <c r="D140">
-        <v>83.121305000000007</v>
+      <c r="D140" t="s">
+        <v>507</v>
       </c>
       <c r="E140" t="s">
-        <v>536</v>
-      </c>
-      <c r="F140" t="s">
-        <v>515</v>
-      </c>
-      <c r="G140" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H140" t="s">
+        <v>476</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G140" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>281</v>
       </c>
@@ -5708,23 +5288,20 @@
       <c r="C141">
         <v>73.908424999999994</v>
       </c>
-      <c r="D141">
-        <v>73.908424999999994</v>
+      <c r="D141" t="s">
+        <v>473</v>
       </c>
       <c r="E141" t="s">
-        <v>513</v>
-      </c>
-      <c r="F141" t="s">
-        <v>513</v>
-      </c>
-      <c r="G141" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H141" t="s">
+        <v>473</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G141" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>283</v>
       </c>
@@ -5734,23 +5311,20 @@
       <c r="C142">
         <v>56.943728</v>
       </c>
-      <c r="D142">
-        <v>56.943728</v>
+      <c r="D142" t="s">
+        <v>473</v>
       </c>
       <c r="E142" t="s">
-        <v>513</v>
-      </c>
-      <c r="F142" t="s">
-        <v>513</v>
-      </c>
-      <c r="G142" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H142" t="s">
+        <v>473</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G142" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>285</v>
       </c>
@@ -5760,23 +5334,20 @@
       <c r="C143">
         <v>54.199511000000001</v>
       </c>
-      <c r="D143">
-        <v>54.199511000000001</v>
+      <c r="D143" t="s">
+        <v>476</v>
       </c>
       <c r="E143" t="s">
-        <v>515</v>
-      </c>
-      <c r="F143" t="s">
-        <v>513</v>
-      </c>
-      <c r="G143" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H143" t="s">
+        <v>473</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G143" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>287</v>
       </c>
@@ -5786,23 +5357,20 @@
       <c r="C144">
         <v>47.626941000000002</v>
       </c>
-      <c r="D144">
-        <v>47.626941000000002</v>
+      <c r="D144" t="s">
+        <v>473</v>
       </c>
       <c r="E144" t="s">
-        <v>513</v>
-      </c>
-      <c r="F144" t="s">
-        <v>513</v>
-      </c>
-      <c r="G144" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H144" t="s">
+        <v>473</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G144" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>289</v>
       </c>
@@ -5812,23 +5380,20 @@
       <c r="C145">
         <v>45.752834</v>
       </c>
-      <c r="D145">
-        <v>45.752834</v>
+      <c r="D145" t="s">
+        <v>473</v>
       </c>
       <c r="E145" t="s">
-        <v>513</v>
-      </c>
-      <c r="F145" t="s">
-        <v>513</v>
-      </c>
-      <c r="G145" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="H145" t="s">
+        <v>473</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G145" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>291</v>
       </c>
@@ -5838,23 +5403,20 @@
       <c r="C146">
         <v>22.524471999999999</v>
       </c>
-      <c r="D146">
-        <v>22.524471999999999</v>
+      <c r="D146" t="s">
+        <v>291</v>
       </c>
       <c r="E146" t="s">
+        <v>476</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G146" t="s">
         <v>291</v>
       </c>
-      <c r="F146" t="s">
-        <v>515</v>
-      </c>
-      <c r="G146" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H146" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>293</v>
       </c>
@@ -5864,19 +5426,16 @@
       <c r="C147">
         <v>17.542418000000001</v>
       </c>
-      <c r="D147">
-        <v>17.542418000000001</v>
+      <c r="D147" t="s">
+        <v>473</v>
       </c>
       <c r="E147" t="s">
-        <v>513</v>
-      </c>
-      <c r="F147" t="s">
-        <v>513</v>
-      </c>
-      <c r="G147" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H147" t="s">
+        <v>473</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G147" t="s">
         <v>293</v>
       </c>
     </row>
@@ -5886,10 +5445,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE415A6-DB08-447C-8A05-3C11ED9C5276}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F95B53-D338-4D39-B002-74B1F5A9FF78}">
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:H1048576"/>
     </sheetView>
   </sheetViews>
@@ -5903,22 +5462,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>469</v>
+        <v>508</v>
       </c>
       <c r="D1" t="s">
-        <v>470</v>
+        <v>509</v>
       </c>
       <c r="E1" t="s">
-        <v>471</v>
+        <v>510</v>
       </c>
       <c r="F1" t="s">
         <v>472</v>
       </c>
       <c r="G1" t="s">
-        <v>473</v>
+        <v>511</v>
       </c>
       <c r="H1" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -5932,19 +5491,19 @@
         <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>475</v>
-      </c>
-      <c r="E2" s="1">
+        <v>513</v>
+      </c>
+      <c r="E2" s="3">
         <v>1732320</v>
       </c>
       <c r="F2" t="s">
         <v>295</v>
       </c>
       <c r="G2" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H2" t="s">
-        <v>476</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -5957,20 +5516,20 @@
       <c r="C3" t="s">
         <v>477</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="E3" s="4">
         <v>592000</v>
       </c>
       <c r="F3" t="s">
         <v>297</v>
       </c>
       <c r="G3" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H3" t="s">
-        <v>479</v>
+        <v>516</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -5983,20 +5542,20 @@
       <c r="C4" t="s">
         <v>477</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="E4" s="5">
         <v>938</v>
       </c>
       <c r="F4" t="s">
         <v>299</v>
       </c>
       <c r="G4" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H4" t="s">
-        <v>481</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -6010,19 +5569,19 @@
         <v>477</v>
       </c>
       <c r="D5" t="s">
-        <v>482</v>
-      </c>
-      <c r="E5" s="2">
+        <v>519</v>
+      </c>
+      <c r="E5" s="4">
         <v>50412.010999999999</v>
       </c>
       <c r="F5" t="s">
         <v>301</v>
       </c>
       <c r="G5" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H5" t="s">
-        <v>483</v>
+        <v>520</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -6036,19 +5595,19 @@
         <v>477</v>
       </c>
       <c r="D6" t="s">
-        <v>484</v>
-      </c>
-      <c r="E6" s="2">
+        <v>521</v>
+      </c>
+      <c r="E6" s="4">
         <v>40142.316980000003</v>
       </c>
       <c r="F6" t="s">
         <v>303</v>
       </c>
       <c r="G6" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H6" t="s">
-        <v>485</v>
+        <v>522</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -6061,8 +5620,8 @@
       <c r="C7" t="s">
         <v>477</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>486</v>
+      <c r="D7" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="E7">
         <v>170.20000000000002</v>
@@ -6071,10 +5630,10 @@
         <v>305</v>
       </c>
       <c r="G7" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H7" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -6087,8 +5646,8 @@
       <c r="C8" t="s">
         <v>477</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>486</v>
+      <c r="D8" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="E8">
         <v>92</v>
@@ -6097,10 +5656,10 @@
         <v>307</v>
       </c>
       <c r="G8" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H8" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -6113,8 +5672,8 @@
       <c r="C9" t="s">
         <v>477</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>486</v>
+      <c r="D9" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="E9">
         <v>72.680000000000007</v>
@@ -6123,10 +5682,10 @@
         <v>309</v>
       </c>
       <c r="G9" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H9" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -6139,8 +5698,8 @@
       <c r="C10" t="s">
         <v>477</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>486</v>
+      <c r="D10" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="E10">
         <v>55.2</v>
@@ -6149,10 +5708,10 @@
         <v>311</v>
       </c>
       <c r="G10" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H10" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -6163,22 +5722,22 @@
         <v>314</v>
       </c>
       <c r="C11" t="s">
-        <v>488</v>
+        <v>525</v>
       </c>
       <c r="D11" t="s">
-        <v>482</v>
-      </c>
-      <c r="E11" s="2">
+        <v>519</v>
+      </c>
+      <c r="E11" s="4">
         <v>477438.75</v>
       </c>
       <c r="F11" t="s">
         <v>313</v>
       </c>
       <c r="G11" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H11" t="s">
-        <v>483</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -6189,22 +5748,22 @@
         <v>316</v>
       </c>
       <c r="C12" t="s">
-        <v>488</v>
+        <v>525</v>
       </c>
       <c r="D12" t="s">
-        <v>484</v>
-      </c>
-      <c r="E12" s="2">
+        <v>521</v>
+      </c>
+      <c r="E12" s="4">
         <v>2864.4</v>
       </c>
       <c r="F12" t="s">
         <v>315</v>
       </c>
       <c r="G12" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H12" t="s">
-        <v>485</v>
+        <v>522</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -6215,22 +5774,22 @@
         <v>318</v>
       </c>
       <c r="C13" t="s">
-        <v>489</v>
+        <v>526</v>
       </c>
       <c r="D13" t="s">
-        <v>484</v>
-      </c>
-      <c r="E13" s="2">
+        <v>521</v>
+      </c>
+      <c r="E13" s="4">
         <v>14857.68302</v>
       </c>
       <c r="F13" t="s">
         <v>317</v>
       </c>
       <c r="G13" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H13" t="s">
-        <v>485</v>
+        <v>522</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -6241,22 +5800,22 @@
         <v>320</v>
       </c>
       <c r="C14" t="s">
-        <v>489</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="E14" s="3">
+        <v>526</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="E14" s="5">
         <v>11474</v>
       </c>
       <c r="F14" t="s">
         <v>319</v>
       </c>
       <c r="G14" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H14" t="s">
-        <v>481</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -6267,22 +5826,22 @@
         <v>322</v>
       </c>
       <c r="C15" t="s">
-        <v>489</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="E15" s="4">
+        <v>526</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="E15" s="6">
         <v>5258100</v>
       </c>
       <c r="F15" t="s">
         <v>321</v>
       </c>
       <c r="G15" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H15" t="s">
-        <v>491</v>
+        <v>528</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -6293,22 +5852,22 @@
         <v>324</v>
       </c>
       <c r="C16" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="D16" t="s">
-        <v>482</v>
-      </c>
-      <c r="E16" s="2">
+        <v>519</v>
+      </c>
+      <c r="E16" s="4">
         <v>84960.372700000007</v>
       </c>
       <c r="F16" t="s">
         <v>323</v>
       </c>
       <c r="G16" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H16" t="s">
-        <v>483</v>
+        <v>520</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -6318,23 +5877,23 @@
       <c r="B17" t="s">
         <v>326</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="E17" s="6">
+      <c r="C17" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="E17" s="8">
         <v>0</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>493</v>
+      <c r="G17" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -6345,22 +5904,22 @@
         <v>328</v>
       </c>
       <c r="C18" t="s">
-        <v>494</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="E18" s="6">
+        <v>504</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="E18" s="8">
         <v>0</v>
       </c>
       <c r="F18" t="s">
         <v>327</v>
       </c>
       <c r="G18" t="s">
-        <v>474</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>493</v>
+        <v>512</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -6371,22 +5930,22 @@
         <v>330</v>
       </c>
       <c r="C19" t="s">
-        <v>495</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="E19" s="6">
+        <v>530</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="E19" s="8">
         <v>0</v>
       </c>
       <c r="F19" t="s">
         <v>329</v>
       </c>
       <c r="G19" t="s">
-        <v>474</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>493</v>
+        <v>512</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -6397,22 +5956,22 @@
         <v>332</v>
       </c>
       <c r="C20" t="s">
-        <v>496</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="E20" s="2">
+        <v>480</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="E20" s="4">
         <v>48.300000000000004</v>
       </c>
       <c r="F20" t="s">
         <v>331</v>
       </c>
       <c r="G20" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H20" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -6423,10 +5982,10 @@
         <v>334</v>
       </c>
       <c r="C21" t="s">
-        <v>489</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>486</v>
+        <v>526</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="E21">
         <v>151.80000000000001</v>
@@ -6435,10 +5994,10 @@
         <v>333</v>
       </c>
       <c r="G21" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H21" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -6449,10 +6008,10 @@
         <v>336</v>
       </c>
       <c r="C22" t="s">
-        <v>489</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>486</v>
+        <v>526</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="E22">
         <v>151.80000000000001</v>
@@ -6461,10 +6020,10 @@
         <v>335</v>
       </c>
       <c r="G22" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H22" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -6475,10 +6034,10 @@
         <v>338</v>
       </c>
       <c r="C23" t="s">
-        <v>489</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>486</v>
+        <v>526</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="E23">
         <v>107.64000000000001</v>
@@ -6487,10 +6046,10 @@
         <v>337</v>
       </c>
       <c r="G23" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H23" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -6501,10 +6060,10 @@
         <v>340</v>
       </c>
       <c r="C24" t="s">
-        <v>489</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>486</v>
+        <v>526</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="E24">
         <v>107.64000000000001</v>
@@ -6513,10 +6072,10 @@
         <v>339</v>
       </c>
       <c r="G24" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H24" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -6527,10 +6086,10 @@
         <v>342</v>
       </c>
       <c r="C25" t="s">
-        <v>489</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>486</v>
+        <v>526</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="E25">
         <v>460</v>
@@ -6539,10 +6098,10 @@
         <v>341</v>
       </c>
       <c r="G25" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H25" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -6553,10 +6112,10 @@
         <v>344</v>
       </c>
       <c r="C26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>486</v>
+        <v>480</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="E26">
         <v>60.720000000000006</v>
@@ -6565,10 +6124,10 @@
         <v>343</v>
       </c>
       <c r="G26" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H26" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -6578,23 +6137,23 @@
       <c r="B27" t="s">
         <v>346</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="E27" s="5">
+      <c r="C27" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="E27" s="7">
         <v>0</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>493</v>
+      <c r="G27" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -6605,10 +6164,10 @@
         <v>348</v>
       </c>
       <c r="C28" t="s">
-        <v>496</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>486</v>
+        <v>480</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="E28">
         <v>69.92</v>
@@ -6617,10 +6176,10 @@
         <v>347</v>
       </c>
       <c r="G28" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H28" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -6631,10 +6190,10 @@
         <v>350</v>
       </c>
       <c r="C29" t="s">
-        <v>496</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>486</v>
+        <v>480</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="E29">
         <v>92</v>
@@ -6643,10 +6202,10 @@
         <v>349</v>
       </c>
       <c r="G29" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H29" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -6657,22 +6216,22 @@
         <v>352</v>
       </c>
       <c r="C30" t="s">
-        <v>497</v>
+        <v>531</v>
       </c>
       <c r="D30" t="s">
-        <v>484</v>
-      </c>
-      <c r="E30" s="2">
+        <v>521</v>
+      </c>
+      <c r="E30" s="4">
         <v>5558.8207439999996</v>
       </c>
       <c r="F30" t="s">
         <v>351</v>
       </c>
       <c r="G30" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H30" t="s">
-        <v>485</v>
+        <v>522</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -6683,22 +6242,22 @@
         <v>354</v>
       </c>
       <c r="C31" t="s">
-        <v>497</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="E31" s="4">
+        <v>531</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="E31" s="6">
         <v>2808400</v>
       </c>
       <c r="F31" t="s">
         <v>353</v>
       </c>
       <c r="G31" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H31" t="s">
-        <v>491</v>
+        <v>528</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -6709,22 +6268,22 @@
         <v>356</v>
       </c>
       <c r="C32" t="s">
-        <v>497</v>
+        <v>531</v>
       </c>
       <c r="D32" t="s">
-        <v>484</v>
-      </c>
-      <c r="E32" s="2">
+        <v>521</v>
+      </c>
+      <c r="E32" s="4">
         <v>5558.8207439999996</v>
       </c>
       <c r="F32" t="s">
         <v>355</v>
       </c>
       <c r="G32" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H32" t="s">
-        <v>485</v>
+        <v>522</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -6735,22 +6294,22 @@
         <v>358</v>
       </c>
       <c r="C33" t="s">
-        <v>498</v>
+        <v>532</v>
       </c>
       <c r="D33" t="s">
-        <v>484</v>
-      </c>
-      <c r="E33" s="2">
+        <v>521</v>
+      </c>
+      <c r="E33" s="4">
         <v>8359.6771829999998</v>
       </c>
       <c r="F33" t="s">
         <v>357</v>
       </c>
       <c r="G33" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H33" t="s">
-        <v>485</v>
+        <v>522</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -6760,23 +6319,23 @@
       <c r="B34" t="s">
         <v>360</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="E34" s="5">
+      <c r="C34" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="E34" s="7">
         <v>0</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="G34" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>493</v>
+      <c r="G34" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -6787,22 +6346,22 @@
         <v>362</v>
       </c>
       <c r="C35" t="s">
-        <v>498</v>
+        <v>532</v>
       </c>
       <c r="D35" t="s">
-        <v>484</v>
-      </c>
-      <c r="E35" s="2">
+        <v>521</v>
+      </c>
+      <c r="E35" s="4">
         <v>8359.6771829999998</v>
       </c>
       <c r="F35" t="s">
         <v>361</v>
       </c>
       <c r="G35" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H35" t="s">
-        <v>485</v>
+        <v>522</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -6813,22 +6372,22 @@
         <v>364</v>
       </c>
       <c r="C36" t="s">
-        <v>498</v>
+        <v>532</v>
       </c>
       <c r="D36" t="s">
-        <v>482</v>
-      </c>
-      <c r="E36" s="2">
+        <v>519</v>
+      </c>
+      <c r="E36" s="4">
         <v>37659.260040000001</v>
       </c>
       <c r="F36" t="s">
         <v>363</v>
       </c>
       <c r="G36" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H36" t="s">
-        <v>483</v>
+        <v>520</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -6839,10 +6398,10 @@
         <v>366</v>
       </c>
       <c r="C37" t="s">
-        <v>498</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>486</v>
+        <v>532</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="E37">
         <v>57.960000000000008</v>
@@ -6851,10 +6410,10 @@
         <v>365</v>
       </c>
       <c r="G37" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H37" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -6865,22 +6424,22 @@
         <v>368</v>
       </c>
       <c r="C38" t="s">
-        <v>498</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="E38" s="7">
+        <v>532</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="E38" s="9">
         <v>1017.817839</v>
       </c>
       <c r="F38" t="s">
         <v>367</v>
       </c>
       <c r="G38" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H38" t="s">
-        <v>481</v>
+        <v>518</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -6891,22 +6450,22 @@
         <v>370</v>
       </c>
       <c r="C39" t="s">
-        <v>492</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="E39" s="4">
+        <v>475</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="E39" s="6">
         <v>8698800</v>
       </c>
       <c r="F39" t="s">
         <v>369</v>
       </c>
       <c r="G39" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H39" t="s">
-        <v>491</v>
+        <v>528</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -6917,10 +6476,10 @@
         <v>372</v>
       </c>
       <c r="C40" t="s">
-        <v>498</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>486</v>
+        <v>532</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="E40">
         <v>47.84</v>
@@ -6929,10 +6488,10 @@
         <v>371</v>
       </c>
       <c r="G40" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H40" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -6943,10 +6502,10 @@
         <v>374</v>
       </c>
       <c r="C41" t="s">
-        <v>498</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>486</v>
+        <v>532</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="E41">
         <v>58.88</v>
@@ -6955,10 +6514,10 @@
         <v>373</v>
       </c>
       <c r="G41" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H41" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -6969,22 +6528,22 @@
         <v>376</v>
       </c>
       <c r="C42" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="D42" t="s">
-        <v>484</v>
-      </c>
-      <c r="E42" s="2">
+        <v>521</v>
+      </c>
+      <c r="E42" s="4">
         <v>18859.671920000001</v>
       </c>
       <c r="F42" t="s">
         <v>375</v>
       </c>
       <c r="G42" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H42" t="s">
-        <v>485</v>
+        <v>522</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -6995,10 +6554,10 @@
         <v>378</v>
       </c>
       <c r="C43" t="s">
-        <v>492</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>486</v>
+        <v>475</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="E43">
         <v>115.46</v>
@@ -7007,10 +6566,10 @@
         <v>377</v>
       </c>
       <c r="G43" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H43" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -7023,20 +6582,20 @@
       <c r="C44" t="s">
         <v>477</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="E44" s="4">
+      <c r="D44" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="E44" s="6">
         <v>9767500</v>
       </c>
       <c r="F44" t="s">
         <v>379</v>
       </c>
       <c r="G44" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H44" t="s">
-        <v>491</v>
+        <v>528</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -7047,10 +6606,10 @@
         <v>382</v>
       </c>
       <c r="C45" t="s">
-        <v>492</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>486</v>
+        <v>475</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="E45">
         <v>77.28</v>
@@ -7059,10 +6618,10 @@
         <v>381</v>
       </c>
       <c r="G45" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H45" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -7073,10 +6632,10 @@
         <v>384</v>
       </c>
       <c r="C46" t="s">
-        <v>492</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>486</v>
+        <v>475</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="E46">
         <v>62.1</v>
@@ -7085,10 +6644,10 @@
         <v>383</v>
       </c>
       <c r="G46" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H46" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -7099,10 +6658,10 @@
         <v>386</v>
       </c>
       <c r="C47" t="s">
-        <v>492</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>486</v>
+        <v>475</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="E47">
         <v>62.1</v>
@@ -7111,10 +6670,10 @@
         <v>385</v>
       </c>
       <c r="G47" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H47" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -7124,23 +6683,23 @@
       <c r="B48" t="s">
         <v>388</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="E48" s="5">
+      <c r="C48" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="E48" s="7">
         <v>0</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="G48" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>493</v>
+      <c r="G48" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -7150,23 +6709,23 @@
       <c r="B49" t="s">
         <v>390</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="E49" s="5">
+      <c r="C49" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="E49" s="7">
         <v>0</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="G49" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>493</v>
+      <c r="G49" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -7177,22 +6736,22 @@
         <v>392</v>
       </c>
       <c r="C50" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="D50" t="s">
-        <v>484</v>
-      </c>
-      <c r="E50" s="2">
+        <v>521</v>
+      </c>
+      <c r="E50" s="4">
         <v>10324.136979999999</v>
       </c>
       <c r="F50" t="s">
         <v>391</v>
       </c>
       <c r="G50" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H50" t="s">
-        <v>485</v>
+        <v>522</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -7203,10 +6762,10 @@
         <v>394</v>
       </c>
       <c r="C51" t="s">
-        <v>499</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="E51">
         <v>151.34</v>
@@ -7215,10 +6774,10 @@
         <v>393</v>
       </c>
       <c r="G51" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H51" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -7229,10 +6788,10 @@
         <v>396</v>
       </c>
       <c r="C52" t="s">
-        <v>499</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="E52">
         <v>90.62</v>
@@ -7241,10 +6800,10 @@
         <v>395</v>
       </c>
       <c r="G52" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H52" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -7255,10 +6814,10 @@
         <v>398</v>
       </c>
       <c r="C53" t="s">
-        <v>499</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="E53">
         <v>64.400000000000006</v>
@@ -7267,10 +6826,10 @@
         <v>397</v>
       </c>
       <c r="G53" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H53" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -7281,10 +6840,10 @@
         <v>400</v>
       </c>
       <c r="C54" t="s">
-        <v>499</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="E54">
         <v>64.400000000000006</v>
@@ -7293,10 +6852,10 @@
         <v>399</v>
       </c>
       <c r="G54" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H54" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -7307,22 +6866,22 @@
         <v>402</v>
       </c>
       <c r="C55" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="D55" t="s">
-        <v>482</v>
-      </c>
-      <c r="E55" s="2">
+        <v>519</v>
+      </c>
+      <c r="E55" s="4">
         <v>46508.896309999996</v>
       </c>
       <c r="F55" t="s">
         <v>401</v>
       </c>
       <c r="G55" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H55" t="s">
-        <v>483</v>
+        <v>520</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -7333,22 +6892,22 @@
         <v>404</v>
       </c>
       <c r="C56" t="s">
-        <v>500</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="E56" s="7">
+        <v>485</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="E56" s="9">
         <v>1761.4671989999999</v>
       </c>
       <c r="F56" t="s">
         <v>403</v>
       </c>
       <c r="G56" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H56" t="s">
-        <v>481</v>
+        <v>518</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -7359,10 +6918,10 @@
         <v>406</v>
       </c>
       <c r="C57" t="s">
-        <v>500</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="E57">
         <v>164.68</v>
@@ -7371,10 +6930,10 @@
         <v>405</v>
       </c>
       <c r="G57" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H57" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -7385,10 +6944,10 @@
         <v>408</v>
       </c>
       <c r="C58" t="s">
-        <v>500</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="E58">
         <v>155.47999999999999</v>
@@ -7397,10 +6956,10 @@
         <v>407</v>
       </c>
       <c r="G58" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H58" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -7411,10 +6970,10 @@
         <v>410</v>
       </c>
       <c r="C59" t="s">
-        <v>500</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="E59">
         <v>124.2</v>
@@ -7423,10 +6982,10 @@
         <v>409</v>
       </c>
       <c r="G59" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H59" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -7437,10 +6996,10 @@
         <v>412</v>
       </c>
       <c r="C60" t="s">
-        <v>500</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="E60">
         <v>124.2</v>
@@ -7449,10 +7008,10 @@
         <v>411</v>
       </c>
       <c r="G60" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H60" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -7463,22 +7022,22 @@
         <v>414</v>
       </c>
       <c r="C61" t="s">
-        <v>499</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="E61" s="4">
+        <v>487</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="E61" s="6">
         <v>11845000</v>
       </c>
       <c r="F61" t="s">
         <v>413</v>
       </c>
       <c r="G61" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H61" t="s">
-        <v>491</v>
+        <v>528</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -7489,10 +7048,10 @@
         <v>416</v>
       </c>
       <c r="C62" t="s">
-        <v>500</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="E62">
         <v>92.92</v>
@@ -7501,10 +7060,10 @@
         <v>415</v>
       </c>
       <c r="G62" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H62" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -7515,10 +7074,10 @@
         <v>418</v>
       </c>
       <c r="C63" t="s">
-        <v>500</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="E63">
         <v>50.14</v>
@@ -7527,10 +7086,10 @@
         <v>417</v>
       </c>
       <c r="G63" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H63" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -7541,10 +7100,10 @@
         <v>420</v>
       </c>
       <c r="C64" t="s">
-        <v>500</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="E64">
         <v>50.14</v>
@@ -7553,10 +7112,10 @@
         <v>419</v>
       </c>
       <c r="G64" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H64" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -7567,10 +7126,10 @@
         <v>422</v>
       </c>
       <c r="C65" t="s">
-        <v>500</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="E65">
         <v>55.2</v>
@@ -7579,10 +7138,10 @@
         <v>421</v>
       </c>
       <c r="G65" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H65" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -7593,10 +7152,10 @@
         <v>424</v>
       </c>
       <c r="C66" t="s">
-        <v>500</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="E66">
         <v>57.5</v>
@@ -7605,10 +7164,10 @@
         <v>423</v>
       </c>
       <c r="G66" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H66" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -7619,22 +7178,22 @@
         <v>426</v>
       </c>
       <c r="C67" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="D67" t="s">
-        <v>484</v>
-      </c>
-      <c r="E67" s="2">
+        <v>521</v>
+      </c>
+      <c r="E67" s="4">
         <v>14467.517260000001</v>
       </c>
       <c r="F67" t="s">
         <v>425</v>
       </c>
       <c r="G67" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H67" t="s">
-        <v>485</v>
+        <v>522</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -7645,22 +7204,22 @@
         <v>428</v>
       </c>
       <c r="C68" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="D68" t="s">
-        <v>482</v>
-      </c>
-      <c r="E68" s="2">
+        <v>519</v>
+      </c>
+      <c r="E68" s="4">
         <v>65174.286350000002</v>
       </c>
       <c r="F68" t="s">
         <v>427</v>
       </c>
       <c r="G68" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H68" t="s">
-        <v>483</v>
+        <v>520</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -7671,22 +7230,22 @@
         <v>430</v>
       </c>
       <c r="C69" t="s">
-        <v>500</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="E69" s="4">
+        <v>485</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="E69" s="6">
         <v>10739000</v>
       </c>
       <c r="F69" t="s">
         <v>429</v>
       </c>
       <c r="G69" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H69" t="s">
-        <v>491</v>
+        <v>528</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -7699,8 +7258,8 @@
       <c r="C70" t="s">
         <v>501</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>486</v>
+      <c r="D70" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="E70">
         <v>51.52</v>
@@ -7709,10 +7268,10 @@
         <v>431</v>
       </c>
       <c r="G70" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H70" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -7723,22 +7282,22 @@
         <v>434</v>
       </c>
       <c r="C71" t="s">
-        <v>502</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="E71" s="5">
+        <v>483</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="E71" s="7">
         <v>0</v>
       </c>
       <c r="F71" t="s">
         <v>433</v>
       </c>
-      <c r="G71" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>493</v>
+      <c r="G71" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -7749,22 +7308,22 @@
         <v>436</v>
       </c>
       <c r="C72" t="s">
-        <v>502</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="E72" s="5">
+        <v>483</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="E72" s="7">
         <v>0</v>
       </c>
       <c r="F72" t="s">
         <v>435</v>
       </c>
-      <c r="G72" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>493</v>
+      <c r="G72" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -7774,23 +7333,23 @@
       <c r="B73" t="s">
         <v>438</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="E73" s="5">
+      <c r="D73" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="E73" s="7">
         <v>0</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="F73" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="G73" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>493</v>
+      <c r="G73" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -7801,22 +7360,22 @@
         <v>440</v>
       </c>
       <c r="C74" t="s">
-        <v>503</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="E74" s="7">
+        <v>499</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="E74" s="9">
         <v>1256.997198</v>
       </c>
       <c r="F74" t="s">
         <v>439</v>
       </c>
       <c r="G74" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H74" t="s">
-        <v>481</v>
+        <v>518</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -7827,22 +7386,22 @@
         <v>442</v>
       </c>
       <c r="C75" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D75" t="s">
-        <v>484</v>
-      </c>
-      <c r="E75" s="2">
+        <v>521</v>
+      </c>
+      <c r="E75" s="4">
         <v>10324.136979999999</v>
       </c>
       <c r="F75" t="s">
         <v>441</v>
       </c>
       <c r="G75" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H75" t="s">
-        <v>485</v>
+        <v>522</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -7853,22 +7412,22 @@
         <v>444</v>
       </c>
       <c r="C76" t="s">
-        <v>504</v>
+        <v>533</v>
       </c>
       <c r="D76" t="s">
-        <v>484</v>
-      </c>
-      <c r="E76" s="2">
+        <v>521</v>
+      </c>
+      <c r="E76" s="4">
         <v>10028.18125</v>
       </c>
       <c r="F76" t="s">
         <v>443</v>
       </c>
       <c r="G76" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H76" t="s">
-        <v>485</v>
+        <v>522</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -7879,22 +7438,22 @@
         <v>446</v>
       </c>
       <c r="C77" t="s">
-        <v>505</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="E77" s="7">
+        <v>534</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="E77" s="9">
         <v>1220.963626</v>
       </c>
       <c r="F77" t="s">
         <v>445</v>
       </c>
       <c r="G77" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H77" t="s">
-        <v>481</v>
+        <v>518</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -7905,10 +7464,10 @@
         <v>448</v>
       </c>
       <c r="C78" t="s">
-        <v>505</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>486</v>
+        <v>534</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="E78">
         <v>52.44</v>
@@ -7917,10 +7476,10 @@
         <v>447</v>
       </c>
       <c r="G78" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H78" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -7931,10 +7490,10 @@
         <v>450</v>
       </c>
       <c r="C79" t="s">
-        <v>505</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>486</v>
+        <v>534</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="E79">
         <v>57.96</v>
@@ -7943,10 +7502,10 @@
         <v>449</v>
       </c>
       <c r="G79" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H79" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -7957,22 +7516,22 @@
         <v>452</v>
       </c>
       <c r="C80" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="D80" t="s">
-        <v>484</v>
-      </c>
-      <c r="E80" s="2">
+        <v>521</v>
+      </c>
+      <c r="E80" s="4">
         <v>11199.13654</v>
       </c>
       <c r="F80" t="s">
         <v>451</v>
       </c>
       <c r="G80" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H80" t="s">
-        <v>485</v>
+        <v>522</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -7983,22 +7542,22 @@
         <v>454</v>
       </c>
       <c r="C81" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="D81" t="s">
-        <v>482</v>
-      </c>
-      <c r="E81" s="2">
+        <v>519</v>
+      </c>
+      <c r="E81" s="4">
         <v>50450.655700000003</v>
       </c>
       <c r="F81" t="s">
         <v>453</v>
       </c>
       <c r="G81" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H81" t="s">
-        <v>483</v>
+        <v>520</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -8009,10 +7568,10 @@
         <v>456</v>
       </c>
       <c r="C82" t="s">
-        <v>506</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>486</v>
+        <v>496</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="E82">
         <v>133.4</v>
@@ -8021,10 +7580,10 @@
         <v>455</v>
       </c>
       <c r="G82" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H82" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -8035,10 +7594,10 @@
         <v>458</v>
       </c>
       <c r="C83" t="s">
-        <v>506</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>486</v>
+        <v>496</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="E83">
         <v>64.400000000000006</v>
@@ -8047,10 +7606,10 @@
         <v>457</v>
       </c>
       <c r="G83" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H83" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -8061,10 +7620,10 @@
         <v>460</v>
       </c>
       <c r="C84" t="s">
-        <v>507</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>475</v>
+        <v>493</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>513</v>
       </c>
       <c r="E84">
         <v>8625000</v>
@@ -8073,10 +7632,10 @@
         <v>459</v>
       </c>
       <c r="G84" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H84" t="s">
-        <v>476</v>
+        <v>514</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -8087,22 +7646,22 @@
         <v>462</v>
       </c>
       <c r="C85" t="s">
-        <v>508</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="E85" s="5">
+        <v>535</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="E85" s="7">
         <v>0</v>
       </c>
       <c r="F85" t="s">
         <v>461</v>
       </c>
-      <c r="G85" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="H85" s="5" t="s">
-        <v>493</v>
+      <c r="G85" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -8113,22 +7672,22 @@
         <v>464</v>
       </c>
       <c r="C86" t="s">
-        <v>499</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="E86" s="7">
+        <v>487</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="E86" s="9">
         <v>1256.997198</v>
       </c>
       <c r="F86" t="s">
         <v>463</v>
       </c>
       <c r="G86" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H86" t="s">
-        <v>481</v>
+        <v>518</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -8139,10 +7698,10 @@
         <v>466</v>
       </c>
       <c r="C87" t="s">
-        <v>509</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>486</v>
+        <v>536</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="E87">
         <v>147.19999999999999</v>
@@ -8151,10 +7710,10 @@
         <v>465</v>
       </c>
       <c r="G87" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H87" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -8165,10 +7724,10 @@
         <v>468</v>
       </c>
       <c r="C88" t="s">
-        <v>509</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>486</v>
+        <v>536</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="E88">
         <v>123.28</v>
@@ -8177,10 +7736,10 @@
         <v>467</v>
       </c>
       <c r="G88" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="H88" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>

--- a/Node_Information_TU.xlsx
+++ b/Node_Information_TU.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TU DELFT - Master Thesis\Foodcycle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52EEFD90-ACC0-4FD4-AFFE-D9C689EAAA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7079038-05BB-40B0-9F9E-C51E501CF014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{FE7D1687-5240-4C84-B0AC-6581024682DD}"/>
   </bookViews>
@@ -5449,7 +5449,7 @@
   <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:H1048576"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5520,7 +5520,7 @@
         <v>515</v>
       </c>
       <c r="E3" s="4">
-        <v>592000</v>
+        <v>3360</v>
       </c>
       <c r="F3" t="s">
         <v>297</v>
